--- a/DB/오후3조 Channel_KGV 테이블 명세서.xlsx
+++ b/DB/오후3조 Channel_KGV 테이블 명세서.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cropr\Desktop\FINAL_PROJECT\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86DFB2D1-6198-42D5-B6A1-0F7EB7B27BA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC2FB55A-8F69-4E42-B3FB-E81845CC9ADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="480" windowWidth="38640" windowHeight="21240" xr2:uid="{BB9CF8A4-12E5-4296-9F19-D4219680D6A5}"/>
+    <workbookView xWindow="-15660" yWindow="2085" windowWidth="15195" windowHeight="12210" xr2:uid="{BB9CF8A4-12E5-4296-9F19-D4219680D6A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$222</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$226</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="360">
   <si>
     <t>번호</t>
   </si>
@@ -622,9 +622,6 @@
     <t>EVENT_NO</t>
   </si>
   <si>
-    <t>아벤트번호</t>
-  </si>
-  <si>
     <t>EVENT_TITLE</t>
   </si>
   <si>
@@ -926,10 +923,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>11. 이벤트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>12. 문의</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1152,6 +1145,50 @@
   </si>
   <si>
     <t>USER_DELETE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASK_DATE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문의 일자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASK_STATUS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문의 상태</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>답변 완료 시 Y / 아닐 경우 N</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASK_DONE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문의 완료일자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYSDATE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이벤트번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11. 이벤트 // 회원번호와 예매번호??</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1159,7 +1196,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1239,6 +1276,14 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -1284,7 +1329,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -1706,6 +1751,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1713,7 +1789,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1774,9 +1850,6 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1906,6 +1979,15 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1918,6 +2000,15 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1927,14 +2018,32 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1946,6 +2055,99 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -2263,10 +2465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61ADAB32-AF28-447C-8C14-BFAB34CED619}">
-  <dimension ref="A1:I220"/>
+  <dimension ref="A1:I224"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A118" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A121" sqref="A121:F121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2281,54 +2483,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="68" t="s">
-        <v>345</v>
-      </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
+      <c r="A1" s="73" t="s">
+        <v>343</v>
+      </c>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A2" s="69"/>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
+      <c r="A2" s="74"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
     </row>
     <row r="3" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="70"/>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
+      <c r="A3" s="75"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
     </row>
     <row r="4" spans="1:9" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="64" t="s">
-        <v>271</v>
-      </c>
-      <c r="B4" s="65"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="66" t="s">
+      <c r="A4" s="66" t="s">
+        <v>270</v>
+      </c>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="66"/>
-      <c r="I4" s="67"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="69"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="7" t="s">
@@ -2352,7 +2554,7 @@
       <c r="G5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="26" t="s">
+      <c r="H5" s="25" t="s">
         <v>78</v>
       </c>
       <c r="I5" s="9" t="s">
@@ -2381,7 +2583,7 @@
       <c r="G6" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="27" t="s">
+      <c r="H6" s="26" t="s">
         <v>46</v>
       </c>
       <c r="I6" s="14" t="s">
@@ -2435,11 +2637,11 @@
         <v>5</v>
       </c>
       <c r="G8" s="13"/>
-      <c r="H8" s="27" t="s">
+      <c r="H8" s="26" t="s">
         <v>46</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
@@ -2489,7 +2691,7 @@
         <v>5</v>
       </c>
       <c r="G10" s="13"/>
-      <c r="H10" s="27" t="s">
+      <c r="H10" s="26" t="s">
         <v>46</v>
       </c>
       <c r="I10" s="14" t="s">
@@ -2543,7 +2745,7 @@
         <v>6</v>
       </c>
       <c r="G12" s="13"/>
-      <c r="H12" s="27" t="s">
+      <c r="H12" s="26" t="s">
         <v>46</v>
       </c>
       <c r="I12" s="14" t="s">
@@ -2595,7 +2797,7 @@
         <v>6</v>
       </c>
       <c r="G14" s="13"/>
-      <c r="H14" s="27" t="s">
+      <c r="H14" s="26" t="s">
         <v>46</v>
       </c>
       <c r="I14" s="14" t="s">
@@ -2603,228 +2805,228 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A15" s="74">
+      <c r="A15" s="63">
         <v>10</v>
       </c>
-      <c r="B15" s="75" t="s">
+      <c r="B15" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="75" t="s">
+      <c r="C15" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="75" t="s">
+      <c r="D15" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="75"/>
-      <c r="F15" s="75" t="s">
-        <v>270</v>
-      </c>
-      <c r="G15" s="75"/>
-      <c r="H15" s="76" t="s">
+      <c r="E15" s="3"/>
+      <c r="F15" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="G15" s="3"/>
+      <c r="H15" s="64" t="s">
         <v>79</v>
       </c>
-      <c r="I15" s="77" t="s">
+      <c r="I15" s="65" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A16" s="74">
+      <c r="A16" s="98">
         <v>11</v>
       </c>
-      <c r="B16" s="75" t="s">
-        <v>350</v>
-      </c>
-      <c r="C16" s="75" t="s">
+      <c r="B16" s="99" t="s">
+        <v>348</v>
+      </c>
+      <c r="C16" s="99" t="s">
+        <v>345</v>
+      </c>
+      <c r="D16" s="99" t="s">
+        <v>346</v>
+      </c>
+      <c r="E16" s="99"/>
+      <c r="F16" s="99" t="s">
         <v>347</v>
       </c>
-      <c r="D16" s="75" t="s">
-        <v>348</v>
-      </c>
-      <c r="E16" s="75"/>
-      <c r="F16" s="75" t="s">
-        <v>349</v>
-      </c>
-      <c r="G16" s="75"/>
-      <c r="H16" s="76" t="s">
+      <c r="G16" s="99"/>
+      <c r="H16" s="100" t="s">
         <v>79</v>
       </c>
-      <c r="I16" s="77"/>
+      <c r="I16" s="101"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A17" s="6">
+      <c r="A17" s="85">
         <v>12</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="86">
         <v>1</v>
       </c>
-      <c r="F17" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G17" s="13"/>
-      <c r="H17" s="27" t="s">
+      <c r="F17" s="86" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="86"/>
+      <c r="H17" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="I17" s="14" t="s">
+      <c r="I17" s="88" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A18" s="6">
+      <c r="A18" s="102">
         <v>13</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="12">
         <v>500</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I18" s="10" t="s">
+      <c r="G18" s="12"/>
+      <c r="H18" s="103" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" s="104" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A19" s="6">
+      <c r="A19" s="85">
         <v>14</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="86" t="s">
         <v>60</v>
       </c>
-      <c r="E19" s="15">
+      <c r="E19" s="89">
         <v>11</v>
       </c>
-      <c r="F19" s="13" t="s">
+      <c r="F19" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="G19" s="16"/>
-      <c r="H19" s="28" t="s">
+      <c r="G19" s="90"/>
+      <c r="H19" s="91" t="s">
         <v>85</v>
       </c>
-      <c r="I19" s="17" t="s">
+      <c r="I19" s="92" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A20" s="6">
+      <c r="A20" s="102">
         <v>15</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="12">
         <v>1</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G20" s="4"/>
-      <c r="H20" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="I20" s="10" t="s">
+      <c r="G20" s="105"/>
+      <c r="H20" s="106" t="s">
+        <v>5</v>
+      </c>
+      <c r="I20" s="104" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="18">
+      <c r="A21" s="93">
         <v>16</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="94" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="94" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="19" t="s">
+      <c r="D21" s="94" t="s">
         <v>43</v>
       </c>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19" t="s">
+      <c r="E21" s="94"/>
+      <c r="F21" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="G21" s="20"/>
-      <c r="H21" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="I21" s="21" t="s">
-        <v>255</v>
+      <c r="G21" s="95"/>
+      <c r="H21" s="96" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" s="97" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="24" spans="1:9" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="64" t="s">
-        <v>272</v>
-      </c>
-      <c r="B24" s="65"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="66" t="s">
+      <c r="A24" s="66" t="s">
+        <v>271</v>
+      </c>
+      <c r="B24" s="67"/>
+      <c r="C24" s="67"/>
+      <c r="D24" s="67"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="67"/>
+      <c r="G24" s="68" t="s">
         <v>54</v>
       </c>
-      <c r="H24" s="66"/>
-      <c r="I24" s="67"/>
+      <c r="H24" s="68"/>
+      <c r="I24" s="69"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A25" s="22" t="s">
+      <c r="A25" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="23" t="s">
+      <c r="B25" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="23" t="s">
+      <c r="C25" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="23" t="s">
+      <c r="D25" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="E25" s="23" t="s">
+      <c r="E25" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="F25" s="23" t="s">
+      <c r="F25" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="G25" s="23" t="s">
+      <c r="G25" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="H25" s="31" t="s">
+      <c r="H25" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="I25" s="24" t="s">
+      <c r="I25" s="23" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2850,7 +3052,7 @@
       <c r="G26" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="H26" s="27"/>
+      <c r="H26" s="26"/>
       <c r="I26" s="14" t="s">
         <v>46</v>
       </c>
@@ -2886,7 +3088,7 @@
       <c r="A28" s="18">
         <v>3</v>
       </c>
-      <c r="B28" s="25" t="s">
+      <c r="B28" s="24" t="s">
         <v>58</v>
       </c>
       <c r="C28" s="19" t="s">
@@ -2904,26 +3106,26 @@
       <c r="G28" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="H28" s="32"/>
-      <c r="I28" s="21" t="s">
+      <c r="H28" s="31"/>
+      <c r="I28" s="20" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="31" spans="1:9" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="64" t="s">
-        <v>273</v>
-      </c>
-      <c r="B31" s="65"/>
-      <c r="C31" s="65"/>
-      <c r="D31" s="65"/>
-      <c r="E31" s="65"/>
-      <c r="F31" s="65"/>
-      <c r="G31" s="66" t="s">
+      <c r="A31" s="66" t="s">
+        <v>272</v>
+      </c>
+      <c r="B31" s="67"/>
+      <c r="C31" s="67"/>
+      <c r="D31" s="67"/>
+      <c r="E31" s="67"/>
+      <c r="F31" s="67"/>
+      <c r="G31" s="68" t="s">
         <v>66</v>
       </c>
-      <c r="H31" s="66"/>
-      <c r="I31" s="67"/>
+      <c r="H31" s="68"/>
+      <c r="I31" s="69"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A32" s="7" t="s">
@@ -2947,7 +3149,7 @@
       <c r="G32" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H32" s="26" t="s">
+      <c r="H32" s="25" t="s">
         <v>78</v>
       </c>
       <c r="I32" s="9" t="s">
@@ -2976,7 +3178,7 @@
       <c r="G33" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="H33" s="27" t="s">
+      <c r="H33" s="26" t="s">
         <v>46</v>
       </c>
       <c r="I33" s="14" t="s">
@@ -3034,7 +3236,7 @@
       <c r="G35" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="H35" s="27" t="s">
+      <c r="H35" s="26" t="s">
         <v>46</v>
       </c>
       <c r="I35" s="14" t="s">
@@ -3088,7 +3290,7 @@
         <v>5</v>
       </c>
       <c r="G37" s="13"/>
-      <c r="H37" s="27" t="s">
+      <c r="H37" s="26" t="s">
         <v>5</v>
       </c>
       <c r="I37" s="14" t="s">
@@ -3140,7 +3342,7 @@
         <v>6</v>
       </c>
       <c r="G39" s="13"/>
-      <c r="H39" s="27" t="s">
+      <c r="H39" s="26" t="s">
         <v>79</v>
       </c>
       <c r="I39" s="14" t="s">
@@ -3148,45 +3350,45 @@
       </c>
     </row>
     <row r="40" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="33">
+      <c r="A40" s="32">
         <v>8</v>
       </c>
-      <c r="B40" s="34" t="s">
+      <c r="B40" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="C40" s="35" t="s">
+      <c r="C40" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="D40" s="35" t="s">
+      <c r="D40" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="E40" s="35"/>
-      <c r="F40" s="35" t="s">
+      <c r="E40" s="34"/>
+      <c r="F40" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="G40" s="35"/>
-      <c r="H40" s="36" t="s">
+      <c r="G40" s="34"/>
+      <c r="H40" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="I40" s="37" t="s">
+      <c r="I40" s="36" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="43" spans="1:9" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="64" t="s">
-        <v>274</v>
-      </c>
-      <c r="B43" s="65"/>
-      <c r="C43" s="65"/>
-      <c r="D43" s="65"/>
-      <c r="E43" s="65"/>
-      <c r="F43" s="65"/>
-      <c r="G43" s="66" t="s">
+      <c r="A43" s="66" t="s">
+        <v>273</v>
+      </c>
+      <c r="B43" s="67"/>
+      <c r="C43" s="67"/>
+      <c r="D43" s="67"/>
+      <c r="E43" s="67"/>
+      <c r="F43" s="67"/>
+      <c r="G43" s="68" t="s">
         <v>86</v>
       </c>
-      <c r="H43" s="66"/>
-      <c r="I43" s="67"/>
+      <c r="H43" s="68"/>
+      <c r="I43" s="69"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A44" s="7" t="s">
@@ -3210,7 +3412,7 @@
       <c r="G44" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H44" s="26" t="s">
+      <c r="H44" s="25" t="s">
         <v>78</v>
       </c>
       <c r="I44" s="9" t="s">
@@ -3239,7 +3441,7 @@
       <c r="G45" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="H45" s="27" t="s">
+      <c r="H45" s="26" t="s">
         <v>46</v>
       </c>
       <c r="I45" s="14" t="s">
@@ -3297,7 +3499,7 @@
       <c r="G47" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="H47" s="27" t="s">
+      <c r="H47" s="26" t="s">
         <v>46</v>
       </c>
       <c r="I47" s="14" t="s">
@@ -3353,7 +3555,7 @@
       <c r="G49" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="H49" s="27" t="s">
+      <c r="H49" s="26" t="s">
         <v>46</v>
       </c>
       <c r="I49" s="14" t="s">
@@ -3411,7 +3613,7 @@
       <c r="G51" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="H51" s="27" t="s">
+      <c r="H51" s="26" t="s">
         <v>85</v>
       </c>
       <c r="I51" s="14" t="s">
@@ -3451,7 +3653,7 @@
       <c r="A53" s="18">
         <v>9</v>
       </c>
-      <c r="B53" s="25" t="s">
+      <c r="B53" s="24" t="s">
         <v>100</v>
       </c>
       <c r="C53" s="19" t="s">
@@ -3469,28 +3671,28 @@
       <c r="G53" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="H53" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="I53" s="21" t="s">
+      <c r="H53" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="I53" s="20" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="56" spans="1:9" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A56" s="64" t="s">
-        <v>275</v>
-      </c>
-      <c r="B56" s="65"/>
-      <c r="C56" s="65"/>
-      <c r="D56" s="65"/>
-      <c r="E56" s="65"/>
-      <c r="F56" s="65"/>
-      <c r="G56" s="66" t="s">
+      <c r="A56" s="66" t="s">
+        <v>274</v>
+      </c>
+      <c r="B56" s="67"/>
+      <c r="C56" s="67"/>
+      <c r="D56" s="67"/>
+      <c r="E56" s="67"/>
+      <c r="F56" s="67"/>
+      <c r="G56" s="68" t="s">
         <v>105</v>
       </c>
-      <c r="H56" s="66"/>
-      <c r="I56" s="67"/>
+      <c r="H56" s="68"/>
+      <c r="I56" s="69"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A57" s="7" t="s">
@@ -3514,7 +3716,7 @@
       <c r="G57" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H57" s="26" t="s">
+      <c r="H57" s="25" t="s">
         <v>78</v>
       </c>
       <c r="I57" s="9" t="s">
@@ -3541,9 +3743,9 @@
         <v>5</v>
       </c>
       <c r="G58" s="13" t="s">
-        <v>346</v>
-      </c>
-      <c r="H58" s="27" t="s">
+        <v>344</v>
+      </c>
+      <c r="H58" s="26" t="s">
         <v>46</v>
       </c>
       <c r="I58" s="14" t="s">
@@ -3601,7 +3803,7 @@
       <c r="G60" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="H60" s="27" t="s">
+      <c r="H60" s="26" t="s">
         <v>46</v>
       </c>
       <c r="I60" s="14" t="s">
@@ -3657,7 +3859,7 @@
       <c r="G62" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="H62" s="27" t="s">
+      <c r="H62" s="26" t="s">
         <v>79</v>
       </c>
       <c r="I62" s="14" t="s">
@@ -3715,7 +3917,7 @@
       <c r="G64" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="H64" s="27" t="s">
+      <c r="H64" s="26" t="s">
         <v>46</v>
       </c>
       <c r="I64" s="14" t="s">
@@ -3773,7 +3975,7 @@
       <c r="G66" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="H66" s="27" t="s">
+      <c r="H66" s="26" t="s">
         <v>46</v>
       </c>
       <c r="I66" s="14" t="s">
@@ -3829,7 +4031,7 @@
       <c r="G68" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="H68" s="27" t="s">
+      <c r="H68" s="26" t="s">
         <v>79</v>
       </c>
       <c r="I68" s="14" t="s">
@@ -3885,7 +4087,7 @@
       <c r="G70" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="H70" s="28" t="s">
+      <c r="H70" s="27" t="s">
         <v>79</v>
       </c>
       <c r="I70" s="17" t="s">
@@ -3914,7 +4116,7 @@
       <c r="G71" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="H71" s="29" t="s">
+      <c r="H71" s="28" t="s">
         <v>46</v>
       </c>
       <c r="I71" s="10" t="s">
@@ -3940,31 +4142,31 @@
       <c r="F72" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G72" s="63" t="s">
+      <c r="G72" s="62" t="s">
         <v>65</v>
       </c>
-      <c r="H72" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="I72" s="21" t="s">
+      <c r="H72" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I72" s="20" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="75" spans="1:9" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A75" s="64" t="s">
-        <v>276</v>
-      </c>
-      <c r="B75" s="65"/>
-      <c r="C75" s="65"/>
-      <c r="D75" s="65"/>
-      <c r="E75" s="65"/>
-      <c r="F75" s="65"/>
-      <c r="G75" s="66" t="s">
-        <v>201</v>
-      </c>
-      <c r="H75" s="66"/>
-      <c r="I75" s="67"/>
+      <c r="A75" s="66" t="s">
+        <v>275</v>
+      </c>
+      <c r="B75" s="67"/>
+      <c r="C75" s="67"/>
+      <c r="D75" s="67"/>
+      <c r="E75" s="67"/>
+      <c r="F75" s="67"/>
+      <c r="G75" s="68" t="s">
+        <v>200</v>
+      </c>
+      <c r="H75" s="68"/>
+      <c r="I75" s="69"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A76" s="7" t="s">
@@ -3988,7 +4190,7 @@
       <c r="G76" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H76" s="26" t="s">
+      <c r="H76" s="25" t="s">
         <v>78</v>
       </c>
       <c r="I76" s="9" t="s">
@@ -4000,7 +4202,7 @@
         <v>1</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C77" s="13" t="s">
         <v>137</v>
@@ -4017,7 +4219,7 @@
       <c r="G77" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="H77" s="27" t="s">
+      <c r="H77" s="26" t="s">
         <v>46</v>
       </c>
       <c r="I77" s="14" t="s">
@@ -4057,7 +4259,7 @@
       <c r="A79" s="18">
         <v>3</v>
       </c>
-      <c r="B79" s="25" t="s">
+      <c r="B79" s="24" t="s">
         <v>138</v>
       </c>
       <c r="C79" s="19" t="s">
@@ -4075,28 +4277,28 @@
       <c r="G79" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="H79" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="I79" s="21" t="s">
+      <c r="H79" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I79" s="20" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="82" spans="1:9" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A82" s="64" t="s">
-        <v>277</v>
-      </c>
-      <c r="B82" s="65"/>
-      <c r="C82" s="65"/>
-      <c r="D82" s="65"/>
-      <c r="E82" s="65"/>
-      <c r="F82" s="65"/>
-      <c r="G82" s="66" t="s">
+      <c r="A82" s="66" t="s">
+        <v>276</v>
+      </c>
+      <c r="B82" s="67"/>
+      <c r="C82" s="67"/>
+      <c r="D82" s="67"/>
+      <c r="E82" s="67"/>
+      <c r="F82" s="67"/>
+      <c r="G82" s="68" t="s">
         <v>140</v>
       </c>
-      <c r="H82" s="66"/>
-      <c r="I82" s="67"/>
+      <c r="H82" s="68"/>
+      <c r="I82" s="69"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A83" s="7" t="s">
@@ -4120,7 +4322,7 @@
       <c r="G83" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H83" s="26" t="s">
+      <c r="H83" s="25" t="s">
         <v>78</v>
       </c>
       <c r="I83" s="9" t="s">
@@ -4149,7 +4351,7 @@
       <c r="G84" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="H84" s="27" t="s">
+      <c r="H84" s="26" t="s">
         <v>46</v>
       </c>
       <c r="I84" s="14" t="s">
@@ -4207,7 +4409,7 @@
       <c r="G86" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="H86" s="27" t="s">
+      <c r="H86" s="26" t="s">
         <v>46</v>
       </c>
       <c r="I86" s="14" t="s">
@@ -4215,49 +4417,49 @@
       </c>
     </row>
     <row r="87" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A87" s="33">
+      <c r="A87" s="32">
         <v>4</v>
       </c>
-      <c r="B87" s="34" t="s">
+      <c r="B87" s="33" t="s">
         <v>148</v>
       </c>
-      <c r="C87" s="35" t="s">
+      <c r="C87" s="34" t="s">
         <v>149</v>
       </c>
-      <c r="D87" s="35" t="s">
+      <c r="D87" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="E87" s="35">
+      <c r="E87" s="34">
         <v>3</v>
       </c>
-      <c r="F87" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="G87" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="H87" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="I87" s="37" t="s">
+      <c r="F87" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="G87" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I87" s="36" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="90" spans="1:9" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A90" s="64" t="s">
-        <v>278</v>
-      </c>
-      <c r="B90" s="65"/>
-      <c r="C90" s="65"/>
-      <c r="D90" s="65"/>
-      <c r="E90" s="65"/>
-      <c r="F90" s="65"/>
-      <c r="G90" s="66" t="s">
+      <c r="A90" s="66" t="s">
+        <v>277</v>
+      </c>
+      <c r="B90" s="67"/>
+      <c r="C90" s="67"/>
+      <c r="D90" s="67"/>
+      <c r="E90" s="67"/>
+      <c r="F90" s="67"/>
+      <c r="G90" s="68" t="s">
         <v>151</v>
       </c>
-      <c r="H90" s="66"/>
-      <c r="I90" s="67"/>
+      <c r="H90" s="68"/>
+      <c r="I90" s="69"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A91" s="7" t="s">
@@ -4281,7 +4483,7 @@
       <c r="G91" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="H91" s="26" t="s">
+      <c r="H91" s="25" t="s">
         <v>78</v>
       </c>
       <c r="I91" s="9" t="s">
@@ -4310,7 +4512,7 @@
       <c r="G92" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="H92" s="27" t="s">
+      <c r="H92" s="26" t="s">
         <v>46</v>
       </c>
       <c r="I92" s="14" t="s">
@@ -4368,7 +4570,7 @@
       <c r="G94" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="H94" s="27" t="s">
+      <c r="H94" s="26" t="s">
         <v>46</v>
       </c>
       <c r="I94" s="14" t="s">
@@ -4399,7 +4601,7 @@
         <v>46</v>
       </c>
       <c r="I95" s="10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.4">
@@ -4422,7 +4624,7 @@
       <c r="G96" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="H96" s="27" t="s">
+      <c r="H96" s="26" t="s">
         <v>46</v>
       </c>
       <c r="I96" s="14" t="s">
@@ -4478,7 +4680,7 @@
       <c r="G98" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="H98" s="27" t="s">
+      <c r="H98" s="26" t="s">
         <v>46</v>
       </c>
       <c r="I98" s="14" t="s">
@@ -4516,7 +4718,7 @@
       <c r="A100" s="18">
         <v>9</v>
       </c>
-      <c r="B100" s="25" t="s">
+      <c r="B100" s="24" t="s">
         <v>163</v>
       </c>
       <c r="C100" s="19" t="s">
@@ -4534,28 +4736,28 @@
       <c r="G100" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="H100" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="I100" s="21" t="s">
+      <c r="H100" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I100" s="20" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="103" spans="1:9" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A103" s="64" t="s">
-        <v>279</v>
-      </c>
-      <c r="B103" s="65"/>
-      <c r="C103" s="65"/>
-      <c r="D103" s="65"/>
-      <c r="E103" s="65"/>
-      <c r="F103" s="65"/>
-      <c r="G103" s="66" t="s">
+      <c r="A103" s="66" t="s">
+        <v>278</v>
+      </c>
+      <c r="B103" s="67"/>
+      <c r="C103" s="67"/>
+      <c r="D103" s="67"/>
+      <c r="E103" s="67"/>
+      <c r="F103" s="67"/>
+      <c r="G103" s="68" t="s">
         <v>165</v>
       </c>
-      <c r="H103" s="66"/>
-      <c r="I103" s="67"/>
+      <c r="H103" s="68"/>
+      <c r="I103" s="69"/>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A104" s="7" t="s">
@@ -4579,7 +4781,7 @@
       <c r="G104" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="H104" s="26" t="s">
+      <c r="H104" s="25" t="s">
         <v>78</v>
       </c>
       <c r="I104" s="9" t="s">
@@ -4608,7 +4810,7 @@
       <c r="G105" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="H105" s="27" t="s">
+      <c r="H105" s="26" t="s">
         <v>46</v>
       </c>
       <c r="I105" s="14" t="s">
@@ -4666,7 +4868,7 @@
       <c r="G107" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="H107" s="27" t="s">
+      <c r="H107" s="26" t="s">
         <v>46</v>
       </c>
       <c r="I107" s="14" t="s">
@@ -4724,7 +4926,7 @@
       <c r="G109" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="H109" s="27" t="s">
+      <c r="H109" s="26" t="s">
         <v>46</v>
       </c>
       <c r="I109" s="14" t="s">
@@ -4732,49 +4934,49 @@
       </c>
     </row>
     <row r="110" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A110" s="33">
+      <c r="A110" s="32">
         <v>6</v>
       </c>
-      <c r="B110" s="34" t="s">
+      <c r="B110" s="33" t="s">
         <v>174</v>
       </c>
-      <c r="C110" s="35" t="s">
+      <c r="C110" s="34" t="s">
         <v>175</v>
       </c>
-      <c r="D110" s="35" t="s">
+      <c r="D110" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="E110" s="35">
+      <c r="E110" s="34">
         <v>10</v>
       </c>
-      <c r="F110" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="G110" s="35" t="s">
+      <c r="F110" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="G110" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="H110" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="I110" s="37" t="s">
+      <c r="H110" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I110" s="36" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="112" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="113" spans="1:9" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A113" s="64" t="s">
-        <v>280</v>
-      </c>
-      <c r="B113" s="65"/>
-      <c r="C113" s="65"/>
-      <c r="D113" s="65"/>
-      <c r="E113" s="65"/>
-      <c r="F113" s="65"/>
-      <c r="G113" s="66" t="s">
+      <c r="A113" s="66" t="s">
+        <v>279</v>
+      </c>
+      <c r="B113" s="67"/>
+      <c r="C113" s="67"/>
+      <c r="D113" s="67"/>
+      <c r="E113" s="67"/>
+      <c r="F113" s="67"/>
+      <c r="G113" s="68" t="s">
         <v>176</v>
       </c>
-      <c r="H113" s="66"/>
-      <c r="I113" s="67"/>
+      <c r="H113" s="68"/>
+      <c r="I113" s="69"/>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A114" s="7" t="s">
@@ -4798,7 +5000,7 @@
       <c r="G114" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="H114" s="26" t="s">
+      <c r="H114" s="25" t="s">
         <v>78</v>
       </c>
       <c r="I114" s="9" t="s">
@@ -4827,7 +5029,7 @@
       <c r="G115" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="H115" s="27" t="s">
+      <c r="H115" s="26" t="s">
         <v>46</v>
       </c>
       <c r="I115" s="14" t="s">
@@ -4885,7 +5087,7 @@
       <c r="G117" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="H117" s="27" t="s">
+      <c r="H117" s="26" t="s">
         <v>46</v>
       </c>
       <c r="I117" s="14" t="s">
@@ -4893,49 +5095,49 @@
       </c>
     </row>
     <row r="118" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A118" s="33">
+      <c r="A118" s="32">
         <v>4</v>
       </c>
-      <c r="B118" s="34" t="s">
+      <c r="B118" s="33" t="s">
         <v>183</v>
       </c>
-      <c r="C118" s="35" t="s">
+      <c r="C118" s="34" t="s">
         <v>184</v>
       </c>
-      <c r="D118" s="35" t="s">
+      <c r="D118" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="E118" s="35">
+      <c r="E118" s="34">
         <v>100</v>
       </c>
-      <c r="F118" s="35" t="s">
+      <c r="F118" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="G118" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="H118" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="I118" s="37" t="s">
+      <c r="G118" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H118" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I118" s="36" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="121" spans="1:9" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A121" s="64" t="s">
-        <v>281</v>
-      </c>
-      <c r="B121" s="65"/>
-      <c r="C121" s="65"/>
-      <c r="D121" s="65"/>
-      <c r="E121" s="65"/>
-      <c r="F121" s="65"/>
-      <c r="G121" s="66" t="s">
-        <v>199</v>
-      </c>
-      <c r="H121" s="66"/>
-      <c r="I121" s="67"/>
+      <c r="A121" s="66" t="s">
+        <v>359</v>
+      </c>
+      <c r="B121" s="67"/>
+      <c r="C121" s="67"/>
+      <c r="D121" s="67"/>
+      <c r="E121" s="67"/>
+      <c r="F121" s="67"/>
+      <c r="G121" s="68" t="s">
+        <v>198</v>
+      </c>
+      <c r="H121" s="68"/>
+      <c r="I121" s="69"/>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A122" s="7" t="s">
@@ -4959,7 +5161,7 @@
       <c r="G122" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H122" s="26" t="s">
+      <c r="H122" s="25" t="s">
         <v>78</v>
       </c>
       <c r="I122" s="9" t="s">
@@ -4974,7 +5176,7 @@
         <v>186</v>
       </c>
       <c r="C123" s="13" t="s">
-        <v>187</v>
+        <v>358</v>
       </c>
       <c r="D123" s="13" t="s">
         <v>59</v>
@@ -4988,7 +5190,7 @@
       <c r="G123" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="H123" s="27" t="s">
+      <c r="H123" s="26" t="s">
         <v>46</v>
       </c>
       <c r="I123" s="14" t="s">
@@ -5046,7 +5248,7 @@
       <c r="G125" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="H125" s="27" t="s">
+      <c r="H125" s="26" t="s">
         <v>46</v>
       </c>
       <c r="I125" s="14" t="s">
@@ -5058,10 +5260,10 @@
         <v>4</v>
       </c>
       <c r="B126" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C126" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>189</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>8</v>
@@ -5087,10 +5289,10 @@
         <v>5</v>
       </c>
       <c r="B127" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="C127" s="13" t="s">
         <v>190</v>
-      </c>
-      <c r="C127" s="13" t="s">
-        <v>191</v>
       </c>
       <c r="D127" s="13" t="s">
         <v>8</v>
@@ -5104,7 +5306,7 @@
       <c r="G127" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="H127" s="27" t="s">
+      <c r="H127" s="26" t="s">
         <v>46</v>
       </c>
       <c r="I127" s="14" t="s">
@@ -5116,10 +5318,10 @@
         <v>6</v>
       </c>
       <c r="B128" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C128" s="2" t="s">
         <v>192</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>193</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>43</v>
@@ -5135,7 +5337,7 @@
         <v>46</v>
       </c>
       <c r="I128" s="10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.4">
@@ -5143,10 +5345,10 @@
         <v>7</v>
       </c>
       <c r="B129" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="C129" s="13" t="s">
         <v>194</v>
-      </c>
-      <c r="C129" s="13" t="s">
-        <v>195</v>
       </c>
       <c r="D129" s="13" t="s">
         <v>43</v>
@@ -5158,429 +5360,413 @@
       <c r="G129" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="H129" s="27" t="s">
+      <c r="H129" s="26" t="s">
         <v>46</v>
       </c>
       <c r="I129" s="14" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A130" s="33">
+      <c r="A130" s="32">
         <v>8</v>
       </c>
-      <c r="B130" s="34" t="s">
+      <c r="B130" s="33" t="s">
+        <v>195</v>
+      </c>
+      <c r="C130" s="34" t="s">
         <v>196</v>
       </c>
-      <c r="C130" s="35" t="s">
+      <c r="D130" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="E130" s="34">
+        <v>1</v>
+      </c>
+      <c r="F130" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="G130" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H130" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I130" s="36" t="s">
         <v>197</v>
-      </c>
-      <c r="D130" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="E130" s="35">
-        <v>1</v>
-      </c>
-      <c r="F130" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="G130" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="H130" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="I130" s="37" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="132" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="133" spans="1:9" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A133" s="64" t="s">
-        <v>282</v>
-      </c>
-      <c r="B133" s="65"/>
-      <c r="C133" s="65"/>
-      <c r="D133" s="65"/>
-      <c r="E133" s="65"/>
-      <c r="F133" s="65"/>
-      <c r="G133" s="66" t="s">
+      <c r="A133" s="76" t="s">
+        <v>280</v>
+      </c>
+      <c r="B133" s="77"/>
+      <c r="C133" s="77"/>
+      <c r="D133" s="77"/>
+      <c r="E133" s="77"/>
+      <c r="F133" s="77"/>
+      <c r="G133" s="78" t="s">
+        <v>201</v>
+      </c>
+      <c r="H133" s="78"/>
+      <c r="I133" s="79"/>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A134" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B134" s="81" t="s">
+        <v>15</v>
+      </c>
+      <c r="C134" s="81" t="s">
+        <v>16</v>
+      </c>
+      <c r="D134" s="81" t="s">
+        <v>1</v>
+      </c>
+      <c r="E134" s="81" t="s">
+        <v>2</v>
+      </c>
+      <c r="F134" s="81" t="s">
+        <v>12</v>
+      </c>
+      <c r="G134" s="81" t="s">
+        <v>3</v>
+      </c>
+      <c r="H134" s="81" t="s">
+        <v>78</v>
+      </c>
+      <c r="I134" s="82" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A135" s="54">
+        <v>1</v>
+      </c>
+      <c r="B135" s="48" t="s">
         <v>202</v>
       </c>
-      <c r="H133" s="66"/>
-      <c r="I133" s="67"/>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A134" s="7" t="s">
+      <c r="C135" s="47" t="s">
+        <v>203</v>
+      </c>
+      <c r="D135" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="E135" s="47">
+        <v>4</v>
+      </c>
+      <c r="F135" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="G135" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="H135" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="I135" s="83" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A136" s="56">
+        <v>2</v>
+      </c>
+      <c r="B136" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="C136" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="D136" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="E136" s="49">
+        <v>4</v>
+      </c>
+      <c r="F136" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="G136" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="H136" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="I136" s="84" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A137" s="54">
+        <v>3</v>
+      </c>
+      <c r="B137" s="48" t="s">
+        <v>204</v>
+      </c>
+      <c r="C137" s="47" t="s">
+        <v>205</v>
+      </c>
+      <c r="D137" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="E137" s="47">
+        <v>100</v>
+      </c>
+      <c r="F137" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="G137" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H137" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="I137" s="83" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A138" s="56">
+        <v>4</v>
+      </c>
+      <c r="B138" s="50" t="s">
+        <v>206</v>
+      </c>
+      <c r="C138" s="49" t="s">
+        <v>207</v>
+      </c>
+      <c r="D138" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="E138" s="49">
+        <v>5000</v>
+      </c>
+      <c r="F138" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="G138" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H138" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="I138" s="84" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A139" s="54">
+        <v>5</v>
+      </c>
+      <c r="B139" s="48" t="s">
+        <v>208</v>
+      </c>
+      <c r="C139" s="47" t="s">
+        <v>209</v>
+      </c>
+      <c r="D139" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="E139" s="47">
+        <v>1000</v>
+      </c>
+      <c r="F139" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="G139" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H139" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="I139" s="83" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A140" s="107">
+        <v>6</v>
+      </c>
+      <c r="B140" s="108" t="s">
+        <v>349</v>
+      </c>
+      <c r="C140" s="109" t="s">
+        <v>350</v>
+      </c>
+      <c r="D140" s="110" t="s">
+        <v>346</v>
+      </c>
+      <c r="E140" s="109"/>
+      <c r="F140" s="109" t="s">
+        <v>5</v>
+      </c>
+      <c r="G140" s="109" t="s">
+        <v>46</v>
+      </c>
+      <c r="H140" s="109" t="s">
+        <v>356</v>
+      </c>
+      <c r="I140" s="111" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A141" s="112">
+        <v>7</v>
+      </c>
+      <c r="B141" s="113" t="s">
+        <v>354</v>
+      </c>
+      <c r="C141" s="114" t="s">
+        <v>355</v>
+      </c>
+      <c r="D141" s="110" t="s">
+        <v>346</v>
+      </c>
+      <c r="E141" s="114"/>
+      <c r="F141" s="114" t="s">
+        <v>6</v>
+      </c>
+      <c r="G141" s="114"/>
+      <c r="H141" s="114"/>
+      <c r="I141" s="115"/>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A142" s="107">
+        <v>8</v>
+      </c>
+      <c r="B142" s="108" t="s">
+        <v>351</v>
+      </c>
+      <c r="C142" s="109" t="s">
+        <v>352</v>
+      </c>
+      <c r="D142" s="109" t="s">
+        <v>346</v>
+      </c>
+      <c r="E142" s="109"/>
+      <c r="F142" s="109" t="s">
+        <v>269</v>
+      </c>
+      <c r="G142" s="109"/>
+      <c r="H142" s="109" t="s">
+        <v>269</v>
+      </c>
+      <c r="I142" s="111" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A143" s="116">
+        <v>9</v>
+      </c>
+      <c r="B143" s="117" t="s">
+        <v>295</v>
+      </c>
+      <c r="C143" s="118" t="s">
+        <v>296</v>
+      </c>
+      <c r="D143" s="118" t="s">
+        <v>59</v>
+      </c>
+      <c r="E143" s="118">
+        <v>4</v>
+      </c>
+      <c r="F143" s="118" t="s">
+        <v>5</v>
+      </c>
+      <c r="G143" s="118" t="s">
+        <v>65</v>
+      </c>
+      <c r="H143" s="118"/>
+      <c r="I143" s="119"/>
+    </row>
+    <row r="145" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="146" spans="1:9" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A146" s="66" t="s">
+        <v>281</v>
+      </c>
+      <c r="B146" s="67"/>
+      <c r="C146" s="67"/>
+      <c r="D146" s="67"/>
+      <c r="E146" s="67"/>
+      <c r="F146" s="67"/>
+      <c r="G146" s="68" t="s">
+        <v>210</v>
+      </c>
+      <c r="H146" s="68"/>
+      <c r="I146" s="69"/>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A147" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B134" s="8" t="s">
+      <c r="B147" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C134" s="8" t="s">
+      <c r="C147" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D134" s="8" t="s">
+      <c r="D147" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E134" s="8" t="s">
+      <c r="E147" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F134" s="8" t="s">
+      <c r="F147" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G134" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="H134" s="26" t="s">
+      <c r="G147" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="H147" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="I134" s="9" t="s">
+      <c r="I147" s="9" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A135" s="11">
-        <v>1</v>
-      </c>
-      <c r="B135" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="C135" s="13" t="s">
-        <v>204</v>
-      </c>
-      <c r="D135" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="E135" s="13">
-        <v>4</v>
-      </c>
-      <c r="F135" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G135" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H135" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="I135" s="14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A136" s="6">
-        <v>2</v>
-      </c>
-      <c r="B136" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E136" s="2">
-        <v>4</v>
-      </c>
-      <c r="F136" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G136" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H136" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I136" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A137" s="11">
-        <v>3</v>
-      </c>
-      <c r="B137" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="C137" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="D137" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E137" s="13">
-        <v>100</v>
-      </c>
-      <c r="F137" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G137" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H137" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="I137" s="14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A138" s="6">
-        <v>4</v>
-      </c>
-      <c r="B138" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E138" s="2">
-        <v>5000</v>
-      </c>
-      <c r="F138" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G138" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H138" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I138" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A139" s="18">
-        <v>5</v>
-      </c>
-      <c r="B139" s="25" t="s">
-        <v>209</v>
-      </c>
-      <c r="C139" s="19" t="s">
-        <v>210</v>
-      </c>
-      <c r="D139" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="E139" s="19">
-        <v>1000</v>
-      </c>
-      <c r="F139" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="G139" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="H139" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="I139" s="21" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="142" spans="1:9" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A142" s="64" t="s">
-        <v>283</v>
-      </c>
-      <c r="B142" s="65"/>
-      <c r="C142" s="65"/>
-      <c r="D142" s="65"/>
-      <c r="E142" s="65"/>
-      <c r="F142" s="65"/>
-      <c r="G142" s="66" t="s">
-        <v>211</v>
-      </c>
-      <c r="H142" s="66"/>
-      <c r="I142" s="67"/>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A143" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B143" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C143" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D143" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E143" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F143" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G143" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="H143" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="I143" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A144" s="11">
-        <v>1</v>
-      </c>
-      <c r="B144" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="C144" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="D144" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="E144" s="13">
-        <v>4</v>
-      </c>
-      <c r="F144" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G144" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H144" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="I144" s="14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A145" s="6">
-        <v>2</v>
-      </c>
-      <c r="B145" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E145" s="2">
-        <v>100</v>
-      </c>
-      <c r="F145" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G145" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H145" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I145" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A146" s="11">
-        <v>3</v>
-      </c>
-      <c r="B146" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="C146" s="13" t="s">
-        <v>217</v>
-      </c>
-      <c r="D146" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E146" s="13">
-        <v>5000</v>
-      </c>
-      <c r="F146" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G146" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H146" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="I146" s="14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A147" s="6">
-        <v>4</v>
-      </c>
-      <c r="B147" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E147" s="2">
-        <v>500</v>
-      </c>
-      <c r="F147" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G147" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H147" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I147" s="10" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A148" s="11">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B148" s="12" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C148" s="13" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="D148" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="E148" s="13"/>
+        <v>59</v>
+      </c>
+      <c r="E148" s="13">
+        <v>4</v>
+      </c>
       <c r="F148" s="13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G148" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H148" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H148" s="26" t="s">
         <v>46</v>
       </c>
       <c r="I148" s="14" t="s">
-        <v>255</v>
+        <v>46</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A149" s="6">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>8</v>
@@ -5589,7 +5775,7 @@
         <v>100</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G149" s="2" t="s">
         <v>46</v>
@@ -5603,46 +5789,48 @@
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A150" s="11">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B150" s="12" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="C150" s="13" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="D150" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="E150" s="13"/>
+        <v>8</v>
+      </c>
+      <c r="E150" s="13">
+        <v>5000</v>
+      </c>
       <c r="F150" s="13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G150" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="H150" s="27" t="s">
+      <c r="H150" s="26" t="s">
         <v>46</v>
       </c>
       <c r="I150" s="14" t="s">
-        <v>255</v>
+        <v>46</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A151" s="6">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="D151" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E151" s="2">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>6</v>
@@ -5657,373 +5845,371 @@
         <v>46</v>
       </c>
     </row>
-    <row r="152" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A152" s="18">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A152" s="11">
+        <v>5</v>
+      </c>
+      <c r="B152" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="C152" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="D152" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E152" s="13"/>
+      <c r="F152" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G152" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H152" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I152" s="14" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A153" s="6">
+        <v>6</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E153" s="2">
+        <v>100</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H153" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I153" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A154" s="11">
+        <v>7</v>
+      </c>
+      <c r="B154" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="C154" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="D154" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E154" s="13"/>
+      <c r="F154" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G154" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H154" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I154" s="14" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A155" s="6">
+        <v>8</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E155" s="2">
+        <v>100</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H155" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I155" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A156" s="18">
         <v>9</v>
       </c>
-      <c r="B152" s="25" t="s">
+      <c r="B156" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="C156" s="19" t="s">
         <v>228</v>
       </c>
-      <c r="C152" s="19" t="s">
+      <c r="D156" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E156" s="19">
+        <v>1</v>
+      </c>
+      <c r="F156" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G156" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H156" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="I156" s="20" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="159" spans="1:9" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A159" s="66" t="s">
+        <v>282</v>
+      </c>
+      <c r="B159" s="67"/>
+      <c r="C159" s="67"/>
+      <c r="D159" s="67"/>
+      <c r="E159" s="67"/>
+      <c r="F159" s="67"/>
+      <c r="G159" s="68" t="s">
         <v>229</v>
       </c>
-      <c r="D152" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="E152" s="19">
+      <c r="H159" s="68"/>
+      <c r="I159" s="69"/>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A160" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B160" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C160" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D160" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="F152" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="G152" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="H152" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="I152" s="21" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="155" spans="1:9" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A155" s="64" t="s">
-        <v>284</v>
-      </c>
-      <c r="B155" s="65"/>
-      <c r="C155" s="65"/>
-      <c r="D155" s="65"/>
-      <c r="E155" s="65"/>
-      <c r="F155" s="65"/>
-      <c r="G155" s="66" t="s">
+      <c r="E160" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F160" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G160" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H160" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="I160" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A161" s="11">
+        <v>1</v>
+      </c>
+      <c r="B161" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="C161" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="D161" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E161" s="13">
+        <v>10</v>
+      </c>
+      <c r="F161" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G161" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H161" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I161" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A162" s="6">
+        <v>2</v>
+      </c>
+      <c r="B162" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="H155" s="66"/>
-      <c r="I155" s="67"/>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A156" s="7" t="s">
+      <c r="C162" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E162" s="2">
+        <v>50</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H162" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I162" s="10" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A163" s="18">
+        <v>3</v>
+      </c>
+      <c r="B163" s="24" t="s">
+        <v>232</v>
+      </c>
+      <c r="C163" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="D163" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E163" s="19">
+        <v>2</v>
+      </c>
+      <c r="F163" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G163" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H163" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I163" s="20" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="166" spans="1:9" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A166" s="66" t="s">
+        <v>283</v>
+      </c>
+      <c r="B166" s="67"/>
+      <c r="C166" s="67"/>
+      <c r="D166" s="67"/>
+      <c r="E166" s="67"/>
+      <c r="F166" s="67"/>
+      <c r="G166" s="68" t="s">
+        <v>235</v>
+      </c>
+      <c r="H166" s="68"/>
+      <c r="I166" s="69"/>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A167" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B156" s="8" t="s">
+      <c r="B167" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C156" s="8" t="s">
+      <c r="C167" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D156" s="8" t="s">
+      <c r="D167" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E156" s="8" t="s">
+      <c r="E167" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F156" s="8" t="s">
+      <c r="F167" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G156" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="H156" s="26" t="s">
+      <c r="G167" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="H167" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="I156" s="9" t="s">
+      <c r="I167" s="9" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A157" s="11">
-        <v>1</v>
-      </c>
-      <c r="B157" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="C157" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="D157" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="E157" s="13">
-        <v>10</v>
-      </c>
-      <c r="F157" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G157" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H157" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="I157" s="14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A158" s="6">
-        <v>2</v>
-      </c>
-      <c r="B158" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="D158" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E158" s="2">
-        <v>50</v>
-      </c>
-      <c r="F158" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G158" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H158" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I158" s="10" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A159" s="18">
-        <v>3</v>
-      </c>
-      <c r="B159" s="25" t="s">
-        <v>233</v>
-      </c>
-      <c r="C159" s="19" t="s">
-        <v>234</v>
-      </c>
-      <c r="D159" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="E159" s="19">
-        <v>2</v>
-      </c>
-      <c r="F159" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="G159" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="H159" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="I159" s="21" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="162" spans="1:9" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A162" s="64" t="s">
-        <v>285</v>
-      </c>
-      <c r="B162" s="65"/>
-      <c r="C162" s="65"/>
-      <c r="D162" s="65"/>
-      <c r="E162" s="65"/>
-      <c r="F162" s="65"/>
-      <c r="G162" s="66" t="s">
-        <v>236</v>
-      </c>
-      <c r="H162" s="66"/>
-      <c r="I162" s="67"/>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A163" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B163" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C163" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D163" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E163" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F163" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G163" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="H163" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="I163" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A164" s="11">
-        <v>1</v>
-      </c>
-      <c r="B164" s="12" t="s">
-        <v>237</v>
-      </c>
-      <c r="C164" s="13" t="s">
-        <v>238</v>
-      </c>
-      <c r="D164" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="E164" s="2">
-        <v>4</v>
-      </c>
-      <c r="F164" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G164" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H164" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="I164" s="14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A165" s="6">
-        <v>2</v>
-      </c>
-      <c r="B165" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="C165" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E165" s="62">
-        <v>100</v>
-      </c>
-      <c r="F165" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G165" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H165" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I165" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A166" s="11">
-        <v>3</v>
-      </c>
-      <c r="B166" s="12" t="s">
-        <v>241</v>
-      </c>
-      <c r="C166" s="13" t="s">
-        <v>242</v>
-      </c>
-      <c r="D166" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E166" s="13">
-        <v>5000</v>
-      </c>
-      <c r="F166" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G166" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H166" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="I166" s="14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A167" s="6">
-        <v>4</v>
-      </c>
-      <c r="B167" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="C167" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="D167" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E167" s="2">
-        <v>500</v>
-      </c>
-      <c r="F167" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G167" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H167" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I167" s="10" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A168" s="11">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B168" s="12" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="C168" s="13" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="D168" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="E168" s="13"/>
+        <v>59</v>
+      </c>
+      <c r="E168" s="2">
+        <v>4</v>
+      </c>
       <c r="F168" s="13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G168" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H168" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H168" s="26" t="s">
         <v>46</v>
       </c>
       <c r="I168" s="14" t="s">
-        <v>255</v>
+        <v>46</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A169" s="6">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="D169" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E169" s="2">
+      <c r="E169" s="61">
         <v>100</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G169" s="2" t="s">
         <v>46</v>
@@ -6037,46 +6223,48 @@
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A170" s="11">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B170" s="12" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="C170" s="13" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="D170" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="E170" s="13"/>
+        <v>8</v>
+      </c>
+      <c r="E170" s="13">
+        <v>5000</v>
+      </c>
       <c r="F170" s="13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G170" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="H170" s="27" t="s">
+      <c r="H170" s="26" t="s">
         <v>46</v>
       </c>
       <c r="I170" s="14" t="s">
-        <v>255</v>
+        <v>46</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A171" s="6">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="D171" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E171" s="2">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>6</v>
@@ -6091,948 +6279,1060 @@
         <v>46</v>
       </c>
     </row>
-    <row r="172" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A172" s="18">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A172" s="11">
+        <v>5</v>
+      </c>
+      <c r="B172" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="C172" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="D172" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E172" s="13"/>
+      <c r="F172" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G172" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H172" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I172" s="14" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A173" s="6">
+        <v>6</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E173" s="2">
+        <v>100</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G173" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H173" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I173" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A174" s="11">
+        <v>7</v>
+      </c>
+      <c r="B174" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="C174" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="D174" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E174" s="13"/>
+      <c r="F174" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G174" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H174" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I174" s="14" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A175" s="6">
+        <v>8</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E175" s="2">
+        <v>100</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G175" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H175" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I175" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A176" s="18">
         <v>9</v>
       </c>
-      <c r="B172" s="25" t="s">
+      <c r="B176" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="C176" s="19" t="s">
         <v>253</v>
       </c>
-      <c r="C172" s="19" t="s">
-        <v>254</v>
-      </c>
-      <c r="D172" s="19" t="s">
+      <c r="D176" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="E172" s="19">
+      <c r="E176" s="19">
         <v>1</v>
       </c>
-      <c r="F172" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="G172" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="H172" s="32" t="s">
+      <c r="F176" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G176" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H176" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="I172" s="21" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="175" spans="1:9" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A175" s="64" t="s">
-        <v>286</v>
-      </c>
-      <c r="B175" s="65"/>
-      <c r="C175" s="65"/>
-      <c r="D175" s="65"/>
-      <c r="E175" s="65"/>
-      <c r="F175" s="65"/>
-      <c r="G175" s="66" t="s">
-        <v>256</v>
-      </c>
-      <c r="H175" s="66"/>
-      <c r="I175" s="67"/>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A176" s="7" t="s">
+      <c r="I176" s="20" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="179" spans="1:9" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A179" s="66" t="s">
+        <v>284</v>
+      </c>
+      <c r="B179" s="67"/>
+      <c r="C179" s="67"/>
+      <c r="D179" s="67"/>
+      <c r="E179" s="67"/>
+      <c r="F179" s="67"/>
+      <c r="G179" s="68" t="s">
+        <v>255</v>
+      </c>
+      <c r="H179" s="68"/>
+      <c r="I179" s="69"/>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A180" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B176" s="8" t="s">
+      <c r="B180" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C176" s="8" t="s">
+      <c r="C180" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D176" s="8" t="s">
+      <c r="D180" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E176" s="8" t="s">
+      <c r="E180" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F176" s="8" t="s">
+      <c r="F180" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G176" s="8" t="s">
+      <c r="G180" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="H176" s="26" t="s">
+      <c r="H180" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="I176" s="9" t="s">
+      <c r="I180" s="9" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A177" s="11">
-        <v>1</v>
-      </c>
-      <c r="B177" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="C177" s="13" t="s">
-        <v>258</v>
-      </c>
-      <c r="D177" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="E177" s="13">
-        <v>4</v>
-      </c>
-      <c r="F177" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G177" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H177" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="I177" s="14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A178" s="6">
-        <v>2</v>
-      </c>
-      <c r="B178" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="C178" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="D178" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E178" s="2">
-        <v>10</v>
-      </c>
-      <c r="F178" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="G178" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H178" s="5"/>
-      <c r="I178" s="10"/>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A179" s="11">
-        <v>3</v>
-      </c>
-      <c r="B179" s="12" t="s">
-        <v>259</v>
-      </c>
-      <c r="C179" s="13" t="s">
-        <v>260</v>
-      </c>
-      <c r="D179" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E179" s="13">
-        <v>20</v>
-      </c>
-      <c r="F179" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="G179" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H179" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="I179" s="14" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A180" s="6">
-        <v>4</v>
-      </c>
-      <c r="B180" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="C180" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="D180" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E180" s="2"/>
-      <c r="F180" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G180" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H180" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I180" s="10" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A181" s="11">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B181" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="C181" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="D181" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E181" s="13">
+        <v>4</v>
+      </c>
+      <c r="F181" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G181" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H181" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I181" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A182" s="6">
+        <v>2</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E182" s="2">
+        <v>10</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="G182" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H182" s="5"/>
+      <c r="I182" s="10"/>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A183" s="11">
+        <v>3</v>
+      </c>
+      <c r="B183" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="C183" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="D183" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E183" s="13">
+        <v>20</v>
+      </c>
+      <c r="F183" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G183" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H183" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I183" s="14" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A184" s="6">
+        <v>4</v>
+      </c>
+      <c r="B184" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E184" s="2"/>
+      <c r="F184" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G184" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H184" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I184" s="10" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A185" s="11">
+        <v>5</v>
+      </c>
+      <c r="B185" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="C185" s="13" t="s">
         <v>264</v>
       </c>
-      <c r="C181" s="13" t="s">
+      <c r="D185" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E185" s="13"/>
+      <c r="F185" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G185" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H185" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I185" s="14" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A186" s="32">
+        <v>6</v>
+      </c>
+      <c r="B186" s="33" t="s">
         <v>265</v>
       </c>
-      <c r="D181" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="E181" s="13"/>
-      <c r="F181" s="13" t="s">
+      <c r="C186" s="34" t="s">
+        <v>266</v>
+      </c>
+      <c r="D186" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="E186" s="34">
+        <v>2</v>
+      </c>
+      <c r="F186" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="G186" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H186" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I186" s="36" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="189" spans="1:9" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A189" s="66" t="s">
+        <v>286</v>
+      </c>
+      <c r="B189" s="67"/>
+      <c r="C189" s="67"/>
+      <c r="D189" s="67"/>
+      <c r="E189" s="67"/>
+      <c r="F189" s="67"/>
+      <c r="G189" s="68" t="s">
+        <v>287</v>
+      </c>
+      <c r="H189" s="68"/>
+      <c r="I189" s="69"/>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A190" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B190" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C190" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D190" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E190" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F190" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G190" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="H190" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="I190" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A191" s="11">
+        <v>1</v>
+      </c>
+      <c r="B191" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="C191" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="D191" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E191" s="13">
+        <v>10</v>
+      </c>
+      <c r="F191" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G191" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H191" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I191" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A192" s="6">
+        <v>2</v>
+      </c>
+      <c r="B192" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E192" s="2">
+        <v>50</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G192" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H192" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I192" s="10" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A193" s="18">
+        <v>3</v>
+      </c>
+      <c r="B193" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="C193" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="D193" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E193" s="19">
+        <v>2</v>
+      </c>
+      <c r="F193" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G193" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H193" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I193" s="20" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="196" spans="1:9" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A196" s="66" t="s">
+        <v>293</v>
+      </c>
+      <c r="B196" s="67"/>
+      <c r="C196" s="67"/>
+      <c r="D196" s="67"/>
+      <c r="E196" s="67"/>
+      <c r="F196" s="67"/>
+      <c r="G196" s="68" t="s">
+        <v>294</v>
+      </c>
+      <c r="H196" s="68"/>
+      <c r="I196" s="69"/>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A197" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B197" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C197" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D197" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E197" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F197" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G197" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="H197" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="I197" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A198" s="11">
+        <v>1</v>
+      </c>
+      <c r="B198" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="C198" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="D198" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E198" s="13">
+        <v>4</v>
+      </c>
+      <c r="F198" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G198" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H198" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I198" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A199" s="6">
+        <v>2</v>
+      </c>
+      <c r="B199" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E199" s="2">
+        <v>100</v>
+      </c>
+      <c r="F199" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G199" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H199" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I199" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A200" s="11">
+        <v>3</v>
+      </c>
+      <c r="B200" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="C200" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="D200" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E200" s="13">
+        <v>500</v>
+      </c>
+      <c r="F200" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G200" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H200" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I200" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A201" s="6">
+        <v>4</v>
+      </c>
+      <c r="B201" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E201" s="2">
+        <v>20</v>
+      </c>
+      <c r="F201" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G201" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H201" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I201" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A202" s="18">
+        <v>5</v>
+      </c>
+      <c r="B202" s="24" t="s">
+        <v>303</v>
+      </c>
+      <c r="C202" s="19" t="s">
+        <v>304</v>
+      </c>
+      <c r="D202" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E202" s="19">
+        <v>500</v>
+      </c>
+      <c r="F202" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G181" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H181" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="I181" s="14" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A182" s="33">
+      <c r="G202" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H202" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I202" s="20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="205" spans="1:9" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A205" s="71" t="s">
+        <v>305</v>
+      </c>
+      <c r="B205" s="72"/>
+      <c r="C205" s="51" t="s">
+        <v>306</v>
+      </c>
+      <c r="D205" s="45"/>
+      <c r="E205" s="41"/>
+      <c r="F205" s="41"/>
+      <c r="G205" s="70"/>
+      <c r="H205" s="70"/>
+      <c r="I205" s="37"/>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A206" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="B206" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="C206" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="D206" s="38"/>
+      <c r="E206" s="38"/>
+      <c r="F206" s="38"/>
+      <c r="G206" s="38"/>
+      <c r="H206" s="38"/>
+      <c r="I206" s="38"/>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A207" s="54">
+        <v>1</v>
+      </c>
+      <c r="B207" s="48" t="s">
+        <v>307</v>
+      </c>
+      <c r="C207" s="55" t="s">
+        <v>308</v>
+      </c>
+      <c r="D207" s="42"/>
+      <c r="E207" s="42"/>
+      <c r="F207" s="42"/>
+      <c r="G207" s="42"/>
+      <c r="H207" s="42"/>
+      <c r="I207" s="39"/>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A208" s="56">
+        <v>2</v>
+      </c>
+      <c r="B208" s="50" t="s">
+        <v>309</v>
+      </c>
+      <c r="C208" s="57" t="s">
+        <v>310</v>
+      </c>
+      <c r="D208" s="42"/>
+      <c r="E208" s="42"/>
+      <c r="F208" s="42"/>
+      <c r="G208" s="42"/>
+      <c r="H208" s="42"/>
+      <c r="I208" s="39"/>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A209" s="54">
+        <v>3</v>
+      </c>
+      <c r="B209" s="48" t="s">
+        <v>311</v>
+      </c>
+      <c r="C209" s="55" t="s">
+        <v>312</v>
+      </c>
+      <c r="D209" s="42"/>
+      <c r="E209" s="42"/>
+      <c r="F209" s="42"/>
+      <c r="G209" s="42"/>
+      <c r="H209" s="42"/>
+      <c r="I209" s="39"/>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A210" s="56">
+        <v>4</v>
+      </c>
+      <c r="B210" s="50" t="s">
+        <v>313</v>
+      </c>
+      <c r="C210" s="57" t="s">
+        <v>314</v>
+      </c>
+      <c r="D210" s="42"/>
+      <c r="E210" s="42"/>
+      <c r="F210" s="42"/>
+      <c r="G210" s="42"/>
+      <c r="H210" s="42"/>
+      <c r="I210" s="39"/>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A211" s="54">
+        <v>5</v>
+      </c>
+      <c r="B211" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="C211" s="55" t="s">
+        <v>316</v>
+      </c>
+      <c r="D211" s="42"/>
+      <c r="E211" s="42"/>
+      <c r="F211" s="42"/>
+      <c r="G211" s="42"/>
+      <c r="H211" s="42"/>
+      <c r="I211" s="39"/>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A212" s="56">
         <v>6</v>
       </c>
-      <c r="B182" s="34" t="s">
-        <v>266</v>
-      </c>
-      <c r="C182" s="35" t="s">
-        <v>267</v>
-      </c>
-      <c r="D182" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="E182" s="35">
-        <v>2</v>
-      </c>
-      <c r="F182" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="G182" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="H182" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="I182" s="37" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="185" spans="1:9" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A185" s="64" t="s">
-        <v>288</v>
-      </c>
-      <c r="B185" s="65"/>
-      <c r="C185" s="65"/>
-      <c r="D185" s="65"/>
-      <c r="E185" s="65"/>
-      <c r="F185" s="65"/>
-      <c r="G185" s="66" t="s">
-        <v>289</v>
-      </c>
-      <c r="H185" s="66"/>
-      <c r="I185" s="67"/>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A186" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B186" s="8" t="s">
+      <c r="B212" s="50" t="s">
+        <v>317</v>
+      </c>
+      <c r="C212" s="57" t="s">
+        <v>318</v>
+      </c>
+      <c r="D212" s="42"/>
+      <c r="E212" s="42"/>
+      <c r="F212" s="42"/>
+      <c r="G212" s="42"/>
+      <c r="H212" s="42"/>
+      <c r="I212" s="39"/>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A213" s="54">
+        <v>7</v>
+      </c>
+      <c r="B213" s="48" t="s">
+        <v>319</v>
+      </c>
+      <c r="C213" s="55" t="s">
+        <v>320</v>
+      </c>
+      <c r="D213" s="42"/>
+      <c r="E213" s="42"/>
+      <c r="F213" s="42"/>
+      <c r="G213" s="42"/>
+      <c r="H213" s="42"/>
+      <c r="I213" s="39"/>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A214" s="56">
+        <v>8</v>
+      </c>
+      <c r="B214" s="50" t="s">
+        <v>321</v>
+      </c>
+      <c r="C214" s="57" t="s">
+        <v>322</v>
+      </c>
+      <c r="D214" s="42"/>
+      <c r="E214" s="42"/>
+      <c r="F214" s="42"/>
+      <c r="G214" s="42"/>
+      <c r="H214" s="42"/>
+      <c r="I214" s="39"/>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A215" s="54">
+        <v>9</v>
+      </c>
+      <c r="B215" s="48" t="s">
+        <v>323</v>
+      </c>
+      <c r="C215" s="55" t="s">
+        <v>324</v>
+      </c>
+      <c r="D215" s="42"/>
+      <c r="E215" s="42"/>
+      <c r="F215" s="42"/>
+      <c r="G215" s="42"/>
+      <c r="H215" s="42"/>
+      <c r="I215" s="39"/>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A216" s="56">
+        <v>10</v>
+      </c>
+      <c r="B216" s="50" t="s">
+        <v>325</v>
+      </c>
+      <c r="C216" s="57" t="s">
+        <v>326</v>
+      </c>
+      <c r="D216" s="42"/>
+      <c r="E216" s="42"/>
+      <c r="F216" s="42"/>
+      <c r="G216" s="42"/>
+      <c r="H216" s="42"/>
+      <c r="I216" s="39"/>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A217" s="54">
+        <v>11</v>
+      </c>
+      <c r="B217" s="48" t="s">
+        <v>327</v>
+      </c>
+      <c r="C217" s="55" t="s">
+        <v>328</v>
+      </c>
+      <c r="D217" s="42"/>
+      <c r="E217" s="42"/>
+      <c r="F217" s="42"/>
+      <c r="G217" s="42"/>
+      <c r="H217" s="42"/>
+      <c r="I217" s="39"/>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A218" s="56">
+        <v>12</v>
+      </c>
+      <c r="B218" s="50" t="s">
+        <v>329</v>
+      </c>
+      <c r="C218" s="57" t="s">
+        <v>330</v>
+      </c>
+      <c r="D218" s="42"/>
+      <c r="E218" s="42"/>
+      <c r="F218" s="42"/>
+      <c r="G218" s="42"/>
+      <c r="H218" s="42"/>
+      <c r="I218" s="39"/>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A219" s="54">
+        <v>13</v>
+      </c>
+      <c r="B219" s="47" t="s">
+        <v>331</v>
+      </c>
+      <c r="C219" s="55" t="s">
+        <v>332</v>
+      </c>
+      <c r="D219" s="42"/>
+      <c r="E219" s="43"/>
+      <c r="F219" s="42"/>
+      <c r="G219" s="44"/>
+      <c r="H219" s="44"/>
+      <c r="I219" s="40"/>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A220" s="56">
+        <v>14</v>
+      </c>
+      <c r="B220" s="49" t="s">
+        <v>333</v>
+      </c>
+      <c r="C220" s="57" t="s">
+        <v>334</v>
+      </c>
+      <c r="D220" s="42"/>
+      <c r="E220" s="42"/>
+      <c r="F220" s="42"/>
+      <c r="G220" s="44"/>
+      <c r="H220" s="44"/>
+      <c r="I220" s="39"/>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A221" s="54">
         <v>15</v>
       </c>
-      <c r="C186" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D186" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E186" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F186" s="8" t="s">
+      <c r="B221" s="47" t="s">
+        <v>335</v>
+      </c>
+      <c r="C221" s="55" t="s">
+        <v>336</v>
+      </c>
+      <c r="D221" s="42"/>
+      <c r="E221" s="42"/>
+      <c r="F221" s="42"/>
+      <c r="G221" s="44"/>
+      <c r="H221" s="44"/>
+      <c r="I221" s="39"/>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A222" s="56">
         <v>12</v>
       </c>
-      <c r="G186" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="H186" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="I186" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A187" s="11">
-        <v>1</v>
-      </c>
-      <c r="B187" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="C187" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="D187" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="E187" s="13">
-        <v>10</v>
-      </c>
-      <c r="F187" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G187" s="13" t="s">
+      <c r="B222" s="50" t="s">
+        <v>337</v>
+      </c>
+      <c r="C222" s="57" t="s">
+        <v>338</v>
+      </c>
+      <c r="D222" s="42"/>
+      <c r="E222" s="42"/>
+      <c r="F222" s="42"/>
+      <c r="G222" s="42"/>
+      <c r="H222" s="42"/>
+      <c r="I222" s="39"/>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A223" s="54">
         <v>13</v>
       </c>
-      <c r="H187" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="I187" s="14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A188" s="6">
-        <v>2</v>
-      </c>
-      <c r="B188" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="C188" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="D188" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E188" s="2">
-        <v>50</v>
-      </c>
-      <c r="F188" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G188" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H188" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I188" s="10" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A189" s="18">
-        <v>3</v>
-      </c>
-      <c r="B189" s="25" t="s">
-        <v>293</v>
-      </c>
-      <c r="C189" s="19" t="s">
-        <v>267</v>
-      </c>
-      <c r="D189" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="E189" s="19">
-        <v>2</v>
-      </c>
-      <c r="F189" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="G189" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="H189" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="I189" s="21" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="192" spans="1:9" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A192" s="64" t="s">
-        <v>295</v>
-      </c>
-      <c r="B192" s="65"/>
-      <c r="C192" s="65"/>
-      <c r="D192" s="65"/>
-      <c r="E192" s="65"/>
-      <c r="F192" s="65"/>
-      <c r="G192" s="66" t="s">
-        <v>296</v>
-      </c>
-      <c r="H192" s="66"/>
-      <c r="I192" s="67"/>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A193" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B193" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C193" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D193" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E193" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F193" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G193" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="H193" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="I193" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A194" s="11">
-        <v>1</v>
-      </c>
-      <c r="B194" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="C194" s="13" t="s">
-        <v>298</v>
-      </c>
-      <c r="D194" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="E194" s="13">
-        <v>4</v>
-      </c>
-      <c r="F194" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G194" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H194" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="I194" s="14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A195" s="6">
-        <v>2</v>
-      </c>
-      <c r="B195" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="C195" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="D195" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E195" s="2">
-        <v>100</v>
-      </c>
-      <c r="F195" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G195" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H195" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I195" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A196" s="11">
-        <v>3</v>
-      </c>
-      <c r="B196" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="C196" s="13" t="s">
-        <v>302</v>
-      </c>
-      <c r="D196" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E196" s="13">
-        <v>500</v>
-      </c>
-      <c r="F196" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G196" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H196" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="I196" s="14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A197" s="6">
-        <v>4</v>
-      </c>
-      <c r="B197" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="C197" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="D197" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E197" s="2">
-        <v>20</v>
-      </c>
-      <c r="F197" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G197" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H197" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I197" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A198" s="18">
-        <v>5</v>
-      </c>
-      <c r="B198" s="25" t="s">
-        <v>305</v>
-      </c>
-      <c r="C198" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="D198" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="E198" s="19">
-        <v>500</v>
-      </c>
-      <c r="F198" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="G198" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="H198" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="I198" s="21" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="201" spans="1:9" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A201" s="72" t="s">
-        <v>307</v>
-      </c>
-      <c r="B201" s="73"/>
-      <c r="C201" s="52" t="s">
-        <v>308</v>
-      </c>
-      <c r="D201" s="46"/>
-      <c r="E201" s="42"/>
-      <c r="F201" s="42"/>
-      <c r="G201" s="71"/>
-      <c r="H201" s="71"/>
-      <c r="I201" s="38"/>
-    </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A202" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="B202" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="C202" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="D202" s="39"/>
-      <c r="E202" s="39"/>
-      <c r="F202" s="39"/>
-      <c r="G202" s="39"/>
-      <c r="H202" s="39"/>
-      <c r="I202" s="39"/>
-    </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A203" s="55">
-        <v>1</v>
-      </c>
-      <c r="B203" s="49" t="s">
-        <v>309</v>
-      </c>
-      <c r="C203" s="56" t="s">
-        <v>310</v>
-      </c>
-      <c r="D203" s="43"/>
-      <c r="E203" s="43"/>
-      <c r="F203" s="43"/>
-      <c r="G203" s="43"/>
-      <c r="H203" s="43"/>
-      <c r="I203" s="40"/>
-    </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A204" s="57">
-        <v>2</v>
-      </c>
-      <c r="B204" s="51" t="s">
-        <v>311</v>
-      </c>
-      <c r="C204" s="58" t="s">
-        <v>312</v>
-      </c>
-      <c r="D204" s="43"/>
-      <c r="E204" s="43"/>
-      <c r="F204" s="43"/>
-      <c r="G204" s="43"/>
-      <c r="H204" s="43"/>
-      <c r="I204" s="40"/>
-    </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A205" s="55">
-        <v>3</v>
-      </c>
-      <c r="B205" s="49" t="s">
-        <v>313</v>
-      </c>
-      <c r="C205" s="56" t="s">
-        <v>314</v>
-      </c>
-      <c r="D205" s="43"/>
-      <c r="E205" s="43"/>
-      <c r="F205" s="43"/>
-      <c r="G205" s="43"/>
-      <c r="H205" s="43"/>
-      <c r="I205" s="40"/>
-    </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A206" s="57">
-        <v>4</v>
-      </c>
-      <c r="B206" s="51" t="s">
-        <v>315</v>
-      </c>
-      <c r="C206" s="58" t="s">
-        <v>316</v>
-      </c>
-      <c r="D206" s="43"/>
-      <c r="E206" s="43"/>
-      <c r="F206" s="43"/>
-      <c r="G206" s="43"/>
-      <c r="H206" s="43"/>
-      <c r="I206" s="40"/>
-    </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A207" s="55">
-        <v>5</v>
-      </c>
-      <c r="B207" s="49" t="s">
-        <v>317</v>
-      </c>
-      <c r="C207" s="56" t="s">
-        <v>318</v>
-      </c>
-      <c r="D207" s="43"/>
-      <c r="E207" s="43"/>
-      <c r="F207" s="43"/>
-      <c r="G207" s="43"/>
-      <c r="H207" s="43"/>
-      <c r="I207" s="40"/>
-    </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A208" s="57">
-        <v>6</v>
-      </c>
-      <c r="B208" s="51" t="s">
-        <v>319</v>
-      </c>
-      <c r="C208" s="58" t="s">
-        <v>320</v>
-      </c>
-      <c r="D208" s="43"/>
-      <c r="E208" s="43"/>
-      <c r="F208" s="43"/>
-      <c r="G208" s="43"/>
-      <c r="H208" s="43"/>
-      <c r="I208" s="40"/>
-    </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A209" s="55">
-        <v>7</v>
-      </c>
-      <c r="B209" s="49" t="s">
-        <v>321</v>
-      </c>
-      <c r="C209" s="56" t="s">
-        <v>322</v>
-      </c>
-      <c r="D209" s="43"/>
-      <c r="E209" s="43"/>
-      <c r="F209" s="43"/>
-      <c r="G209" s="43"/>
-      <c r="H209" s="43"/>
-      <c r="I209" s="40"/>
-    </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A210" s="57">
-        <v>8</v>
-      </c>
-      <c r="B210" s="51" t="s">
-        <v>323</v>
-      </c>
-      <c r="C210" s="58" t="s">
-        <v>324</v>
-      </c>
-      <c r="D210" s="43"/>
-      <c r="E210" s="43"/>
-      <c r="F210" s="43"/>
-      <c r="G210" s="43"/>
-      <c r="H210" s="43"/>
-      <c r="I210" s="40"/>
-    </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A211" s="55">
-        <v>9</v>
-      </c>
-      <c r="B211" s="49" t="s">
-        <v>325</v>
-      </c>
-      <c r="C211" s="56" t="s">
-        <v>326</v>
-      </c>
-      <c r="D211" s="43"/>
-      <c r="E211" s="43"/>
-      <c r="F211" s="43"/>
-      <c r="G211" s="43"/>
-      <c r="H211" s="43"/>
-      <c r="I211" s="40"/>
-    </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A212" s="57">
-        <v>10</v>
-      </c>
-      <c r="B212" s="51" t="s">
-        <v>327</v>
-      </c>
-      <c r="C212" s="58" t="s">
-        <v>328</v>
-      </c>
-      <c r="D212" s="43"/>
-      <c r="E212" s="43"/>
-      <c r="F212" s="43"/>
-      <c r="G212" s="43"/>
-      <c r="H212" s="43"/>
-      <c r="I212" s="40"/>
-    </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A213" s="55">
-        <v>11</v>
-      </c>
-      <c r="B213" s="49" t="s">
-        <v>329</v>
-      </c>
-      <c r="C213" s="56" t="s">
-        <v>330</v>
-      </c>
-      <c r="D213" s="43"/>
-      <c r="E213" s="43"/>
-      <c r="F213" s="43"/>
-      <c r="G213" s="43"/>
-      <c r="H213" s="43"/>
-      <c r="I213" s="40"/>
-    </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A214" s="57">
-        <v>12</v>
-      </c>
-      <c r="B214" s="51" t="s">
-        <v>331</v>
-      </c>
-      <c r="C214" s="58" t="s">
-        <v>332</v>
-      </c>
-      <c r="D214" s="43"/>
-      <c r="E214" s="43"/>
-      <c r="F214" s="43"/>
-      <c r="G214" s="43"/>
-      <c r="H214" s="43"/>
-      <c r="I214" s="40"/>
-    </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A215" s="55">
-        <v>13</v>
-      </c>
-      <c r="B215" s="48" t="s">
-        <v>333</v>
-      </c>
-      <c r="C215" s="56" t="s">
-        <v>334</v>
-      </c>
-      <c r="D215" s="43"/>
-      <c r="E215" s="44"/>
-      <c r="F215" s="43"/>
-      <c r="G215" s="45"/>
-      <c r="H215" s="45"/>
-      <c r="I215" s="41"/>
-    </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A216" s="57">
+      <c r="B223" s="47" t="s">
+        <v>339</v>
+      </c>
+      <c r="C223" s="55" t="s">
+        <v>340</v>
+      </c>
+      <c r="D223" s="42"/>
+      <c r="E223" s="43"/>
+      <c r="F223" s="42"/>
+      <c r="G223" s="44"/>
+      <c r="H223" s="44"/>
+      <c r="I223" s="40"/>
+    </row>
+    <row r="224" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A224" s="58">
         <v>14</v>
       </c>
-      <c r="B216" s="50" t="s">
-        <v>335</v>
-      </c>
-      <c r="C216" s="58" t="s">
-        <v>336</v>
-      </c>
-      <c r="D216" s="43"/>
-      <c r="E216" s="43"/>
-      <c r="F216" s="43"/>
-      <c r="G216" s="45"/>
-      <c r="H216" s="45"/>
-      <c r="I216" s="40"/>
-    </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A217" s="55">
-        <v>15</v>
-      </c>
-      <c r="B217" s="48" t="s">
-        <v>337</v>
-      </c>
-      <c r="C217" s="56" t="s">
-        <v>338</v>
-      </c>
-      <c r="D217" s="43"/>
-      <c r="E217" s="43"/>
-      <c r="F217" s="43"/>
-      <c r="G217" s="45"/>
-      <c r="H217" s="45"/>
-      <c r="I217" s="40"/>
-    </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A218" s="57">
-        <v>12</v>
-      </c>
-      <c r="B218" s="51" t="s">
-        <v>339</v>
-      </c>
-      <c r="C218" s="58" t="s">
-        <v>340</v>
-      </c>
-      <c r="D218" s="43"/>
-      <c r="E218" s="43"/>
-      <c r="F218" s="43"/>
-      <c r="G218" s="43"/>
-      <c r="H218" s="43"/>
-      <c r="I218" s="40"/>
-    </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A219" s="55">
-        <v>13</v>
-      </c>
-      <c r="B219" s="48" t="s">
+      <c r="B224" s="59" t="s">
         <v>341</v>
       </c>
-      <c r="C219" s="56" t="s">
+      <c r="C224" s="60" t="s">
         <v>342</v>
       </c>
-      <c r="D219" s="43"/>
-      <c r="E219" s="44"/>
-      <c r="F219" s="43"/>
-      <c r="G219" s="45"/>
-      <c r="H219" s="45"/>
-      <c r="I219" s="41"/>
-    </row>
-    <row r="220" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A220" s="59">
-        <v>14</v>
-      </c>
-      <c r="B220" s="60" t="s">
-        <v>343</v>
-      </c>
-      <c r="C220" s="61" t="s">
-        <v>344</v>
-      </c>
-      <c r="D220" s="43"/>
-      <c r="E220" s="43"/>
-      <c r="F220" s="43"/>
-      <c r="G220" s="45"/>
-      <c r="H220" s="45"/>
-      <c r="I220" s="40"/>
+      <c r="D224" s="42"/>
+      <c r="E224" s="42"/>
+      <c r="F224" s="42"/>
+      <c r="G224" s="44"/>
+      <c r="H224" s="44"/>
+      <c r="I224" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="A192:F192"/>
-    <mergeCell ref="G192:I192"/>
-    <mergeCell ref="G201:H201"/>
-    <mergeCell ref="A201:B201"/>
-    <mergeCell ref="A162:F162"/>
-    <mergeCell ref="G162:I162"/>
-    <mergeCell ref="A175:F175"/>
-    <mergeCell ref="G175:I175"/>
-    <mergeCell ref="A185:F185"/>
-    <mergeCell ref="G185:I185"/>
-    <mergeCell ref="A133:F133"/>
-    <mergeCell ref="G133:I133"/>
-    <mergeCell ref="A142:F142"/>
-    <mergeCell ref="G142:I142"/>
-    <mergeCell ref="A155:F155"/>
-    <mergeCell ref="G155:I155"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="A1:I3"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="A56:F56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="A75:F75"/>
+    <mergeCell ref="G75:I75"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="G82:I82"/>
+    <mergeCell ref="A90:F90"/>
+    <mergeCell ref="G90:I90"/>
     <mergeCell ref="A103:F103"/>
     <mergeCell ref="G103:I103"/>
     <mergeCell ref="A113:F113"/>
     <mergeCell ref="G113:I113"/>
     <mergeCell ref="A121:F121"/>
     <mergeCell ref="G121:I121"/>
-    <mergeCell ref="A75:F75"/>
-    <mergeCell ref="G75:I75"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="G82:I82"/>
-    <mergeCell ref="A90:F90"/>
-    <mergeCell ref="G90:I90"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="A56:F56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="A1:I3"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="A133:F133"/>
+    <mergeCell ref="G133:I133"/>
+    <mergeCell ref="A146:F146"/>
+    <mergeCell ref="G146:I146"/>
+    <mergeCell ref="A159:F159"/>
+    <mergeCell ref="G159:I159"/>
+    <mergeCell ref="A196:F196"/>
+    <mergeCell ref="G196:I196"/>
+    <mergeCell ref="G205:H205"/>
+    <mergeCell ref="A205:B205"/>
+    <mergeCell ref="A166:F166"/>
+    <mergeCell ref="G166:I166"/>
+    <mergeCell ref="A179:F179"/>
+    <mergeCell ref="G179:I179"/>
+    <mergeCell ref="A189:F189"/>
+    <mergeCell ref="G189:I189"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DB/오후3조 Channel_KGV 테이블 명세서.xlsx
+++ b/DB/오후3조 Channel_KGV 테이블 명세서.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cropr\Desktop\FINAL_PROJECT\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC2FB55A-8F69-4E42-B3FB-E81845CC9ADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86DFB2D1-6198-42D5-B6A1-0F7EB7B27BA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15660" yWindow="2085" windowWidth="15195" windowHeight="12210" xr2:uid="{BB9CF8A4-12E5-4296-9F19-D4219680D6A5}"/>
+    <workbookView xWindow="-38520" yWindow="480" windowWidth="38640" windowHeight="21240" xr2:uid="{BB9CF8A4-12E5-4296-9F19-D4219680D6A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$226</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$222</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="351">
   <si>
     <t>번호</t>
   </si>
@@ -622,6 +622,9 @@
     <t>EVENT_NO</t>
   </si>
   <si>
+    <t>아벤트번호</t>
+  </si>
+  <si>
     <t>EVENT_TITLE</t>
   </si>
   <si>
@@ -923,6 +926,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>11. 이벤트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>12. 문의</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1145,50 +1152,6 @@
   </si>
   <si>
     <t>USER_DELETE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ASK_DATE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>문의 일자</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ASK_STATUS</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>문의 상태</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>답변 완료 시 Y / 아닐 경우 N</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ASK_DONE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>문의 완료일자</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SYSDATE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자번호</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>이벤트번호</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>11. 이벤트 // 회원번호와 예매번호??</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1196,7 +1159,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1276,14 +1239,6 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -1329,7 +1284,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -1751,37 +1706,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1789,7 +1713,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1850,6 +1774,9 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1979,15 +1906,6 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2000,6 +1918,15 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2009,42 +1936,6 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2055,99 +1946,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -2465,10 +2263,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61ADAB32-AF28-447C-8C14-BFAB34CED619}">
-  <dimension ref="A1:I224"/>
+  <dimension ref="A1:I220"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A118" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A121" sqref="A121:F121"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2483,54 +2281,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="73" t="s">
-        <v>343</v>
-      </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
+      <c r="A1" s="68" t="s">
+        <v>345</v>
+      </c>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A2" s="74"/>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
+      <c r="A2" s="69"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
     </row>
     <row r="3" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="75"/>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
+      <c r="A3" s="70"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
     </row>
     <row r="4" spans="1:9" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="66" t="s">
-        <v>270</v>
-      </c>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="68" t="s">
+      <c r="A4" s="64" t="s">
+        <v>271</v>
+      </c>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="68"/>
-      <c r="I4" s="69"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="67"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="7" t="s">
@@ -2554,7 +2352,7 @@
       <c r="G5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="25" t="s">
+      <c r="H5" s="26" t="s">
         <v>78</v>
       </c>
       <c r="I5" s="9" t="s">
@@ -2583,7 +2381,7 @@
       <c r="G6" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="26" t="s">
+      <c r="H6" s="27" t="s">
         <v>46</v>
       </c>
       <c r="I6" s="14" t="s">
@@ -2637,11 +2435,11 @@
         <v>5</v>
       </c>
       <c r="G8" s="13"/>
-      <c r="H8" s="26" t="s">
+      <c r="H8" s="27" t="s">
         <v>46</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
@@ -2691,7 +2489,7 @@
         <v>5</v>
       </c>
       <c r="G10" s="13"/>
-      <c r="H10" s="26" t="s">
+      <c r="H10" s="27" t="s">
         <v>46</v>
       </c>
       <c r="I10" s="14" t="s">
@@ -2745,7 +2543,7 @@
         <v>6</v>
       </c>
       <c r="G12" s="13"/>
-      <c r="H12" s="26" t="s">
+      <c r="H12" s="27" t="s">
         <v>46</v>
       </c>
       <c r="I12" s="14" t="s">
@@ -2797,7 +2595,7 @@
         <v>6</v>
       </c>
       <c r="G14" s="13"/>
-      <c r="H14" s="26" t="s">
+      <c r="H14" s="27" t="s">
         <v>46</v>
       </c>
       <c r="I14" s="14" t="s">
@@ -2805,228 +2603,228 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A15" s="63">
+      <c r="A15" s="74">
         <v>10</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="G15" s="3"/>
-      <c r="H15" s="64" t="s">
+      <c r="E15" s="75"/>
+      <c r="F15" s="75" t="s">
+        <v>270</v>
+      </c>
+      <c r="G15" s="75"/>
+      <c r="H15" s="76" t="s">
         <v>79</v>
       </c>
-      <c r="I15" s="65" t="s">
+      <c r="I15" s="77" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A16" s="98">
+      <c r="A16" s="74">
         <v>11</v>
       </c>
-      <c r="B16" s="99" t="s">
+      <c r="B16" s="75" t="s">
+        <v>350</v>
+      </c>
+      <c r="C16" s="75" t="s">
+        <v>347</v>
+      </c>
+      <c r="D16" s="75" t="s">
         <v>348</v>
       </c>
-      <c r="C16" s="99" t="s">
-        <v>345</v>
-      </c>
-      <c r="D16" s="99" t="s">
-        <v>346</v>
-      </c>
-      <c r="E16" s="99"/>
-      <c r="F16" s="99" t="s">
-        <v>347</v>
-      </c>
-      <c r="G16" s="99"/>
-      <c r="H16" s="100" t="s">
+      <c r="E16" s="75"/>
+      <c r="F16" s="75" t="s">
+        <v>349</v>
+      </c>
+      <c r="G16" s="75"/>
+      <c r="H16" s="76" t="s">
         <v>79</v>
       </c>
-      <c r="I16" s="101"/>
+      <c r="I16" s="77"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A17" s="85">
+      <c r="A17" s="6">
         <v>12</v>
       </c>
-      <c r="B17" s="86" t="s">
+      <c r="B17" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="86" t="s">
+      <c r="C17" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="86" t="s">
+      <c r="D17" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="E17" s="86">
+      <c r="E17" s="13">
         <v>1</v>
       </c>
-      <c r="F17" s="86" t="s">
-        <v>5</v>
-      </c>
-      <c r="G17" s="86"/>
-      <c r="H17" s="87" t="s">
+      <c r="F17" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="13"/>
+      <c r="H17" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="I17" s="88" t="s">
+      <c r="I17" s="14" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A18" s="102">
+      <c r="A18" s="6">
         <v>13</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E18" s="2">
         <v>500</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="F18" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G18" s="12"/>
-      <c r="H18" s="103" t="s">
-        <v>46</v>
-      </c>
-      <c r="I18" s="104" t="s">
+      <c r="G18" s="2"/>
+      <c r="H18" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" s="10" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A19" s="85">
+      <c r="A19" s="6">
         <v>14</v>
       </c>
-      <c r="B19" s="86" t="s">
+      <c r="B19" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="86" t="s">
+      <c r="C19" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="86" t="s">
+      <c r="D19" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="E19" s="89">
+      <c r="E19" s="15">
         <v>11</v>
       </c>
-      <c r="F19" s="86" t="s">
+      <c r="F19" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G19" s="90"/>
-      <c r="H19" s="91" t="s">
+      <c r="G19" s="16"/>
+      <c r="H19" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="I19" s="92" t="s">
+      <c r="I19" s="17" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A20" s="102">
+      <c r="A20" s="6">
         <v>15</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E20" s="2">
         <v>1</v>
       </c>
-      <c r="F20" s="12" t="s">
+      <c r="F20" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G20" s="105"/>
-      <c r="H20" s="106" t="s">
-        <v>5</v>
-      </c>
-      <c r="I20" s="104" t="s">
+      <c r="G20" s="4"/>
+      <c r="H20" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="I20" s="10" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="93">
+      <c r="A21" s="18">
         <v>16</v>
       </c>
-      <c r="B21" s="94" t="s">
+      <c r="B21" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="94" t="s">
+      <c r="C21" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="94" t="s">
+      <c r="D21" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="E21" s="94"/>
-      <c r="F21" s="94" t="s">
+      <c r="E21" s="19"/>
+      <c r="F21" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G21" s="95"/>
-      <c r="H21" s="96" t="s">
-        <v>46</v>
-      </c>
-      <c r="I21" s="97" t="s">
-        <v>254</v>
+      <c r="G21" s="20"/>
+      <c r="H21" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" s="21" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="24" spans="1:9" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="66" t="s">
-        <v>271</v>
-      </c>
-      <c r="B24" s="67"/>
-      <c r="C24" s="67"/>
-      <c r="D24" s="67"/>
-      <c r="E24" s="67"/>
-      <c r="F24" s="67"/>
-      <c r="G24" s="68" t="s">
+      <c r="A24" s="64" t="s">
+        <v>272</v>
+      </c>
+      <c r="B24" s="65"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="66" t="s">
         <v>54</v>
       </c>
-      <c r="H24" s="68"/>
-      <c r="I24" s="69"/>
+      <c r="H24" s="66"/>
+      <c r="I24" s="67"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A25" s="21" t="s">
+      <c r="A25" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="22" t="s">
+      <c r="C25" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="22" t="s">
+      <c r="D25" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="E25" s="22" t="s">
+      <c r="E25" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="F25" s="22" t="s">
+      <c r="F25" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="G25" s="22" t="s">
+      <c r="G25" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="H25" s="30" t="s">
+      <c r="H25" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="I25" s="23" t="s">
+      <c r="I25" s="24" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3052,7 +2850,7 @@
       <c r="G26" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="H26" s="26"/>
+      <c r="H26" s="27"/>
       <c r="I26" s="14" t="s">
         <v>46</v>
       </c>
@@ -3088,7 +2886,7 @@
       <c r="A28" s="18">
         <v>3</v>
       </c>
-      <c r="B28" s="24" t="s">
+      <c r="B28" s="25" t="s">
         <v>58</v>
       </c>
       <c r="C28" s="19" t="s">
@@ -3106,26 +2904,26 @@
       <c r="G28" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="H28" s="31"/>
-      <c r="I28" s="20" t="s">
+      <c r="H28" s="32"/>
+      <c r="I28" s="21" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="31" spans="1:9" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="66" t="s">
-        <v>272</v>
-      </c>
-      <c r="B31" s="67"/>
-      <c r="C31" s="67"/>
-      <c r="D31" s="67"/>
-      <c r="E31" s="67"/>
-      <c r="F31" s="67"/>
-      <c r="G31" s="68" t="s">
+      <c r="A31" s="64" t="s">
+        <v>273</v>
+      </c>
+      <c r="B31" s="65"/>
+      <c r="C31" s="65"/>
+      <c r="D31" s="65"/>
+      <c r="E31" s="65"/>
+      <c r="F31" s="65"/>
+      <c r="G31" s="66" t="s">
         <v>66</v>
       </c>
-      <c r="H31" s="68"/>
-      <c r="I31" s="69"/>
+      <c r="H31" s="66"/>
+      <c r="I31" s="67"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A32" s="7" t="s">
@@ -3149,7 +2947,7 @@
       <c r="G32" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H32" s="25" t="s">
+      <c r="H32" s="26" t="s">
         <v>78</v>
       </c>
       <c r="I32" s="9" t="s">
@@ -3178,7 +2976,7 @@
       <c r="G33" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="H33" s="26" t="s">
+      <c r="H33" s="27" t="s">
         <v>46</v>
       </c>
       <c r="I33" s="14" t="s">
@@ -3236,7 +3034,7 @@
       <c r="G35" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="H35" s="26" t="s">
+      <c r="H35" s="27" t="s">
         <v>46</v>
       </c>
       <c r="I35" s="14" t="s">
@@ -3290,7 +3088,7 @@
         <v>5</v>
       </c>
       <c r="G37" s="13"/>
-      <c r="H37" s="26" t="s">
+      <c r="H37" s="27" t="s">
         <v>5</v>
       </c>
       <c r="I37" s="14" t="s">
@@ -3342,7 +3140,7 @@
         <v>6</v>
       </c>
       <c r="G39" s="13"/>
-      <c r="H39" s="26" t="s">
+      <c r="H39" s="27" t="s">
         <v>79</v>
       </c>
       <c r="I39" s="14" t="s">
@@ -3350,45 +3148,45 @@
       </c>
     </row>
     <row r="40" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="32">
+      <c r="A40" s="33">
         <v>8</v>
       </c>
-      <c r="B40" s="33" t="s">
+      <c r="B40" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="C40" s="34" t="s">
+      <c r="C40" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="D40" s="34" t="s">
+      <c r="D40" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="E40" s="34"/>
-      <c r="F40" s="34" t="s">
+      <c r="E40" s="35"/>
+      <c r="F40" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="G40" s="34"/>
-      <c r="H40" s="35" t="s">
+      <c r="G40" s="35"/>
+      <c r="H40" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="I40" s="36" t="s">
+      <c r="I40" s="37" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="43" spans="1:9" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="66" t="s">
-        <v>273</v>
-      </c>
-      <c r="B43" s="67"/>
-      <c r="C43" s="67"/>
-      <c r="D43" s="67"/>
-      <c r="E43" s="67"/>
-      <c r="F43" s="67"/>
-      <c r="G43" s="68" t="s">
+      <c r="A43" s="64" t="s">
+        <v>274</v>
+      </c>
+      <c r="B43" s="65"/>
+      <c r="C43" s="65"/>
+      <c r="D43" s="65"/>
+      <c r="E43" s="65"/>
+      <c r="F43" s="65"/>
+      <c r="G43" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="H43" s="68"/>
-      <c r="I43" s="69"/>
+      <c r="H43" s="66"/>
+      <c r="I43" s="67"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A44" s="7" t="s">
@@ -3412,7 +3210,7 @@
       <c r="G44" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H44" s="25" t="s">
+      <c r="H44" s="26" t="s">
         <v>78</v>
       </c>
       <c r="I44" s="9" t="s">
@@ -3441,7 +3239,7 @@
       <c r="G45" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="H45" s="26" t="s">
+      <c r="H45" s="27" t="s">
         <v>46</v>
       </c>
       <c r="I45" s="14" t="s">
@@ -3499,7 +3297,7 @@
       <c r="G47" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="H47" s="26" t="s">
+      <c r="H47" s="27" t="s">
         <v>46</v>
       </c>
       <c r="I47" s="14" t="s">
@@ -3555,7 +3353,7 @@
       <c r="G49" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="H49" s="26" t="s">
+      <c r="H49" s="27" t="s">
         <v>46</v>
       </c>
       <c r="I49" s="14" t="s">
@@ -3613,7 +3411,7 @@
       <c r="G51" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="H51" s="26" t="s">
+      <c r="H51" s="27" t="s">
         <v>85</v>
       </c>
       <c r="I51" s="14" t="s">
@@ -3653,7 +3451,7 @@
       <c r="A53" s="18">
         <v>9</v>
       </c>
-      <c r="B53" s="24" t="s">
+      <c r="B53" s="25" t="s">
         <v>100</v>
       </c>
       <c r="C53" s="19" t="s">
@@ -3671,28 +3469,28 @@
       <c r="G53" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="H53" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="I53" s="20" t="s">
+      <c r="H53" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="I53" s="21" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="56" spans="1:9" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A56" s="66" t="s">
-        <v>274</v>
-      </c>
-      <c r="B56" s="67"/>
-      <c r="C56" s="67"/>
-      <c r="D56" s="67"/>
-      <c r="E56" s="67"/>
-      <c r="F56" s="67"/>
-      <c r="G56" s="68" t="s">
+      <c r="A56" s="64" t="s">
+        <v>275</v>
+      </c>
+      <c r="B56" s="65"/>
+      <c r="C56" s="65"/>
+      <c r="D56" s="65"/>
+      <c r="E56" s="65"/>
+      <c r="F56" s="65"/>
+      <c r="G56" s="66" t="s">
         <v>105</v>
       </c>
-      <c r="H56" s="68"/>
-      <c r="I56" s="69"/>
+      <c r="H56" s="66"/>
+      <c r="I56" s="67"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A57" s="7" t="s">
@@ -3716,7 +3514,7 @@
       <c r="G57" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H57" s="25" t="s">
+      <c r="H57" s="26" t="s">
         <v>78</v>
       </c>
       <c r="I57" s="9" t="s">
@@ -3743,9 +3541,9 @@
         <v>5</v>
       </c>
       <c r="G58" s="13" t="s">
-        <v>344</v>
-      </c>
-      <c r="H58" s="26" t="s">
+        <v>346</v>
+      </c>
+      <c r="H58" s="27" t="s">
         <v>46</v>
       </c>
       <c r="I58" s="14" t="s">
@@ -3803,7 +3601,7 @@
       <c r="G60" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="H60" s="26" t="s">
+      <c r="H60" s="27" t="s">
         <v>46</v>
       </c>
       <c r="I60" s="14" t="s">
@@ -3859,7 +3657,7 @@
       <c r="G62" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="H62" s="26" t="s">
+      <c r="H62" s="27" t="s">
         <v>79</v>
       </c>
       <c r="I62" s="14" t="s">
@@ -3917,7 +3715,7 @@
       <c r="G64" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="H64" s="26" t="s">
+      <c r="H64" s="27" t="s">
         <v>46</v>
       </c>
       <c r="I64" s="14" t="s">
@@ -3975,7 +3773,7 @@
       <c r="G66" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="H66" s="26" t="s">
+      <c r="H66" s="27" t="s">
         <v>46</v>
       </c>
       <c r="I66" s="14" t="s">
@@ -4031,7 +3829,7 @@
       <c r="G68" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="H68" s="26" t="s">
+      <c r="H68" s="27" t="s">
         <v>79</v>
       </c>
       <c r="I68" s="14" t="s">
@@ -4087,7 +3885,7 @@
       <c r="G70" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="H70" s="27" t="s">
+      <c r="H70" s="28" t="s">
         <v>79</v>
       </c>
       <c r="I70" s="17" t="s">
@@ -4116,7 +3914,7 @@
       <c r="G71" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="H71" s="28" t="s">
+      <c r="H71" s="29" t="s">
         <v>46</v>
       </c>
       <c r="I71" s="10" t="s">
@@ -4142,31 +3940,31 @@
       <c r="F72" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G72" s="62" t="s">
+      <c r="G72" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="H72" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="I72" s="20" t="s">
+      <c r="H72" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I72" s="21" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="75" spans="1:9" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A75" s="66" t="s">
-        <v>275</v>
-      </c>
-      <c r="B75" s="67"/>
-      <c r="C75" s="67"/>
-      <c r="D75" s="67"/>
-      <c r="E75" s="67"/>
-      <c r="F75" s="67"/>
-      <c r="G75" s="68" t="s">
-        <v>200</v>
-      </c>
-      <c r="H75" s="68"/>
-      <c r="I75" s="69"/>
+      <c r="A75" s="64" t="s">
+        <v>276</v>
+      </c>
+      <c r="B75" s="65"/>
+      <c r="C75" s="65"/>
+      <c r="D75" s="65"/>
+      <c r="E75" s="65"/>
+      <c r="F75" s="65"/>
+      <c r="G75" s="66" t="s">
+        <v>201</v>
+      </c>
+      <c r="H75" s="66"/>
+      <c r="I75" s="67"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A76" s="7" t="s">
@@ -4190,7 +3988,7 @@
       <c r="G76" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H76" s="25" t="s">
+      <c r="H76" s="26" t="s">
         <v>78</v>
       </c>
       <c r="I76" s="9" t="s">
@@ -4202,7 +4000,7 @@
         <v>1</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C77" s="13" t="s">
         <v>137</v>
@@ -4219,7 +4017,7 @@
       <c r="G77" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="H77" s="26" t="s">
+      <c r="H77" s="27" t="s">
         <v>46</v>
       </c>
       <c r="I77" s="14" t="s">
@@ -4259,7 +4057,7 @@
       <c r="A79" s="18">
         <v>3</v>
       </c>
-      <c r="B79" s="24" t="s">
+      <c r="B79" s="25" t="s">
         <v>138</v>
       </c>
       <c r="C79" s="19" t="s">
@@ -4277,28 +4075,28 @@
       <c r="G79" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="H79" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="I79" s="20" t="s">
+      <c r="H79" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I79" s="21" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="82" spans="1:9" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A82" s="66" t="s">
-        <v>276</v>
-      </c>
-      <c r="B82" s="67"/>
-      <c r="C82" s="67"/>
-      <c r="D82" s="67"/>
-      <c r="E82" s="67"/>
-      <c r="F82" s="67"/>
-      <c r="G82" s="68" t="s">
+      <c r="A82" s="64" t="s">
+        <v>277</v>
+      </c>
+      <c r="B82" s="65"/>
+      <c r="C82" s="65"/>
+      <c r="D82" s="65"/>
+      <c r="E82" s="65"/>
+      <c r="F82" s="65"/>
+      <c r="G82" s="66" t="s">
         <v>140</v>
       </c>
-      <c r="H82" s="68"/>
-      <c r="I82" s="69"/>
+      <c r="H82" s="66"/>
+      <c r="I82" s="67"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A83" s="7" t="s">
@@ -4322,7 +4120,7 @@
       <c r="G83" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H83" s="25" t="s">
+      <c r="H83" s="26" t="s">
         <v>78</v>
       </c>
       <c r="I83" s="9" t="s">
@@ -4351,7 +4149,7 @@
       <c r="G84" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="H84" s="26" t="s">
+      <c r="H84" s="27" t="s">
         <v>46</v>
       </c>
       <c r="I84" s="14" t="s">
@@ -4409,7 +4207,7 @@
       <c r="G86" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="H86" s="26" t="s">
+      <c r="H86" s="27" t="s">
         <v>46</v>
       </c>
       <c r="I86" s="14" t="s">
@@ -4417,49 +4215,49 @@
       </c>
     </row>
     <row r="87" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A87" s="32">
+      <c r="A87" s="33">
         <v>4</v>
       </c>
-      <c r="B87" s="33" t="s">
+      <c r="B87" s="34" t="s">
         <v>148</v>
       </c>
-      <c r="C87" s="34" t="s">
+      <c r="C87" s="35" t="s">
         <v>149</v>
       </c>
-      <c r="D87" s="34" t="s">
+      <c r="D87" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="E87" s="34">
+      <c r="E87" s="35">
         <v>3</v>
       </c>
-      <c r="F87" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="G87" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="H87" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="I87" s="36" t="s">
+      <c r="F87" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="G87" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I87" s="37" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="90" spans="1:9" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A90" s="66" t="s">
-        <v>277</v>
-      </c>
-      <c r="B90" s="67"/>
-      <c r="C90" s="67"/>
-      <c r="D90" s="67"/>
-      <c r="E90" s="67"/>
-      <c r="F90" s="67"/>
-      <c r="G90" s="68" t="s">
+      <c r="A90" s="64" t="s">
+        <v>278</v>
+      </c>
+      <c r="B90" s="65"/>
+      <c r="C90" s="65"/>
+      <c r="D90" s="65"/>
+      <c r="E90" s="65"/>
+      <c r="F90" s="65"/>
+      <c r="G90" s="66" t="s">
         <v>151</v>
       </c>
-      <c r="H90" s="68"/>
-      <c r="I90" s="69"/>
+      <c r="H90" s="66"/>
+      <c r="I90" s="67"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A91" s="7" t="s">
@@ -4483,7 +4281,7 @@
       <c r="G91" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="H91" s="25" t="s">
+      <c r="H91" s="26" t="s">
         <v>78</v>
       </c>
       <c r="I91" s="9" t="s">
@@ -4512,7 +4310,7 @@
       <c r="G92" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="H92" s="26" t="s">
+      <c r="H92" s="27" t="s">
         <v>46</v>
       </c>
       <c r="I92" s="14" t="s">
@@ -4570,7 +4368,7 @@
       <c r="G94" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="H94" s="26" t="s">
+      <c r="H94" s="27" t="s">
         <v>46</v>
       </c>
       <c r="I94" s="14" t="s">
@@ -4601,7 +4399,7 @@
         <v>46</v>
       </c>
       <c r="I95" s="10" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.4">
@@ -4624,7 +4422,7 @@
       <c r="G96" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="H96" s="26" t="s">
+      <c r="H96" s="27" t="s">
         <v>46</v>
       </c>
       <c r="I96" s="14" t="s">
@@ -4680,7 +4478,7 @@
       <c r="G98" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="H98" s="26" t="s">
+      <c r="H98" s="27" t="s">
         <v>46</v>
       </c>
       <c r="I98" s="14" t="s">
@@ -4718,7 +4516,7 @@
       <c r="A100" s="18">
         <v>9</v>
       </c>
-      <c r="B100" s="24" t="s">
+      <c r="B100" s="25" t="s">
         <v>163</v>
       </c>
       <c r="C100" s="19" t="s">
@@ -4736,28 +4534,28 @@
       <c r="G100" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="H100" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="I100" s="20" t="s">
+      <c r="H100" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I100" s="21" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="103" spans="1:9" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A103" s="66" t="s">
-        <v>278</v>
-      </c>
-      <c r="B103" s="67"/>
-      <c r="C103" s="67"/>
-      <c r="D103" s="67"/>
-      <c r="E103" s="67"/>
-      <c r="F103" s="67"/>
-      <c r="G103" s="68" t="s">
+      <c r="A103" s="64" t="s">
+        <v>279</v>
+      </c>
+      <c r="B103" s="65"/>
+      <c r="C103" s="65"/>
+      <c r="D103" s="65"/>
+      <c r="E103" s="65"/>
+      <c r="F103" s="65"/>
+      <c r="G103" s="66" t="s">
         <v>165</v>
       </c>
-      <c r="H103" s="68"/>
-      <c r="I103" s="69"/>
+      <c r="H103" s="66"/>
+      <c r="I103" s="67"/>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A104" s="7" t="s">
@@ -4781,7 +4579,7 @@
       <c r="G104" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="H104" s="25" t="s">
+      <c r="H104" s="26" t="s">
         <v>78</v>
       </c>
       <c r="I104" s="9" t="s">
@@ -4810,7 +4608,7 @@
       <c r="G105" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="H105" s="26" t="s">
+      <c r="H105" s="27" t="s">
         <v>46</v>
       </c>
       <c r="I105" s="14" t="s">
@@ -4868,7 +4666,7 @@
       <c r="G107" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="H107" s="26" t="s">
+      <c r="H107" s="27" t="s">
         <v>46</v>
       </c>
       <c r="I107" s="14" t="s">
@@ -4926,7 +4724,7 @@
       <c r="G109" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="H109" s="26" t="s">
+      <c r="H109" s="27" t="s">
         <v>46</v>
       </c>
       <c r="I109" s="14" t="s">
@@ -4934,49 +4732,49 @@
       </c>
     </row>
     <row r="110" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A110" s="32">
+      <c r="A110" s="33">
         <v>6</v>
       </c>
-      <c r="B110" s="33" t="s">
+      <c r="B110" s="34" t="s">
         <v>174</v>
       </c>
-      <c r="C110" s="34" t="s">
+      <c r="C110" s="35" t="s">
         <v>175</v>
       </c>
-      <c r="D110" s="34" t="s">
+      <c r="D110" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="E110" s="34">
+      <c r="E110" s="35">
         <v>10</v>
       </c>
-      <c r="F110" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="G110" s="34" t="s">
+      <c r="F110" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="G110" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="H110" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="I110" s="36" t="s">
+      <c r="H110" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I110" s="37" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="112" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="113" spans="1:9" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A113" s="66" t="s">
-        <v>279</v>
-      </c>
-      <c r="B113" s="67"/>
-      <c r="C113" s="67"/>
-      <c r="D113" s="67"/>
-      <c r="E113" s="67"/>
-      <c r="F113" s="67"/>
-      <c r="G113" s="68" t="s">
+      <c r="A113" s="64" t="s">
+        <v>280</v>
+      </c>
+      <c r="B113" s="65"/>
+      <c r="C113" s="65"/>
+      <c r="D113" s="65"/>
+      <c r="E113" s="65"/>
+      <c r="F113" s="65"/>
+      <c r="G113" s="66" t="s">
         <v>176</v>
       </c>
-      <c r="H113" s="68"/>
-      <c r="I113" s="69"/>
+      <c r="H113" s="66"/>
+      <c r="I113" s="67"/>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A114" s="7" t="s">
@@ -5000,7 +4798,7 @@
       <c r="G114" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="H114" s="25" t="s">
+      <c r="H114" s="26" t="s">
         <v>78</v>
       </c>
       <c r="I114" s="9" t="s">
@@ -5029,7 +4827,7 @@
       <c r="G115" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="H115" s="26" t="s">
+      <c r="H115" s="27" t="s">
         <v>46</v>
       </c>
       <c r="I115" s="14" t="s">
@@ -5087,7 +4885,7 @@
       <c r="G117" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="H117" s="26" t="s">
+      <c r="H117" s="27" t="s">
         <v>46</v>
       </c>
       <c r="I117" s="14" t="s">
@@ -5095,49 +4893,49 @@
       </c>
     </row>
     <row r="118" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A118" s="32">
+      <c r="A118" s="33">
         <v>4</v>
       </c>
-      <c r="B118" s="33" t="s">
+      <c r="B118" s="34" t="s">
         <v>183</v>
       </c>
-      <c r="C118" s="34" t="s">
+      <c r="C118" s="35" t="s">
         <v>184</v>
       </c>
-      <c r="D118" s="34" t="s">
+      <c r="D118" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="E118" s="34">
+      <c r="E118" s="35">
         <v>100</v>
       </c>
-      <c r="F118" s="34" t="s">
+      <c r="F118" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="G118" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="H118" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="I118" s="36" t="s">
+      <c r="G118" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H118" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I118" s="37" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="121" spans="1:9" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A121" s="66" t="s">
-        <v>359</v>
-      </c>
-      <c r="B121" s="67"/>
-      <c r="C121" s="67"/>
-      <c r="D121" s="67"/>
-      <c r="E121" s="67"/>
-      <c r="F121" s="67"/>
-      <c r="G121" s="68" t="s">
-        <v>198</v>
-      </c>
-      <c r="H121" s="68"/>
-      <c r="I121" s="69"/>
+      <c r="A121" s="64" t="s">
+        <v>281</v>
+      </c>
+      <c r="B121" s="65"/>
+      <c r="C121" s="65"/>
+      <c r="D121" s="65"/>
+      <c r="E121" s="65"/>
+      <c r="F121" s="65"/>
+      <c r="G121" s="66" t="s">
+        <v>199</v>
+      </c>
+      <c r="H121" s="66"/>
+      <c r="I121" s="67"/>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A122" s="7" t="s">
@@ -5161,7 +4959,7 @@
       <c r="G122" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H122" s="25" t="s">
+      <c r="H122" s="26" t="s">
         <v>78</v>
       </c>
       <c r="I122" s="9" t="s">
@@ -5176,7 +4974,7 @@
         <v>186</v>
       </c>
       <c r="C123" s="13" t="s">
-        <v>358</v>
+        <v>187</v>
       </c>
       <c r="D123" s="13" t="s">
         <v>59</v>
@@ -5190,7 +4988,7 @@
       <c r="G123" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="H123" s="26" t="s">
+      <c r="H123" s="27" t="s">
         <v>46</v>
       </c>
       <c r="I123" s="14" t="s">
@@ -5248,7 +5046,7 @@
       <c r="G125" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="H125" s="26" t="s">
+      <c r="H125" s="27" t="s">
         <v>46</v>
       </c>
       <c r="I125" s="14" t="s">
@@ -5260,10 +5058,10 @@
         <v>4</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>8</v>
@@ -5289,10 +5087,10 @@
         <v>5</v>
       </c>
       <c r="B127" s="12" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C127" s="13" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D127" s="13" t="s">
         <v>8</v>
@@ -5306,7 +5104,7 @@
       <c r="G127" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="H127" s="26" t="s">
+      <c r="H127" s="27" t="s">
         <v>46</v>
       </c>
       <c r="I127" s="14" t="s">
@@ -5318,10 +5116,10 @@
         <v>6</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>43</v>
@@ -5337,7 +5135,7 @@
         <v>46</v>
       </c>
       <c r="I128" s="10" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.4">
@@ -5345,10 +5143,10 @@
         <v>7</v>
       </c>
       <c r="B129" s="12" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C129" s="13" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D129" s="13" t="s">
         <v>43</v>
@@ -5360,413 +5158,429 @@
       <c r="G129" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="H129" s="26" t="s">
+      <c r="H129" s="27" t="s">
         <v>46</v>
       </c>
       <c r="I129" s="14" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A130" s="32">
+      <c r="A130" s="33">
         <v>8</v>
       </c>
-      <c r="B130" s="33" t="s">
-        <v>195</v>
-      </c>
-      <c r="C130" s="34" t="s">
+      <c r="B130" s="34" t="s">
         <v>196</v>
       </c>
-      <c r="D130" s="34" t="s">
+      <c r="C130" s="35" t="s">
+        <v>197</v>
+      </c>
+      <c r="D130" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="E130" s="34">
+      <c r="E130" s="35">
         <v>1</v>
       </c>
-      <c r="F130" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="G130" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="H130" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="I130" s="36" t="s">
-        <v>197</v>
+      <c r="F130" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="G130" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H130" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I130" s="37" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="132" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="133" spans="1:9" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A133" s="76" t="s">
-        <v>280</v>
-      </c>
-      <c r="B133" s="77"/>
-      <c r="C133" s="77"/>
-      <c r="D133" s="77"/>
-      <c r="E133" s="77"/>
-      <c r="F133" s="77"/>
-      <c r="G133" s="78" t="s">
-        <v>201</v>
-      </c>
-      <c r="H133" s="78"/>
-      <c r="I133" s="79"/>
+      <c r="A133" s="64" t="s">
+        <v>282</v>
+      </c>
+      <c r="B133" s="65"/>
+      <c r="C133" s="65"/>
+      <c r="D133" s="65"/>
+      <c r="E133" s="65"/>
+      <c r="F133" s="65"/>
+      <c r="G133" s="66" t="s">
+        <v>202</v>
+      </c>
+      <c r="H133" s="66"/>
+      <c r="I133" s="67"/>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A134" s="80" t="s">
+      <c r="A134" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B134" s="81" t="s">
+      <c r="B134" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C134" s="81" t="s">
+      <c r="C134" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D134" s="81" t="s">
+      <c r="D134" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E134" s="81" t="s">
+      <c r="E134" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F134" s="81" t="s">
+      <c r="F134" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G134" s="81" t="s">
+      <c r="G134" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H134" s="81" t="s">
+      <c r="H134" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="I134" s="82" t="s">
+      <c r="I134" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A135" s="54">
+      <c r="A135" s="11">
         <v>1</v>
       </c>
-      <c r="B135" s="48" t="s">
-        <v>202</v>
-      </c>
-      <c r="C135" s="47" t="s">
+      <c r="B135" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="D135" s="47" t="s">
+      <c r="C135" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="D135" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="E135" s="47">
+      <c r="E135" s="13">
         <v>4</v>
       </c>
-      <c r="F135" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="G135" s="47" t="s">
+      <c r="F135" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G135" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="H135" s="47" t="s">
-        <v>46</v>
-      </c>
-      <c r="I135" s="83" t="s">
+      <c r="H135" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I135" s="14" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A136" s="56">
+      <c r="A136" s="6">
         <v>2</v>
       </c>
-      <c r="B136" s="50" t="s">
+      <c r="B136" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C136" s="49" t="s">
+      <c r="C136" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D136" s="49" t="s">
+      <c r="D136" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E136" s="49">
+      <c r="E136" s="2">
         <v>4</v>
       </c>
-      <c r="F136" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="G136" s="49" t="s">
+      <c r="F136" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G136" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="H136" s="49" t="s">
-        <v>46</v>
-      </c>
-      <c r="I136" s="84" t="s">
+      <c r="H136" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I136" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A137" s="54">
+      <c r="A137" s="11">
         <v>3</v>
       </c>
-      <c r="B137" s="48" t="s">
-        <v>204</v>
-      </c>
-      <c r="C137" s="47" t="s">
+      <c r="B137" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="D137" s="47" t="s">
+      <c r="C137" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="D137" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E137" s="47">
+      <c r="E137" s="13">
         <v>100</v>
       </c>
-      <c r="F137" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="G137" s="47" t="s">
-        <v>46</v>
-      </c>
-      <c r="H137" s="47" t="s">
-        <v>46</v>
-      </c>
-      <c r="I137" s="83" t="s">
+      <c r="F137" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G137" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H137" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I137" s="14" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A138" s="56">
+      <c r="A138" s="6">
         <v>4</v>
       </c>
-      <c r="B138" s="50" t="s">
-        <v>206</v>
-      </c>
-      <c r="C138" s="49" t="s">
+      <c r="B138" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="D138" s="49" t="s">
+      <c r="C138" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D138" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E138" s="49">
+      <c r="E138" s="2">
         <v>5000</v>
       </c>
-      <c r="F138" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="G138" s="49" t="s">
-        <v>46</v>
-      </c>
-      <c r="H138" s="49" t="s">
-        <v>46</v>
-      </c>
-      <c r="I138" s="84" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A139" s="54">
-        <v>5</v>
-      </c>
-      <c r="B139" s="48" t="s">
-        <v>208</v>
-      </c>
-      <c r="C139" s="47" t="s">
+      <c r="F138" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H138" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I138" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A139" s="18">
+        <v>5</v>
+      </c>
+      <c r="B139" s="25" t="s">
         <v>209</v>
       </c>
-      <c r="D139" s="47" t="s">
-        <v>61</v>
-      </c>
-      <c r="E139" s="47">
+      <c r="C139" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="D139" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E139" s="19">
         <v>1000</v>
       </c>
-      <c r="F139" s="47" t="s">
+      <c r="F139" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G139" s="47" t="s">
-        <v>46</v>
-      </c>
-      <c r="H139" s="47" t="s">
-        <v>46</v>
-      </c>
-      <c r="I139" s="83" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A140" s="107">
+      <c r="G139" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H139" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I139" s="21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="142" spans="1:9" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A142" s="64" t="s">
+        <v>283</v>
+      </c>
+      <c r="B142" s="65"/>
+      <c r="C142" s="65"/>
+      <c r="D142" s="65"/>
+      <c r="E142" s="65"/>
+      <c r="F142" s="65"/>
+      <c r="G142" s="66" t="s">
+        <v>211</v>
+      </c>
+      <c r="H142" s="66"/>
+      <c r="I142" s="67"/>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A143" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B143" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C143" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D143" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E143" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F143" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G143" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="H143" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="I143" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A144" s="11">
+        <v>1</v>
+      </c>
+      <c r="B144" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="C144" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="D144" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E144" s="13">
+        <v>4</v>
+      </c>
+      <c r="F144" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G144" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H144" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I144" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A145" s="6">
+        <v>2</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E145" s="2">
+        <v>100</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H145" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I145" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A146" s="11">
+        <v>3</v>
+      </c>
+      <c r="B146" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="C146" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="D146" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E146" s="13">
+        <v>5000</v>
+      </c>
+      <c r="F146" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G146" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H146" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I146" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A147" s="6">
+        <v>4</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E147" s="2">
+        <v>500</v>
+      </c>
+      <c r="F147" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B140" s="108" t="s">
-        <v>349</v>
-      </c>
-      <c r="C140" s="109" t="s">
-        <v>350</v>
-      </c>
-      <c r="D140" s="110" t="s">
-        <v>346</v>
-      </c>
-      <c r="E140" s="109"/>
-      <c r="F140" s="109" t="s">
-        <v>5</v>
-      </c>
-      <c r="G140" s="109" t="s">
-        <v>46</v>
-      </c>
-      <c r="H140" s="109" t="s">
-        <v>356</v>
-      </c>
-      <c r="I140" s="111" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A141" s="112">
-        <v>7</v>
-      </c>
-      <c r="B141" s="113" t="s">
-        <v>354</v>
-      </c>
-      <c r="C141" s="114" t="s">
-        <v>355</v>
-      </c>
-      <c r="D141" s="110" t="s">
-        <v>346</v>
-      </c>
-      <c r="E141" s="114"/>
-      <c r="F141" s="114" t="s">
-        <v>6</v>
-      </c>
-      <c r="G141" s="114"/>
-      <c r="H141" s="114"/>
-      <c r="I141" s="115"/>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A142" s="107">
-        <v>8</v>
-      </c>
-      <c r="B142" s="108" t="s">
-        <v>351</v>
-      </c>
-      <c r="C142" s="109" t="s">
-        <v>352</v>
-      </c>
-      <c r="D142" s="109" t="s">
-        <v>346</v>
-      </c>
-      <c r="E142" s="109"/>
-      <c r="F142" s="109" t="s">
-        <v>269</v>
-      </c>
-      <c r="G142" s="109"/>
-      <c r="H142" s="109" t="s">
-        <v>269</v>
-      </c>
-      <c r="I142" s="111" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A143" s="116">
-        <v>9</v>
-      </c>
-      <c r="B143" s="117" t="s">
-        <v>295</v>
-      </c>
-      <c r="C143" s="118" t="s">
-        <v>296</v>
-      </c>
-      <c r="D143" s="118" t="s">
-        <v>59</v>
-      </c>
-      <c r="E143" s="118">
-        <v>4</v>
-      </c>
-      <c r="F143" s="118" t="s">
-        <v>5</v>
-      </c>
-      <c r="G143" s="118" t="s">
-        <v>65</v>
-      </c>
-      <c r="H143" s="118"/>
-      <c r="I143" s="119"/>
-    </row>
-    <row r="145" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="146" spans="1:9" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A146" s="66" t="s">
-        <v>281</v>
-      </c>
-      <c r="B146" s="67"/>
-      <c r="C146" s="67"/>
-      <c r="D146" s="67"/>
-      <c r="E146" s="67"/>
-      <c r="F146" s="67"/>
-      <c r="G146" s="68" t="s">
-        <v>210</v>
-      </c>
-      <c r="H146" s="68"/>
-      <c r="I146" s="69"/>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A147" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B147" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C147" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D147" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E147" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F147" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G147" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="H147" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="I147" s="9" t="s">
-        <v>4</v>
+      <c r="G147" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H147" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I147" s="10" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A148" s="11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B148" s="12" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="C148" s="13" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="D148" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="E148" s="13">
-        <v>4</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="E148" s="13"/>
       <c r="F148" s="13" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G148" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H148" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H148" s="27" t="s">
         <v>46</v>
       </c>
       <c r="I148" s="14" t="s">
-        <v>46</v>
+        <v>255</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A149" s="6">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>8</v>
@@ -5775,7 +5589,7 @@
         <v>100</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G149" s="2" t="s">
         <v>46</v>
@@ -5789,48 +5603,46 @@
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A150" s="11">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B150" s="12" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="C150" s="13" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="D150" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E150" s="13">
-        <v>5000</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="E150" s="13"/>
       <c r="F150" s="13" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G150" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="H150" s="26" t="s">
+      <c r="H150" s="27" t="s">
         <v>46</v>
       </c>
       <c r="I150" s="14" t="s">
-        <v>46</v>
+        <v>255</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A151" s="6">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="D151" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E151" s="2">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>6</v>
@@ -5845,371 +5657,373 @@
         <v>46</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A152" s="11">
-        <v>5</v>
-      </c>
-      <c r="B152" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="C152" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="D152" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="E152" s="13"/>
-      <c r="F152" s="13" t="s">
+    <row r="152" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A152" s="18">
+        <v>9</v>
+      </c>
+      <c r="B152" s="25" t="s">
+        <v>228</v>
+      </c>
+      <c r="C152" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="D152" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E152" s="19">
+        <v>1</v>
+      </c>
+      <c r="F152" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G152" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H152" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="G152" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H152" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="I152" s="14" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A153" s="6">
+      <c r="I152" s="21" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="155" spans="1:9" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A155" s="64" t="s">
+        <v>284</v>
+      </c>
+      <c r="B155" s="65"/>
+      <c r="C155" s="65"/>
+      <c r="D155" s="65"/>
+      <c r="E155" s="65"/>
+      <c r="F155" s="65"/>
+      <c r="G155" s="66" t="s">
+        <v>230</v>
+      </c>
+      <c r="H155" s="66"/>
+      <c r="I155" s="67"/>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A156" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B156" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C156" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D156" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E156" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F156" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G156" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H156" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="I156" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A157" s="11">
+        <v>1</v>
+      </c>
+      <c r="B157" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="C157" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="D157" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E157" s="13">
+        <v>10</v>
+      </c>
+      <c r="F157" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G157" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H157" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I157" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A158" s="6">
+        <v>2</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E158" s="2">
+        <v>50</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H158" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I158" s="10" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A159" s="18">
+        <v>3</v>
+      </c>
+      <c r="B159" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="C159" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="D159" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E159" s="19">
+        <v>2</v>
+      </c>
+      <c r="F159" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G159" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H159" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I159" s="21" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="162" spans="1:9" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A162" s="64" t="s">
+        <v>285</v>
+      </c>
+      <c r="B162" s="65"/>
+      <c r="C162" s="65"/>
+      <c r="D162" s="65"/>
+      <c r="E162" s="65"/>
+      <c r="F162" s="65"/>
+      <c r="G162" s="66" t="s">
+        <v>236</v>
+      </c>
+      <c r="H162" s="66"/>
+      <c r="I162" s="67"/>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A163" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B163" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C163" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D163" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E163" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F163" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G163" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="H163" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="I163" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A164" s="11">
+        <v>1</v>
+      </c>
+      <c r="B164" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="C164" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="D164" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E164" s="2">
+        <v>4</v>
+      </c>
+      <c r="F164" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G164" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H164" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I164" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A165" s="6">
+        <v>2</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E165" s="62">
+        <v>100</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H165" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I165" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A166" s="11">
+        <v>3</v>
+      </c>
+      <c r="B166" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="C166" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="D166" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E166" s="13">
+        <v>5000</v>
+      </c>
+      <c r="F166" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G166" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H166" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I166" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A167" s="6">
+        <v>4</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E167" s="2">
+        <v>500</v>
+      </c>
+      <c r="F167" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B153" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E153" s="2">
-        <v>100</v>
-      </c>
-      <c r="F153" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G153" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H153" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I153" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A154" s="11">
-        <v>7</v>
-      </c>
-      <c r="B154" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="C154" s="13" t="s">
-        <v>224</v>
-      </c>
-      <c r="D154" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="E154" s="13"/>
-      <c r="F154" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="G154" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H154" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="I154" s="14" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A155" s="6">
-        <v>8</v>
-      </c>
-      <c r="B155" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="C155" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E155" s="2">
-        <v>100</v>
-      </c>
-      <c r="F155" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G155" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H155" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I155" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A156" s="18">
-        <v>9</v>
-      </c>
-      <c r="B156" s="24" t="s">
-        <v>227</v>
-      </c>
-      <c r="C156" s="19" t="s">
-        <v>228</v>
-      </c>
-      <c r="D156" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="E156" s="19">
-        <v>1</v>
-      </c>
-      <c r="F156" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="G156" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="H156" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="I156" s="20" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="159" spans="1:9" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A159" s="66" t="s">
-        <v>282</v>
-      </c>
-      <c r="B159" s="67"/>
-      <c r="C159" s="67"/>
-      <c r="D159" s="67"/>
-      <c r="E159" s="67"/>
-      <c r="F159" s="67"/>
-      <c r="G159" s="68" t="s">
-        <v>229</v>
-      </c>
-      <c r="H159" s="68"/>
-      <c r="I159" s="69"/>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A160" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B160" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C160" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D160" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E160" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F160" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G160" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="H160" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="I160" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A161" s="11">
-        <v>1</v>
-      </c>
-      <c r="B161" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="C161" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="D161" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="E161" s="13">
-        <v>10</v>
-      </c>
-      <c r="F161" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G161" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H161" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="I161" s="14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A162" s="6">
-        <v>2</v>
-      </c>
-      <c r="B162" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="D162" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E162" s="2">
-        <v>50</v>
-      </c>
-      <c r="F162" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G162" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H162" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I162" s="10" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A163" s="18">
-        <v>3</v>
-      </c>
-      <c r="B163" s="24" t="s">
-        <v>232</v>
-      </c>
-      <c r="C163" s="19" t="s">
-        <v>233</v>
-      </c>
-      <c r="D163" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="E163" s="19">
-        <v>2</v>
-      </c>
-      <c r="F163" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="G163" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="H163" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="I163" s="20" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="166" spans="1:9" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A166" s="66" t="s">
-        <v>283</v>
-      </c>
-      <c r="B166" s="67"/>
-      <c r="C166" s="67"/>
-      <c r="D166" s="67"/>
-      <c r="E166" s="67"/>
-      <c r="F166" s="67"/>
-      <c r="G166" s="68" t="s">
-        <v>235</v>
-      </c>
-      <c r="H166" s="68"/>
-      <c r="I166" s="69"/>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A167" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B167" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C167" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D167" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E167" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F167" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G167" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="H167" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="I167" s="9" t="s">
-        <v>4</v>
+      <c r="G167" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H167" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I167" s="10" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A168" s="11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B168" s="12" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="C168" s="13" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="D168" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="E168" s="2">
-        <v>4</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="E168" s="13"/>
       <c r="F168" s="13" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G168" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H168" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H168" s="27" t="s">
         <v>46</v>
       </c>
       <c r="I168" s="14" t="s">
-        <v>46</v>
+        <v>255</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A169" s="6">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="D169" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E169" s="61">
+      <c r="E169" s="2">
         <v>100</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G169" s="2" t="s">
         <v>46</v>
@@ -6223,48 +6037,46 @@
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A170" s="11">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B170" s="12" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="C170" s="13" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="D170" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E170" s="13">
-        <v>5000</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="E170" s="13"/>
       <c r="F170" s="13" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G170" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="H170" s="26" t="s">
+      <c r="H170" s="27" t="s">
         <v>46</v>
       </c>
       <c r="I170" s="14" t="s">
-        <v>46</v>
+        <v>255</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A171" s="6">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="D171" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E171" s="2">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>6</v>
@@ -6279,1060 +6091,948 @@
         <v>46</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A172" s="11">
-        <v>5</v>
-      </c>
-      <c r="B172" s="12" t="s">
-        <v>244</v>
-      </c>
-      <c r="C172" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="D172" s="13" t="s">
+    <row r="172" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A172" s="18">
+        <v>9</v>
+      </c>
+      <c r="B172" s="25" t="s">
+        <v>253</v>
+      </c>
+      <c r="C172" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="D172" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E172" s="19">
+        <v>1</v>
+      </c>
+      <c r="F172" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G172" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H172" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="I172" s="21" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="175" spans="1:9" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A175" s="64" t="s">
+        <v>286</v>
+      </c>
+      <c r="B175" s="65"/>
+      <c r="C175" s="65"/>
+      <c r="D175" s="65"/>
+      <c r="E175" s="65"/>
+      <c r="F175" s="65"/>
+      <c r="G175" s="66" t="s">
+        <v>256</v>
+      </c>
+      <c r="H175" s="66"/>
+      <c r="I175" s="67"/>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A176" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B176" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C176" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D176" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E176" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F176" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G176" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="H176" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="I176" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A177" s="11">
+        <v>1</v>
+      </c>
+      <c r="B177" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="C177" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="D177" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E177" s="13">
+        <v>4</v>
+      </c>
+      <c r="F177" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G177" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H177" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I177" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A178" s="6">
+        <v>2</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E178" s="2">
+        <v>10</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="G178" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H178" s="5"/>
+      <c r="I178" s="10"/>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A179" s="11">
+        <v>3</v>
+      </c>
+      <c r="B179" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="C179" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="D179" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E179" s="13">
+        <v>20</v>
+      </c>
+      <c r="F179" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G179" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H179" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I179" s="14" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A180" s="6">
+        <v>4</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="D180" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E172" s="13"/>
-      <c r="F172" s="13" t="s">
+      <c r="E180" s="2"/>
+      <c r="F180" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G172" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H172" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="I172" s="14" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A173" s="6">
-        <v>6</v>
-      </c>
-      <c r="B173" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="C173" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="D173" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E173" s="2">
-        <v>100</v>
-      </c>
-      <c r="F173" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G173" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H173" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I173" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A174" s="11">
-        <v>7</v>
-      </c>
-      <c r="B174" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="C174" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="D174" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="E174" s="13"/>
-      <c r="F174" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="G174" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H174" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="I174" s="14" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A175" s="6">
-        <v>8</v>
-      </c>
-      <c r="B175" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="C175" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="D175" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E175" s="2">
-        <v>100</v>
-      </c>
-      <c r="F175" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G175" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H175" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I175" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A176" s="18">
-        <v>9</v>
-      </c>
-      <c r="B176" s="24" t="s">
-        <v>252</v>
-      </c>
-      <c r="C176" s="19" t="s">
-        <v>253</v>
-      </c>
-      <c r="D176" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="E176" s="19">
-        <v>1</v>
-      </c>
-      <c r="F176" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="G176" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="H176" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="I176" s="20" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="179" spans="1:9" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A179" s="66" t="s">
-        <v>284</v>
-      </c>
-      <c r="B179" s="67"/>
-      <c r="C179" s="67"/>
-      <c r="D179" s="67"/>
-      <c r="E179" s="67"/>
-      <c r="F179" s="67"/>
-      <c r="G179" s="68" t="s">
+      <c r="G180" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H180" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I180" s="10" t="s">
         <v>255</v>
-      </c>
-      <c r="H179" s="68"/>
-      <c r="I179" s="69"/>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A180" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B180" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C180" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D180" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E180" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F180" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G180" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="H180" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="I180" s="9" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A181" s="11">
+        <v>5</v>
+      </c>
+      <c r="B181" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="C181" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="D181" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E181" s="13"/>
+      <c r="F181" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G181" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H181" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I181" s="14" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A182" s="33">
+        <v>6</v>
+      </c>
+      <c r="B182" s="34" t="s">
+        <v>266</v>
+      </c>
+      <c r="C182" s="35" t="s">
+        <v>267</v>
+      </c>
+      <c r="D182" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="E182" s="35">
+        <v>2</v>
+      </c>
+      <c r="F182" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="G182" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H182" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I182" s="37" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="185" spans="1:9" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A185" s="64" t="s">
+        <v>288</v>
+      </c>
+      <c r="B185" s="65"/>
+      <c r="C185" s="65"/>
+      <c r="D185" s="65"/>
+      <c r="E185" s="65"/>
+      <c r="F185" s="65"/>
+      <c r="G185" s="66" t="s">
+        <v>289</v>
+      </c>
+      <c r="H185" s="66"/>
+      <c r="I185" s="67"/>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A186" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B186" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C186" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D186" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B181" s="12" t="s">
-        <v>256</v>
-      </c>
-      <c r="C181" s="13" t="s">
-        <v>257</v>
-      </c>
-      <c r="D181" s="13" t="s">
+      <c r="E186" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F186" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G186" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="H186" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="I186" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A187" s="11">
+        <v>1</v>
+      </c>
+      <c r="B187" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="C187" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="D187" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="E181" s="13">
+      <c r="E187" s="13">
+        <v>10</v>
+      </c>
+      <c r="F187" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G187" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H187" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I187" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A188" s="6">
+        <v>2</v>
+      </c>
+      <c r="B188" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E188" s="2">
+        <v>50</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G188" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H188" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I188" s="10" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A189" s="18">
+        <v>3</v>
+      </c>
+      <c r="B189" s="25" t="s">
+        <v>293</v>
+      </c>
+      <c r="C189" s="19" t="s">
+        <v>267</v>
+      </c>
+      <c r="D189" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E189" s="19">
+        <v>2</v>
+      </c>
+      <c r="F189" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G189" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H189" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I189" s="21" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="192" spans="1:9" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A192" s="64" t="s">
+        <v>295</v>
+      </c>
+      <c r="B192" s="65"/>
+      <c r="C192" s="65"/>
+      <c r="D192" s="65"/>
+      <c r="E192" s="65"/>
+      <c r="F192" s="65"/>
+      <c r="G192" s="66" t="s">
+        <v>296</v>
+      </c>
+      <c r="H192" s="66"/>
+      <c r="I192" s="67"/>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A193" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B193" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C193" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D193" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E193" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F193" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G193" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="H193" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="I193" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F181" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G181" s="13" t="s">
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A194" s="11">
+        <v>1</v>
+      </c>
+      <c r="B194" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="C194" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="D194" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E194" s="13">
+        <v>4</v>
+      </c>
+      <c r="F194" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G194" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="H181" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="I181" s="14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A182" s="6">
+      <c r="H194" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I194" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A195" s="6">
         <v>2</v>
       </c>
-      <c r="B182" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="C182" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="D182" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E182" s="2">
+      <c r="B195" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E195" s="2">
+        <v>100</v>
+      </c>
+      <c r="F195" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G195" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H195" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I195" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A196" s="11">
+        <v>3</v>
+      </c>
+      <c r="B196" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="C196" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="D196" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E196" s="13">
+        <v>500</v>
+      </c>
+      <c r="F196" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G196" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H196" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I196" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A197" s="6">
+        <v>4</v>
+      </c>
+      <c r="B197" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E197" s="2">
+        <v>20</v>
+      </c>
+      <c r="F197" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G197" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H197" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I197" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A198" s="18">
+        <v>5</v>
+      </c>
+      <c r="B198" s="25" t="s">
+        <v>305</v>
+      </c>
+      <c r="C198" s="19" t="s">
+        <v>306</v>
+      </c>
+      <c r="D198" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E198" s="19">
+        <v>500</v>
+      </c>
+      <c r="F198" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="G198" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H198" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I198" s="21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="201" spans="1:9" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A201" s="72" t="s">
+        <v>307</v>
+      </c>
+      <c r="B201" s="73"/>
+      <c r="C201" s="52" t="s">
+        <v>308</v>
+      </c>
+      <c r="D201" s="46"/>
+      <c r="E201" s="42"/>
+      <c r="F201" s="42"/>
+      <c r="G201" s="71"/>
+      <c r="H201" s="71"/>
+      <c r="I201" s="38"/>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A202" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B202" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="C202" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="D202" s="39"/>
+      <c r="E202" s="39"/>
+      <c r="F202" s="39"/>
+      <c r="G202" s="39"/>
+      <c r="H202" s="39"/>
+      <c r="I202" s="39"/>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A203" s="55">
+        <v>1</v>
+      </c>
+      <c r="B203" s="49" t="s">
+        <v>309</v>
+      </c>
+      <c r="C203" s="56" t="s">
+        <v>310</v>
+      </c>
+      <c r="D203" s="43"/>
+      <c r="E203" s="43"/>
+      <c r="F203" s="43"/>
+      <c r="G203" s="43"/>
+      <c r="H203" s="43"/>
+      <c r="I203" s="40"/>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A204" s="57">
+        <v>2</v>
+      </c>
+      <c r="B204" s="51" t="s">
+        <v>311</v>
+      </c>
+      <c r="C204" s="58" t="s">
+        <v>312</v>
+      </c>
+      <c r="D204" s="43"/>
+      <c r="E204" s="43"/>
+      <c r="F204" s="43"/>
+      <c r="G204" s="43"/>
+      <c r="H204" s="43"/>
+      <c r="I204" s="40"/>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A205" s="55">
+        <v>3</v>
+      </c>
+      <c r="B205" s="49" t="s">
+        <v>313</v>
+      </c>
+      <c r="C205" s="56" t="s">
+        <v>314</v>
+      </c>
+      <c r="D205" s="43"/>
+      <c r="E205" s="43"/>
+      <c r="F205" s="43"/>
+      <c r="G205" s="43"/>
+      <c r="H205" s="43"/>
+      <c r="I205" s="40"/>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A206" s="57">
+        <v>4</v>
+      </c>
+      <c r="B206" s="51" t="s">
+        <v>315</v>
+      </c>
+      <c r="C206" s="58" t="s">
+        <v>316</v>
+      </c>
+      <c r="D206" s="43"/>
+      <c r="E206" s="43"/>
+      <c r="F206" s="43"/>
+      <c r="G206" s="43"/>
+      <c r="H206" s="43"/>
+      <c r="I206" s="40"/>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A207" s="55">
+        <v>5</v>
+      </c>
+      <c r="B207" s="49" t="s">
+        <v>317</v>
+      </c>
+      <c r="C207" s="56" t="s">
+        <v>318</v>
+      </c>
+      <c r="D207" s="43"/>
+      <c r="E207" s="43"/>
+      <c r="F207" s="43"/>
+      <c r="G207" s="43"/>
+      <c r="H207" s="43"/>
+      <c r="I207" s="40"/>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A208" s="57">
+        <v>6</v>
+      </c>
+      <c r="B208" s="51" t="s">
+        <v>319</v>
+      </c>
+      <c r="C208" s="58" t="s">
+        <v>320</v>
+      </c>
+      <c r="D208" s="43"/>
+      <c r="E208" s="43"/>
+      <c r="F208" s="43"/>
+      <c r="G208" s="43"/>
+      <c r="H208" s="43"/>
+      <c r="I208" s="40"/>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A209" s="55">
+        <v>7</v>
+      </c>
+      <c r="B209" s="49" t="s">
+        <v>321</v>
+      </c>
+      <c r="C209" s="56" t="s">
+        <v>322</v>
+      </c>
+      <c r="D209" s="43"/>
+      <c r="E209" s="43"/>
+      <c r="F209" s="43"/>
+      <c r="G209" s="43"/>
+      <c r="H209" s="43"/>
+      <c r="I209" s="40"/>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A210" s="57">
+        <v>8</v>
+      </c>
+      <c r="B210" s="51" t="s">
+        <v>323</v>
+      </c>
+      <c r="C210" s="58" t="s">
+        <v>324</v>
+      </c>
+      <c r="D210" s="43"/>
+      <c r="E210" s="43"/>
+      <c r="F210" s="43"/>
+      <c r="G210" s="43"/>
+      <c r="H210" s="43"/>
+      <c r="I210" s="40"/>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A211" s="55">
+        <v>9</v>
+      </c>
+      <c r="B211" s="49" t="s">
+        <v>325</v>
+      </c>
+      <c r="C211" s="56" t="s">
+        <v>326</v>
+      </c>
+      <c r="D211" s="43"/>
+      <c r="E211" s="43"/>
+      <c r="F211" s="43"/>
+      <c r="G211" s="43"/>
+      <c r="H211" s="43"/>
+      <c r="I211" s="40"/>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A212" s="57">
         <v>10</v>
       </c>
-      <c r="F182" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="G182" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H182" s="5"/>
-      <c r="I182" s="10"/>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A183" s="11">
-        <v>3</v>
-      </c>
-      <c r="B183" s="12" t="s">
-        <v>258</v>
-      </c>
-      <c r="C183" s="13" t="s">
-        <v>259</v>
-      </c>
-      <c r="D183" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E183" s="13">
-        <v>20</v>
-      </c>
-      <c r="F183" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="G183" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H183" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="I183" s="14" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A184" s="6">
-        <v>4</v>
-      </c>
-      <c r="B184" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="C184" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="D184" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E184" s="2"/>
-      <c r="F184" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G184" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H184" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I184" s="10" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A185" s="11">
-        <v>5</v>
-      </c>
-      <c r="B185" s="12" t="s">
-        <v>263</v>
-      </c>
-      <c r="C185" s="13" t="s">
-        <v>264</v>
-      </c>
-      <c r="D185" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="E185" s="13"/>
-      <c r="F185" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="G185" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H185" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="I185" s="14" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A186" s="32">
-        <v>6</v>
-      </c>
-      <c r="B186" s="33" t="s">
-        <v>265</v>
-      </c>
-      <c r="C186" s="34" t="s">
-        <v>266</v>
-      </c>
-      <c r="D186" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="E186" s="34">
-        <v>2</v>
-      </c>
-      <c r="F186" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="G186" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="H186" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="I186" s="36" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="189" spans="1:9" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A189" s="66" t="s">
-        <v>286</v>
-      </c>
-      <c r="B189" s="67"/>
-      <c r="C189" s="67"/>
-      <c r="D189" s="67"/>
-      <c r="E189" s="67"/>
-      <c r="F189" s="67"/>
-      <c r="G189" s="68" t="s">
-        <v>287</v>
-      </c>
-      <c r="H189" s="68"/>
-      <c r="I189" s="69"/>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A190" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B190" s="8" t="s">
+      <c r="B212" s="51" t="s">
+        <v>327</v>
+      </c>
+      <c r="C212" s="58" t="s">
+        <v>328</v>
+      </c>
+      <c r="D212" s="43"/>
+      <c r="E212" s="43"/>
+      <c r="F212" s="43"/>
+      <c r="G212" s="43"/>
+      <c r="H212" s="43"/>
+      <c r="I212" s="40"/>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A213" s="55">
+        <v>11</v>
+      </c>
+      <c r="B213" s="49" t="s">
+        <v>329</v>
+      </c>
+      <c r="C213" s="56" t="s">
+        <v>330</v>
+      </c>
+      <c r="D213" s="43"/>
+      <c r="E213" s="43"/>
+      <c r="F213" s="43"/>
+      <c r="G213" s="43"/>
+      <c r="H213" s="43"/>
+      <c r="I213" s="40"/>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A214" s="57">
+        <v>12</v>
+      </c>
+      <c r="B214" s="51" t="s">
+        <v>331</v>
+      </c>
+      <c r="C214" s="58" t="s">
+        <v>332</v>
+      </c>
+      <c r="D214" s="43"/>
+      <c r="E214" s="43"/>
+      <c r="F214" s="43"/>
+      <c r="G214" s="43"/>
+      <c r="H214" s="43"/>
+      <c r="I214" s="40"/>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A215" s="55">
+        <v>13</v>
+      </c>
+      <c r="B215" s="48" t="s">
+        <v>333</v>
+      </c>
+      <c r="C215" s="56" t="s">
+        <v>334</v>
+      </c>
+      <c r="D215" s="43"/>
+      <c r="E215" s="44"/>
+      <c r="F215" s="43"/>
+      <c r="G215" s="45"/>
+      <c r="H215" s="45"/>
+      <c r="I215" s="41"/>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A216" s="57">
+        <v>14</v>
+      </c>
+      <c r="B216" s="50" t="s">
+        <v>335</v>
+      </c>
+      <c r="C216" s="58" t="s">
+        <v>336</v>
+      </c>
+      <c r="D216" s="43"/>
+      <c r="E216" s="43"/>
+      <c r="F216" s="43"/>
+      <c r="G216" s="45"/>
+      <c r="H216" s="45"/>
+      <c r="I216" s="40"/>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A217" s="55">
         <v>15</v>
       </c>
-      <c r="C190" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D190" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E190" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F190" s="8" t="s">
+      <c r="B217" s="48" t="s">
+        <v>337</v>
+      </c>
+      <c r="C217" s="56" t="s">
+        <v>338</v>
+      </c>
+      <c r="D217" s="43"/>
+      <c r="E217" s="43"/>
+      <c r="F217" s="43"/>
+      <c r="G217" s="45"/>
+      <c r="H217" s="45"/>
+      <c r="I217" s="40"/>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A218" s="57">
         <v>12</v>
       </c>
-      <c r="G190" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="H190" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="I190" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A191" s="11">
-        <v>1</v>
-      </c>
-      <c r="B191" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="C191" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="D191" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="E191" s="13">
-        <v>10</v>
-      </c>
-      <c r="F191" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G191" s="13" t="s">
+      <c r="B218" s="51" t="s">
+        <v>339</v>
+      </c>
+      <c r="C218" s="58" t="s">
+        <v>340</v>
+      </c>
+      <c r="D218" s="43"/>
+      <c r="E218" s="43"/>
+      <c r="F218" s="43"/>
+      <c r="G218" s="43"/>
+      <c r="H218" s="43"/>
+      <c r="I218" s="40"/>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A219" s="55">
         <v>13</v>
       </c>
-      <c r="H191" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="I191" s="14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A192" s="6">
-        <v>2</v>
-      </c>
-      <c r="B192" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="C192" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="D192" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E192" s="2">
-        <v>50</v>
-      </c>
-      <c r="F192" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G192" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H192" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I192" s="10" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A193" s="18">
-        <v>3</v>
-      </c>
-      <c r="B193" s="24" t="s">
-        <v>291</v>
-      </c>
-      <c r="C193" s="19" t="s">
-        <v>266</v>
-      </c>
-      <c r="D193" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="E193" s="19">
-        <v>2</v>
-      </c>
-      <c r="F193" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="G193" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="H193" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="I193" s="20" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="196" spans="1:9" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A196" s="66" t="s">
-        <v>293</v>
-      </c>
-      <c r="B196" s="67"/>
-      <c r="C196" s="67"/>
-      <c r="D196" s="67"/>
-      <c r="E196" s="67"/>
-      <c r="F196" s="67"/>
-      <c r="G196" s="68" t="s">
-        <v>294</v>
-      </c>
-      <c r="H196" s="68"/>
-      <c r="I196" s="69"/>
-    </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A197" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B197" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C197" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D197" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E197" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F197" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G197" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="H197" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="I197" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A198" s="11">
-        <v>1</v>
-      </c>
-      <c r="B198" s="12" t="s">
-        <v>295</v>
-      </c>
-      <c r="C198" s="13" t="s">
-        <v>357</v>
-      </c>
-      <c r="D198" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="E198" s="13">
-        <v>4</v>
-      </c>
-      <c r="F198" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G198" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H198" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="I198" s="14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A199" s="6">
-        <v>2</v>
-      </c>
-      <c r="B199" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="C199" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="D199" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E199" s="2">
-        <v>100</v>
-      </c>
-      <c r="F199" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G199" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H199" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I199" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A200" s="11">
-        <v>3</v>
-      </c>
-      <c r="B200" s="12" t="s">
-        <v>299</v>
-      </c>
-      <c r="C200" s="13" t="s">
-        <v>300</v>
-      </c>
-      <c r="D200" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E200" s="13">
-        <v>500</v>
-      </c>
-      <c r="F200" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G200" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H200" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="I200" s="14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A201" s="6">
-        <v>4</v>
-      </c>
-      <c r="B201" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="C201" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="D201" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E201" s="2">
-        <v>20</v>
-      </c>
-      <c r="F201" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G201" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H201" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I201" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A202" s="18">
-        <v>5</v>
-      </c>
-      <c r="B202" s="24" t="s">
-        <v>303</v>
-      </c>
-      <c r="C202" s="19" t="s">
-        <v>304</v>
-      </c>
-      <c r="D202" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="E202" s="19">
-        <v>500</v>
-      </c>
-      <c r="F202" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="G202" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="H202" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="I202" s="20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="205" spans="1:9" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A205" s="71" t="s">
-        <v>305</v>
-      </c>
-      <c r="B205" s="72"/>
-      <c r="C205" s="51" t="s">
-        <v>306</v>
-      </c>
-      <c r="D205" s="45"/>
-      <c r="E205" s="41"/>
-      <c r="F205" s="41"/>
-      <c r="G205" s="70"/>
-      <c r="H205" s="70"/>
-      <c r="I205" s="37"/>
-    </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A206" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="B206" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="C206" s="53" t="s">
-        <v>16</v>
-      </c>
-      <c r="D206" s="38"/>
-      <c r="E206" s="38"/>
-      <c r="F206" s="38"/>
-      <c r="G206" s="38"/>
-      <c r="H206" s="38"/>
-      <c r="I206" s="38"/>
-    </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A207" s="54">
-        <v>1</v>
-      </c>
-      <c r="B207" s="48" t="s">
-        <v>307</v>
-      </c>
-      <c r="C207" s="55" t="s">
-        <v>308</v>
-      </c>
-      <c r="D207" s="42"/>
-      <c r="E207" s="42"/>
-      <c r="F207" s="42"/>
-      <c r="G207" s="42"/>
-      <c r="H207" s="42"/>
-      <c r="I207" s="39"/>
-    </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A208" s="56">
-        <v>2</v>
-      </c>
-      <c r="B208" s="50" t="s">
-        <v>309</v>
-      </c>
-      <c r="C208" s="57" t="s">
-        <v>310</v>
-      </c>
-      <c r="D208" s="42"/>
-      <c r="E208" s="42"/>
-      <c r="F208" s="42"/>
-      <c r="G208" s="42"/>
-      <c r="H208" s="42"/>
-      <c r="I208" s="39"/>
-    </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A209" s="54">
-        <v>3</v>
-      </c>
-      <c r="B209" s="48" t="s">
-        <v>311</v>
-      </c>
-      <c r="C209" s="55" t="s">
-        <v>312</v>
-      </c>
-      <c r="D209" s="42"/>
-      <c r="E209" s="42"/>
-      <c r="F209" s="42"/>
-      <c r="G209" s="42"/>
-      <c r="H209" s="42"/>
-      <c r="I209" s="39"/>
-    </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A210" s="56">
-        <v>4</v>
-      </c>
-      <c r="B210" s="50" t="s">
-        <v>313</v>
-      </c>
-      <c r="C210" s="57" t="s">
-        <v>314</v>
-      </c>
-      <c r="D210" s="42"/>
-      <c r="E210" s="42"/>
-      <c r="F210" s="42"/>
-      <c r="G210" s="42"/>
-      <c r="H210" s="42"/>
-      <c r="I210" s="39"/>
-    </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A211" s="54">
-        <v>5</v>
-      </c>
-      <c r="B211" s="48" t="s">
-        <v>315</v>
-      </c>
-      <c r="C211" s="55" t="s">
-        <v>316</v>
-      </c>
-      <c r="D211" s="42"/>
-      <c r="E211" s="42"/>
-      <c r="F211" s="42"/>
-      <c r="G211" s="42"/>
-      <c r="H211" s="42"/>
-      <c r="I211" s="39"/>
-    </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A212" s="56">
-        <v>6</v>
-      </c>
-      <c r="B212" s="50" t="s">
-        <v>317</v>
-      </c>
-      <c r="C212" s="57" t="s">
-        <v>318</v>
-      </c>
-      <c r="D212" s="42"/>
-      <c r="E212" s="42"/>
-      <c r="F212" s="42"/>
-      <c r="G212" s="42"/>
-      <c r="H212" s="42"/>
-      <c r="I212" s="39"/>
-    </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A213" s="54">
-        <v>7</v>
-      </c>
-      <c r="B213" s="48" t="s">
-        <v>319</v>
-      </c>
-      <c r="C213" s="55" t="s">
-        <v>320</v>
-      </c>
-      <c r="D213" s="42"/>
-      <c r="E213" s="42"/>
-      <c r="F213" s="42"/>
-      <c r="G213" s="42"/>
-      <c r="H213" s="42"/>
-      <c r="I213" s="39"/>
-    </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A214" s="56">
-        <v>8</v>
-      </c>
-      <c r="B214" s="50" t="s">
-        <v>321</v>
-      </c>
-      <c r="C214" s="57" t="s">
-        <v>322</v>
-      </c>
-      <c r="D214" s="42"/>
-      <c r="E214" s="42"/>
-      <c r="F214" s="42"/>
-      <c r="G214" s="42"/>
-      <c r="H214" s="42"/>
-      <c r="I214" s="39"/>
-    </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A215" s="54">
-        <v>9</v>
-      </c>
-      <c r="B215" s="48" t="s">
-        <v>323</v>
-      </c>
-      <c r="C215" s="55" t="s">
-        <v>324</v>
-      </c>
-      <c r="D215" s="42"/>
-      <c r="E215" s="42"/>
-      <c r="F215" s="42"/>
-      <c r="G215" s="42"/>
-      <c r="H215" s="42"/>
-      <c r="I215" s="39"/>
-    </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A216" s="56">
-        <v>10</v>
-      </c>
-      <c r="B216" s="50" t="s">
-        <v>325</v>
-      </c>
-      <c r="C216" s="57" t="s">
-        <v>326</v>
-      </c>
-      <c r="D216" s="42"/>
-      <c r="E216" s="42"/>
-      <c r="F216" s="42"/>
-      <c r="G216" s="42"/>
-      <c r="H216" s="42"/>
-      <c r="I216" s="39"/>
-    </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A217" s="54">
-        <v>11</v>
-      </c>
-      <c r="B217" s="48" t="s">
-        <v>327</v>
-      </c>
-      <c r="C217" s="55" t="s">
-        <v>328</v>
-      </c>
-      <c r="D217" s="42"/>
-      <c r="E217" s="42"/>
-      <c r="F217" s="42"/>
-      <c r="G217" s="42"/>
-      <c r="H217" s="42"/>
-      <c r="I217" s="39"/>
-    </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A218" s="56">
-        <v>12</v>
-      </c>
-      <c r="B218" s="50" t="s">
-        <v>329</v>
-      </c>
-      <c r="C218" s="57" t="s">
-        <v>330</v>
-      </c>
-      <c r="D218" s="42"/>
-      <c r="E218" s="42"/>
-      <c r="F218" s="42"/>
-      <c r="G218" s="42"/>
-      <c r="H218" s="42"/>
-      <c r="I218" s="39"/>
-    </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A219" s="54">
-        <v>13</v>
-      </c>
-      <c r="B219" s="47" t="s">
-        <v>331</v>
-      </c>
-      <c r="C219" s="55" t="s">
-        <v>332</v>
-      </c>
-      <c r="D219" s="42"/>
-      <c r="E219" s="43"/>
-      <c r="F219" s="42"/>
-      <c r="G219" s="44"/>
-      <c r="H219" s="44"/>
-      <c r="I219" s="40"/>
-    </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A220" s="56">
+      <c r="B219" s="48" t="s">
+        <v>341</v>
+      </c>
+      <c r="C219" s="56" t="s">
+        <v>342</v>
+      </c>
+      <c r="D219" s="43"/>
+      <c r="E219" s="44"/>
+      <c r="F219" s="43"/>
+      <c r="G219" s="45"/>
+      <c r="H219" s="45"/>
+      <c r="I219" s="41"/>
+    </row>
+    <row r="220" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A220" s="59">
         <v>14</v>
       </c>
-      <c r="B220" s="49" t="s">
-        <v>333</v>
-      </c>
-      <c r="C220" s="57" t="s">
-        <v>334</v>
-      </c>
-      <c r="D220" s="42"/>
-      <c r="E220" s="42"/>
-      <c r="F220" s="42"/>
-      <c r="G220" s="44"/>
-      <c r="H220" s="44"/>
-      <c r="I220" s="39"/>
-    </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A221" s="54">
-        <v>15</v>
-      </c>
-      <c r="B221" s="47" t="s">
-        <v>335</v>
-      </c>
-      <c r="C221" s="55" t="s">
-        <v>336</v>
-      </c>
-      <c r="D221" s="42"/>
-      <c r="E221" s="42"/>
-      <c r="F221" s="42"/>
-      <c r="G221" s="44"/>
-      <c r="H221" s="44"/>
-      <c r="I221" s="39"/>
-    </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A222" s="56">
-        <v>12</v>
-      </c>
-      <c r="B222" s="50" t="s">
-        <v>337</v>
-      </c>
-      <c r="C222" s="57" t="s">
-        <v>338</v>
-      </c>
-      <c r="D222" s="42"/>
-      <c r="E222" s="42"/>
-      <c r="F222" s="42"/>
-      <c r="G222" s="42"/>
-      <c r="H222" s="42"/>
-      <c r="I222" s="39"/>
-    </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A223" s="54">
-        <v>13</v>
-      </c>
-      <c r="B223" s="47" t="s">
-        <v>339</v>
-      </c>
-      <c r="C223" s="55" t="s">
-        <v>340</v>
-      </c>
-      <c r="D223" s="42"/>
-      <c r="E223" s="43"/>
-      <c r="F223" s="42"/>
-      <c r="G223" s="44"/>
-      <c r="H223" s="44"/>
-      <c r="I223" s="40"/>
-    </row>
-    <row r="224" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A224" s="58">
-        <v>14</v>
-      </c>
-      <c r="B224" s="59" t="s">
-        <v>341</v>
-      </c>
-      <c r="C224" s="60" t="s">
-        <v>342</v>
-      </c>
-      <c r="D224" s="42"/>
-      <c r="E224" s="42"/>
-      <c r="F224" s="42"/>
-      <c r="G224" s="44"/>
-      <c r="H224" s="44"/>
-      <c r="I224" s="39"/>
+      <c r="B220" s="60" t="s">
+        <v>343</v>
+      </c>
+      <c r="C220" s="61" t="s">
+        <v>344</v>
+      </c>
+      <c r="D220" s="43"/>
+      <c r="E220" s="43"/>
+      <c r="F220" s="43"/>
+      <c r="G220" s="45"/>
+      <c r="H220" s="45"/>
+      <c r="I220" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="A1:I3"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="A192:F192"/>
+    <mergeCell ref="G192:I192"/>
+    <mergeCell ref="G201:H201"/>
+    <mergeCell ref="A201:B201"/>
+    <mergeCell ref="A162:F162"/>
+    <mergeCell ref="G162:I162"/>
+    <mergeCell ref="A175:F175"/>
+    <mergeCell ref="G175:I175"/>
+    <mergeCell ref="A185:F185"/>
+    <mergeCell ref="G185:I185"/>
+    <mergeCell ref="A133:F133"/>
+    <mergeCell ref="G133:I133"/>
+    <mergeCell ref="A142:F142"/>
+    <mergeCell ref="G142:I142"/>
+    <mergeCell ref="A155:F155"/>
+    <mergeCell ref="G155:I155"/>
+    <mergeCell ref="A103:F103"/>
+    <mergeCell ref="G103:I103"/>
+    <mergeCell ref="A113:F113"/>
+    <mergeCell ref="G113:I113"/>
+    <mergeCell ref="A121:F121"/>
+    <mergeCell ref="G121:I121"/>
+    <mergeCell ref="A75:F75"/>
+    <mergeCell ref="G75:I75"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="G82:I82"/>
+    <mergeCell ref="A90:F90"/>
+    <mergeCell ref="G90:I90"/>
     <mergeCell ref="A31:F31"/>
     <mergeCell ref="G31:I31"/>
     <mergeCell ref="A43:F43"/>
     <mergeCell ref="G43:I43"/>
     <mergeCell ref="A56:F56"/>
     <mergeCell ref="G56:I56"/>
-    <mergeCell ref="A75:F75"/>
-    <mergeCell ref="G75:I75"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="G82:I82"/>
-    <mergeCell ref="A90:F90"/>
-    <mergeCell ref="G90:I90"/>
-    <mergeCell ref="A103:F103"/>
-    <mergeCell ref="G103:I103"/>
-    <mergeCell ref="A113:F113"/>
-    <mergeCell ref="G113:I113"/>
-    <mergeCell ref="A121:F121"/>
-    <mergeCell ref="G121:I121"/>
-    <mergeCell ref="A133:F133"/>
-    <mergeCell ref="G133:I133"/>
-    <mergeCell ref="A146:F146"/>
-    <mergeCell ref="G146:I146"/>
-    <mergeCell ref="A159:F159"/>
-    <mergeCell ref="G159:I159"/>
-    <mergeCell ref="A196:F196"/>
-    <mergeCell ref="G196:I196"/>
-    <mergeCell ref="G205:H205"/>
-    <mergeCell ref="A205:B205"/>
-    <mergeCell ref="A166:F166"/>
-    <mergeCell ref="G166:I166"/>
-    <mergeCell ref="A179:F179"/>
-    <mergeCell ref="G179:I179"/>
-    <mergeCell ref="A189:F189"/>
-    <mergeCell ref="G189:I189"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="A1:I3"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="G24:I24"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DB/오후3조 Channel_KGV 테이블 명세서.xlsx
+++ b/DB/오후3조 Channel_KGV 테이블 명세서.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cropr\Desktop\FINAL_PROJECT\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC2FB55A-8F69-4E42-B3FB-E81845CC9ADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11AC1422-F5E6-4034-9550-C8B21A74EF94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15660" yWindow="2085" windowWidth="15195" windowHeight="12210" xr2:uid="{BB9CF8A4-12E5-4296-9F19-D4219680D6A5}"/>
+    <workbookView xWindow="-108" yWindow="492" windowWidth="30936" windowHeight="16896" xr2:uid="{BB9CF8A4-12E5-4296-9F19-D4219680D6A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$226</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$228</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="362">
   <si>
     <t>번호</t>
   </si>
@@ -1189,6 +1189,14 @@
   </si>
   <si>
     <t>11. 이벤트 // 회원번호와 예매번호??</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCREEN_CONTENT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스크린 설명</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1329,7 +1337,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -1782,6 +1790,56 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1988,6 +2046,111 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2000,6 +2163,27 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2009,145 +2193,19 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -2465,10 +2523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61ADAB32-AF28-447C-8C14-BFAB34CED619}">
-  <dimension ref="A1:I224"/>
+  <dimension ref="A1:I226"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A118" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A121" sqref="A121:F121"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A132" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="M137" sqref="M137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2483,54 +2541,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="105" t="s">
         <v>343</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A2" s="74"/>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
+      <c r="A2" s="106"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
     </row>
     <row r="3" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="75"/>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
+      <c r="A3" s="107"/>
+      <c r="B3" s="107"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="107"/>
+      <c r="G3" s="107"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="107"/>
     </row>
     <row r="4" spans="1:9" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="101" t="s">
         <v>270</v>
       </c>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="68" t="s">
+      <c r="B4" s="102"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="102"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="68"/>
-      <c r="I4" s="69"/>
+      <c r="H4" s="103"/>
+      <c r="I4" s="104"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="7" t="s">
@@ -2830,57 +2888,57 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A16" s="98">
+      <c r="A16" s="79">
         <v>11</v>
       </c>
-      <c r="B16" s="99" t="s">
+      <c r="B16" s="80" t="s">
         <v>348</v>
       </c>
-      <c r="C16" s="99" t="s">
+      <c r="C16" s="80" t="s">
         <v>345</v>
       </c>
-      <c r="D16" s="99" t="s">
+      <c r="D16" s="80" t="s">
         <v>346</v>
       </c>
-      <c r="E16" s="99"/>
-      <c r="F16" s="99" t="s">
+      <c r="E16" s="80"/>
+      <c r="F16" s="80" t="s">
         <v>347</v>
       </c>
-      <c r="G16" s="99"/>
-      <c r="H16" s="100" t="s">
+      <c r="G16" s="80"/>
+      <c r="H16" s="81" t="s">
         <v>79</v>
       </c>
-      <c r="I16" s="101"/>
+      <c r="I16" s="82"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A17" s="85">
+      <c r="A17" s="63">
         <v>12</v>
       </c>
-      <c r="B17" s="86" t="s">
+      <c r="B17" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="86" t="s">
+      <c r="C17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="86" t="s">
+      <c r="D17" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E17" s="86">
+      <c r="E17" s="3">
         <v>1</v>
       </c>
-      <c r="F17" s="86" t="s">
-        <v>5</v>
-      </c>
-      <c r="G17" s="86"/>
-      <c r="H17" s="87" t="s">
+      <c r="F17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="H17" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="I17" s="88" t="s">
+      <c r="I17" s="65" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A18" s="102">
+      <c r="A18" s="83">
         <v>13</v>
       </c>
       <c r="B18" s="12" t="s">
@@ -2899,42 +2957,42 @@
         <v>6</v>
       </c>
       <c r="G18" s="12"/>
-      <c r="H18" s="103" t="s">
-        <v>46</v>
-      </c>
-      <c r="I18" s="104" t="s">
+      <c r="H18" s="84" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" s="85" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A19" s="85">
+      <c r="A19" s="63">
         <v>14</v>
       </c>
-      <c r="B19" s="86" t="s">
+      <c r="B19" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="86" t="s">
+      <c r="C19" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="86" t="s">
+      <c r="D19" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E19" s="89">
+      <c r="E19" s="71">
         <v>11</v>
       </c>
-      <c r="F19" s="86" t="s">
+      <c r="F19" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G19" s="90"/>
-      <c r="H19" s="91" t="s">
+      <c r="G19" s="72"/>
+      <c r="H19" s="73" t="s">
         <v>85</v>
       </c>
-      <c r="I19" s="92" t="s">
+      <c r="I19" s="74" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A20" s="102">
+      <c r="A20" s="83">
         <v>15</v>
       </c>
       <c r="B20" s="12" t="s">
@@ -2952,54 +3010,54 @@
       <c r="F20" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G20" s="105"/>
-      <c r="H20" s="106" t="s">
-        <v>5</v>
-      </c>
-      <c r="I20" s="104" t="s">
+      <c r="G20" s="86"/>
+      <c r="H20" s="87" t="s">
+        <v>5</v>
+      </c>
+      <c r="I20" s="85" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="93">
+      <c r="A21" s="75">
         <v>16</v>
       </c>
-      <c r="B21" s="94" t="s">
+      <c r="B21" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="94" t="s">
+      <c r="C21" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="94" t="s">
+      <c r="D21" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="E21" s="94"/>
-      <c r="F21" s="94" t="s">
+      <c r="E21" s="33"/>
+      <c r="F21" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G21" s="95"/>
-      <c r="H21" s="96" t="s">
-        <v>46</v>
-      </c>
-      <c r="I21" s="97" t="s">
+      <c r="G21" s="76"/>
+      <c r="H21" s="77" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" s="78" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="24" spans="1:9" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="66" t="s">
+      <c r="A24" s="101" t="s">
         <v>271</v>
       </c>
-      <c r="B24" s="67"/>
-      <c r="C24" s="67"/>
-      <c r="D24" s="67"/>
-      <c r="E24" s="67"/>
-      <c r="F24" s="67"/>
-      <c r="G24" s="68" t="s">
+      <c r="B24" s="102"/>
+      <c r="C24" s="102"/>
+      <c r="D24" s="102"/>
+      <c r="E24" s="102"/>
+      <c r="F24" s="102"/>
+      <c r="G24" s="103" t="s">
         <v>54</v>
       </c>
-      <c r="H24" s="68"/>
-      <c r="I24" s="69"/>
+      <c r="H24" s="103"/>
+      <c r="I24" s="104"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25" s="21" t="s">
@@ -3113,19 +3171,19 @@
     </row>
     <row r="30" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="31" spans="1:9" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="66" t="s">
+      <c r="A31" s="101" t="s">
         <v>272</v>
       </c>
-      <c r="B31" s="67"/>
-      <c r="C31" s="67"/>
-      <c r="D31" s="67"/>
-      <c r="E31" s="67"/>
-      <c r="F31" s="67"/>
-      <c r="G31" s="68" t="s">
+      <c r="B31" s="102"/>
+      <c r="C31" s="102"/>
+      <c r="D31" s="102"/>
+      <c r="E31" s="102"/>
+      <c r="F31" s="102"/>
+      <c r="G31" s="103" t="s">
         <v>66</v>
       </c>
-      <c r="H31" s="68"/>
-      <c r="I31" s="69"/>
+      <c r="H31" s="103"/>
+      <c r="I31" s="104"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A32" s="7" t="s">
@@ -3376,19 +3434,19 @@
     </row>
     <row r="42" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="43" spans="1:9" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="66" t="s">
+      <c r="A43" s="101" t="s">
         <v>273</v>
       </c>
-      <c r="B43" s="67"/>
-      <c r="C43" s="67"/>
-      <c r="D43" s="67"/>
-      <c r="E43" s="67"/>
-      <c r="F43" s="67"/>
-      <c r="G43" s="68" t="s">
+      <c r="B43" s="102"/>
+      <c r="C43" s="102"/>
+      <c r="D43" s="102"/>
+      <c r="E43" s="102"/>
+      <c r="F43" s="102"/>
+      <c r="G43" s="103" t="s">
         <v>86</v>
       </c>
-      <c r="H43" s="68"/>
-      <c r="I43" s="69"/>
+      <c r="H43" s="103"/>
+      <c r="I43" s="104"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A44" s="7" t="s">
@@ -3680,19 +3738,19 @@
     </row>
     <row r="55" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="56" spans="1:9" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A56" s="66" t="s">
+      <c r="A56" s="101" t="s">
         <v>274</v>
       </c>
-      <c r="B56" s="67"/>
-      <c r="C56" s="67"/>
-      <c r="D56" s="67"/>
-      <c r="E56" s="67"/>
-      <c r="F56" s="67"/>
-      <c r="G56" s="68" t="s">
+      <c r="B56" s="102"/>
+      <c r="C56" s="102"/>
+      <c r="D56" s="102"/>
+      <c r="E56" s="102"/>
+      <c r="F56" s="102"/>
+      <c r="G56" s="103" t="s">
         <v>105</v>
       </c>
-      <c r="H56" s="68"/>
-      <c r="I56" s="69"/>
+      <c r="H56" s="103"/>
+      <c r="I56" s="104"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A57" s="7" t="s">
@@ -3909,7 +3967,7 @@
         <v>8</v>
       </c>
       <c r="E64" s="13">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="F64" s="13" t="s">
         <v>5</v>
@@ -4154,19 +4212,19 @@
     </row>
     <row r="74" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="75" spans="1:9" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A75" s="66" t="s">
+      <c r="A75" s="101" t="s">
         <v>275</v>
       </c>
-      <c r="B75" s="67"/>
-      <c r="C75" s="67"/>
-      <c r="D75" s="67"/>
-      <c r="E75" s="67"/>
-      <c r="F75" s="67"/>
-      <c r="G75" s="68" t="s">
+      <c r="B75" s="102"/>
+      <c r="C75" s="102"/>
+      <c r="D75" s="102"/>
+      <c r="E75" s="102"/>
+      <c r="F75" s="102"/>
+      <c r="G75" s="103" t="s">
         <v>200</v>
       </c>
-      <c r="H75" s="68"/>
-      <c r="I75" s="69"/>
+      <c r="H75" s="103"/>
+      <c r="I75" s="104"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A76" s="7" t="s">
@@ -4286,19 +4344,19 @@
     </row>
     <row r="81" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="82" spans="1:9" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A82" s="66" t="s">
+      <c r="A82" s="101" t="s">
         <v>276</v>
       </c>
-      <c r="B82" s="67"/>
-      <c r="C82" s="67"/>
-      <c r="D82" s="67"/>
-      <c r="E82" s="67"/>
-      <c r="F82" s="67"/>
-      <c r="G82" s="68" t="s">
+      <c r="B82" s="102"/>
+      <c r="C82" s="102"/>
+      <c r="D82" s="102"/>
+      <c r="E82" s="102"/>
+      <c r="F82" s="102"/>
+      <c r="G82" s="103" t="s">
         <v>140</v>
       </c>
-      <c r="H82" s="68"/>
-      <c r="I82" s="69"/>
+      <c r="H82" s="103"/>
+      <c r="I82" s="104"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A83" s="7" t="s">
@@ -4369,7 +4427,7 @@
         <v>144</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="E85" s="2">
         <v>500</v>
@@ -4445,118 +4503,94 @@
         <v>150</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="90" spans="1:9" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A90" s="66" t="s">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A88" s="115">
+        <v>5</v>
+      </c>
+      <c r="B88" s="116" t="s">
+        <v>360</v>
+      </c>
+      <c r="C88" s="117" t="s">
+        <v>361</v>
+      </c>
+      <c r="D88" s="117" t="s">
+        <v>61</v>
+      </c>
+      <c r="E88" s="117">
+        <v>3000</v>
+      </c>
+      <c r="F88" s="117"/>
+      <c r="G88" s="117"/>
+      <c r="H88" s="118"/>
+      <c r="I88" s="119"/>
+    </row>
+    <row r="89" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A89" s="32">
+        <v>6</v>
+      </c>
+      <c r="B89" s="33"/>
+      <c r="C89" s="34"/>
+      <c r="D89" s="34"/>
+      <c r="E89" s="34"/>
+      <c r="F89" s="34"/>
+      <c r="G89" s="34"/>
+      <c r="H89" s="35"/>
+      <c r="I89" s="36"/>
+    </row>
+    <row r="91" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="92" spans="1:9" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A92" s="101" t="s">
         <v>277</v>
       </c>
-      <c r="B90" s="67"/>
-      <c r="C90" s="67"/>
-      <c r="D90" s="67"/>
-      <c r="E90" s="67"/>
-      <c r="F90" s="67"/>
-      <c r="G90" s="68" t="s">
+      <c r="B92" s="102"/>
+      <c r="C92" s="102"/>
+      <c r="D92" s="102"/>
+      <c r="E92" s="102"/>
+      <c r="F92" s="102"/>
+      <c r="G92" s="103" t="s">
         <v>151</v>
       </c>
-      <c r="H90" s="68"/>
-      <c r="I90" s="69"/>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A91" s="7" t="s">
+      <c r="H92" s="103"/>
+      <c r="I92" s="104"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A93" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B91" s="8" t="s">
+      <c r="B93" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C91" s="8" t="s">
+      <c r="C93" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D91" s="8" t="s">
+      <c r="D93" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E91" s="8" t="s">
+      <c r="E93" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F91" s="8" t="s">
+      <c r="F93" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G91" s="8" t="s">
+      <c r="G93" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="H91" s="25" t="s">
+      <c r="H93" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="I91" s="9" t="s">
+      <c r="I93" s="9" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A92" s="11">
-        <v>1</v>
-      </c>
-      <c r="B92" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="C92" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="D92" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="E92" s="13">
-        <v>10</v>
-      </c>
-      <c r="F92" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G92" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H92" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="I92" s="14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A93" s="6">
-        <v>2</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E93" s="2">
-        <v>10</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G93" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H93" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I93" s="10" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A94" s="11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B94" s="12" t="s">
-        <v>141</v>
+        <v>89</v>
       </c>
       <c r="C94" s="13" t="s">
-        <v>142</v>
+        <v>90</v>
       </c>
       <c r="D94" s="13" t="s">
         <v>59</v>
@@ -4568,7 +4602,7 @@
         <v>5</v>
       </c>
       <c r="G94" s="13" t="s">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="H94" s="26" t="s">
         <v>46</v>
@@ -4579,103 +4613,105 @@
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A95" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>153</v>
+        <v>58</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>154</v>
+        <v>56</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E95" s="2"/>
+        <v>59</v>
+      </c>
+      <c r="E95" s="2">
+        <v>10</v>
+      </c>
       <c r="F95" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="H95" s="5" t="s">
         <v>46</v>
       </c>
       <c r="I95" s="10" t="s">
-        <v>254</v>
+        <v>56</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A96" s="11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B96" s="12" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="C96" s="13" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="D96" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="E96" s="13"/>
+        <v>59</v>
+      </c>
+      <c r="E96" s="13">
+        <v>10</v>
+      </c>
       <c r="F96" s="13" t="s">
         <v>5</v>
       </c>
       <c r="G96" s="13" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="H96" s="26" t="s">
         <v>46</v>
       </c>
       <c r="I96" s="14" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A97" s="6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>46</v>
       </c>
       <c r="H97" s="5" t="s">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="I97" s="10" t="s">
-        <v>53</v>
+        <v>254</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A98" s="11">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B98" s="12" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C98" s="13" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D98" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E98" s="13">
-        <v>50</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="E98" s="13"/>
       <c r="F98" s="13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G98" s="13" t="s">
         <v>46</v>
@@ -4684,18 +4720,18 @@
         <v>46</v>
       </c>
       <c r="I98" s="14" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A99" s="6">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>43</v>
@@ -4714,179 +4750,177 @@
         <v>53</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A100" s="18">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A100" s="11">
+        <v>7</v>
+      </c>
+      <c r="B100" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C100" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="D100" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E100" s="13">
+        <v>50</v>
+      </c>
+      <c r="F100" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G100" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I100" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A101" s="6">
+        <v>8</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E101" s="2"/>
+      <c r="F101" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H101" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="I101" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A102" s="18">
         <v>9</v>
       </c>
-      <c r="B100" s="24" t="s">
+      <c r="B102" s="24" t="s">
         <v>163</v>
       </c>
-      <c r="C100" s="19" t="s">
+      <c r="C102" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="D100" s="19" t="s">
+      <c r="D102" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="E100" s="19">
+      <c r="E102" s="19">
         <v>50</v>
       </c>
-      <c r="F100" s="19" t="s">
+      <c r="F102" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G100" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="H100" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="I100" s="20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="103" spans="1:9" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A103" s="66" t="s">
+      <c r="G102" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H102" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I102" s="20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="105" spans="1:9" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A105" s="101" t="s">
         <v>278</v>
       </c>
-      <c r="B103" s="67"/>
-      <c r="C103" s="67"/>
-      <c r="D103" s="67"/>
-      <c r="E103" s="67"/>
-      <c r="F103" s="67"/>
-      <c r="G103" s="68" t="s">
+      <c r="B105" s="102"/>
+      <c r="C105" s="102"/>
+      <c r="D105" s="102"/>
+      <c r="E105" s="102"/>
+      <c r="F105" s="102"/>
+      <c r="G105" s="103" t="s">
         <v>165</v>
       </c>
-      <c r="H103" s="68"/>
-      <c r="I103" s="69"/>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A104" s="7" t="s">
+      <c r="H105" s="103"/>
+      <c r="I105" s="104"/>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A106" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B104" s="8" t="s">
+      <c r="B106" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C104" s="8" t="s">
+      <c r="C106" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D104" s="8" t="s">
+      <c r="D106" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E104" s="8" t="s">
+      <c r="E106" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F104" s="8" t="s">
+      <c r="F106" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G104" s="8" t="s">
+      <c r="G106" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="H104" s="25" t="s">
+      <c r="H106" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="I104" s="9" t="s">
+      <c r="I106" s="9" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A105" s="11">
-        <v>1</v>
-      </c>
-      <c r="B105" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="C105" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="D105" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="E105" s="13">
-        <v>10</v>
-      </c>
-      <c r="F105" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G105" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H105" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="I105" s="14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A106" s="6">
-        <v>2</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E106" s="2">
-        <v>10</v>
-      </c>
-      <c r="F106" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G106" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H106" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I106" s="10" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A107" s="11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B107" s="12" t="s">
-        <v>169</v>
+        <v>91</v>
       </c>
       <c r="C107" s="13" t="s">
-        <v>170</v>
+        <v>92</v>
       </c>
       <c r="D107" s="13" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="E107" s="13">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="F107" s="13" t="s">
         <v>5</v>
       </c>
       <c r="G107" s="13" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="H107" s="26" t="s">
         <v>46</v>
       </c>
       <c r="I107" s="14" t="s">
-        <v>171</v>
+        <v>46</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A108" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="E108" s="2">
         <v>10</v>
@@ -4895,346 +4929,346 @@
         <v>5</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="H108" s="5" t="s">
         <v>46</v>
       </c>
       <c r="I108" s="10" t="s">
-        <v>46</v>
+        <v>168</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A109" s="11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B109" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C109" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="D109" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E109" s="13">
+        <v>50</v>
+      </c>
+      <c r="F109" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G109" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H109" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I109" s="14" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A110" s="6">
+        <v>4</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E110" s="2">
+        <v>10</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H110" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I110" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A111" s="11">
+        <v>5</v>
+      </c>
+      <c r="B111" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="C109" s="13" t="s">
+      <c r="C111" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="D109" s="13" t="s">
+      <c r="D111" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="E109" s="13">
+      <c r="E111" s="13">
         <v>10</v>
       </c>
-      <c r="F109" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G109" s="13" t="s">
+      <c r="F111" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G111" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="H109" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="I109" s="14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A110" s="32">
+      <c r="H111" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I111" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A112" s="32">
         <v>6</v>
       </c>
-      <c r="B110" s="33" t="s">
+      <c r="B112" s="33" t="s">
         <v>174</v>
       </c>
-      <c r="C110" s="34" t="s">
+      <c r="C112" s="34" t="s">
         <v>175</v>
       </c>
-      <c r="D110" s="34" t="s">
+      <c r="D112" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="E110" s="34">
+      <c r="E112" s="34">
         <v>10</v>
       </c>
-      <c r="F110" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="G110" s="34" t="s">
+      <c r="F112" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="G112" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="H110" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="I110" s="36" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="113" spans="1:9" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A113" s="66" t="s">
+      <c r="H112" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I112" s="36" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="115" spans="1:9" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A115" s="101" t="s">
         <v>279</v>
       </c>
-      <c r="B113" s="67"/>
-      <c r="C113" s="67"/>
-      <c r="D113" s="67"/>
-      <c r="E113" s="67"/>
-      <c r="F113" s="67"/>
-      <c r="G113" s="68" t="s">
+      <c r="B115" s="102"/>
+      <c r="C115" s="102"/>
+      <c r="D115" s="102"/>
+      <c r="E115" s="102"/>
+      <c r="F115" s="102"/>
+      <c r="G115" s="103" t="s">
         <v>176</v>
       </c>
-      <c r="H113" s="68"/>
-      <c r="I113" s="69"/>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A114" s="7" t="s">
+      <c r="H115" s="103"/>
+      <c r="I115" s="104"/>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A116" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B114" s="8" t="s">
+      <c r="B116" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C114" s="8" t="s">
+      <c r="C116" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D114" s="8" t="s">
+      <c r="D116" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E114" s="8" t="s">
+      <c r="E116" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F114" s="8" t="s">
+      <c r="F116" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G114" s="8" t="s">
+      <c r="G116" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="H114" s="25" t="s">
+      <c r="H116" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="I114" s="9" t="s">
+      <c r="I116" s="9" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A115" s="11">
-        <v>1</v>
-      </c>
-      <c r="B115" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="C115" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="D115" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="E115" s="13">
-        <v>4</v>
-      </c>
-      <c r="F115" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G115" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H115" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="I115" s="14" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A116" s="6">
-        <v>2</v>
-      </c>
-      <c r="B116" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E116" s="2">
-        <v>10</v>
-      </c>
-      <c r="F116" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G116" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H116" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I116" s="10" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A117" s="11">
+        <v>1</v>
+      </c>
+      <c r="B117" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="C117" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="D117" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E117" s="13">
+        <v>4</v>
+      </c>
+      <c r="F117" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G117" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H117" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I117" s="14" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A118" s="6">
+        <v>2</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E118" s="2">
+        <v>10</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H118" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I118" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A119" s="11">
         <v>3</v>
       </c>
-      <c r="B117" s="12" t="s">
+      <c r="B119" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="C117" s="13" t="s">
+      <c r="C119" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="D117" s="13" t="s">
+      <c r="D119" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E117" s="13">
+      <c r="E119" s="13">
         <v>50</v>
       </c>
-      <c r="F117" s="13" t="s">
+      <c r="F119" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G117" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H117" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="I117" s="14" t="s">
+      <c r="G119" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H119" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I119" s="14" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="118" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A118" s="32">
+    <row r="120" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A120" s="32">
         <v>4</v>
       </c>
-      <c r="B118" s="33" t="s">
+      <c r="B120" s="33" t="s">
         <v>183</v>
       </c>
-      <c r="C118" s="34" t="s">
+      <c r="C120" s="34" t="s">
         <v>184</v>
       </c>
-      <c r="D118" s="34" t="s">
+      <c r="D120" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="E118" s="34">
+      <c r="E120" s="34">
         <v>100</v>
       </c>
-      <c r="F118" s="34" t="s">
+      <c r="F120" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="G118" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="H118" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="I118" s="36" t="s">
+      <c r="G120" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H120" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I120" s="36" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="120" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="121" spans="1:9" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A121" s="66" t="s">
+    <row r="122" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="123" spans="1:9" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A123" s="101" t="s">
         <v>359</v>
       </c>
-      <c r="B121" s="67"/>
-      <c r="C121" s="67"/>
-      <c r="D121" s="67"/>
-      <c r="E121" s="67"/>
-      <c r="F121" s="67"/>
-      <c r="G121" s="68" t="s">
+      <c r="B123" s="102"/>
+      <c r="C123" s="102"/>
+      <c r="D123" s="102"/>
+      <c r="E123" s="102"/>
+      <c r="F123" s="102"/>
+      <c r="G123" s="103" t="s">
         <v>198</v>
       </c>
-      <c r="H121" s="68"/>
-      <c r="I121" s="69"/>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A122" s="7" t="s">
+      <c r="H123" s="103"/>
+      <c r="I123" s="104"/>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A124" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B122" s="8" t="s">
+      <c r="B124" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C122" s="8" t="s">
+      <c r="C124" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D122" s="8" t="s">
+      <c r="D124" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E122" s="8" t="s">
+      <c r="E124" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F122" s="8" t="s">
+      <c r="F124" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G122" s="8" t="s">
+      <c r="G124" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H122" s="25" t="s">
+      <c r="H124" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="I122" s="9" t="s">
+      <c r="I124" s="9" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A123" s="11">
-        <v>1</v>
-      </c>
-      <c r="B123" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="C123" s="13" t="s">
-        <v>358</v>
-      </c>
-      <c r="D123" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="E123" s="13">
-        <v>4</v>
-      </c>
-      <c r="F123" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G123" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H123" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="I123" s="14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A124" s="6">
-        <v>2</v>
-      </c>
-      <c r="B124" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E124" s="2">
-        <v>10</v>
-      </c>
-      <c r="F124" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G124" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H124" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I124" s="10" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A125" s="11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B125" s="12" t="s">
-        <v>87</v>
+        <v>186</v>
       </c>
       <c r="C125" s="13" t="s">
-        <v>88</v>
+        <v>358</v>
       </c>
       <c r="D125" s="13" t="s">
         <v>59</v>
@@ -5246,7 +5280,7 @@
         <v>5</v>
       </c>
       <c r="G125" s="13" t="s">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="H125" s="26" t="s">
         <v>46</v>
@@ -5257,54 +5291,54 @@
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A126" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>187</v>
+        <v>28</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>188</v>
+        <v>17</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="E126" s="2">
-        <v>500</v>
+        <v>10</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="H126" s="5" t="s">
         <v>46</v>
       </c>
       <c r="I126" s="10" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A127" s="11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B127" s="12" t="s">
-        <v>189</v>
+        <v>87</v>
       </c>
       <c r="C127" s="13" t="s">
-        <v>190</v>
+        <v>88</v>
       </c>
       <c r="D127" s="13" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="E127" s="13">
-        <v>500</v>
+        <v>4</v>
       </c>
       <c r="F127" s="13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G127" s="13" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="H127" s="26" t="s">
         <v>46</v>
@@ -5315,18 +5349,20 @@
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A128" s="6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E128" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="E128" s="2">
+        <v>500</v>
+      </c>
       <c r="F128" s="2" t="s">
         <v>6</v>
       </c>
@@ -5337,23 +5373,25 @@
         <v>46</v>
       </c>
       <c r="I128" s="10" t="s">
-        <v>254</v>
+        <v>46</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A129" s="11">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B129" s="12" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C129" s="13" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D129" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="E129" s="13"/>
+        <v>8</v>
+      </c>
+      <c r="E129" s="13">
+        <v>500</v>
+      </c>
       <c r="F129" s="13" t="s">
         <v>6</v>
       </c>
@@ -5364,450 +5402,446 @@
         <v>46</v>
       </c>
       <c r="I129" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A130" s="6">
+        <v>6</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E130" s="2"/>
+      <c r="F130" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H130" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I130" s="10" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="130" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A130" s="32">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A131" s="11">
+        <v>7</v>
+      </c>
+      <c r="B131" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="C131" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="D131" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E131" s="13"/>
+      <c r="F131" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G131" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H131" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I131" s="14" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A132" s="32">
         <v>8</v>
       </c>
-      <c r="B130" s="33" t="s">
+      <c r="B132" s="33" t="s">
         <v>195</v>
       </c>
-      <c r="C130" s="34" t="s">
+      <c r="C132" s="34" t="s">
         <v>196</v>
       </c>
-      <c r="D130" s="34" t="s">
+      <c r="D132" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="E130" s="34">
+      <c r="E132" s="34">
         <v>1</v>
       </c>
-      <c r="F130" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="G130" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="H130" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="I130" s="36" t="s">
+      <c r="F132" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="G132" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H132" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I132" s="36" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="132" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="133" spans="1:9" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A133" s="76" t="s">
+    <row r="134" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="135" spans="1:9" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A135" s="108" t="s">
         <v>280</v>
       </c>
-      <c r="B133" s="77"/>
-      <c r="C133" s="77"/>
-      <c r="D133" s="77"/>
-      <c r="E133" s="77"/>
-      <c r="F133" s="77"/>
-      <c r="G133" s="78" t="s">
+      <c r="B135" s="109"/>
+      <c r="C135" s="109"/>
+      <c r="D135" s="109"/>
+      <c r="E135" s="109"/>
+      <c r="F135" s="109"/>
+      <c r="G135" s="110" t="s">
         <v>201</v>
       </c>
-      <c r="H133" s="78"/>
-      <c r="I133" s="79"/>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A134" s="80" t="s">
+      <c r="H135" s="110"/>
+      <c r="I135" s="111"/>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A136" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B134" s="81" t="s">
+      <c r="B136" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="C134" s="81" t="s">
+      <c r="C136" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="D134" s="81" t="s">
+      <c r="D136" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="E134" s="81" t="s">
+      <c r="E136" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="F134" s="81" t="s">
+      <c r="F136" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="G134" s="81" t="s">
+      <c r="G136" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="H134" s="81" t="s">
+      <c r="H136" s="67" t="s">
         <v>78</v>
       </c>
-      <c r="I134" s="82" t="s">
+      <c r="I136" s="68" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A135" s="54">
-        <v>1</v>
-      </c>
-      <c r="B135" s="48" t="s">
-        <v>202</v>
-      </c>
-      <c r="C135" s="47" t="s">
-        <v>203</v>
-      </c>
-      <c r="D135" s="47" t="s">
-        <v>59</v>
-      </c>
-      <c r="E135" s="47">
-        <v>4</v>
-      </c>
-      <c r="F135" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="G135" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="H135" s="47" t="s">
-        <v>46</v>
-      </c>
-      <c r="I135" s="83" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A136" s="56">
-        <v>2</v>
-      </c>
-      <c r="B136" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="C136" s="49" t="s">
-        <v>17</v>
-      </c>
-      <c r="D136" s="49" t="s">
-        <v>59</v>
-      </c>
-      <c r="E136" s="49">
-        <v>4</v>
-      </c>
-      <c r="F136" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="G136" s="49" t="s">
-        <v>64</v>
-      </c>
-      <c r="H136" s="49" t="s">
-        <v>46</v>
-      </c>
-      <c r="I136" s="84" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A137" s="54">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B137" s="48" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C137" s="47" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D137" s="47" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="E137" s="47">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="F137" s="47" t="s">
         <v>5</v>
       </c>
       <c r="G137" s="47" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="H137" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="I137" s="83" t="s">
+      <c r="I137" s="69" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A138" s="56">
+        <v>2</v>
+      </c>
+      <c r="B138" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="C138" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="D138" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="E138" s="49">
         <v>4</v>
       </c>
-      <c r="B138" s="50" t="s">
-        <v>206</v>
-      </c>
-      <c r="C138" s="49" t="s">
-        <v>207</v>
-      </c>
-      <c r="D138" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="E138" s="49">
-        <v>5000</v>
-      </c>
       <c r="F138" s="49" t="s">
         <v>5</v>
       </c>
       <c r="G138" s="49" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="H138" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="I138" s="84" t="s">
-        <v>46</v>
+      <c r="I138" s="70" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A139" s="54">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B139" s="48" t="s">
+        <v>204</v>
+      </c>
+      <c r="C139" s="47" t="s">
+        <v>205</v>
+      </c>
+      <c r="D139" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="E139" s="47">
+        <v>100</v>
+      </c>
+      <c r="F139" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="G139" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H139" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="I139" s="69" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A140" s="56">
+        <v>4</v>
+      </c>
+      <c r="B140" s="50" t="s">
+        <v>206</v>
+      </c>
+      <c r="C140" s="49" t="s">
+        <v>207</v>
+      </c>
+      <c r="D140" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="E140" s="49">
+        <v>3000</v>
+      </c>
+      <c r="F140" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="G140" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H140" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="I140" s="70" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A141" s="54">
+        <v>5</v>
+      </c>
+      <c r="B141" s="48" t="s">
         <v>208</v>
       </c>
-      <c r="C139" s="47" t="s">
+      <c r="C141" s="47" t="s">
         <v>209</v>
       </c>
-      <c r="D139" s="47" t="s">
+      <c r="D141" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="E139" s="47">
+      <c r="E141" s="47">
         <v>1000</v>
       </c>
-      <c r="F139" s="47" t="s">
+      <c r="F141" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="G139" s="47" t="s">
-        <v>46</v>
-      </c>
-      <c r="H139" s="47" t="s">
-        <v>46</v>
-      </c>
-      <c r="I139" s="83" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A140" s="107">
+      <c r="G141" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H141" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="I141" s="69" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A142" s="88">
         <v>6</v>
       </c>
-      <c r="B140" s="108" t="s">
+      <c r="B142" s="89" t="s">
         <v>349</v>
       </c>
-      <c r="C140" s="109" t="s">
+      <c r="C142" s="90" t="s">
         <v>350</v>
       </c>
-      <c r="D140" s="110" t="s">
+      <c r="D142" s="91" t="s">
         <v>346</v>
       </c>
-      <c r="E140" s="109"/>
-      <c r="F140" s="109" t="s">
-        <v>5</v>
-      </c>
-      <c r="G140" s="109" t="s">
-        <v>46</v>
-      </c>
-      <c r="H140" s="109" t="s">
+      <c r="E142" s="90"/>
+      <c r="F142" s="90" t="s">
+        <v>5</v>
+      </c>
+      <c r="G142" s="90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H142" s="90" t="s">
         <v>356</v>
       </c>
-      <c r="I140" s="111" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A141" s="112">
+      <c r="I142" s="92" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A143" s="93">
         <v>7</v>
       </c>
-      <c r="B141" s="113" t="s">
+      <c r="B143" s="94" t="s">
         <v>354</v>
       </c>
-      <c r="C141" s="114" t="s">
+      <c r="C143" s="95" t="s">
         <v>355</v>
       </c>
-      <c r="D141" s="110" t="s">
+      <c r="D143" s="91" t="s">
         <v>346</v>
       </c>
-      <c r="E141" s="114"/>
-      <c r="F141" s="114" t="s">
+      <c r="E143" s="95"/>
+      <c r="F143" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="G141" s="114"/>
-      <c r="H141" s="114"/>
-      <c r="I141" s="115"/>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A142" s="107">
+      <c r="G143" s="95"/>
+      <c r="H143" s="95"/>
+      <c r="I143" s="96"/>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A144" s="88">
         <v>8</v>
       </c>
-      <c r="B142" s="108" t="s">
+      <c r="B144" s="89" t="s">
         <v>351</v>
       </c>
-      <c r="C142" s="109" t="s">
+      <c r="C144" s="90" t="s">
         <v>352</v>
       </c>
-      <c r="D142" s="109" t="s">
+      <c r="D144" s="90" t="s">
         <v>346</v>
       </c>
-      <c r="E142" s="109"/>
-      <c r="F142" s="109" t="s">
+      <c r="E144" s="90"/>
+      <c r="F144" s="90" t="s">
         <v>269</v>
       </c>
-      <c r="G142" s="109"/>
-      <c r="H142" s="109" t="s">
+      <c r="G144" s="90"/>
+      <c r="H144" s="90" t="s">
         <v>269</v>
       </c>
-      <c r="I142" s="111" t="s">
+      <c r="I144" s="92" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="143" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A143" s="116">
+    <row r="145" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A145" s="97">
         <v>9</v>
       </c>
-      <c r="B143" s="117" t="s">
+      <c r="B145" s="98" t="s">
         <v>295</v>
       </c>
-      <c r="C143" s="118" t="s">
+      <c r="C145" s="99" t="s">
         <v>296</v>
       </c>
-      <c r="D143" s="118" t="s">
+      <c r="D145" s="99" t="s">
         <v>59</v>
       </c>
-      <c r="E143" s="118">
+      <c r="E145" s="99">
         <v>4</v>
       </c>
-      <c r="F143" s="118" t="s">
-        <v>5</v>
-      </c>
-      <c r="G143" s="118" t="s">
+      <c r="F145" s="99" t="s">
+        <v>5</v>
+      </c>
+      <c r="G145" s="99" t="s">
         <v>65</v>
       </c>
-      <c r="H143" s="118"/>
-      <c r="I143" s="119"/>
-    </row>
-    <row r="145" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="146" spans="1:9" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A146" s="66" t="s">
+      <c r="H145" s="99"/>
+      <c r="I145" s="100"/>
+    </row>
+    <row r="147" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="148" spans="1:9" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A148" s="101" t="s">
         <v>281</v>
       </c>
-      <c r="B146" s="67"/>
-      <c r="C146" s="67"/>
-      <c r="D146" s="67"/>
-      <c r="E146" s="67"/>
-      <c r="F146" s="67"/>
-      <c r="G146" s="68" t="s">
+      <c r="B148" s="102"/>
+      <c r="C148" s="102"/>
+      <c r="D148" s="102"/>
+      <c r="E148" s="102"/>
+      <c r="F148" s="102"/>
+      <c r="G148" s="103" t="s">
         <v>210</v>
       </c>
-      <c r="H146" s="68"/>
-      <c r="I146" s="69"/>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A147" s="7" t="s">
+      <c r="H148" s="103"/>
+      <c r="I148" s="104"/>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A149" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B147" s="8" t="s">
+      <c r="B149" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C147" s="8" t="s">
+      <c r="C149" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D147" s="8" t="s">
+      <c r="D149" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E147" s="8" t="s">
+      <c r="E149" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F147" s="8" t="s">
+      <c r="F149" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G147" s="8" t="s">
+      <c r="G149" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="H147" s="25" t="s">
+      <c r="H149" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="I147" s="9" t="s">
+      <c r="I149" s="9" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A148" s="11">
-        <v>1</v>
-      </c>
-      <c r="B148" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="C148" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="D148" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="E148" s="13">
-        <v>4</v>
-      </c>
-      <c r="F148" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G148" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H148" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="I148" s="14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A149" s="6">
-        <v>2</v>
-      </c>
-      <c r="B149" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E149" s="2">
-        <v>100</v>
-      </c>
-      <c r="F149" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G149" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H149" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I149" s="10" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A150" s="11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B150" s="12" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C150" s="13" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D150" s="13" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="E150" s="13">
-        <v>5000</v>
+        <v>4</v>
       </c>
       <c r="F150" s="13" t="s">
         <v>5</v>
       </c>
       <c r="G150" s="13" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="H150" s="26" t="s">
         <v>46</v>
@@ -5818,22 +5852,22 @@
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A151" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D151" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E151" s="2">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G151" s="2" t="s">
         <v>46</v>
@@ -5847,20 +5881,22 @@
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A152" s="11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B152" s="12" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C152" s="13" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D152" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="E152" s="13"/>
+        <v>8</v>
+      </c>
+      <c r="E152" s="13">
+        <v>3000</v>
+      </c>
       <c r="F152" s="13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G152" s="13" t="s">
         <v>46</v>
@@ -5869,24 +5905,24 @@
         <v>46</v>
       </c>
       <c r="I152" s="14" t="s">
-        <v>254</v>
+        <v>46</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A153" s="6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D153" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E153" s="2">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>6</v>
@@ -5903,13 +5939,13 @@
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A154" s="11">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B154" s="12" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C154" s="13" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D154" s="13" t="s">
         <v>43</v>
@@ -5930,13 +5966,13 @@
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A155" s="6">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D155" s="2" t="s">
         <v>8</v>
@@ -5957,291 +5993,289 @@
         <v>46</v>
       </c>
     </row>
-    <row r="156" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A156" s="18">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A156" s="11">
+        <v>7</v>
+      </c>
+      <c r="B156" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="C156" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="D156" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E156" s="13"/>
+      <c r="F156" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G156" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H156" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I156" s="14" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A157" s="6">
+        <v>8</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E157" s="2">
+        <v>100</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H157" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I157" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A158" s="18">
         <v>9</v>
       </c>
-      <c r="B156" s="24" t="s">
+      <c r="B158" s="24" t="s">
         <v>227</v>
       </c>
-      <c r="C156" s="19" t="s">
+      <c r="C158" s="19" t="s">
         <v>228</v>
       </c>
-      <c r="D156" s="19" t="s">
+      <c r="D158" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="E156" s="19">
+      <c r="E158" s="19">
         <v>1</v>
       </c>
-      <c r="F156" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="G156" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="H156" s="31" t="s">
+      <c r="F158" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G158" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H158" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="I156" s="20" t="s">
+      <c r="I158" s="20" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="159" spans="1:9" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A159" s="66" t="s">
+    <row r="160" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="161" spans="1:9" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A161" s="101" t="s">
         <v>282</v>
       </c>
-      <c r="B159" s="67"/>
-      <c r="C159" s="67"/>
-      <c r="D159" s="67"/>
-      <c r="E159" s="67"/>
-      <c r="F159" s="67"/>
-      <c r="G159" s="68" t="s">
+      <c r="B161" s="102"/>
+      <c r="C161" s="102"/>
+      <c r="D161" s="102"/>
+      <c r="E161" s="102"/>
+      <c r="F161" s="102"/>
+      <c r="G161" s="103" t="s">
         <v>229</v>
       </c>
-      <c r="H159" s="68"/>
-      <c r="I159" s="69"/>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A160" s="7" t="s">
+      <c r="H161" s="103"/>
+      <c r="I161" s="104"/>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A162" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B160" s="8" t="s">
+      <c r="B162" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C160" s="8" t="s">
+      <c r="C162" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D160" s="8" t="s">
+      <c r="D162" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E160" s="8" t="s">
+      <c r="E162" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F160" s="8" t="s">
+      <c r="F162" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G160" s="8" t="s">
+      <c r="G162" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H160" s="25" t="s">
+      <c r="H162" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="I160" s="9" t="s">
+      <c r="I162" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A161" s="11">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A163" s="11">
         <v>1</v>
       </c>
-      <c r="B161" s="12" t="s">
+      <c r="B163" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="C161" s="13" t="s">
+      <c r="C163" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="D161" s="13" t="s">
+      <c r="D163" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="E161" s="13">
+      <c r="E163" s="13">
         <v>10</v>
       </c>
-      <c r="F161" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G161" s="13" t="s">
+      <c r="F163" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G163" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="H161" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="I161" s="14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A162" s="6">
+      <c r="H163" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I163" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A164" s="6">
         <v>2</v>
       </c>
-      <c r="B162" s="3" t="s">
+      <c r="B164" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="C162" s="2" t="s">
+      <c r="C164" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="D162" s="2" t="s">
+      <c r="D164" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E162" s="2">
+      <c r="E164" s="2">
         <v>50</v>
       </c>
-      <c r="F162" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G162" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H162" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I162" s="10" t="s">
+      <c r="F164" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G164" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H164" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I164" s="10" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="163" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A163" s="18">
+    <row r="165" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A165" s="18">
         <v>3</v>
       </c>
-      <c r="B163" s="24" t="s">
+      <c r="B165" s="24" t="s">
         <v>232</v>
       </c>
-      <c r="C163" s="19" t="s">
+      <c r="C165" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="D163" s="19" t="s">
+      <c r="D165" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="E163" s="19">
+      <c r="E165" s="19">
         <v>2</v>
       </c>
-      <c r="F163" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="G163" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="H163" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="I163" s="20" t="s">
+      <c r="F165" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G165" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H165" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I165" s="20" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="165" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="166" spans="1:9" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A166" s="66" t="s">
+    <row r="167" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="168" spans="1:9" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A168" s="101" t="s">
         <v>283</v>
       </c>
-      <c r="B166" s="67"/>
-      <c r="C166" s="67"/>
-      <c r="D166" s="67"/>
-      <c r="E166" s="67"/>
-      <c r="F166" s="67"/>
-      <c r="G166" s="68" t="s">
+      <c r="B168" s="102"/>
+      <c r="C168" s="102"/>
+      <c r="D168" s="102"/>
+      <c r="E168" s="102"/>
+      <c r="F168" s="102"/>
+      <c r="G168" s="103" t="s">
         <v>235</v>
       </c>
-      <c r="H166" s="68"/>
-      <c r="I166" s="69"/>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A167" s="7" t="s">
+      <c r="H168" s="103"/>
+      <c r="I168" s="104"/>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A169" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B167" s="8" t="s">
+      <c r="B169" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C167" s="8" t="s">
+      <c r="C169" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D167" s="8" t="s">
+      <c r="D169" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E167" s="8" t="s">
+      <c r="E169" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F167" s="8" t="s">
+      <c r="F169" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G167" s="8" t="s">
+      <c r="G169" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="H167" s="25" t="s">
+      <c r="H169" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="I167" s="9" t="s">
+      <c r="I169" s="9" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A168" s="11">
-        <v>1</v>
-      </c>
-      <c r="B168" s="12" t="s">
-        <v>236</v>
-      </c>
-      <c r="C168" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="D168" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="E168" s="2">
-        <v>4</v>
-      </c>
-      <c r="F168" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G168" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H168" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="I168" s="14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A169" s="6">
-        <v>2</v>
-      </c>
-      <c r="B169" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="C169" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="D169" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E169" s="61">
-        <v>100</v>
-      </c>
-      <c r="F169" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G169" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H169" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I169" s="10" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A170" s="11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B170" s="12" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C170" s="13" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D170" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E170" s="13">
-        <v>5000</v>
+        <v>59</v>
+      </c>
+      <c r="E170" s="2">
+        <v>4</v>
       </c>
       <c r="F170" s="13" t="s">
         <v>5</v>
       </c>
       <c r="G170" s="13" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="H170" s="26" t="s">
         <v>46</v>
@@ -6252,22 +6286,22 @@
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A171" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D171" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E171" s="2">
-        <v>500</v>
+      <c r="E171" s="61">
+        <v>100</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G171" s="2" t="s">
         <v>46</v>
@@ -6281,20 +6315,22 @@
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A172" s="11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B172" s="12" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C172" s="13" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D172" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="E172" s="13"/>
+        <v>8</v>
+      </c>
+      <c r="E172" s="13">
+        <v>3000</v>
+      </c>
       <c r="F172" s="13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G172" s="13" t="s">
         <v>46</v>
@@ -6303,24 +6339,24 @@
         <v>46</v>
       </c>
       <c r="I172" s="14" t="s">
-        <v>254</v>
+        <v>46</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A173" s="6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D173" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E173" s="2">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>6</v>
@@ -6337,13 +6373,13 @@
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A174" s="11">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B174" s="12" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C174" s="13" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D174" s="13" t="s">
         <v>43</v>
@@ -6364,13 +6400,13 @@
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A175" s="6">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D175" s="2" t="s">
         <v>8</v>
@@ -6391,204 +6427,206 @@
         <v>46</v>
       </c>
     </row>
-    <row r="176" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A176" s="18">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A176" s="11">
+        <v>7</v>
+      </c>
+      <c r="B176" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="C176" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="D176" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E176" s="13"/>
+      <c r="F176" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G176" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H176" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I176" s="14" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A177" s="6">
+        <v>8</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E177" s="2">
+        <v>100</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G177" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H177" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I177" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A178" s="18">
         <v>9</v>
       </c>
-      <c r="B176" s="24" t="s">
+      <c r="B178" s="24" t="s">
         <v>252</v>
       </c>
-      <c r="C176" s="19" t="s">
+      <c r="C178" s="19" t="s">
         <v>253</v>
       </c>
-      <c r="D176" s="19" t="s">
+      <c r="D178" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="E176" s="19">
+      <c r="E178" s="19">
         <v>1</v>
       </c>
-      <c r="F176" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="G176" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="H176" s="31" t="s">
+      <c r="F178" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G178" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H178" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="I176" s="20" t="s">
+      <c r="I178" s="20" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="178" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="179" spans="1:9" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A179" s="66" t="s">
+    <row r="180" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="181" spans="1:9" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A181" s="101" t="s">
         <v>284</v>
       </c>
-      <c r="B179" s="67"/>
-      <c r="C179" s="67"/>
-      <c r="D179" s="67"/>
-      <c r="E179" s="67"/>
-      <c r="F179" s="67"/>
-      <c r="G179" s="68" t="s">
+      <c r="B181" s="102"/>
+      <c r="C181" s="102"/>
+      <c r="D181" s="102"/>
+      <c r="E181" s="102"/>
+      <c r="F181" s="102"/>
+      <c r="G181" s="103" t="s">
         <v>255</v>
       </c>
-      <c r="H179" s="68"/>
-      <c r="I179" s="69"/>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A180" s="7" t="s">
+      <c r="H181" s="103"/>
+      <c r="I181" s="104"/>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A182" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B180" s="8" t="s">
+      <c r="B182" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C180" s="8" t="s">
+      <c r="C182" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D180" s="8" t="s">
+      <c r="D182" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E180" s="8" t="s">
+      <c r="E182" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F180" s="8" t="s">
+      <c r="F182" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G180" s="8" t="s">
+      <c r="G182" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="H180" s="25" t="s">
+      <c r="H182" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="I180" s="9" t="s">
+      <c r="I182" s="9" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A181" s="11">
-        <v>1</v>
-      </c>
-      <c r="B181" s="12" t="s">
-        <v>256</v>
-      </c>
-      <c r="C181" s="13" t="s">
-        <v>257</v>
-      </c>
-      <c r="D181" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="E181" s="13">
-        <v>4</v>
-      </c>
-      <c r="F181" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G181" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H181" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="I181" s="14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A182" s="6">
-        <v>2</v>
-      </c>
-      <c r="B182" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="C182" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="D182" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E182" s="2">
-        <v>10</v>
-      </c>
-      <c r="F182" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="G182" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H182" s="5"/>
-      <c r="I182" s="10"/>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A183" s="11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B183" s="12" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C183" s="13" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D183" s="13" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="E183" s="13">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="F183" s="13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G183" s="13" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="H183" s="26" t="s">
         <v>46</v>
       </c>
       <c r="I183" s="14" t="s">
-        <v>260</v>
+        <v>46</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A184" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E184" s="2"/>
+        <v>59</v>
+      </c>
+      <c r="E184" s="2">
+        <v>10</v>
+      </c>
       <c r="F184" s="2" t="s">
-        <v>6</v>
+        <v>269</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H184" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I184" s="10" t="s">
-        <v>254</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="H184" s="5"/>
+      <c r="I184" s="10"/>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A185" s="11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B185" s="12" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="C185" s="13" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D185" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="E185" s="13"/>
+        <v>8</v>
+      </c>
+      <c r="E185" s="13">
+        <v>20</v>
+      </c>
       <c r="F185" s="13" t="s">
         <v>6</v>
       </c>
@@ -6599,294 +6637,290 @@
         <v>46</v>
       </c>
       <c r="I185" s="14" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A186" s="6">
+        <v>4</v>
+      </c>
+      <c r="B186" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E186" s="2"/>
+      <c r="F186" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G186" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H186" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I186" s="10" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="186" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A186" s="32">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A187" s="11">
+        <v>5</v>
+      </c>
+      <c r="B187" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="C187" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="D187" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E187" s="13"/>
+      <c r="F187" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B186" s="33" t="s">
+      <c r="G187" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H187" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I187" s="14" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A188" s="32">
+        <v>6</v>
+      </c>
+      <c r="B188" s="33" t="s">
         <v>265</v>
       </c>
-      <c r="C186" s="34" t="s">
+      <c r="C188" s="34" t="s">
         <v>266</v>
       </c>
-      <c r="D186" s="34" t="s">
+      <c r="D188" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="E186" s="34">
+      <c r="E188" s="34">
         <v>2</v>
       </c>
-      <c r="F186" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="G186" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="H186" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="I186" s="36" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="189" spans="1:9" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A189" s="66" t="s">
+      <c r="F188" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="G188" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H188" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I188" s="36" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="191" spans="1:9" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A191" s="101" t="s">
         <v>286</v>
       </c>
-      <c r="B189" s="67"/>
-      <c r="C189" s="67"/>
-      <c r="D189" s="67"/>
-      <c r="E189" s="67"/>
-      <c r="F189" s="67"/>
-      <c r="G189" s="68" t="s">
+      <c r="B191" s="102"/>
+      <c r="C191" s="102"/>
+      <c r="D191" s="102"/>
+      <c r="E191" s="102"/>
+      <c r="F191" s="102"/>
+      <c r="G191" s="103" t="s">
         <v>287</v>
       </c>
-      <c r="H189" s="68"/>
-      <c r="I189" s="69"/>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A190" s="7" t="s">
+      <c r="H191" s="103"/>
+      <c r="I191" s="104"/>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A192" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B190" s="8" t="s">
+      <c r="B192" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C190" s="8" t="s">
+      <c r="C192" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D190" s="8" t="s">
+      <c r="D192" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E190" s="8" t="s">
+      <c r="E192" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F190" s="8" t="s">
+      <c r="F192" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G190" s="8" t="s">
+      <c r="G192" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="H190" s="25" t="s">
+      <c r="H192" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="I190" s="9" t="s">
+      <c r="I192" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A191" s="11">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A193" s="11">
         <v>1</v>
       </c>
-      <c r="B191" s="12" t="s">
+      <c r="B193" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="C191" s="13" t="s">
+      <c r="C193" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="D191" s="13" t="s">
+      <c r="D193" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="E191" s="13">
+      <c r="E193" s="13">
         <v>10</v>
       </c>
-      <c r="F191" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G191" s="13" t="s">
+      <c r="F193" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G193" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="H191" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="I191" s="14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A192" s="6">
+      <c r="H193" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I193" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A194" s="6">
         <v>2</v>
       </c>
-      <c r="B192" s="3" t="s">
+      <c r="B194" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="C192" s="2" t="s">
+      <c r="C194" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="D192" s="2" t="s">
+      <c r="D194" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E192" s="2">
+      <c r="E194" s="2">
         <v>50</v>
       </c>
-      <c r="F192" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G192" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H192" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I192" s="10" t="s">
+      <c r="F194" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G194" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H194" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I194" s="10" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="193" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A193" s="18">
+    <row r="195" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A195" s="18">
         <v>3</v>
       </c>
-      <c r="B193" s="24" t="s">
+      <c r="B195" s="24" t="s">
         <v>291</v>
       </c>
-      <c r="C193" s="19" t="s">
+      <c r="C195" s="19" t="s">
         <v>266</v>
       </c>
-      <c r="D193" s="19" t="s">
+      <c r="D195" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="E193" s="19">
+      <c r="E195" s="19">
         <v>2</v>
       </c>
-      <c r="F193" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="G193" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="H193" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="I193" s="20" t="s">
+      <c r="F195" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G195" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H195" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I195" s="20" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="195" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="196" spans="1:9" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A196" s="66" t="s">
+    <row r="197" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="198" spans="1:9" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A198" s="101" t="s">
         <v>293</v>
       </c>
-      <c r="B196" s="67"/>
-      <c r="C196" s="67"/>
-      <c r="D196" s="67"/>
-      <c r="E196" s="67"/>
-      <c r="F196" s="67"/>
-      <c r="G196" s="68" t="s">
+      <c r="B198" s="102"/>
+      <c r="C198" s="102"/>
+      <c r="D198" s="102"/>
+      <c r="E198" s="102"/>
+      <c r="F198" s="102"/>
+      <c r="G198" s="103" t="s">
         <v>294</v>
       </c>
-      <c r="H196" s="68"/>
-      <c r="I196" s="69"/>
-    </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A197" s="7" t="s">
+      <c r="H198" s="103"/>
+      <c r="I198" s="104"/>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A199" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B197" s="8" t="s">
+      <c r="B199" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C197" s="8" t="s">
+      <c r="C199" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D197" s="8" t="s">
+      <c r="D199" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E197" s="8" t="s">
+      <c r="E199" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F197" s="8" t="s">
+      <c r="F199" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G197" s="8" t="s">
+      <c r="G199" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="H197" s="25" t="s">
+      <c r="H199" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="I197" s="9" t="s">
+      <c r="I199" s="9" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A198" s="11">
-        <v>1</v>
-      </c>
-      <c r="B198" s="12" t="s">
-        <v>295</v>
-      </c>
-      <c r="C198" s="13" t="s">
-        <v>357</v>
-      </c>
-      <c r="D198" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="E198" s="13">
-        <v>4</v>
-      </c>
-      <c r="F198" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G198" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H198" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="I198" s="14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A199" s="6">
-        <v>2</v>
-      </c>
-      <c r="B199" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="C199" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="D199" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E199" s="2">
-        <v>100</v>
-      </c>
-      <c r="F199" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G199" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H199" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I199" s="10" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A200" s="11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B200" s="12" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C200" s="13" t="s">
-        <v>300</v>
+        <v>357</v>
       </c>
       <c r="D200" s="13" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="E200" s="13">
-        <v>500</v>
+        <v>4</v>
       </c>
       <c r="F200" s="13" t="s">
         <v>5</v>
       </c>
       <c r="G200" s="13" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="H200" s="26" t="s">
         <v>46</v>
@@ -6897,138 +6931,162 @@
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A201" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="D201" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E201" s="2">
+        <v>100</v>
+      </c>
+      <c r="F201" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G201" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H201" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I201" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A202" s="11">
+        <v>3</v>
+      </c>
+      <c r="B202" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="C202" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="D202" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E202" s="13">
+        <v>500</v>
+      </c>
+      <c r="F202" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G202" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H202" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I202" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A203" s="6">
+        <v>4</v>
+      </c>
+      <c r="B203" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E203" s="2">
         <v>20</v>
       </c>
-      <c r="F201" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G201" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H201" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I201" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A202" s="18">
-        <v>5</v>
-      </c>
-      <c r="B202" s="24" t="s">
+      <c r="F203" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G203" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H203" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I203" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A204" s="18">
+        <v>5</v>
+      </c>
+      <c r="B204" s="24" t="s">
         <v>303</v>
       </c>
-      <c r="C202" s="19" t="s">
+      <c r="C204" s="19" t="s">
         <v>304</v>
       </c>
-      <c r="D202" s="19" t="s">
+      <c r="D204" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="E202" s="19">
+      <c r="E204" s="19">
         <v>500</v>
       </c>
-      <c r="F202" s="19" t="s">
+      <c r="F204" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G202" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="H202" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="I202" s="20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="205" spans="1:9" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A205" s="71" t="s">
+      <c r="G204" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H204" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I204" s="20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="207" spans="1:9" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A207" s="113" t="s">
         <v>305</v>
       </c>
-      <c r="B205" s="72"/>
-      <c r="C205" s="51" t="s">
+      <c r="B207" s="114"/>
+      <c r="C207" s="51" t="s">
         <v>306</v>
       </c>
-      <c r="D205" s="45"/>
-      <c r="E205" s="41"/>
-      <c r="F205" s="41"/>
-      <c r="G205" s="70"/>
-      <c r="H205" s="70"/>
-      <c r="I205" s="37"/>
-    </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A206" s="52" t="s">
+      <c r="D207" s="45"/>
+      <c r="E207" s="41"/>
+      <c r="F207" s="41"/>
+      <c r="G207" s="112"/>
+      <c r="H207" s="112"/>
+      <c r="I207" s="37"/>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A208" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B206" s="46" t="s">
+      <c r="B208" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="C206" s="53" t="s">
+      <c r="C208" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="D206" s="38"/>
-      <c r="E206" s="38"/>
-      <c r="F206" s="38"/>
-      <c r="G206" s="38"/>
-      <c r="H206" s="38"/>
-      <c r="I206" s="38"/>
-    </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A207" s="54">
-        <v>1</v>
-      </c>
-      <c r="B207" s="48" t="s">
-        <v>307</v>
-      </c>
-      <c r="C207" s="55" t="s">
-        <v>308</v>
-      </c>
-      <c r="D207" s="42"/>
-      <c r="E207" s="42"/>
-      <c r="F207" s="42"/>
-      <c r="G207" s="42"/>
-      <c r="H207" s="42"/>
-      <c r="I207" s="39"/>
-    </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A208" s="56">
-        <v>2</v>
-      </c>
-      <c r="B208" s="50" t="s">
-        <v>309</v>
-      </c>
-      <c r="C208" s="57" t="s">
-        <v>310</v>
-      </c>
-      <c r="D208" s="42"/>
-      <c r="E208" s="42"/>
-      <c r="F208" s="42"/>
-      <c r="G208" s="42"/>
-      <c r="H208" s="42"/>
-      <c r="I208" s="39"/>
+      <c r="D208" s="38"/>
+      <c r="E208" s="38"/>
+      <c r="F208" s="38"/>
+      <c r="G208" s="38"/>
+      <c r="H208" s="38"/>
+      <c r="I208" s="38"/>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A209" s="54">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B209" s="48" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C209" s="55" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D209" s="42"/>
       <c r="E209" s="42"/>
@@ -7039,13 +7097,13 @@
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A210" s="56">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B210" s="50" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C210" s="57" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="D210" s="42"/>
       <c r="E210" s="42"/>
@@ -7056,13 +7114,13 @@
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A211" s="54">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B211" s="48" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C211" s="55" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D211" s="42"/>
       <c r="E211" s="42"/>
@@ -7073,13 +7131,13 @@
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A212" s="56">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B212" s="50" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C212" s="57" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="D212" s="42"/>
       <c r="E212" s="42"/>
@@ -7090,13 +7148,13 @@
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A213" s="54">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B213" s="48" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C213" s="55" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D213" s="42"/>
       <c r="E213" s="42"/>
@@ -7107,13 +7165,13 @@
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A214" s="56">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B214" s="50" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C214" s="57" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="D214" s="42"/>
       <c r="E214" s="42"/>
@@ -7124,13 +7182,13 @@
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A215" s="54">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B215" s="48" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C215" s="55" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="D215" s="42"/>
       <c r="E215" s="42"/>
@@ -7141,13 +7199,13 @@
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A216" s="56">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B216" s="50" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C216" s="57" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="D216" s="42"/>
       <c r="E216" s="42"/>
@@ -7158,13 +7216,13 @@
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A217" s="54">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B217" s="48" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C217" s="55" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D217" s="42"/>
       <c r="E217" s="42"/>
@@ -7175,13 +7233,13 @@
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A218" s="56">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B218" s="50" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C218" s="57" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="D218" s="42"/>
       <c r="E218" s="42"/>
@@ -7192,147 +7250,181 @@
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A219" s="54">
-        <v>13</v>
-      </c>
-      <c r="B219" s="47" t="s">
-        <v>331</v>
+        <v>11</v>
+      </c>
+      <c r="B219" s="48" t="s">
+        <v>327</v>
       </c>
       <c r="C219" s="55" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="D219" s="42"/>
-      <c r="E219" s="43"/>
+      <c r="E219" s="42"/>
       <c r="F219" s="42"/>
-      <c r="G219" s="44"/>
-      <c r="H219" s="44"/>
-      <c r="I219" s="40"/>
+      <c r="G219" s="42"/>
+      <c r="H219" s="42"/>
+      <c r="I219" s="39"/>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A220" s="56">
-        <v>14</v>
-      </c>
-      <c r="B220" s="49" t="s">
-        <v>333</v>
+        <v>12</v>
+      </c>
+      <c r="B220" s="50" t="s">
+        <v>329</v>
       </c>
       <c r="C220" s="57" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D220" s="42"/>
       <c r="E220" s="42"/>
       <c r="F220" s="42"/>
-      <c r="G220" s="44"/>
-      <c r="H220" s="44"/>
+      <c r="G220" s="42"/>
+      <c r="H220" s="42"/>
       <c r="I220" s="39"/>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A221" s="54">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B221" s="47" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C221" s="55" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="D221" s="42"/>
-      <c r="E221" s="42"/>
+      <c r="E221" s="43"/>
       <c r="F221" s="42"/>
       <c r="G221" s="44"/>
       <c r="H221" s="44"/>
-      <c r="I221" s="39"/>
+      <c r="I221" s="40"/>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A222" s="56">
-        <v>12</v>
-      </c>
-      <c r="B222" s="50" t="s">
-        <v>337</v>
+        <v>14</v>
+      </c>
+      <c r="B222" s="49" t="s">
+        <v>333</v>
       </c>
       <c r="C222" s="57" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="D222" s="42"/>
       <c r="E222" s="42"/>
       <c r="F222" s="42"/>
-      <c r="G222" s="42"/>
-      <c r="H222" s="42"/>
+      <c r="G222" s="44"/>
+      <c r="H222" s="44"/>
       <c r="I222" s="39"/>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A223" s="54">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B223" s="47" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C223" s="55" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="D223" s="42"/>
-      <c r="E223" s="43"/>
+      <c r="E223" s="42"/>
       <c r="F223" s="42"/>
       <c r="G223" s="44"/>
       <c r="H223" s="44"/>
-      <c r="I223" s="40"/>
-    </row>
-    <row r="224" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A224" s="58">
-        <v>14</v>
-      </c>
-      <c r="B224" s="59" t="s">
-        <v>341</v>
-      </c>
-      <c r="C224" s="60" t="s">
-        <v>342</v>
+      <c r="I223" s="39"/>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A224" s="56">
+        <v>12</v>
+      </c>
+      <c r="B224" s="50" t="s">
+        <v>337</v>
+      </c>
+      <c r="C224" s="57" t="s">
+        <v>338</v>
       </c>
       <c r="D224" s="42"/>
       <c r="E224" s="42"/>
       <c r="F224" s="42"/>
-      <c r="G224" s="44"/>
-      <c r="H224" s="44"/>
+      <c r="G224" s="42"/>
+      <c r="H224" s="42"/>
       <c r="I224" s="39"/>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A225" s="54">
+        <v>13</v>
+      </c>
+      <c r="B225" s="47" t="s">
+        <v>339</v>
+      </c>
+      <c r="C225" s="55" t="s">
+        <v>340</v>
+      </c>
+      <c r="D225" s="42"/>
+      <c r="E225" s="43"/>
+      <c r="F225" s="42"/>
+      <c r="G225" s="44"/>
+      <c r="H225" s="44"/>
+      <c r="I225" s="40"/>
+    </row>
+    <row r="226" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A226" s="58">
+        <v>14</v>
+      </c>
+      <c r="B226" s="59" t="s">
+        <v>341</v>
+      </c>
+      <c r="C226" s="60" t="s">
+        <v>342</v>
+      </c>
+      <c r="D226" s="42"/>
+      <c r="E226" s="42"/>
+      <c r="F226" s="42"/>
+      <c r="G226" s="44"/>
+      <c r="H226" s="44"/>
+      <c r="I226" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="A1:I3"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="A198:F198"/>
+    <mergeCell ref="G198:I198"/>
+    <mergeCell ref="G207:H207"/>
+    <mergeCell ref="A207:B207"/>
+    <mergeCell ref="A168:F168"/>
+    <mergeCell ref="G168:I168"/>
+    <mergeCell ref="A181:F181"/>
+    <mergeCell ref="G181:I181"/>
+    <mergeCell ref="A191:F191"/>
+    <mergeCell ref="G191:I191"/>
+    <mergeCell ref="A135:F135"/>
+    <mergeCell ref="G135:I135"/>
+    <mergeCell ref="A148:F148"/>
+    <mergeCell ref="G148:I148"/>
+    <mergeCell ref="A161:F161"/>
+    <mergeCell ref="G161:I161"/>
+    <mergeCell ref="A105:F105"/>
+    <mergeCell ref="G105:I105"/>
+    <mergeCell ref="A115:F115"/>
+    <mergeCell ref="G115:I115"/>
+    <mergeCell ref="A123:F123"/>
+    <mergeCell ref="G123:I123"/>
+    <mergeCell ref="A75:F75"/>
+    <mergeCell ref="G75:I75"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="G82:I82"/>
+    <mergeCell ref="A92:F92"/>
+    <mergeCell ref="G92:I92"/>
     <mergeCell ref="A31:F31"/>
     <mergeCell ref="G31:I31"/>
     <mergeCell ref="A43:F43"/>
     <mergeCell ref="G43:I43"/>
     <mergeCell ref="A56:F56"/>
     <mergeCell ref="G56:I56"/>
-    <mergeCell ref="A75:F75"/>
-    <mergeCell ref="G75:I75"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="G82:I82"/>
-    <mergeCell ref="A90:F90"/>
-    <mergeCell ref="G90:I90"/>
-    <mergeCell ref="A103:F103"/>
-    <mergeCell ref="G103:I103"/>
-    <mergeCell ref="A113:F113"/>
-    <mergeCell ref="G113:I113"/>
-    <mergeCell ref="A121:F121"/>
-    <mergeCell ref="G121:I121"/>
-    <mergeCell ref="A133:F133"/>
-    <mergeCell ref="G133:I133"/>
-    <mergeCell ref="A146:F146"/>
-    <mergeCell ref="G146:I146"/>
-    <mergeCell ref="A159:F159"/>
-    <mergeCell ref="G159:I159"/>
-    <mergeCell ref="A196:F196"/>
-    <mergeCell ref="G196:I196"/>
-    <mergeCell ref="G205:H205"/>
-    <mergeCell ref="A205:B205"/>
-    <mergeCell ref="A166:F166"/>
-    <mergeCell ref="G166:I166"/>
-    <mergeCell ref="A179:F179"/>
-    <mergeCell ref="G179:I179"/>
-    <mergeCell ref="A189:F189"/>
-    <mergeCell ref="G189:I189"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="A1:I3"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="G24:I24"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DB/오후3조 Channel_KGV 테이블 명세서.xlsx
+++ b/DB/오후3조 Channel_KGV 테이블 명세서.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cropr\Desktop\FINAL_PROJECT\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11AC1422-F5E6-4034-9550-C8B21A74EF94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE8AC287-4611-490A-8883-47AE4F2E79B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="492" windowWidth="30936" windowHeight="16896" xr2:uid="{BB9CF8A4-12E5-4296-9F19-D4219680D6A5}"/>
   </bookViews>
@@ -1847,7 +1847,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2151,6 +2151,21 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2163,6 +2178,27 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2172,40 +2208,28 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -2525,8 +2549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61ADAB32-AF28-447C-8C14-BFAB34CED619}">
   <dimension ref="A1:I226"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A132" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="M137" sqref="M137"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A53" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F72" sqref="F72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2541,54 +2565,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="117" t="s">
         <v>343</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="117"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A2" s="106"/>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
+      <c r="A2" s="118"/>
+      <c r="B2" s="118"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="118"/>
+      <c r="G2" s="118"/>
+      <c r="H2" s="118"/>
+      <c r="I2" s="118"/>
     </row>
     <row r="3" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="107"/>
-      <c r="B3" s="107"/>
-      <c r="C3" s="107"/>
-      <c r="D3" s="107"/>
-      <c r="E3" s="107"/>
-      <c r="F3" s="107"/>
-      <c r="G3" s="107"/>
-      <c r="H3" s="107"/>
-      <c r="I3" s="107"/>
+      <c r="A3" s="119"/>
+      <c r="B3" s="119"/>
+      <c r="C3" s="119"/>
+      <c r="D3" s="119"/>
+      <c r="E3" s="119"/>
+      <c r="F3" s="119"/>
+      <c r="G3" s="119"/>
+      <c r="H3" s="119"/>
+      <c r="I3" s="119"/>
     </row>
     <row r="4" spans="1:9" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="101" t="s">
+      <c r="A4" s="106" t="s">
         <v>270</v>
       </c>
-      <c r="B4" s="102"/>
-      <c r="C4" s="102"/>
-      <c r="D4" s="102"/>
-      <c r="E4" s="102"/>
-      <c r="F4" s="102"/>
-      <c r="G4" s="103" t="s">
+      <c r="B4" s="107"/>
+      <c r="C4" s="107"/>
+      <c r="D4" s="107"/>
+      <c r="E4" s="107"/>
+      <c r="F4" s="107"/>
+      <c r="G4" s="108" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="103"/>
-      <c r="I4" s="104"/>
+      <c r="H4" s="108"/>
+      <c r="I4" s="109"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="7" t="s">
@@ -3045,19 +3069,19 @@
     </row>
     <row r="23" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="24" spans="1:9" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="101" t="s">
+      <c r="A24" s="106" t="s">
         <v>271</v>
       </c>
-      <c r="B24" s="102"/>
-      <c r="C24" s="102"/>
-      <c r="D24" s="102"/>
-      <c r="E24" s="102"/>
-      <c r="F24" s="102"/>
-      <c r="G24" s="103" t="s">
+      <c r="B24" s="107"/>
+      <c r="C24" s="107"/>
+      <c r="D24" s="107"/>
+      <c r="E24" s="107"/>
+      <c r="F24" s="107"/>
+      <c r="G24" s="108" t="s">
         <v>54</v>
       </c>
-      <c r="H24" s="103"/>
-      <c r="I24" s="104"/>
+      <c r="H24" s="108"/>
+      <c r="I24" s="109"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25" s="21" t="s">
@@ -3171,19 +3195,19 @@
     </row>
     <row r="30" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="31" spans="1:9" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="101" t="s">
+      <c r="A31" s="106" t="s">
         <v>272</v>
       </c>
-      <c r="B31" s="102"/>
-      <c r="C31" s="102"/>
-      <c r="D31" s="102"/>
-      <c r="E31" s="102"/>
-      <c r="F31" s="102"/>
-      <c r="G31" s="103" t="s">
+      <c r="B31" s="107"/>
+      <c r="C31" s="107"/>
+      <c r="D31" s="107"/>
+      <c r="E31" s="107"/>
+      <c r="F31" s="107"/>
+      <c r="G31" s="108" t="s">
         <v>66</v>
       </c>
-      <c r="H31" s="103"/>
-      <c r="I31" s="104"/>
+      <c r="H31" s="108"/>
+      <c r="I31" s="109"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A32" s="7" t="s">
@@ -3434,19 +3458,19 @@
     </row>
     <row r="42" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="43" spans="1:9" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="101" t="s">
+      <c r="A43" s="106" t="s">
         <v>273</v>
       </c>
-      <c r="B43" s="102"/>
-      <c r="C43" s="102"/>
-      <c r="D43" s="102"/>
-      <c r="E43" s="102"/>
-      <c r="F43" s="102"/>
-      <c r="G43" s="103" t="s">
+      <c r="B43" s="107"/>
+      <c r="C43" s="107"/>
+      <c r="D43" s="107"/>
+      <c r="E43" s="107"/>
+      <c r="F43" s="107"/>
+      <c r="G43" s="108" t="s">
         <v>86</v>
       </c>
-      <c r="H43" s="103"/>
-      <c r="I43" s="104"/>
+      <c r="H43" s="108"/>
+      <c r="I43" s="109"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A44" s="7" t="s">
@@ -3738,19 +3762,19 @@
     </row>
     <row r="55" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="56" spans="1:9" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A56" s="101" t="s">
+      <c r="A56" s="106" t="s">
         <v>274</v>
       </c>
-      <c r="B56" s="102"/>
-      <c r="C56" s="102"/>
-      <c r="D56" s="102"/>
-      <c r="E56" s="102"/>
-      <c r="F56" s="102"/>
-      <c r="G56" s="103" t="s">
+      <c r="B56" s="107"/>
+      <c r="C56" s="107"/>
+      <c r="D56" s="107"/>
+      <c r="E56" s="107"/>
+      <c r="F56" s="107"/>
+      <c r="G56" s="108" t="s">
         <v>105</v>
       </c>
-      <c r="H56" s="103"/>
-      <c r="I56" s="104"/>
+      <c r="H56" s="108"/>
+      <c r="I56" s="109"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A57" s="7" t="s">
@@ -4012,60 +4036,60 @@
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A66" s="11">
+      <c r="A66" s="120">
         <v>9</v>
       </c>
-      <c r="B66" s="12" t="s">
+      <c r="B66" s="80" t="s">
         <v>122</v>
       </c>
-      <c r="C66" s="13" t="s">
+      <c r="C66" s="121" t="s">
         <v>123</v>
       </c>
-      <c r="D66" s="13" t="s">
+      <c r="D66" s="121" t="s">
         <v>59</v>
       </c>
-      <c r="E66" s="13">
+      <c r="E66" s="121">
         <v>11</v>
       </c>
-      <c r="F66" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G66" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H66" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="I66" s="14" t="s">
+      <c r="F66" s="121" t="s">
+        <v>347</v>
+      </c>
+      <c r="G66" s="121" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" s="122" t="s">
+        <v>46</v>
+      </c>
+      <c r="I66" s="123" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A67" s="6">
+      <c r="A67" s="124">
         <v>10</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B67" s="125" t="s">
         <v>124</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="C67" s="91" t="s">
         <v>125</v>
       </c>
-      <c r="D67" s="2" t="s">
+      <c r="D67" s="91" t="s">
         <v>59</v>
       </c>
-      <c r="E67" s="2">
+      <c r="E67" s="91">
         <v>11</v>
       </c>
-      <c r="F67" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G67" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H67" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I67" s="10" t="s">
+      <c r="F67" s="91" t="s">
+        <v>347</v>
+      </c>
+      <c r="G67" s="91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" s="126" t="s">
+        <v>46</v>
+      </c>
+      <c r="I67" s="127" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4212,19 +4236,19 @@
     </row>
     <row r="74" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="75" spans="1:9" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A75" s="101" t="s">
+      <c r="A75" s="106" t="s">
         <v>275</v>
       </c>
-      <c r="B75" s="102"/>
-      <c r="C75" s="102"/>
-      <c r="D75" s="102"/>
-      <c r="E75" s="102"/>
-      <c r="F75" s="102"/>
-      <c r="G75" s="103" t="s">
+      <c r="B75" s="107"/>
+      <c r="C75" s="107"/>
+      <c r="D75" s="107"/>
+      <c r="E75" s="107"/>
+      <c r="F75" s="107"/>
+      <c r="G75" s="108" t="s">
         <v>200</v>
       </c>
-      <c r="H75" s="103"/>
-      <c r="I75" s="104"/>
+      <c r="H75" s="108"/>
+      <c r="I75" s="109"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A76" s="7" t="s">
@@ -4344,19 +4368,19 @@
     </row>
     <row r="81" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="82" spans="1:9" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A82" s="101" t="s">
+      <c r="A82" s="106" t="s">
         <v>276</v>
       </c>
-      <c r="B82" s="102"/>
-      <c r="C82" s="102"/>
-      <c r="D82" s="102"/>
-      <c r="E82" s="102"/>
-      <c r="F82" s="102"/>
-      <c r="G82" s="103" t="s">
+      <c r="B82" s="107"/>
+      <c r="C82" s="107"/>
+      <c r="D82" s="107"/>
+      <c r="E82" s="107"/>
+      <c r="F82" s="107"/>
+      <c r="G82" s="108" t="s">
         <v>140</v>
       </c>
-      <c r="H82" s="103"/>
-      <c r="I82" s="104"/>
+      <c r="H82" s="108"/>
+      <c r="I82" s="109"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A83" s="7" t="s">
@@ -4504,25 +4528,25 @@
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A88" s="115">
-        <v>5</v>
-      </c>
-      <c r="B88" s="116" t="s">
+      <c r="A88" s="101">
+        <v>5</v>
+      </c>
+      <c r="B88" s="102" t="s">
         <v>360</v>
       </c>
-      <c r="C88" s="117" t="s">
+      <c r="C88" s="103" t="s">
         <v>361</v>
       </c>
-      <c r="D88" s="117" t="s">
+      <c r="D88" s="103" t="s">
         <v>61</v>
       </c>
-      <c r="E88" s="117">
+      <c r="E88" s="103">
         <v>3000</v>
       </c>
-      <c r="F88" s="117"/>
-      <c r="G88" s="117"/>
-      <c r="H88" s="118"/>
-      <c r="I88" s="119"/>
+      <c r="F88" s="103"/>
+      <c r="G88" s="103"/>
+      <c r="H88" s="104"/>
+      <c r="I88" s="105"/>
     </row>
     <row r="89" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A89" s="32">
@@ -4539,19 +4563,19 @@
     </row>
     <row r="91" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="92" spans="1:9" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A92" s="101" t="s">
+      <c r="A92" s="106" t="s">
         <v>277</v>
       </c>
-      <c r="B92" s="102"/>
-      <c r="C92" s="102"/>
-      <c r="D92" s="102"/>
-      <c r="E92" s="102"/>
-      <c r="F92" s="102"/>
-      <c r="G92" s="103" t="s">
+      <c r="B92" s="107"/>
+      <c r="C92" s="107"/>
+      <c r="D92" s="107"/>
+      <c r="E92" s="107"/>
+      <c r="F92" s="107"/>
+      <c r="G92" s="108" t="s">
         <v>151</v>
       </c>
-      <c r="H92" s="103"/>
-      <c r="I92" s="104"/>
+      <c r="H92" s="108"/>
+      <c r="I92" s="109"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A93" s="7" t="s">
@@ -4837,19 +4861,19 @@
     </row>
     <row r="104" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="105" spans="1:9" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A105" s="101" t="s">
+      <c r="A105" s="106" t="s">
         <v>278</v>
       </c>
-      <c r="B105" s="102"/>
-      <c r="C105" s="102"/>
-      <c r="D105" s="102"/>
-      <c r="E105" s="102"/>
-      <c r="F105" s="102"/>
-      <c r="G105" s="103" t="s">
+      <c r="B105" s="107"/>
+      <c r="C105" s="107"/>
+      <c r="D105" s="107"/>
+      <c r="E105" s="107"/>
+      <c r="F105" s="107"/>
+      <c r="G105" s="108" t="s">
         <v>165</v>
       </c>
-      <c r="H105" s="103"/>
-      <c r="I105" s="104"/>
+      <c r="H105" s="108"/>
+      <c r="I105" s="109"/>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A106" s="7" t="s">
@@ -5056,19 +5080,19 @@
     </row>
     <row r="114" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="115" spans="1:9" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A115" s="101" t="s">
+      <c r="A115" s="106" t="s">
         <v>279</v>
       </c>
-      <c r="B115" s="102"/>
-      <c r="C115" s="102"/>
-      <c r="D115" s="102"/>
-      <c r="E115" s="102"/>
-      <c r="F115" s="102"/>
-      <c r="G115" s="103" t="s">
+      <c r="B115" s="107"/>
+      <c r="C115" s="107"/>
+      <c r="D115" s="107"/>
+      <c r="E115" s="107"/>
+      <c r="F115" s="107"/>
+      <c r="G115" s="108" t="s">
         <v>176</v>
       </c>
-      <c r="H115" s="103"/>
-      <c r="I115" s="104"/>
+      <c r="H115" s="108"/>
+      <c r="I115" s="109"/>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A116" s="7" t="s">
@@ -5217,19 +5241,19 @@
     </row>
     <row r="122" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="123" spans="1:9" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A123" s="101" t="s">
+      <c r="A123" s="106" t="s">
         <v>359</v>
       </c>
-      <c r="B123" s="102"/>
-      <c r="C123" s="102"/>
-      <c r="D123" s="102"/>
-      <c r="E123" s="102"/>
-      <c r="F123" s="102"/>
-      <c r="G123" s="103" t="s">
+      <c r="B123" s="107"/>
+      <c r="C123" s="107"/>
+      <c r="D123" s="107"/>
+      <c r="E123" s="107"/>
+      <c r="F123" s="107"/>
+      <c r="G123" s="108" t="s">
         <v>198</v>
       </c>
-      <c r="H123" s="103"/>
-      <c r="I123" s="104"/>
+      <c r="H123" s="108"/>
+      <c r="I123" s="109"/>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A124" s="7" t="s">
@@ -5490,19 +5514,19 @@
     </row>
     <row r="134" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="135" spans="1:9" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A135" s="108" t="s">
+      <c r="A135" s="113" t="s">
         <v>280</v>
       </c>
-      <c r="B135" s="109"/>
-      <c r="C135" s="109"/>
-      <c r="D135" s="109"/>
-      <c r="E135" s="109"/>
-      <c r="F135" s="109"/>
-      <c r="G135" s="110" t="s">
+      <c r="B135" s="114"/>
+      <c r="C135" s="114"/>
+      <c r="D135" s="114"/>
+      <c r="E135" s="114"/>
+      <c r="F135" s="114"/>
+      <c r="G135" s="115" t="s">
         <v>201</v>
       </c>
-      <c r="H135" s="110"/>
-      <c r="I135" s="111"/>
+      <c r="H135" s="115"/>
+      <c r="I135" s="116"/>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A136" s="66" t="s">
@@ -5778,19 +5802,19 @@
     </row>
     <row r="147" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="148" spans="1:9" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A148" s="101" t="s">
+      <c r="A148" s="106" t="s">
         <v>281</v>
       </c>
-      <c r="B148" s="102"/>
-      <c r="C148" s="102"/>
-      <c r="D148" s="102"/>
-      <c r="E148" s="102"/>
-      <c r="F148" s="102"/>
-      <c r="G148" s="103" t="s">
+      <c r="B148" s="107"/>
+      <c r="C148" s="107"/>
+      <c r="D148" s="107"/>
+      <c r="E148" s="107"/>
+      <c r="F148" s="107"/>
+      <c r="G148" s="108" t="s">
         <v>210</v>
       </c>
-      <c r="H148" s="103"/>
-      <c r="I148" s="104"/>
+      <c r="H148" s="108"/>
+      <c r="I148" s="109"/>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A149" s="7" t="s">
@@ -6080,19 +6104,19 @@
     </row>
     <row r="160" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="161" spans="1:9" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A161" s="101" t="s">
+      <c r="A161" s="106" t="s">
         <v>282</v>
       </c>
-      <c r="B161" s="102"/>
-      <c r="C161" s="102"/>
-      <c r="D161" s="102"/>
-      <c r="E161" s="102"/>
-      <c r="F161" s="102"/>
-      <c r="G161" s="103" t="s">
+      <c r="B161" s="107"/>
+      <c r="C161" s="107"/>
+      <c r="D161" s="107"/>
+      <c r="E161" s="107"/>
+      <c r="F161" s="107"/>
+      <c r="G161" s="108" t="s">
         <v>229</v>
       </c>
-      <c r="H161" s="103"/>
-      <c r="I161" s="104"/>
+      <c r="H161" s="108"/>
+      <c r="I161" s="109"/>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A162" s="7" t="s">
@@ -6212,19 +6236,19 @@
     </row>
     <row r="167" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="168" spans="1:9" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A168" s="101" t="s">
+      <c r="A168" s="106" t="s">
         <v>283</v>
       </c>
-      <c r="B168" s="102"/>
-      <c r="C168" s="102"/>
-      <c r="D168" s="102"/>
-      <c r="E168" s="102"/>
-      <c r="F168" s="102"/>
-      <c r="G168" s="103" t="s">
+      <c r="B168" s="107"/>
+      <c r="C168" s="107"/>
+      <c r="D168" s="107"/>
+      <c r="E168" s="107"/>
+      <c r="F168" s="107"/>
+      <c r="G168" s="108" t="s">
         <v>235</v>
       </c>
-      <c r="H168" s="103"/>
-      <c r="I168" s="104"/>
+      <c r="H168" s="108"/>
+      <c r="I168" s="109"/>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A169" s="7" t="s">
@@ -6514,19 +6538,19 @@
     </row>
     <row r="180" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="181" spans="1:9" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A181" s="101" t="s">
+      <c r="A181" s="106" t="s">
         <v>284</v>
       </c>
-      <c r="B181" s="102"/>
-      <c r="C181" s="102"/>
-      <c r="D181" s="102"/>
-      <c r="E181" s="102"/>
-      <c r="F181" s="102"/>
-      <c r="G181" s="103" t="s">
+      <c r="B181" s="107"/>
+      <c r="C181" s="107"/>
+      <c r="D181" s="107"/>
+      <c r="E181" s="107"/>
+      <c r="F181" s="107"/>
+      <c r="G181" s="108" t="s">
         <v>255</v>
       </c>
-      <c r="H181" s="103"/>
-      <c r="I181" s="104"/>
+      <c r="H181" s="108"/>
+      <c r="I181" s="109"/>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A182" s="7" t="s">
@@ -6725,19 +6749,19 @@
     </row>
     <row r="190" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="191" spans="1:9" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A191" s="101" t="s">
+      <c r="A191" s="106" t="s">
         <v>286</v>
       </c>
-      <c r="B191" s="102"/>
-      <c r="C191" s="102"/>
-      <c r="D191" s="102"/>
-      <c r="E191" s="102"/>
-      <c r="F191" s="102"/>
-      <c r="G191" s="103" t="s">
+      <c r="B191" s="107"/>
+      <c r="C191" s="107"/>
+      <c r="D191" s="107"/>
+      <c r="E191" s="107"/>
+      <c r="F191" s="107"/>
+      <c r="G191" s="108" t="s">
         <v>287</v>
       </c>
-      <c r="H191" s="103"/>
-      <c r="I191" s="104"/>
+      <c r="H191" s="108"/>
+      <c r="I191" s="109"/>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A192" s="7" t="s">
@@ -6857,19 +6881,19 @@
     </row>
     <row r="197" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="198" spans="1:9" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A198" s="101" t="s">
+      <c r="A198" s="106" t="s">
         <v>293</v>
       </c>
-      <c r="B198" s="102"/>
-      <c r="C198" s="102"/>
-      <c r="D198" s="102"/>
-      <c r="E198" s="102"/>
-      <c r="F198" s="102"/>
-      <c r="G198" s="103" t="s">
+      <c r="B198" s="107"/>
+      <c r="C198" s="107"/>
+      <c r="D198" s="107"/>
+      <c r="E198" s="107"/>
+      <c r="F198" s="107"/>
+      <c r="G198" s="108" t="s">
         <v>294</v>
       </c>
-      <c r="H198" s="103"/>
-      <c r="I198" s="104"/>
+      <c r="H198" s="108"/>
+      <c r="I198" s="109"/>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A199" s="7" t="s">
@@ -7047,18 +7071,18 @@
     </row>
     <row r="206" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="207" spans="1:9" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A207" s="113" t="s">
+      <c r="A207" s="111" t="s">
         <v>305</v>
       </c>
-      <c r="B207" s="114"/>
+      <c r="B207" s="112"/>
       <c r="C207" s="51" t="s">
         <v>306</v>
       </c>
       <c r="D207" s="45"/>
       <c r="E207" s="41"/>
       <c r="F207" s="41"/>
-      <c r="G207" s="112"/>
-      <c r="H207" s="112"/>
+      <c r="G207" s="110"/>
+      <c r="H207" s="110"/>
       <c r="I207" s="37"/>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.4">
@@ -7386,6 +7410,35 @@
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="A1:I3"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="A56:F56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="A75:F75"/>
+    <mergeCell ref="G75:I75"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="G82:I82"/>
+    <mergeCell ref="A92:F92"/>
+    <mergeCell ref="G92:I92"/>
+    <mergeCell ref="A105:F105"/>
+    <mergeCell ref="G105:I105"/>
+    <mergeCell ref="A115:F115"/>
+    <mergeCell ref="G115:I115"/>
+    <mergeCell ref="A123:F123"/>
+    <mergeCell ref="G123:I123"/>
+    <mergeCell ref="A135:F135"/>
+    <mergeCell ref="G135:I135"/>
+    <mergeCell ref="A148:F148"/>
+    <mergeCell ref="G148:I148"/>
+    <mergeCell ref="A161:F161"/>
+    <mergeCell ref="G161:I161"/>
     <mergeCell ref="A198:F198"/>
     <mergeCell ref="G198:I198"/>
     <mergeCell ref="G207:H207"/>
@@ -7396,35 +7449,6 @@
     <mergeCell ref="G181:I181"/>
     <mergeCell ref="A191:F191"/>
     <mergeCell ref="G191:I191"/>
-    <mergeCell ref="A135:F135"/>
-    <mergeCell ref="G135:I135"/>
-    <mergeCell ref="A148:F148"/>
-    <mergeCell ref="G148:I148"/>
-    <mergeCell ref="A161:F161"/>
-    <mergeCell ref="G161:I161"/>
-    <mergeCell ref="A105:F105"/>
-    <mergeCell ref="G105:I105"/>
-    <mergeCell ref="A115:F115"/>
-    <mergeCell ref="G115:I115"/>
-    <mergeCell ref="A123:F123"/>
-    <mergeCell ref="G123:I123"/>
-    <mergeCell ref="A75:F75"/>
-    <mergeCell ref="G75:I75"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="G82:I82"/>
-    <mergeCell ref="A92:F92"/>
-    <mergeCell ref="G92:I92"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="A56:F56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="A1:I3"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="G24:I24"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DB/오후3조 Channel_KGV 테이블 명세서.xlsx
+++ b/DB/오후3조 Channel_KGV 테이블 명세서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cropr\Desktop\FINAL_PROJECT\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE8AC287-4611-490A-8883-47AE4F2E79B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2686A132-DA87-4789-B35D-EF76F11DF308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="492" windowWidth="30936" windowHeight="16896" xr2:uid="{BB9CF8A4-12E5-4296-9F19-D4219680D6A5}"/>
+    <workbookView xWindow="3540" yWindow="-15720" windowWidth="29040" windowHeight="15840" xr2:uid="{BB9CF8A4-12E5-4296-9F19-D4219680D6A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1204,7 +1204,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1292,8 +1292,16 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1333,6 +1341,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1847,7 +1867,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1860,9 +1880,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1893,15 +1910,6 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1929,12 +1937,6 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2166,6 +2168,30 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2178,6 +2204,27 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2187,49 +2234,46 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -2549,8 +2593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61ADAB32-AF28-447C-8C14-BFAB34CED619}">
   <dimension ref="A1:I226"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A53" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F72" sqref="F72"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2565,115 +2609,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="112" t="s">
         <v>343</v>
       </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
-      <c r="H1" s="117"/>
-      <c r="I1" s="117"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A2" s="118"/>
-      <c r="B2" s="118"/>
-      <c r="C2" s="118"/>
-      <c r="D2" s="118"/>
-      <c r="E2" s="118"/>
-      <c r="F2" s="118"/>
-      <c r="G2" s="118"/>
-      <c r="H2" s="118"/>
-      <c r="I2" s="118"/>
+      <c r="A2" s="113"/>
+      <c r="B2" s="113"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="113"/>
+      <c r="I2" s="113"/>
     </row>
     <row r="3" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="119"/>
-      <c r="B3" s="119"/>
-      <c r="C3" s="119"/>
-      <c r="D3" s="119"/>
-      <c r="E3" s="119"/>
-      <c r="F3" s="119"/>
-      <c r="G3" s="119"/>
-      <c r="H3" s="119"/>
-      <c r="I3" s="119"/>
+      <c r="A3" s="114"/>
+      <c r="B3" s="114"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="114"/>
     </row>
     <row r="4" spans="1:9" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="106" t="s">
+      <c r="A4" s="108" t="s">
         <v>270</v>
       </c>
-      <c r="B4" s="107"/>
-      <c r="C4" s="107"/>
-      <c r="D4" s="107"/>
-      <c r="E4" s="107"/>
-      <c r="F4" s="107"/>
-      <c r="G4" s="108" t="s">
+      <c r="B4" s="109"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="109"/>
+      <c r="E4" s="109"/>
+      <c r="F4" s="109"/>
+      <c r="G4" s="110" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="108"/>
-      <c r="I4" s="109"/>
+      <c r="H4" s="110"/>
+      <c r="I4" s="111"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="25" t="s">
+      <c r="H5" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A6" s="11">
+      <c r="A6" s="10">
         <v>1</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="12">
         <v>10</v>
       </c>
-      <c r="F6" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="13" t="s">
+      <c r="F6" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="I6" s="14" t="s">
+      <c r="H6" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" s="13" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>2</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -2692,42 +2736,42 @@
         <v>5</v>
       </c>
       <c r="G7" s="2"/>
-      <c r="H7" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I7" s="10" t="s">
+      <c r="H7" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" s="9" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A8" s="11">
+      <c r="A8" s="10">
         <v>3</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="12">
         <v>500</v>
       </c>
-      <c r="F8" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="13"/>
-      <c r="H8" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="I8" s="14" t="s">
+      <c r="F8" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="12"/>
+      <c r="H8" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" s="13" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A9" s="6">
+      <c r="A9" s="5">
         <v>4</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -2746,42 +2790,42 @@
         <v>5</v>
       </c>
       <c r="G9" s="2"/>
-      <c r="H9" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I9" s="10" t="s">
+      <c r="H9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" s="9" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A10" s="11">
-        <v>5</v>
-      </c>
-      <c r="B10" s="12" t="s">
+      <c r="A10" s="10">
+        <v>5</v>
+      </c>
+      <c r="B10" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="12">
         <v>50</v>
       </c>
-      <c r="F10" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="13"/>
-      <c r="H10" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="I10" s="14" t="s">
+      <c r="F10" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="12"/>
+      <c r="H10" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" s="13" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A11" s="6">
+      <c r="A11" s="5">
         <v>6</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -2791,7 +2835,7 @@
         <v>21</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E11" s="2">
         <v>11</v>
@@ -2800,42 +2844,42 @@
         <v>5</v>
       </c>
       <c r="G11" s="2"/>
-      <c r="H11" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I11" s="10" t="s">
+      <c r="H11" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" s="9" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A12" s="11">
+      <c r="A12" s="10">
         <v>7</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="12">
         <v>500</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="13"/>
-      <c r="H12" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="I12" s="14" t="s">
+      <c r="G12" s="12"/>
+      <c r="H12" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" s="13" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A13" s="6">
+      <c r="A13" s="5">
         <v>8</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -2852,42 +2896,42 @@
         <v>6</v>
       </c>
       <c r="G13" s="2"/>
-      <c r="H13" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I13" s="10" t="s">
+      <c r="H13" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" s="9" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A14" s="11">
+      <c r="A14" s="10">
         <v>9</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="12">
         <v>1</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="F14" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G14" s="13"/>
-      <c r="H14" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="I14" s="14" t="s">
+      <c r="G14" s="12"/>
+      <c r="H14" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" s="13" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A15" s="63">
+      <c r="A15" s="57">
         <v>10</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -2904,38 +2948,38 @@
         <v>269</v>
       </c>
       <c r="G15" s="3"/>
-      <c r="H15" s="64" t="s">
+      <c r="H15" s="58" t="s">
         <v>79</v>
       </c>
-      <c r="I15" s="65" t="s">
+      <c r="I15" s="59" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A16" s="79">
+      <c r="A16" s="73">
         <v>11</v>
       </c>
-      <c r="B16" s="80" t="s">
+      <c r="B16" s="74" t="s">
         <v>348</v>
       </c>
-      <c r="C16" s="80" t="s">
+      <c r="C16" s="74" t="s">
         <v>345</v>
       </c>
-      <c r="D16" s="80" t="s">
+      <c r="D16" s="74" t="s">
         <v>346</v>
       </c>
-      <c r="E16" s="80"/>
-      <c r="F16" s="80" t="s">
+      <c r="E16" s="74"/>
+      <c r="F16" s="74" t="s">
         <v>347</v>
       </c>
-      <c r="G16" s="80"/>
-      <c r="H16" s="81" t="s">
+      <c r="G16" s="74"/>
+      <c r="H16" s="75" t="s">
         <v>79</v>
       </c>
-      <c r="I16" s="82"/>
+      <c r="I16" s="76"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A17" s="63">
+      <c r="A17" s="57">
         <v>12</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -2954,42 +2998,42 @@
         <v>5</v>
       </c>
       <c r="G17" s="3"/>
-      <c r="H17" s="64" t="s">
+      <c r="H17" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="I17" s="65" t="s">
+      <c r="I17" s="59" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A18" s="83">
+      <c r="A18" s="77">
         <v>13</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E18" s="11">
         <v>500</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="F18" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G18" s="12"/>
-      <c r="H18" s="84" t="s">
-        <v>46</v>
-      </c>
-      <c r="I18" s="85" t="s">
+      <c r="G18" s="11"/>
+      <c r="H18" s="78" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" s="79" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A19" s="63">
+      <c r="A19" s="57">
         <v>14</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -3001,146 +3045,146 @@
       <c r="D19" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E19" s="71">
+      <c r="E19" s="65">
         <v>11</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G19" s="72"/>
-      <c r="H19" s="73" t="s">
+      <c r="G19" s="66"/>
+      <c r="H19" s="67" t="s">
         <v>85</v>
       </c>
-      <c r="I19" s="74" t="s">
+      <c r="I19" s="68" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A20" s="83">
+      <c r="A20" s="77">
         <v>15</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E20" s="11">
         <v>1</v>
       </c>
-      <c r="F20" s="12" t="s">
+      <c r="F20" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G20" s="86"/>
-      <c r="H20" s="87" t="s">
-        <v>5</v>
-      </c>
-      <c r="I20" s="85" t="s">
+      <c r="G20" s="80"/>
+      <c r="H20" s="81" t="s">
+        <v>5</v>
+      </c>
+      <c r="I20" s="79" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="75">
+      <c r="A21" s="69">
         <v>16</v>
       </c>
-      <c r="B21" s="33" t="s">
+      <c r="B21" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="33" t="s">
+      <c r="C21" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="33" t="s">
+      <c r="D21" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="E21" s="33"/>
-      <c r="F21" s="33" t="s">
+      <c r="E21" s="27"/>
+      <c r="F21" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="G21" s="76"/>
-      <c r="H21" s="77" t="s">
-        <v>46</v>
-      </c>
-      <c r="I21" s="78" t="s">
+      <c r="G21" s="70"/>
+      <c r="H21" s="71" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" s="72" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="24" spans="1:9" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="106" t="s">
+      <c r="A24" s="108" t="s">
         <v>271</v>
       </c>
-      <c r="B24" s="107"/>
-      <c r="C24" s="107"/>
-      <c r="D24" s="107"/>
-      <c r="E24" s="107"/>
-      <c r="F24" s="107"/>
-      <c r="G24" s="108" t="s">
+      <c r="B24" s="109"/>
+      <c r="C24" s="109"/>
+      <c r="D24" s="109"/>
+      <c r="E24" s="109"/>
+      <c r="F24" s="109"/>
+      <c r="G24" s="110" t="s">
         <v>54</v>
       </c>
-      <c r="H24" s="108"/>
-      <c r="I24" s="109"/>
+      <c r="H24" s="110"/>
+      <c r="I24" s="111"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A25" s="21" t="s">
+      <c r="A25" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="22" t="s">
+      <c r="C25" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="22" t="s">
+      <c r="D25" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="E25" s="22" t="s">
+      <c r="E25" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F25" s="22" t="s">
+      <c r="F25" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="G25" s="22" t="s">
+      <c r="G25" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="H25" s="30" t="s">
+      <c r="H25" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="I25" s="23" t="s">
+      <c r="I25" s="19" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A26" s="11">
+      <c r="A26" s="10">
         <v>1</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="E26" s="13">
+      <c r="E26" s="12">
         <v>10</v>
       </c>
-      <c r="F26" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G26" s="13" t="s">
+      <c r="F26" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G26" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="H26" s="26"/>
-      <c r="I26" s="14" t="s">
+      <c r="H26" s="22"/>
+      <c r="I26" s="13" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A27" s="6">
+      <c r="A27" s="5">
         <v>2</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -3161,114 +3205,114 @@
       <c r="G27" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="H27" s="5"/>
-      <c r="I27" s="10" t="s">
+      <c r="H27" s="4"/>
+      <c r="I27" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="18">
+      <c r="A28" s="14">
         <v>3</v>
       </c>
-      <c r="B28" s="24" t="s">
+      <c r="B28" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="C28" s="19" t="s">
+      <c r="C28" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="D28" s="19" t="s">
+      <c r="D28" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="E28" s="19">
+      <c r="E28" s="15">
         <v>10</v>
       </c>
-      <c r="F28" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="G28" s="19" t="s">
+      <c r="F28" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G28" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="H28" s="31"/>
-      <c r="I28" s="20" t="s">
+      <c r="H28" s="25"/>
+      <c r="I28" s="16" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="31" spans="1:9" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="106" t="s">
+      <c r="A31" s="108" t="s">
         <v>272</v>
       </c>
-      <c r="B31" s="107"/>
-      <c r="C31" s="107"/>
-      <c r="D31" s="107"/>
-      <c r="E31" s="107"/>
-      <c r="F31" s="107"/>
-      <c r="G31" s="108" t="s">
+      <c r="B31" s="109"/>
+      <c r="C31" s="109"/>
+      <c r="D31" s="109"/>
+      <c r="E31" s="109"/>
+      <c r="F31" s="109"/>
+      <c r="G31" s="110" t="s">
         <v>66</v>
       </c>
-      <c r="H31" s="108"/>
-      <c r="I31" s="109"/>
+      <c r="H31" s="110"/>
+      <c r="I31" s="111"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="D32" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E32" s="8" t="s">
+      <c r="E32" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F32" s="8" t="s">
+      <c r="F32" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G32" s="8" t="s">
+      <c r="G32" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H32" s="25" t="s">
+      <c r="H32" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="I32" s="9" t="s">
+      <c r="I32" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A33" s="11">
+      <c r="A33" s="10">
         <v>1</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C33" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="D33" s="13" t="s">
+      <c r="D33" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="E33" s="13">
+      <c r="E33" s="12">
         <v>10</v>
       </c>
-      <c r="F33" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G33" s="13" t="s">
+      <c r="F33" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G33" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="H33" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="I33" s="14" t="s">
+      <c r="H33" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" s="13" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A34" s="6">
+      <c r="A34" s="5">
         <v>2</v>
       </c>
       <c r="B34" s="3" t="s">
@@ -3289,44 +3333,44 @@
       <c r="G34" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="H34" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I34" s="10" t="s">
+      <c r="H34" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" s="9" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A35" s="11">
+      <c r="A35" s="10">
         <v>3</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="C35" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D35" s="13" t="s">
+      <c r="D35" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="E35" s="13">
+      <c r="E35" s="12">
         <v>10</v>
       </c>
-      <c r="F35" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G35" s="13" t="s">
+      <c r="F35" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G35" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="H35" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="I35" s="14" t="s">
+      <c r="H35" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" s="13" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A36" s="6">
+      <c r="A36" s="5">
         <v>4</v>
       </c>
       <c r="B36" s="3" t="s">
@@ -3345,42 +3389,42 @@
         <v>5</v>
       </c>
       <c r="G36" s="2"/>
-      <c r="H36" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I36" s="10" t="s">
+      <c r="H36" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" s="9" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A37" s="11">
-        <v>5</v>
-      </c>
-      <c r="B37" s="12" t="s">
+      <c r="A37" s="10">
+        <v>5</v>
+      </c>
+      <c r="B37" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="C37" s="13" t="s">
+      <c r="C37" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="D37" s="13" t="s">
+      <c r="D37" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="E37" s="13">
+      <c r="E37" s="12">
         <v>1</v>
       </c>
-      <c r="F37" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G37" s="13"/>
-      <c r="H37" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="I37" s="14" t="s">
+      <c r="F37" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G37" s="12"/>
+      <c r="H37" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="I37" s="13" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A38" s="6">
+      <c r="A38" s="5">
         <v>6</v>
       </c>
       <c r="B38" s="3" t="s">
@@ -3399,139 +3443,139 @@
         <v>5</v>
       </c>
       <c r="G38" s="2"/>
-      <c r="H38" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I38" s="10" t="s">
+      <c r="H38" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" s="9" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A39" s="11">
+      <c r="A39" s="10">
         <v>7</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="B39" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="C39" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="D39" s="13" t="s">
+      <c r="D39" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13" t="s">
+      <c r="E39" s="12"/>
+      <c r="F39" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G39" s="13"/>
-      <c r="H39" s="26" t="s">
+      <c r="G39" s="12"/>
+      <c r="H39" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="I39" s="14" t="s">
+      <c r="I39" s="13" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="32">
+      <c r="A40" s="131">
         <v>8</v>
       </c>
-      <c r="B40" s="33" t="s">
+      <c r="B40" s="132" t="s">
         <v>77</v>
       </c>
-      <c r="C40" s="34" t="s">
+      <c r="C40" s="133" t="s">
         <v>72</v>
       </c>
-      <c r="D40" s="34" t="s">
+      <c r="D40" s="133" t="s">
         <v>43</v>
       </c>
-      <c r="E40" s="34"/>
-      <c r="F40" s="34" t="s">
+      <c r="E40" s="133"/>
+      <c r="F40" s="133" t="s">
         <v>6</v>
       </c>
-      <c r="G40" s="34"/>
-      <c r="H40" s="35" t="s">
+      <c r="G40" s="133"/>
+      <c r="H40" s="134" t="s">
         <v>79</v>
       </c>
-      <c r="I40" s="36" t="s">
+      <c r="I40" s="135" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="43" spans="1:9" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="106" t="s">
+      <c r="A43" s="108" t="s">
         <v>273</v>
       </c>
-      <c r="B43" s="107"/>
-      <c r="C43" s="107"/>
-      <c r="D43" s="107"/>
-      <c r="E43" s="107"/>
-      <c r="F43" s="107"/>
-      <c r="G43" s="108" t="s">
+      <c r="B43" s="109"/>
+      <c r="C43" s="109"/>
+      <c r="D43" s="109"/>
+      <c r="E43" s="109"/>
+      <c r="F43" s="109"/>
+      <c r="G43" s="110" t="s">
         <v>86</v>
       </c>
-      <c r="H43" s="108"/>
-      <c r="I43" s="109"/>
+      <c r="H43" s="110"/>
+      <c r="I43" s="111"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A44" s="7" t="s">
+      <c r="A44" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="B44" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="C44" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D44" s="8" t="s">
+      <c r="D44" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E44" s="8" t="s">
+      <c r="E44" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F44" s="8" t="s">
+      <c r="F44" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G44" s="8" t="s">
+      <c r="G44" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H44" s="25" t="s">
+      <c r="H44" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="I44" s="9" t="s">
+      <c r="I44" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A45" s="11">
+      <c r="A45" s="10">
         <v>1</v>
       </c>
-      <c r="B45" s="12" t="s">
+      <c r="B45" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="C45" s="13" t="s">
+      <c r="C45" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="D45" s="13" t="s">
+      <c r="D45" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="E45" s="13">
+      <c r="E45" s="12">
         <v>10</v>
       </c>
-      <c r="F45" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G45" s="13" t="s">
+      <c r="F45" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G45" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="H45" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="I45" s="14" t="s">
+      <c r="H45" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I45" s="13" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A46" s="6">
+      <c r="A46" s="5">
         <v>2</v>
       </c>
       <c r="B46" s="3" t="s">
@@ -3552,44 +3596,44 @@
       <c r="G46" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="H46" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I46" s="10" t="s">
+      <c r="H46" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I46" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A47" s="11">
+      <c r="A47" s="10">
         <v>3</v>
       </c>
-      <c r="B47" s="12" t="s">
+      <c r="B47" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="C47" s="13" t="s">
+      <c r="C47" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="D47" s="13" t="s">
+      <c r="D47" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="E47" s="13">
+      <c r="E47" s="12">
         <v>10</v>
       </c>
-      <c r="F47" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G47" s="13" t="s">
+      <c r="F47" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G47" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="H47" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="I47" s="14" t="s">
+      <c r="H47" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I47" s="13" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A48" s="6">
+      <c r="A48" s="5">
         <v>4</v>
       </c>
       <c r="B48" s="3" t="s">
@@ -3610,42 +3654,42 @@
       <c r="G48" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="H48" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I48" s="10" t="s">
+      <c r="H48" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I48" s="9" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A49" s="11">
-        <v>5</v>
-      </c>
-      <c r="B49" s="12" t="s">
+      <c r="A49" s="10">
+        <v>5</v>
+      </c>
+      <c r="B49" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="C49" s="13" t="s">
+      <c r="C49" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="D49" s="13" t="s">
+      <c r="D49" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G49" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H49" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="I49" s="14" t="s">
+      <c r="E49" s="12"/>
+      <c r="F49" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G49" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I49" s="13" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A50" s="6">
+      <c r="A50" s="5">
         <v>6</v>
       </c>
       <c r="B50" s="3" t="s">
@@ -3666,44 +3710,44 @@
       <c r="G50" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H50" s="5" t="s">
+      <c r="H50" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="I50" s="10" t="s">
+      <c r="I50" s="9" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A51" s="11">
+      <c r="A51" s="10">
         <v>7</v>
       </c>
-      <c r="B51" s="12" t="s">
+      <c r="B51" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="C51" s="13" t="s">
+      <c r="C51" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="D51" s="13" t="s">
+      <c r="D51" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="E51" s="13">
+      <c r="E51" s="12">
         <v>10</v>
       </c>
-      <c r="F51" s="13" t="s">
+      <c r="F51" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G51" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H51" s="26" t="s">
+      <c r="G51" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="I51" s="14" t="s">
+      <c r="I51" s="13" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A52" s="6">
+      <c r="A52" s="5">
         <v>8</v>
       </c>
       <c r="B52" s="3" t="s">
@@ -3724,118 +3768,118 @@
       <c r="G52" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H52" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I52" s="10" t="s">
+      <c r="H52" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I52" s="9" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A53" s="18">
+      <c r="A53" s="14">
         <v>9</v>
       </c>
-      <c r="B53" s="24" t="s">
+      <c r="B53" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="C53" s="19" t="s">
+      <c r="C53" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="D53" s="19" t="s">
+      <c r="D53" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="E53" s="19">
+      <c r="E53" s="15">
         <v>1</v>
       </c>
-      <c r="F53" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="G53" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="H53" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="I53" s="20" t="s">
+      <c r="F53" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G53" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="I53" s="16" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="56" spans="1:9" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A56" s="106" t="s">
+      <c r="A56" s="108" t="s">
         <v>274</v>
       </c>
-      <c r="B56" s="107"/>
-      <c r="C56" s="107"/>
-      <c r="D56" s="107"/>
-      <c r="E56" s="107"/>
-      <c r="F56" s="107"/>
-      <c r="G56" s="108" t="s">
+      <c r="B56" s="109"/>
+      <c r="C56" s="109"/>
+      <c r="D56" s="109"/>
+      <c r="E56" s="109"/>
+      <c r="F56" s="109"/>
+      <c r="G56" s="110" t="s">
         <v>105</v>
       </c>
-      <c r="H56" s="108"/>
-      <c r="I56" s="109"/>
+      <c r="H56" s="110"/>
+      <c r="I56" s="111"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A57" s="7" t="s">
+      <c r="A57" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B57" s="8" t="s">
+      <c r="B57" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C57" s="8" t="s">
+      <c r="C57" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D57" s="8" t="s">
+      <c r="D57" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E57" s="8" t="s">
+      <c r="E57" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F57" s="8" t="s">
+      <c r="F57" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G57" s="8" t="s">
+      <c r="G57" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H57" s="25" t="s">
+      <c r="H57" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="I57" s="9" t="s">
+      <c r="I57" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A58" s="11">
+      <c r="A58" s="10">
         <v>1</v>
       </c>
-      <c r="B58" s="12" t="s">
+      <c r="B58" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C58" s="13" t="s">
+      <c r="C58" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="D58" s="13" t="s">
+      <c r="D58" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="E58" s="13">
+      <c r="E58" s="12">
         <v>10</v>
       </c>
-      <c r="F58" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G58" s="13" t="s">
+      <c r="F58" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G58" s="12" t="s">
         <v>344</v>
       </c>
-      <c r="H58" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="I58" s="14" t="s">
+      <c r="H58" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I58" s="13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A59" s="6">
+      <c r="A59" s="5">
         <v>2</v>
       </c>
       <c r="B59" s="3" t="s">
@@ -3856,44 +3900,44 @@
       <c r="G59" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H59" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I59" s="10" t="s">
+      <c r="H59" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I59" s="9" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A60" s="11">
+      <c r="A60" s="10">
         <v>3</v>
       </c>
-      <c r="B60" s="12" t="s">
+      <c r="B60" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="C60" s="13" t="s">
+      <c r="C60" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="D60" s="13" t="s">
+      <c r="D60" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="E60" s="13">
+      <c r="E60" s="12">
         <v>100</v>
       </c>
-      <c r="F60" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G60" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H60" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="I60" s="14" t="s">
+      <c r="F60" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G60" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I60" s="13" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A61" s="6">
+      <c r="A61" s="5">
         <v>4</v>
       </c>
       <c r="B61" s="3" t="s">
@@ -3914,42 +3958,42 @@
       <c r="G61" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H61" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I61" s="10" t="s">
+      <c r="H61" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I61" s="9" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A62" s="11">
-        <v>5</v>
-      </c>
-      <c r="B62" s="12" t="s">
+      <c r="A62" s="10">
+        <v>5</v>
+      </c>
+      <c r="B62" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="C62" s="13" t="s">
+      <c r="C62" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="D62" s="13" t="s">
+      <c r="D62" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E62" s="13"/>
-      <c r="F62" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G62" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H62" s="26" t="s">
+      <c r="E62" s="12"/>
+      <c r="F62" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G62" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="I62" s="14" t="s">
+      <c r="I62" s="13" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A63" s="6">
+      <c r="A63" s="5">
         <v>6</v>
       </c>
       <c r="B63" s="3" t="s">
@@ -3970,44 +4014,44 @@
       <c r="G63" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H63" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I63" s="10" t="s">
+      <c r="H63" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I63" s="9" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A64" s="11">
+      <c r="A64" s="10">
         <v>7</v>
       </c>
-      <c r="B64" s="12" t="s">
+      <c r="B64" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="C64" s="13" t="s">
+      <c r="C64" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="D64" s="13" t="s">
+      <c r="D64" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E64" s="13">
+      <c r="E64" s="12">
         <v>3000</v>
       </c>
-      <c r="F64" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G64" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H64" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="I64" s="14" t="s">
+      <c r="F64" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G64" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I64" s="13" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A65" s="6">
+      <c r="A65" s="5">
         <v>8</v>
       </c>
       <c r="B65" s="3" t="s">
@@ -4028,100 +4072,100 @@
       <c r="G65" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H65" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I65" s="10" t="s">
+      <c r="H65" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I65" s="9" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A66" s="120">
+      <c r="A66" s="100">
         <v>9</v>
       </c>
-      <c r="B66" s="80" t="s">
+      <c r="B66" s="74" t="s">
         <v>122</v>
       </c>
-      <c r="C66" s="121" t="s">
+      <c r="C66" s="101" t="s">
         <v>123</v>
       </c>
-      <c r="D66" s="121" t="s">
+      <c r="D66" s="101" t="s">
         <v>59</v>
       </c>
-      <c r="E66" s="121">
+      <c r="E66" s="101">
         <v>11</v>
       </c>
-      <c r="F66" s="121" t="s">
+      <c r="F66" s="101" t="s">
         <v>347</v>
       </c>
-      <c r="G66" s="121" t="s">
-        <v>46</v>
-      </c>
-      <c r="H66" s="122" t="s">
-        <v>46</v>
-      </c>
-      <c r="I66" s="123" t="s">
+      <c r="G66" s="101" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="I66" s="103" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A67" s="124">
+      <c r="A67" s="104">
         <v>10</v>
       </c>
-      <c r="B67" s="125" t="s">
+      <c r="B67" s="105" t="s">
         <v>124</v>
       </c>
-      <c r="C67" s="91" t="s">
+      <c r="C67" s="85" t="s">
         <v>125</v>
       </c>
-      <c r="D67" s="91" t="s">
+      <c r="D67" s="85" t="s">
         <v>59</v>
       </c>
-      <c r="E67" s="91">
+      <c r="E67" s="85">
         <v>11</v>
       </c>
-      <c r="F67" s="91" t="s">
+      <c r="F67" s="85" t="s">
         <v>347</v>
       </c>
-      <c r="G67" s="91" t="s">
-        <v>46</v>
-      </c>
-      <c r="H67" s="126" t="s">
-        <v>46</v>
-      </c>
-      <c r="I67" s="127" t="s">
+      <c r="G67" s="85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" s="106" t="s">
+        <v>46</v>
+      </c>
+      <c r="I67" s="107" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A68" s="11">
+      <c r="A68" s="10">
         <v>11</v>
       </c>
-      <c r="B68" s="12" t="s">
+      <c r="B68" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="C68" s="13" t="s">
+      <c r="C68" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="D68" s="13" t="s">
+      <c r="D68" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E68" s="13"/>
-      <c r="F68" s="13" t="s">
+      <c r="E68" s="12"/>
+      <c r="F68" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G68" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H68" s="26" t="s">
+      <c r="G68" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="I68" s="14" t="s">
+      <c r="I68" s="13" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A69" s="6">
+      <c r="A69" s="5">
         <v>12</v>
       </c>
       <c r="B69" s="3" t="s">
@@ -4142,174 +4186,174 @@
       <c r="G69" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H69" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I69" s="10" t="s">
+      <c r="H69" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I69" s="9" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A70" s="11">
+      <c r="A70" s="122">
         <v>13</v>
       </c>
-      <c r="B70" s="13" t="s">
+      <c r="B70" s="123" t="s">
         <v>130</v>
       </c>
-      <c r="C70" s="13" t="s">
+      <c r="C70" s="123" t="s">
         <v>131</v>
       </c>
-      <c r="D70" s="13" t="s">
+      <c r="D70" s="123" t="s">
         <v>43</v>
       </c>
-      <c r="E70" s="15"/>
-      <c r="F70" s="13" t="s">
+      <c r="E70" s="124"/>
+      <c r="F70" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="G70" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="H70" s="27" t="s">
+      <c r="G70" s="125" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" s="126" t="s">
         <v>79</v>
       </c>
-      <c r="I70" s="17" t="s">
+      <c r="I70" s="127" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A71" s="6">
+      <c r="A71" s="122">
         <v>14</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B71" s="123" t="s">
         <v>132</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="C71" s="123" t="s">
         <v>133</v>
       </c>
-      <c r="D71" s="2" t="s">
+      <c r="D71" s="123" t="s">
         <v>61</v>
       </c>
-      <c r="E71" s="2">
+      <c r="E71" s="123">
         <v>50</v>
       </c>
-      <c r="F71" s="2" t="s">
+      <c r="F71" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="G71" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H71" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="I71" s="10" t="s">
+      <c r="G71" s="125" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" s="126" t="s">
+        <v>46</v>
+      </c>
+      <c r="I71" s="128" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A72" s="18">
+      <c r="A72" s="14">
         <v>15</v>
       </c>
-      <c r="B72" s="19" t="s">
+      <c r="B72" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="C72" s="19" t="s">
+      <c r="C72" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="D72" s="19" t="s">
+      <c r="D72" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="E72" s="19">
+      <c r="E72" s="15">
         <v>10</v>
       </c>
-      <c r="F72" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="G72" s="62" t="s">
+      <c r="F72" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G72" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="H72" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="I72" s="20" t="s">
+      <c r="H72" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I72" s="16" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="75" spans="1:9" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A75" s="106" t="s">
+      <c r="A75" s="108" t="s">
         <v>275</v>
       </c>
-      <c r="B75" s="107"/>
-      <c r="C75" s="107"/>
-      <c r="D75" s="107"/>
-      <c r="E75" s="107"/>
-      <c r="F75" s="107"/>
-      <c r="G75" s="108" t="s">
+      <c r="B75" s="109"/>
+      <c r="C75" s="109"/>
+      <c r="D75" s="109"/>
+      <c r="E75" s="109"/>
+      <c r="F75" s="109"/>
+      <c r="G75" s="110" t="s">
         <v>200</v>
       </c>
-      <c r="H75" s="108"/>
-      <c r="I75" s="109"/>
+      <c r="H75" s="110"/>
+      <c r="I75" s="111"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A76" s="7" t="s">
+      <c r="A76" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B76" s="8" t="s">
+      <c r="B76" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C76" s="8" t="s">
+      <c r="C76" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D76" s="8" t="s">
+      <c r="D76" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E76" s="8" t="s">
+      <c r="E76" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F76" s="8" t="s">
+      <c r="F76" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G76" s="8" t="s">
+      <c r="G76" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H76" s="25" t="s">
+      <c r="H76" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="I76" s="9" t="s">
+      <c r="I76" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A77" s="11">
+      <c r="A77" s="10">
         <v>1</v>
       </c>
-      <c r="B77" s="12" t="s">
+      <c r="B77" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="C77" s="13" t="s">
+      <c r="C77" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="D77" s="13" t="s">
+      <c r="D77" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="E77" s="13">
+      <c r="E77" s="12">
         <v>10</v>
       </c>
-      <c r="F77" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G77" s="13" t="s">
+      <c r="F77" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G77" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="H77" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="I77" s="14" t="s">
+      <c r="H77" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I77" s="13" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A78" s="6">
+      <c r="A78" s="5">
         <v>2</v>
       </c>
       <c r="B78" s="3" t="s">
@@ -4330,118 +4374,118 @@
       <c r="G78" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H78" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I78" s="10" t="s">
+      <c r="H78" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I78" s="9" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A79" s="18">
+      <c r="A79" s="14">
         <v>3</v>
       </c>
-      <c r="B79" s="24" t="s">
+      <c r="B79" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="C79" s="19" t="s">
+      <c r="C79" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="D79" s="19" t="s">
+      <c r="D79" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E79" s="19">
+      <c r="E79" s="15">
         <v>50</v>
       </c>
-      <c r="F79" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="G79" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="H79" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="I79" s="20" t="s">
+      <c r="F79" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G79" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I79" s="16" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="82" spans="1:9" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A82" s="106" t="s">
+      <c r="A82" s="108" t="s">
         <v>276</v>
       </c>
-      <c r="B82" s="107"/>
-      <c r="C82" s="107"/>
-      <c r="D82" s="107"/>
-      <c r="E82" s="107"/>
-      <c r="F82" s="107"/>
-      <c r="G82" s="108" t="s">
+      <c r="B82" s="109"/>
+      <c r="C82" s="109"/>
+      <c r="D82" s="109"/>
+      <c r="E82" s="109"/>
+      <c r="F82" s="109"/>
+      <c r="G82" s="110" t="s">
         <v>140</v>
       </c>
-      <c r="H82" s="108"/>
-      <c r="I82" s="109"/>
+      <c r="H82" s="110"/>
+      <c r="I82" s="111"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A83" s="7" t="s">
+      <c r="A83" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B83" s="8" t="s">
+      <c r="B83" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C83" s="8" t="s">
+      <c r="C83" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D83" s="8" t="s">
+      <c r="D83" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E83" s="8" t="s">
+      <c r="E83" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F83" s="8" t="s">
+      <c r="F83" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G83" s="8" t="s">
+      <c r="G83" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H83" s="25" t="s">
+      <c r="H83" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="I83" s="9" t="s">
+      <c r="I83" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A84" s="11">
+      <c r="A84" s="10">
         <v>1</v>
       </c>
-      <c r="B84" s="12" t="s">
+      <c r="B84" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="C84" s="13" t="s">
+      <c r="C84" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="D84" s="13" t="s">
+      <c r="D84" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="E84" s="13">
+      <c r="E84" s="12">
         <v>10</v>
       </c>
-      <c r="F84" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G84" s="13" t="s">
+      <c r="F84" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G84" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="H84" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="I84" s="14" t="s">
+      <c r="H84" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I84" s="13" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A85" s="6">
+      <c r="A85" s="5">
         <v>2</v>
       </c>
       <c r="B85" s="3" t="s">
@@ -4462,181 +4506,181 @@
       <c r="G85" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H85" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I85" s="10" t="s">
+      <c r="H85" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I85" s="9" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A86" s="11">
+      <c r="A86" s="10">
         <v>3</v>
       </c>
-      <c r="B86" s="12" t="s">
+      <c r="B86" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="C86" s="13" t="s">
+      <c r="C86" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="D86" s="13" t="s">
+      <c r="D86" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E86" s="13">
+      <c r="E86" s="12">
         <v>50</v>
       </c>
-      <c r="F86" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G86" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H86" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="I86" s="14" t="s">
+      <c r="F86" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G86" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I86" s="13" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A87" s="32">
+      <c r="A87" s="26">
         <v>4</v>
       </c>
-      <c r="B87" s="33" t="s">
+      <c r="B87" s="27" t="s">
         <v>148</v>
       </c>
-      <c r="C87" s="34" t="s">
+      <c r="C87" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="D87" s="34" t="s">
+      <c r="D87" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="E87" s="34">
+      <c r="E87" s="28">
         <v>3</v>
       </c>
-      <c r="F87" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="G87" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="H87" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="I87" s="36" t="s">
+      <c r="F87" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="G87" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I87" s="30" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A88" s="101">
-        <v>5</v>
-      </c>
-      <c r="B88" s="102" t="s">
+      <c r="A88" s="95">
+        <v>5</v>
+      </c>
+      <c r="B88" s="96" t="s">
         <v>360</v>
       </c>
-      <c r="C88" s="103" t="s">
+      <c r="C88" s="97" t="s">
         <v>361</v>
       </c>
-      <c r="D88" s="103" t="s">
+      <c r="D88" s="97" t="s">
         <v>61</v>
       </c>
-      <c r="E88" s="103">
+      <c r="E88" s="97">
         <v>3000</v>
       </c>
-      <c r="F88" s="103"/>
-      <c r="G88" s="103"/>
-      <c r="H88" s="104"/>
-      <c r="I88" s="105"/>
+      <c r="F88" s="97"/>
+      <c r="G88" s="97"/>
+      <c r="H88" s="98"/>
+      <c r="I88" s="99"/>
     </row>
     <row r="89" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A89" s="32">
+      <c r="A89" s="26">
         <v>6</v>
       </c>
-      <c r="B89" s="33"/>
-      <c r="C89" s="34"/>
-      <c r="D89" s="34"/>
-      <c r="E89" s="34"/>
-      <c r="F89" s="34"/>
-      <c r="G89" s="34"/>
-      <c r="H89" s="35"/>
-      <c r="I89" s="36"/>
+      <c r="B89" s="27"/>
+      <c r="C89" s="28"/>
+      <c r="D89" s="28"/>
+      <c r="E89" s="28"/>
+      <c r="F89" s="28"/>
+      <c r="G89" s="28"/>
+      <c r="H89" s="29"/>
+      <c r="I89" s="30"/>
     </row>
     <row r="91" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="92" spans="1:9" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A92" s="106" t="s">
+      <c r="A92" s="108" t="s">
         <v>277</v>
       </c>
-      <c r="B92" s="107"/>
-      <c r="C92" s="107"/>
-      <c r="D92" s="107"/>
-      <c r="E92" s="107"/>
-      <c r="F92" s="107"/>
-      <c r="G92" s="108" t="s">
+      <c r="B92" s="109"/>
+      <c r="C92" s="109"/>
+      <c r="D92" s="109"/>
+      <c r="E92" s="109"/>
+      <c r="F92" s="109"/>
+      <c r="G92" s="110" t="s">
         <v>151</v>
       </c>
-      <c r="H92" s="108"/>
-      <c r="I92" s="109"/>
+      <c r="H92" s="110"/>
+      <c r="I92" s="111"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A93" s="7" t="s">
+      <c r="A93" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B93" s="8" t="s">
+      <c r="B93" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C93" s="8" t="s">
+      <c r="C93" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D93" s="8" t="s">
+      <c r="D93" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E93" s="8" t="s">
+      <c r="E93" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F93" s="8" t="s">
+      <c r="F93" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G93" s="8" t="s">
+      <c r="G93" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="H93" s="25" t="s">
+      <c r="H93" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="I93" s="9" t="s">
+      <c r="I93" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A94" s="11">
+      <c r="A94" s="10">
         <v>1</v>
       </c>
-      <c r="B94" s="12" t="s">
+      <c r="B94" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="C94" s="13" t="s">
+      <c r="C94" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="D94" s="13" t="s">
+      <c r="D94" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="E94" s="13">
+      <c r="E94" s="12">
         <v>10</v>
       </c>
-      <c r="F94" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G94" s="13" t="s">
+      <c r="F94" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G94" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="H94" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="I94" s="14" t="s">
+      <c r="H94" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I94" s="13" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A95" s="6">
+      <c r="A95" s="5">
         <v>2</v>
       </c>
       <c r="B95" s="3" t="s">
@@ -4657,44 +4701,44 @@
       <c r="G95" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="H95" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I95" s="10" t="s">
+      <c r="H95" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I95" s="9" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A96" s="11">
+      <c r="A96" s="10">
         <v>3</v>
       </c>
-      <c r="B96" s="12" t="s">
+      <c r="B96" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="C96" s="13" t="s">
+      <c r="C96" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="D96" s="13" t="s">
+      <c r="D96" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="E96" s="13">
+      <c r="E96" s="12">
         <v>10</v>
       </c>
-      <c r="F96" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G96" s="13" t="s">
+      <c r="F96" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G96" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="H96" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="I96" s="14" t="s">
+      <c r="H96" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I96" s="13" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A97" s="6">
+      <c r="A97" s="5">
         <v>4</v>
       </c>
       <c r="B97" s="3" t="s">
@@ -4713,42 +4757,42 @@
       <c r="G97" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H97" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I97" s="10" t="s">
+      <c r="H97" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I97" s="9" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A98" s="11">
-        <v>5</v>
-      </c>
-      <c r="B98" s="12" t="s">
+      <c r="A98" s="10">
+        <v>5</v>
+      </c>
+      <c r="B98" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="C98" s="13" t="s">
+      <c r="C98" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="D98" s="13" t="s">
+      <c r="D98" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E98" s="13"/>
-      <c r="F98" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G98" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H98" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="I98" s="14" t="s">
+      <c r="E98" s="12"/>
+      <c r="F98" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G98" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I98" s="13" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A99" s="6">
+      <c r="A99" s="5">
         <v>6</v>
       </c>
       <c r="B99" s="3" t="s">
@@ -4767,174 +4811,174 @@
       <c r="G99" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H99" s="5" t="s">
+      <c r="H99" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="I99" s="10" t="s">
+      <c r="I99" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A100" s="11">
+      <c r="A100" s="10">
         <v>7</v>
       </c>
-      <c r="B100" s="12" t="s">
+      <c r="B100" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="C100" s="13" t="s">
+      <c r="C100" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="D100" s="13" t="s">
+      <c r="D100" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E100" s="13">
+      <c r="E100" s="12">
         <v>50</v>
       </c>
-      <c r="F100" s="13" t="s">
+      <c r="F100" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G100" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H100" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="I100" s="14" t="s">
+      <c r="G100" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I100" s="13" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A101" s="6">
+      <c r="A101" s="122">
         <v>8</v>
       </c>
-      <c r="B101" s="3" t="s">
+      <c r="B101" s="129" t="s">
         <v>161</v>
       </c>
-      <c r="C101" s="2" t="s">
+      <c r="C101" s="123" t="s">
         <v>162</v>
       </c>
-      <c r="D101" s="2" t="s">
+      <c r="D101" s="123" t="s">
         <v>43</v>
       </c>
-      <c r="E101" s="2"/>
-      <c r="F101" s="2" t="s">
+      <c r="E101" s="123"/>
+      <c r="F101" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="G101" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H101" s="5" t="s">
+      <c r="G101" s="123" t="s">
+        <v>46</v>
+      </c>
+      <c r="H101" s="130" t="s">
         <v>79</v>
       </c>
-      <c r="I101" s="10" t="s">
+      <c r="I101" s="128" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A102" s="18">
+      <c r="A102" s="131">
         <v>9</v>
       </c>
-      <c r="B102" s="24" t="s">
+      <c r="B102" s="132" t="s">
         <v>163</v>
       </c>
-      <c r="C102" s="19" t="s">
+      <c r="C102" s="133" t="s">
         <v>164</v>
       </c>
-      <c r="D102" s="19" t="s">
+      <c r="D102" s="133" t="s">
         <v>8</v>
       </c>
-      <c r="E102" s="19">
+      <c r="E102" s="133">
         <v>50</v>
       </c>
-      <c r="F102" s="19" t="s">
+      <c r="F102" s="133" t="s">
         <v>6</v>
       </c>
-      <c r="G102" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="H102" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="I102" s="20" t="s">
+      <c r="G102" s="133" t="s">
+        <v>46</v>
+      </c>
+      <c r="H102" s="134" t="s">
+        <v>46</v>
+      </c>
+      <c r="I102" s="135" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="105" spans="1:9" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A105" s="106" t="s">
+      <c r="A105" s="108" t="s">
         <v>278</v>
       </c>
-      <c r="B105" s="107"/>
-      <c r="C105" s="107"/>
-      <c r="D105" s="107"/>
-      <c r="E105" s="107"/>
-      <c r="F105" s="107"/>
-      <c r="G105" s="108" t="s">
+      <c r="B105" s="109"/>
+      <c r="C105" s="109"/>
+      <c r="D105" s="109"/>
+      <c r="E105" s="109"/>
+      <c r="F105" s="109"/>
+      <c r="G105" s="110" t="s">
         <v>165</v>
       </c>
-      <c r="H105" s="108"/>
-      <c r="I105" s="109"/>
+      <c r="H105" s="110"/>
+      <c r="I105" s="111"/>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A106" s="7" t="s">
+      <c r="A106" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B106" s="8" t="s">
+      <c r="B106" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C106" s="8" t="s">
+      <c r="C106" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D106" s="8" t="s">
+      <c r="D106" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E106" s="8" t="s">
+      <c r="E106" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F106" s="8" t="s">
+      <c r="F106" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G106" s="8" t="s">
+      <c r="G106" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="H106" s="25" t="s">
+      <c r="H106" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="I106" s="9" t="s">
+      <c r="I106" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A107" s="11">
+      <c r="A107" s="10">
         <v>1</v>
       </c>
-      <c r="B107" s="12" t="s">
+      <c r="B107" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="C107" s="13" t="s">
+      <c r="C107" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="D107" s="13" t="s">
+      <c r="D107" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="E107" s="13">
+      <c r="E107" s="12">
         <v>10</v>
       </c>
-      <c r="F107" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G107" s="13" t="s">
+      <c r="F107" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G107" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="H107" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="I107" s="14" t="s">
+      <c r="H107" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I107" s="13" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A108" s="6">
+      <c r="A108" s="5">
         <v>2</v>
       </c>
       <c r="B108" s="3" t="s">
@@ -4955,44 +4999,44 @@
       <c r="G108" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H108" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I108" s="10" t="s">
+      <c r="H108" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I108" s="9" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A109" s="11">
+      <c r="A109" s="10">
         <v>3</v>
       </c>
-      <c r="B109" s="12" t="s">
+      <c r="B109" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="C109" s="13" t="s">
+      <c r="C109" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="D109" s="13" t="s">
+      <c r="D109" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E109" s="13">
+      <c r="E109" s="12">
         <v>50</v>
       </c>
-      <c r="F109" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G109" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H109" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="I109" s="14" t="s">
+      <c r="F109" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G109" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H109" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I109" s="13" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A110" s="6">
+      <c r="A110" s="5">
         <v>4</v>
       </c>
       <c r="B110" s="3" t="s">
@@ -5013,147 +5057,147 @@
       <c r="G110" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="H110" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I110" s="10" t="s">
+      <c r="H110" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I110" s="9" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A111" s="11">
-        <v>5</v>
-      </c>
-      <c r="B111" s="12" t="s">
+      <c r="A111" s="10">
+        <v>5</v>
+      </c>
+      <c r="B111" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="C111" s="13" t="s">
+      <c r="C111" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="D111" s="13" t="s">
+      <c r="D111" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="E111" s="13">
+      <c r="E111" s="12">
         <v>10</v>
       </c>
-      <c r="F111" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G111" s="13" t="s">
+      <c r="F111" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G111" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="H111" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="I111" s="14" t="s">
+      <c r="H111" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I111" s="13" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="112" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A112" s="32">
+      <c r="A112" s="26">
         <v>6</v>
       </c>
-      <c r="B112" s="33" t="s">
+      <c r="B112" s="27" t="s">
         <v>174</v>
       </c>
-      <c r="C112" s="34" t="s">
+      <c r="C112" s="28" t="s">
         <v>175</v>
       </c>
-      <c r="D112" s="34" t="s">
+      <c r="D112" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="E112" s="34">
+      <c r="E112" s="28">
         <v>10</v>
       </c>
-      <c r="F112" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="G112" s="34" t="s">
+      <c r="F112" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="G112" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="H112" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="I112" s="36" t="s">
+      <c r="H112" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I112" s="30" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="115" spans="1:9" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A115" s="106" t="s">
+      <c r="A115" s="108" t="s">
         <v>279</v>
       </c>
-      <c r="B115" s="107"/>
-      <c r="C115" s="107"/>
-      <c r="D115" s="107"/>
-      <c r="E115" s="107"/>
-      <c r="F115" s="107"/>
-      <c r="G115" s="108" t="s">
+      <c r="B115" s="109"/>
+      <c r="C115" s="109"/>
+      <c r="D115" s="109"/>
+      <c r="E115" s="109"/>
+      <c r="F115" s="109"/>
+      <c r="G115" s="110" t="s">
         <v>176</v>
       </c>
-      <c r="H115" s="108"/>
-      <c r="I115" s="109"/>
+      <c r="H115" s="110"/>
+      <c r="I115" s="111"/>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A116" s="7" t="s">
+      <c r="A116" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B116" s="8" t="s">
+      <c r="B116" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C116" s="8" t="s">
+      <c r="C116" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D116" s="8" t="s">
+      <c r="D116" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E116" s="8" t="s">
+      <c r="E116" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F116" s="8" t="s">
+      <c r="F116" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G116" s="8" t="s">
+      <c r="G116" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="H116" s="25" t="s">
+      <c r="H116" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="I116" s="9" t="s">
+      <c r="I116" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A117" s="11">
+      <c r="A117" s="10">
         <v>1</v>
       </c>
-      <c r="B117" s="12" t="s">
+      <c r="B117" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="C117" s="13" t="s">
+      <c r="C117" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="D117" s="13" t="s">
+      <c r="D117" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="E117" s="13">
+      <c r="E117" s="12">
         <v>4</v>
       </c>
-      <c r="F117" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G117" s="13" t="s">
+      <c r="F117" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G117" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="H117" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="I117" s="14" t="s">
+      <c r="H117" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I117" s="13" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A118" s="6">
+      <c r="A118" s="5">
         <v>2</v>
       </c>
       <c r="B118" s="3" t="s">
@@ -5174,147 +5218,147 @@
       <c r="G118" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="H118" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I118" s="10" t="s">
+      <c r="H118" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I118" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A119" s="11">
+      <c r="A119" s="10">
         <v>3</v>
       </c>
-      <c r="B119" s="12" t="s">
+      <c r="B119" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="C119" s="13" t="s">
+      <c r="C119" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="D119" s="13" t="s">
+      <c r="D119" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E119" s="13">
+      <c r="E119" s="12">
         <v>50</v>
       </c>
-      <c r="F119" s="13" t="s">
+      <c r="F119" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G119" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H119" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="I119" s="14" t="s">
+      <c r="G119" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H119" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I119" s="13" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A120" s="32">
+      <c r="A120" s="26">
         <v>4</v>
       </c>
-      <c r="B120" s="33" t="s">
+      <c r="B120" s="27" t="s">
         <v>183</v>
       </c>
-      <c r="C120" s="34" t="s">
+      <c r="C120" s="28" t="s">
         <v>184</v>
       </c>
-      <c r="D120" s="34" t="s">
+      <c r="D120" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="E120" s="34">
+      <c r="E120" s="28">
         <v>100</v>
       </c>
-      <c r="F120" s="34" t="s">
+      <c r="F120" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="G120" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="H120" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="I120" s="36" t="s">
+      <c r="G120" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H120" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I120" s="30" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="122" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="123" spans="1:9" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A123" s="106" t="s">
+      <c r="A123" s="108" t="s">
         <v>359</v>
       </c>
-      <c r="B123" s="107"/>
-      <c r="C123" s="107"/>
-      <c r="D123" s="107"/>
-      <c r="E123" s="107"/>
-      <c r="F123" s="107"/>
-      <c r="G123" s="108" t="s">
+      <c r="B123" s="109"/>
+      <c r="C123" s="109"/>
+      <c r="D123" s="109"/>
+      <c r="E123" s="109"/>
+      <c r="F123" s="109"/>
+      <c r="G123" s="110" t="s">
         <v>198</v>
       </c>
-      <c r="H123" s="108"/>
-      <c r="I123" s="109"/>
+      <c r="H123" s="110"/>
+      <c r="I123" s="111"/>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A124" s="7" t="s">
+      <c r="A124" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B124" s="8" t="s">
+      <c r="B124" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C124" s="8" t="s">
+      <c r="C124" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D124" s="8" t="s">
+      <c r="D124" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E124" s="8" t="s">
+      <c r="E124" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F124" s="8" t="s">
+      <c r="F124" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G124" s="8" t="s">
+      <c r="G124" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H124" s="25" t="s">
+      <c r="H124" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="I124" s="9" t="s">
+      <c r="I124" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A125" s="11">
+      <c r="A125" s="10">
         <v>1</v>
       </c>
-      <c r="B125" s="12" t="s">
+      <c r="B125" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="C125" s="13" t="s">
+      <c r="C125" s="12" t="s">
         <v>358</v>
       </c>
-      <c r="D125" s="13" t="s">
+      <c r="D125" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="E125" s="13">
+      <c r="E125" s="12">
         <v>4</v>
       </c>
-      <c r="F125" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G125" s="13" t="s">
+      <c r="F125" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G125" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="H125" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="I125" s="14" t="s">
+      <c r="H125" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I125" s="13" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A126" s="6">
+      <c r="A126" s="5">
         <v>2</v>
       </c>
       <c r="B126" s="3" t="s">
@@ -5335,44 +5379,44 @@
       <c r="G126" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="H126" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I126" s="10" t="s">
+      <c r="H126" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I126" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A127" s="11">
+      <c r="A127" s="10">
         <v>3</v>
       </c>
-      <c r="B127" s="12" t="s">
+      <c r="B127" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="C127" s="13" t="s">
+      <c r="C127" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="D127" s="13" t="s">
+      <c r="D127" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="E127" s="13">
+      <c r="E127" s="12">
         <v>4</v>
       </c>
-      <c r="F127" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G127" s="13" t="s">
+      <c r="F127" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G127" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="H127" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="I127" s="14" t="s">
+      <c r="H127" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I127" s="13" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A128" s="6">
+      <c r="A128" s="5">
         <v>4</v>
       </c>
       <c r="B128" s="3" t="s">
@@ -5393,44 +5437,44 @@
       <c r="G128" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H128" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I128" s="10" t="s">
+      <c r="H128" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I128" s="9" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A129" s="11">
-        <v>5</v>
-      </c>
-      <c r="B129" s="12" t="s">
+      <c r="A129" s="10">
+        <v>5</v>
+      </c>
+      <c r="B129" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="C129" s="13" t="s">
+      <c r="C129" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="D129" s="13" t="s">
+      <c r="D129" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E129" s="13">
+      <c r="E129" s="12">
         <v>500</v>
       </c>
-      <c r="F129" s="13" t="s">
+      <c r="F129" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G129" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H129" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="I129" s="14" t="s">
+      <c r="G129" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H129" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I129" s="13" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A130" s="6">
+      <c r="A130" s="5">
         <v>6</v>
       </c>
       <c r="B130" s="3" t="s">
@@ -5449,433 +5493,433 @@
       <c r="G130" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H130" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I130" s="10" t="s">
+      <c r="H130" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I130" s="9" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A131" s="11">
+      <c r="A131" s="10">
         <v>7</v>
       </c>
-      <c r="B131" s="12" t="s">
+      <c r="B131" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="C131" s="13" t="s">
+      <c r="C131" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="D131" s="13" t="s">
+      <c r="D131" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E131" s="13"/>
-      <c r="F131" s="13" t="s">
+      <c r="E131" s="12"/>
+      <c r="F131" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G131" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H131" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="I131" s="14" t="s">
+      <c r="G131" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H131" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I131" s="13" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="132" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A132" s="32">
+      <c r="A132" s="26">
         <v>8</v>
       </c>
-      <c r="B132" s="33" t="s">
+      <c r="B132" s="27" t="s">
         <v>195</v>
       </c>
-      <c r="C132" s="34" t="s">
+      <c r="C132" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="D132" s="34" t="s">
+      <c r="D132" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="E132" s="34">
+      <c r="E132" s="28">
         <v>1</v>
       </c>
-      <c r="F132" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="G132" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="H132" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="I132" s="36" t="s">
+      <c r="F132" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="G132" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H132" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I132" s="30" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="134" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="135" spans="1:9" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A135" s="113" t="s">
+      <c r="A135" s="115" t="s">
         <v>280</v>
       </c>
-      <c r="B135" s="114"/>
-      <c r="C135" s="114"/>
-      <c r="D135" s="114"/>
-      <c r="E135" s="114"/>
-      <c r="F135" s="114"/>
-      <c r="G135" s="115" t="s">
+      <c r="B135" s="116"/>
+      <c r="C135" s="116"/>
+      <c r="D135" s="116"/>
+      <c r="E135" s="116"/>
+      <c r="F135" s="116"/>
+      <c r="G135" s="117" t="s">
         <v>201</v>
       </c>
-      <c r="H135" s="115"/>
-      <c r="I135" s="116"/>
+      <c r="H135" s="117"/>
+      <c r="I135" s="118"/>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A136" s="66" t="s">
+      <c r="A136" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B136" s="67" t="s">
+      <c r="B136" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="C136" s="67" t="s">
+      <c r="C136" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="D136" s="67" t="s">
+      <c r="D136" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="E136" s="67" t="s">
+      <c r="E136" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="F136" s="67" t="s">
+      <c r="F136" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="G136" s="67" t="s">
+      <c r="G136" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="H136" s="67" t="s">
+      <c r="H136" s="61" t="s">
         <v>78</v>
       </c>
-      <c r="I136" s="68" t="s">
+      <c r="I136" s="62" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A137" s="54">
+      <c r="A137" s="48">
         <v>1</v>
       </c>
-      <c r="B137" s="48" t="s">
+      <c r="B137" s="42" t="s">
         <v>202</v>
       </c>
-      <c r="C137" s="47" t="s">
+      <c r="C137" s="41" t="s">
         <v>203</v>
       </c>
-      <c r="D137" s="47" t="s">
+      <c r="D137" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="E137" s="47">
+      <c r="E137" s="41">
         <v>4</v>
       </c>
-      <c r="F137" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="G137" s="47" t="s">
+      <c r="F137" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="G137" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="H137" s="47" t="s">
-        <v>46</v>
-      </c>
-      <c r="I137" s="69" t="s">
+      <c r="H137" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="I137" s="63" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A138" s="56">
+      <c r="A138" s="50">
         <v>2</v>
       </c>
-      <c r="B138" s="50" t="s">
+      <c r="B138" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="C138" s="49" t="s">
+      <c r="C138" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="D138" s="49" t="s">
+      <c r="D138" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="E138" s="49">
+      <c r="E138" s="43">
         <v>4</v>
       </c>
-      <c r="F138" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="G138" s="49" t="s">
+      <c r="F138" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="G138" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="H138" s="49" t="s">
-        <v>46</v>
-      </c>
-      <c r="I138" s="70" t="s">
+      <c r="H138" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="I138" s="64" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A139" s="54">
+      <c r="A139" s="48">
         <v>3</v>
       </c>
-      <c r="B139" s="48" t="s">
+      <c r="B139" s="42" t="s">
         <v>204</v>
       </c>
-      <c r="C139" s="47" t="s">
+      <c r="C139" s="41" t="s">
         <v>205</v>
       </c>
-      <c r="D139" s="47" t="s">
+      <c r="D139" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="E139" s="47">
+      <c r="E139" s="41">
         <v>100</v>
       </c>
-      <c r="F139" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="G139" s="47" t="s">
-        <v>46</v>
-      </c>
-      <c r="H139" s="47" t="s">
-        <v>46</v>
-      </c>
-      <c r="I139" s="69" t="s">
+      <c r="F139" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="G139" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H139" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="I139" s="63" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A140" s="56">
+      <c r="A140" s="50">
         <v>4</v>
       </c>
-      <c r="B140" s="50" t="s">
+      <c r="B140" s="44" t="s">
         <v>206</v>
       </c>
-      <c r="C140" s="49" t="s">
+      <c r="C140" s="43" t="s">
         <v>207</v>
       </c>
-      <c r="D140" s="49" t="s">
+      <c r="D140" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="E140" s="49">
+      <c r="E140" s="43">
         <v>3000</v>
       </c>
-      <c r="F140" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="G140" s="49" t="s">
-        <v>46</v>
-      </c>
-      <c r="H140" s="49" t="s">
-        <v>46</v>
-      </c>
-      <c r="I140" s="70" t="s">
+      <c r="F140" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="G140" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H140" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="I140" s="64" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A141" s="54">
-        <v>5</v>
-      </c>
-      <c r="B141" s="48" t="s">
+      <c r="A141" s="48">
+        <v>5</v>
+      </c>
+      <c r="B141" s="42" t="s">
         <v>208</v>
       </c>
-      <c r="C141" s="47" t="s">
+      <c r="C141" s="41" t="s">
         <v>209</v>
       </c>
-      <c r="D141" s="47" t="s">
+      <c r="D141" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="E141" s="47">
+      <c r="E141" s="41">
         <v>1000</v>
       </c>
-      <c r="F141" s="47" t="s">
+      <c r="F141" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="G141" s="47" t="s">
-        <v>46</v>
-      </c>
-      <c r="H141" s="47" t="s">
-        <v>46</v>
-      </c>
-      <c r="I141" s="69" t="s">
+      <c r="G141" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H141" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="I141" s="63" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A142" s="88">
+      <c r="A142" s="82">
         <v>6</v>
       </c>
-      <c r="B142" s="89" t="s">
+      <c r="B142" s="83" t="s">
         <v>349</v>
       </c>
-      <c r="C142" s="90" t="s">
+      <c r="C142" s="84" t="s">
         <v>350</v>
       </c>
-      <c r="D142" s="91" t="s">
+      <c r="D142" s="85" t="s">
         <v>346</v>
       </c>
-      <c r="E142" s="90"/>
-      <c r="F142" s="90" t="s">
-        <v>5</v>
-      </c>
-      <c r="G142" s="90" t="s">
-        <v>46</v>
-      </c>
-      <c r="H142" s="90" t="s">
+      <c r="E142" s="84"/>
+      <c r="F142" s="84" t="s">
+        <v>5</v>
+      </c>
+      <c r="G142" s="84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H142" s="84" t="s">
         <v>356</v>
       </c>
-      <c r="I142" s="92" t="s">
+      <c r="I142" s="86" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A143" s="93">
+      <c r="A143" s="87">
         <v>7</v>
       </c>
-      <c r="B143" s="94" t="s">
+      <c r="B143" s="88" t="s">
         <v>354</v>
       </c>
-      <c r="C143" s="95" t="s">
+      <c r="C143" s="89" t="s">
         <v>355</v>
       </c>
-      <c r="D143" s="91" t="s">
+      <c r="D143" s="85" t="s">
         <v>346</v>
       </c>
-      <c r="E143" s="95"/>
-      <c r="F143" s="95" t="s">
+      <c r="E143" s="89"/>
+      <c r="F143" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="G143" s="95"/>
-      <c r="H143" s="95"/>
-      <c r="I143" s="96"/>
+      <c r="G143" s="89"/>
+      <c r="H143" s="89"/>
+      <c r="I143" s="90"/>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A144" s="88">
+      <c r="A144" s="82">
         <v>8</v>
       </c>
-      <c r="B144" s="89" t="s">
+      <c r="B144" s="83" t="s">
         <v>351</v>
       </c>
-      <c r="C144" s="90" t="s">
+      <c r="C144" s="84" t="s">
         <v>352</v>
       </c>
-      <c r="D144" s="90" t="s">
+      <c r="D144" s="84" t="s">
         <v>346</v>
       </c>
-      <c r="E144" s="90"/>
-      <c r="F144" s="90" t="s">
+      <c r="E144" s="84"/>
+      <c r="F144" s="84" t="s">
         <v>269</v>
       </c>
-      <c r="G144" s="90"/>
-      <c r="H144" s="90" t="s">
+      <c r="G144" s="84"/>
+      <c r="H144" s="84" t="s">
         <v>269</v>
       </c>
-      <c r="I144" s="92" t="s">
+      <c r="I144" s="86" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="145" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A145" s="97">
+      <c r="A145" s="91">
         <v>9</v>
       </c>
-      <c r="B145" s="98" t="s">
+      <c r="B145" s="92" t="s">
         <v>295</v>
       </c>
-      <c r="C145" s="99" t="s">
+      <c r="C145" s="93" t="s">
         <v>296</v>
       </c>
-      <c r="D145" s="99" t="s">
+      <c r="D145" s="93" t="s">
         <v>59</v>
       </c>
-      <c r="E145" s="99">
+      <c r="E145" s="93">
         <v>4</v>
       </c>
-      <c r="F145" s="99" t="s">
-        <v>5</v>
-      </c>
-      <c r="G145" s="99" t="s">
+      <c r="F145" s="93" t="s">
+        <v>5</v>
+      </c>
+      <c r="G145" s="93" t="s">
         <v>65</v>
       </c>
-      <c r="H145" s="99"/>
-      <c r="I145" s="100"/>
+      <c r="H145" s="93"/>
+      <c r="I145" s="94"/>
     </row>
     <row r="147" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="148" spans="1:9" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A148" s="106" t="s">
+      <c r="A148" s="108" t="s">
         <v>281</v>
       </c>
-      <c r="B148" s="107"/>
-      <c r="C148" s="107"/>
-      <c r="D148" s="107"/>
-      <c r="E148" s="107"/>
-      <c r="F148" s="107"/>
-      <c r="G148" s="108" t="s">
+      <c r="B148" s="109"/>
+      <c r="C148" s="109"/>
+      <c r="D148" s="109"/>
+      <c r="E148" s="109"/>
+      <c r="F148" s="109"/>
+      <c r="G148" s="110" t="s">
         <v>210</v>
       </c>
-      <c r="H148" s="108"/>
-      <c r="I148" s="109"/>
+      <c r="H148" s="110"/>
+      <c r="I148" s="111"/>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A149" s="7" t="s">
+      <c r="A149" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B149" s="8" t="s">
+      <c r="B149" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C149" s="8" t="s">
+      <c r="C149" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D149" s="8" t="s">
+      <c r="D149" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E149" s="8" t="s">
+      <c r="E149" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F149" s="8" t="s">
+      <c r="F149" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G149" s="8" t="s">
+      <c r="G149" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="H149" s="25" t="s">
+      <c r="H149" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="I149" s="9" t="s">
+      <c r="I149" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A150" s="11">
+      <c r="A150" s="10">
         <v>1</v>
       </c>
-      <c r="B150" s="12" t="s">
+      <c r="B150" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="C150" s="13" t="s">
+      <c r="C150" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="D150" s="13" t="s">
+      <c r="D150" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="E150" s="13">
+      <c r="E150" s="12">
         <v>4</v>
       </c>
-      <c r="F150" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G150" s="13" t="s">
+      <c r="F150" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G150" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="H150" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="I150" s="14" t="s">
+      <c r="H150" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I150" s="13" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A151" s="6">
+      <c r="A151" s="5">
         <v>2</v>
       </c>
       <c r="B151" s="3" t="s">
@@ -5896,44 +5940,44 @@
       <c r="G151" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H151" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I151" s="10" t="s">
+      <c r="H151" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I151" s="9" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A152" s="11">
+      <c r="A152" s="10">
         <v>3</v>
       </c>
-      <c r="B152" s="12" t="s">
+      <c r="B152" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="C152" s="13" t="s">
+      <c r="C152" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="D152" s="13" t="s">
+      <c r="D152" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E152" s="13">
+      <c r="E152" s="12">
         <v>3000</v>
       </c>
-      <c r="F152" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G152" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H152" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="I152" s="14" t="s">
+      <c r="F152" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G152" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H152" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I152" s="13" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A153" s="6">
+      <c r="A153" s="5">
         <v>4</v>
       </c>
       <c r="B153" s="3" t="s">
@@ -5954,42 +5998,42 @@
       <c r="G153" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H153" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I153" s="10" t="s">
+      <c r="H153" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I153" s="9" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A154" s="11">
-        <v>5</v>
-      </c>
-      <c r="B154" s="12" t="s">
+      <c r="A154" s="10">
+        <v>5</v>
+      </c>
+      <c r="B154" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="C154" s="13" t="s">
+      <c r="C154" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="D154" s="13" t="s">
+      <c r="D154" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E154" s="13"/>
-      <c r="F154" s="13" t="s">
+      <c r="E154" s="12"/>
+      <c r="F154" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G154" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H154" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="I154" s="14" t="s">
+      <c r="G154" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H154" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I154" s="13" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A155" s="6">
+      <c r="A155" s="5">
         <v>6</v>
       </c>
       <c r="B155" s="3" t="s">
@@ -6010,174 +6054,174 @@
       <c r="G155" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H155" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I155" s="10" t="s">
+      <c r="H155" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I155" s="9" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A156" s="11">
+      <c r="A156" s="122">
         <v>7</v>
       </c>
-      <c r="B156" s="12" t="s">
+      <c r="B156" s="129" t="s">
         <v>223</v>
       </c>
-      <c r="C156" s="13" t="s">
+      <c r="C156" s="123" t="s">
         <v>224</v>
       </c>
-      <c r="D156" s="13" t="s">
+      <c r="D156" s="123" t="s">
         <v>43</v>
       </c>
-      <c r="E156" s="13"/>
-      <c r="F156" s="13" t="s">
+      <c r="E156" s="123"/>
+      <c r="F156" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="G156" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H156" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="I156" s="14" t="s">
+      <c r="G156" s="123" t="s">
+        <v>46</v>
+      </c>
+      <c r="H156" s="130" t="s">
+        <v>46</v>
+      </c>
+      <c r="I156" s="128" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A157" s="6">
+      <c r="A157" s="122">
         <v>8</v>
       </c>
-      <c r="B157" s="3" t="s">
+      <c r="B157" s="129" t="s">
         <v>225</v>
       </c>
-      <c r="C157" s="2" t="s">
+      <c r="C157" s="123" t="s">
         <v>226</v>
       </c>
-      <c r="D157" s="2" t="s">
+      <c r="D157" s="123" t="s">
         <v>8</v>
       </c>
-      <c r="E157" s="2">
+      <c r="E157" s="123">
         <v>100</v>
       </c>
-      <c r="F157" s="2" t="s">
+      <c r="F157" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="G157" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H157" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I157" s="10" t="s">
+      <c r="G157" s="123" t="s">
+        <v>46</v>
+      </c>
+      <c r="H157" s="130" t="s">
+        <v>46</v>
+      </c>
+      <c r="I157" s="128" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="158" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A158" s="18">
+      <c r="A158" s="14">
         <v>9</v>
       </c>
-      <c r="B158" s="24" t="s">
+      <c r="B158" s="20" t="s">
         <v>227</v>
       </c>
-      <c r="C158" s="19" t="s">
+      <c r="C158" s="15" t="s">
         <v>228</v>
       </c>
-      <c r="D158" s="19" t="s">
+      <c r="D158" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="E158" s="19">
+      <c r="E158" s="15">
         <v>1</v>
       </c>
-      <c r="F158" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="G158" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="H158" s="31" t="s">
+      <c r="F158" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G158" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H158" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="I158" s="20" t="s">
+      <c r="I158" s="16" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="160" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="161" spans="1:9" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A161" s="106" t="s">
+      <c r="A161" s="108" t="s">
         <v>282</v>
       </c>
-      <c r="B161" s="107"/>
-      <c r="C161" s="107"/>
-      <c r="D161" s="107"/>
-      <c r="E161" s="107"/>
-      <c r="F161" s="107"/>
-      <c r="G161" s="108" t="s">
+      <c r="B161" s="109"/>
+      <c r="C161" s="109"/>
+      <c r="D161" s="109"/>
+      <c r="E161" s="109"/>
+      <c r="F161" s="109"/>
+      <c r="G161" s="110" t="s">
         <v>229</v>
       </c>
-      <c r="H161" s="108"/>
-      <c r="I161" s="109"/>
+      <c r="H161" s="110"/>
+      <c r="I161" s="111"/>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A162" s="7" t="s">
+      <c r="A162" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B162" s="8" t="s">
+      <c r="B162" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C162" s="8" t="s">
+      <c r="C162" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D162" s="8" t="s">
+      <c r="D162" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E162" s="8" t="s">
+      <c r="E162" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F162" s="8" t="s">
+      <c r="F162" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G162" s="8" t="s">
+      <c r="G162" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H162" s="25" t="s">
+      <c r="H162" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="I162" s="9" t="s">
+      <c r="I162" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A163" s="11">
+      <c r="A163" s="10">
         <v>1</v>
       </c>
-      <c r="B163" s="12" t="s">
+      <c r="B163" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="C163" s="13" t="s">
+      <c r="C163" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="D163" s="13" t="s">
+      <c r="D163" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="E163" s="13">
+      <c r="E163" s="12">
         <v>10</v>
       </c>
-      <c r="F163" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G163" s="13" t="s">
+      <c r="F163" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G163" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="H163" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="I163" s="14" t="s">
+      <c r="H163" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I163" s="13" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A164" s="6">
+      <c r="A164" s="5">
         <v>2</v>
       </c>
       <c r="B164" s="3" t="s">
@@ -6198,118 +6242,118 @@
       <c r="G164" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H164" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I164" s="10" t="s">
+      <c r="H164" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I164" s="9" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="165" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A165" s="18">
+      <c r="A165" s="14">
         <v>3</v>
       </c>
-      <c r="B165" s="24" t="s">
+      <c r="B165" s="20" t="s">
         <v>232</v>
       </c>
-      <c r="C165" s="19" t="s">
+      <c r="C165" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="D165" s="19" t="s">
+      <c r="D165" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="E165" s="19">
+      <c r="E165" s="15">
         <v>2</v>
       </c>
-      <c r="F165" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="G165" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="H165" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="I165" s="20" t="s">
+      <c r="F165" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G165" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H165" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I165" s="16" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="167" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="168" spans="1:9" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A168" s="106" t="s">
+      <c r="A168" s="108" t="s">
         <v>283</v>
       </c>
-      <c r="B168" s="107"/>
-      <c r="C168" s="107"/>
-      <c r="D168" s="107"/>
-      <c r="E168" s="107"/>
-      <c r="F168" s="107"/>
-      <c r="G168" s="108" t="s">
+      <c r="B168" s="109"/>
+      <c r="C168" s="109"/>
+      <c r="D168" s="109"/>
+      <c r="E168" s="109"/>
+      <c r="F168" s="109"/>
+      <c r="G168" s="110" t="s">
         <v>235</v>
       </c>
-      <c r="H168" s="108"/>
-      <c r="I168" s="109"/>
+      <c r="H168" s="110"/>
+      <c r="I168" s="111"/>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A169" s="7" t="s">
+      <c r="A169" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B169" s="8" t="s">
+      <c r="B169" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C169" s="8" t="s">
+      <c r="C169" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D169" s="8" t="s">
+      <c r="D169" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E169" s="8" t="s">
+      <c r="E169" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F169" s="8" t="s">
+      <c r="F169" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G169" s="8" t="s">
+      <c r="G169" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="H169" s="25" t="s">
+      <c r="H169" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="I169" s="9" t="s">
+      <c r="I169" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A170" s="11">
+      <c r="A170" s="10">
         <v>1</v>
       </c>
-      <c r="B170" s="12" t="s">
+      <c r="B170" s="11" t="s">
         <v>236</v>
       </c>
-      <c r="C170" s="13" t="s">
+      <c r="C170" s="12" t="s">
         <v>237</v>
       </c>
-      <c r="D170" s="13" t="s">
+      <c r="D170" s="12" t="s">
         <v>59</v>
       </c>
       <c r="E170" s="2">
         <v>4</v>
       </c>
-      <c r="F170" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G170" s="13" t="s">
+      <c r="F170" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G170" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="H170" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="I170" s="14" t="s">
+      <c r="H170" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I170" s="13" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A171" s="6">
+      <c r="A171" s="5">
         <v>2</v>
       </c>
       <c r="B171" s="3" t="s">
@@ -6321,7 +6365,7 @@
       <c r="D171" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E171" s="61">
+      <c r="E171" s="55">
         <v>100</v>
       </c>
       <c r="F171" s="2" t="s">
@@ -6330,44 +6374,44 @@
       <c r="G171" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H171" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I171" s="10" t="s">
+      <c r="H171" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I171" s="9" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A172" s="11">
+      <c r="A172" s="10">
         <v>3</v>
       </c>
-      <c r="B172" s="12" t="s">
+      <c r="B172" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="C172" s="13" t="s">
+      <c r="C172" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="D172" s="13" t="s">
+      <c r="D172" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E172" s="13">
+      <c r="E172" s="12">
         <v>3000</v>
       </c>
-      <c r="F172" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G172" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H172" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="I172" s="14" t="s">
+      <c r="F172" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G172" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H172" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I172" s="13" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A173" s="6">
+      <c r="A173" s="5">
         <v>4</v>
       </c>
       <c r="B173" s="3" t="s">
@@ -6388,42 +6432,42 @@
       <c r="G173" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H173" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I173" s="10" t="s">
+      <c r="H173" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I173" s="9" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A174" s="11">
-        <v>5</v>
-      </c>
-      <c r="B174" s="12" t="s">
+      <c r="A174" s="10">
+        <v>5</v>
+      </c>
+      <c r="B174" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="C174" s="13" t="s">
+      <c r="C174" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="D174" s="13" t="s">
+      <c r="D174" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E174" s="13"/>
-      <c r="F174" s="13" t="s">
+      <c r="E174" s="12"/>
+      <c r="F174" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G174" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H174" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="I174" s="14" t="s">
+      <c r="G174" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H174" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I174" s="13" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A175" s="6">
+      <c r="A175" s="5">
         <v>6</v>
       </c>
       <c r="B175" s="3" t="s">
@@ -6444,174 +6488,174 @@
       <c r="G175" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H175" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I175" s="10" t="s">
+      <c r="H175" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I175" s="9" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A176" s="11">
+      <c r="A176" s="122">
         <v>7</v>
       </c>
-      <c r="B176" s="12" t="s">
+      <c r="B176" s="129" t="s">
         <v>248</v>
       </c>
-      <c r="C176" s="13" t="s">
+      <c r="C176" s="123" t="s">
         <v>249</v>
       </c>
-      <c r="D176" s="13" t="s">
+      <c r="D176" s="123" t="s">
         <v>43</v>
       </c>
-      <c r="E176" s="13"/>
-      <c r="F176" s="13" t="s">
+      <c r="E176" s="123"/>
+      <c r="F176" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="G176" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H176" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="I176" s="14" t="s">
+      <c r="G176" s="123" t="s">
+        <v>46</v>
+      </c>
+      <c r="H176" s="130" t="s">
+        <v>46</v>
+      </c>
+      <c r="I176" s="128" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A177" s="6">
+      <c r="A177" s="122">
         <v>8</v>
       </c>
-      <c r="B177" s="3" t="s">
+      <c r="B177" s="129" t="s">
         <v>250</v>
       </c>
-      <c r="C177" s="2" t="s">
+      <c r="C177" s="123" t="s">
         <v>251</v>
       </c>
-      <c r="D177" s="2" t="s">
+      <c r="D177" s="123" t="s">
         <v>8</v>
       </c>
-      <c r="E177" s="2">
+      <c r="E177" s="123">
         <v>100</v>
       </c>
-      <c r="F177" s="2" t="s">
+      <c r="F177" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="G177" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H177" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I177" s="10" t="s">
+      <c r="G177" s="123" t="s">
+        <v>46</v>
+      </c>
+      <c r="H177" s="130" t="s">
+        <v>46</v>
+      </c>
+      <c r="I177" s="128" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="178" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A178" s="18">
+      <c r="A178" s="14">
         <v>9</v>
       </c>
-      <c r="B178" s="24" t="s">
+      <c r="B178" s="20" t="s">
         <v>252</v>
       </c>
-      <c r="C178" s="19" t="s">
+      <c r="C178" s="15" t="s">
         <v>253</v>
       </c>
-      <c r="D178" s="19" t="s">
+      <c r="D178" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="E178" s="19">
+      <c r="E178" s="15">
         <v>1</v>
       </c>
-      <c r="F178" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="G178" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="H178" s="31" t="s">
+      <c r="F178" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G178" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H178" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="I178" s="20" t="s">
+      <c r="I178" s="16" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="180" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="181" spans="1:9" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A181" s="106" t="s">
+      <c r="A181" s="108" t="s">
         <v>284</v>
       </c>
-      <c r="B181" s="107"/>
-      <c r="C181" s="107"/>
-      <c r="D181" s="107"/>
-      <c r="E181" s="107"/>
-      <c r="F181" s="107"/>
-      <c r="G181" s="108" t="s">
+      <c r="B181" s="109"/>
+      <c r="C181" s="109"/>
+      <c r="D181" s="109"/>
+      <c r="E181" s="109"/>
+      <c r="F181" s="109"/>
+      <c r="G181" s="110" t="s">
         <v>255</v>
       </c>
-      <c r="H181" s="108"/>
-      <c r="I181" s="109"/>
+      <c r="H181" s="110"/>
+      <c r="I181" s="111"/>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A182" s="7" t="s">
+      <c r="A182" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B182" s="8" t="s">
+      <c r="B182" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C182" s="8" t="s">
+      <c r="C182" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D182" s="8" t="s">
+      <c r="D182" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E182" s="8" t="s">
+      <c r="E182" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F182" s="8" t="s">
+      <c r="F182" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G182" s="8" t="s">
+      <c r="G182" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="H182" s="25" t="s">
+      <c r="H182" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="I182" s="9" t="s">
+      <c r="I182" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A183" s="11">
+      <c r="A183" s="10">
         <v>1</v>
       </c>
-      <c r="B183" s="12" t="s">
+      <c r="B183" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="C183" s="13" t="s">
+      <c r="C183" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="D183" s="13" t="s">
+      <c r="D183" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="E183" s="13">
+      <c r="E183" s="12">
         <v>4</v>
       </c>
-      <c r="F183" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G183" s="13" t="s">
+      <c r="F183" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G183" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="H183" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="I183" s="14" t="s">
+      <c r="H183" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I183" s="13" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A184" s="6">
+      <c r="A184" s="5">
         <v>2</v>
       </c>
       <c r="B184" s="3" t="s">
@@ -6632,40 +6676,40 @@
       <c r="G184" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="H184" s="5"/>
-      <c r="I184" s="10"/>
+      <c r="H184" s="4"/>
+      <c r="I184" s="9"/>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A185" s="11">
+      <c r="A185" s="10">
         <v>3</v>
       </c>
-      <c r="B185" s="12" t="s">
+      <c r="B185" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="C185" s="13" t="s">
+      <c r="C185" s="12" t="s">
         <v>259</v>
       </c>
-      <c r="D185" s="13" t="s">
+      <c r="D185" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E185" s="13">
+      <c r="E185" s="12">
         <v>20</v>
       </c>
-      <c r="F185" s="13" t="s">
+      <c r="F185" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G185" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H185" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="I185" s="14" t="s">
+      <c r="G185" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H185" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I185" s="13" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A186" s="6">
+      <c r="A186" s="5">
         <v>4</v>
       </c>
       <c r="B186" s="3" t="s">
@@ -6684,145 +6728,145 @@
       <c r="G186" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H186" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I186" s="10" t="s">
+      <c r="H186" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I186" s="9" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A187" s="11">
-        <v>5</v>
-      </c>
-      <c r="B187" s="12" t="s">
+      <c r="A187" s="10">
+        <v>5</v>
+      </c>
+      <c r="B187" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="C187" s="13" t="s">
+      <c r="C187" s="12" t="s">
         <v>264</v>
       </c>
-      <c r="D187" s="13" t="s">
+      <c r="D187" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E187" s="13"/>
-      <c r="F187" s="13" t="s">
+      <c r="E187" s="12"/>
+      <c r="F187" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G187" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H187" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="I187" s="14" t="s">
+      <c r="G187" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H187" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I187" s="13" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="188" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A188" s="32">
+      <c r="A188" s="26">
         <v>6</v>
       </c>
-      <c r="B188" s="33" t="s">
+      <c r="B188" s="27" t="s">
         <v>265</v>
       </c>
-      <c r="C188" s="34" t="s">
+      <c r="C188" s="28" t="s">
         <v>266</v>
       </c>
-      <c r="D188" s="34" t="s">
+      <c r="D188" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="E188" s="34">
+      <c r="E188" s="28">
         <v>2</v>
       </c>
-      <c r="F188" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="G188" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="H188" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="I188" s="36" t="s">
+      <c r="F188" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="G188" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H188" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I188" s="30" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="190" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="191" spans="1:9" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A191" s="106" t="s">
+      <c r="A191" s="108" t="s">
         <v>286</v>
       </c>
-      <c r="B191" s="107"/>
-      <c r="C191" s="107"/>
-      <c r="D191" s="107"/>
-      <c r="E191" s="107"/>
-      <c r="F191" s="107"/>
-      <c r="G191" s="108" t="s">
+      <c r="B191" s="109"/>
+      <c r="C191" s="109"/>
+      <c r="D191" s="109"/>
+      <c r="E191" s="109"/>
+      <c r="F191" s="109"/>
+      <c r="G191" s="110" t="s">
         <v>287</v>
       </c>
-      <c r="H191" s="108"/>
-      <c r="I191" s="109"/>
+      <c r="H191" s="110"/>
+      <c r="I191" s="111"/>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A192" s="7" t="s">
+      <c r="A192" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B192" s="8" t="s">
+      <c r="B192" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C192" s="8" t="s">
+      <c r="C192" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D192" s="8" t="s">
+      <c r="D192" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E192" s="8" t="s">
+      <c r="E192" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F192" s="8" t="s">
+      <c r="F192" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G192" s="8" t="s">
+      <c r="G192" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="H192" s="25" t="s">
+      <c r="H192" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="I192" s="9" t="s">
+      <c r="I192" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A193" s="11">
+      <c r="A193" s="10">
         <v>1</v>
       </c>
-      <c r="B193" s="12" t="s">
+      <c r="B193" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="C193" s="13" t="s">
+      <c r="C193" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="D193" s="13" t="s">
+      <c r="D193" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="E193" s="13">
+      <c r="E193" s="12">
         <v>10</v>
       </c>
-      <c r="F193" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G193" s="13" t="s">
+      <c r="F193" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G193" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="H193" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="I193" s="14" t="s">
+      <c r="H193" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I193" s="13" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A194" s="6">
+      <c r="A194" s="5">
         <v>2</v>
       </c>
       <c r="B194" s="3" t="s">
@@ -6843,118 +6887,118 @@
       <c r="G194" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H194" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I194" s="10" t="s">
+      <c r="H194" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I194" s="9" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="195" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A195" s="18">
+      <c r="A195" s="14">
         <v>3</v>
       </c>
-      <c r="B195" s="24" t="s">
+      <c r="B195" s="20" t="s">
         <v>291</v>
       </c>
-      <c r="C195" s="19" t="s">
+      <c r="C195" s="15" t="s">
         <v>266</v>
       </c>
-      <c r="D195" s="19" t="s">
+      <c r="D195" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="E195" s="19">
+      <c r="E195" s="15">
         <v>2</v>
       </c>
-      <c r="F195" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="G195" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="H195" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="I195" s="20" t="s">
+      <c r="F195" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G195" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H195" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I195" s="16" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="197" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="198" spans="1:9" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A198" s="106" t="s">
+      <c r="A198" s="108" t="s">
         <v>293</v>
       </c>
-      <c r="B198" s="107"/>
-      <c r="C198" s="107"/>
-      <c r="D198" s="107"/>
-      <c r="E198" s="107"/>
-      <c r="F198" s="107"/>
-      <c r="G198" s="108" t="s">
+      <c r="B198" s="109"/>
+      <c r="C198" s="109"/>
+      <c r="D198" s="109"/>
+      <c r="E198" s="109"/>
+      <c r="F198" s="109"/>
+      <c r="G198" s="110" t="s">
         <v>294</v>
       </c>
-      <c r="H198" s="108"/>
-      <c r="I198" s="109"/>
+      <c r="H198" s="110"/>
+      <c r="I198" s="111"/>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A199" s="7" t="s">
+      <c r="A199" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B199" s="8" t="s">
+      <c r="B199" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C199" s="8" t="s">
+      <c r="C199" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D199" s="8" t="s">
+      <c r="D199" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E199" s="8" t="s">
+      <c r="E199" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F199" s="8" t="s">
+      <c r="F199" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G199" s="8" t="s">
+      <c r="G199" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="H199" s="25" t="s">
+      <c r="H199" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="I199" s="9" t="s">
+      <c r="I199" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A200" s="11">
+      <c r="A200" s="10">
         <v>1</v>
       </c>
-      <c r="B200" s="12" t="s">
+      <c r="B200" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="C200" s="13" t="s">
+      <c r="C200" s="12" t="s">
         <v>357</v>
       </c>
-      <c r="D200" s="13" t="s">
+      <c r="D200" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="E200" s="13">
+      <c r="E200" s="12">
         <v>4</v>
       </c>
-      <c r="F200" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G200" s="13" t="s">
+      <c r="F200" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G200" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="H200" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="I200" s="14" t="s">
+      <c r="H200" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I200" s="13" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A201" s="6">
+      <c r="A201" s="5">
         <v>2</v>
       </c>
       <c r="B201" s="3" t="s">
@@ -6975,44 +7019,44 @@
       <c r="G201" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H201" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I201" s="10" t="s">
+      <c r="H201" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I201" s="9" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A202" s="11">
+      <c r="A202" s="10">
         <v>3</v>
       </c>
-      <c r="B202" s="12" t="s">
+      <c r="B202" s="11" t="s">
         <v>299</v>
       </c>
-      <c r="C202" s="13" t="s">
+      <c r="C202" s="12" t="s">
         <v>300</v>
       </c>
-      <c r="D202" s="13" t="s">
+      <c r="D202" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E202" s="13">
+      <c r="E202" s="12">
         <v>500</v>
       </c>
-      <c r="F202" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G202" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H202" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="I202" s="14" t="s">
+      <c r="F202" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G202" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H202" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I202" s="13" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A203" s="6">
+      <c r="A203" s="5">
         <v>4</v>
       </c>
       <c r="B203" s="3" t="s">
@@ -7033,412 +7077,383 @@
       <c r="G203" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H203" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I203" s="10" t="s">
+      <c r="H203" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I203" s="9" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="204" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A204" s="18">
-        <v>5</v>
-      </c>
-      <c r="B204" s="24" t="s">
+      <c r="A204" s="14">
+        <v>5</v>
+      </c>
+      <c r="B204" s="20" t="s">
         <v>303</v>
       </c>
-      <c r="C204" s="19" t="s">
+      <c r="C204" s="15" t="s">
         <v>304</v>
       </c>
-      <c r="D204" s="19" t="s">
+      <c r="D204" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E204" s="19">
+      <c r="E204" s="15">
         <v>500</v>
       </c>
-      <c r="F204" s="19" t="s">
+      <c r="F204" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="G204" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="H204" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="I204" s="20" t="s">
+      <c r="G204" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H204" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I204" s="16" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="206" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="207" spans="1:9" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A207" s="111" t="s">
+      <c r="A207" s="120" t="s">
         <v>305</v>
       </c>
-      <c r="B207" s="112"/>
-      <c r="C207" s="51" t="s">
+      <c r="B207" s="121"/>
+      <c r="C207" s="45" t="s">
         <v>306</v>
       </c>
-      <c r="D207" s="45"/>
-      <c r="E207" s="41"/>
-      <c r="F207" s="41"/>
-      <c r="G207" s="110"/>
-      <c r="H207" s="110"/>
-      <c r="I207" s="37"/>
+      <c r="D207" s="39"/>
+      <c r="E207" s="35"/>
+      <c r="F207" s="35"/>
+      <c r="G207" s="119"/>
+      <c r="H207" s="119"/>
+      <c r="I207" s="31"/>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A208" s="52" t="s">
+      <c r="A208" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B208" s="46" t="s">
+      <c r="B208" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C208" s="53" t="s">
+      <c r="C208" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="D208" s="38"/>
-      <c r="E208" s="38"/>
-      <c r="F208" s="38"/>
-      <c r="G208" s="38"/>
-      <c r="H208" s="38"/>
-      <c r="I208" s="38"/>
+      <c r="D208" s="32"/>
+      <c r="E208" s="32"/>
+      <c r="F208" s="32"/>
+      <c r="G208" s="32"/>
+      <c r="H208" s="32"/>
+      <c r="I208" s="32"/>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A209" s="54">
+      <c r="A209" s="48">
         <v>1</v>
       </c>
-      <c r="B209" s="48" t="s">
+      <c r="B209" s="42" t="s">
         <v>307</v>
       </c>
-      <c r="C209" s="55" t="s">
+      <c r="C209" s="49" t="s">
         <v>308</v>
       </c>
-      <c r="D209" s="42"/>
-      <c r="E209" s="42"/>
-      <c r="F209" s="42"/>
-      <c r="G209" s="42"/>
-      <c r="H209" s="42"/>
-      <c r="I209" s="39"/>
+      <c r="D209" s="36"/>
+      <c r="E209" s="36"/>
+      <c r="F209" s="36"/>
+      <c r="G209" s="36"/>
+      <c r="H209" s="36"/>
+      <c r="I209" s="33"/>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A210" s="56">
+      <c r="A210" s="50">
         <v>2</v>
       </c>
-      <c r="B210" s="50" t="s">
+      <c r="B210" s="44" t="s">
         <v>309</v>
       </c>
-      <c r="C210" s="57" t="s">
+      <c r="C210" s="51" t="s">
         <v>310</v>
       </c>
-      <c r="D210" s="42"/>
-      <c r="E210" s="42"/>
-      <c r="F210" s="42"/>
-      <c r="G210" s="42"/>
-      <c r="H210" s="42"/>
-      <c r="I210" s="39"/>
+      <c r="D210" s="36"/>
+      <c r="E210" s="36"/>
+      <c r="F210" s="36"/>
+      <c r="G210" s="36"/>
+      <c r="H210" s="36"/>
+      <c r="I210" s="33"/>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A211" s="54">
+      <c r="A211" s="48">
         <v>3</v>
       </c>
-      <c r="B211" s="48" t="s">
+      <c r="B211" s="42" t="s">
         <v>311</v>
       </c>
-      <c r="C211" s="55" t="s">
+      <c r="C211" s="49" t="s">
         <v>312</v>
       </c>
-      <c r="D211" s="42"/>
-      <c r="E211" s="42"/>
-      <c r="F211" s="42"/>
-      <c r="G211" s="42"/>
-      <c r="H211" s="42"/>
-      <c r="I211" s="39"/>
+      <c r="D211" s="36"/>
+      <c r="E211" s="36"/>
+      <c r="F211" s="36"/>
+      <c r="G211" s="36"/>
+      <c r="H211" s="36"/>
+      <c r="I211" s="33"/>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A212" s="56">
+      <c r="A212" s="50">
         <v>4</v>
       </c>
-      <c r="B212" s="50" t="s">
+      <c r="B212" s="44" t="s">
         <v>313</v>
       </c>
-      <c r="C212" s="57" t="s">
+      <c r="C212" s="51" t="s">
         <v>314</v>
       </c>
-      <c r="D212" s="42"/>
-      <c r="E212" s="42"/>
-      <c r="F212" s="42"/>
-      <c r="G212" s="42"/>
-      <c r="H212" s="42"/>
-      <c r="I212" s="39"/>
+      <c r="D212" s="36"/>
+      <c r="E212" s="36"/>
+      <c r="F212" s="36"/>
+      <c r="G212" s="36"/>
+      <c r="H212" s="36"/>
+      <c r="I212" s="33"/>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A213" s="54">
-        <v>5</v>
-      </c>
-      <c r="B213" s="48" t="s">
+      <c r="A213" s="48">
+        <v>5</v>
+      </c>
+      <c r="B213" s="42" t="s">
         <v>315</v>
       </c>
-      <c r="C213" s="55" t="s">
+      <c r="C213" s="49" t="s">
         <v>316</v>
       </c>
-      <c r="D213" s="42"/>
-      <c r="E213" s="42"/>
-      <c r="F213" s="42"/>
-      <c r="G213" s="42"/>
-      <c r="H213" s="42"/>
-      <c r="I213" s="39"/>
+      <c r="D213" s="36"/>
+      <c r="E213" s="36"/>
+      <c r="F213" s="36"/>
+      <c r="G213" s="36"/>
+      <c r="H213" s="36"/>
+      <c r="I213" s="33"/>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A214" s="56">
+      <c r="A214" s="50">
         <v>6</v>
       </c>
-      <c r="B214" s="50" t="s">
+      <c r="B214" s="44" t="s">
         <v>317</v>
       </c>
-      <c r="C214" s="57" t="s">
+      <c r="C214" s="51" t="s">
         <v>318</v>
       </c>
-      <c r="D214" s="42"/>
-      <c r="E214" s="42"/>
-      <c r="F214" s="42"/>
-      <c r="G214" s="42"/>
-      <c r="H214" s="42"/>
-      <c r="I214" s="39"/>
+      <c r="D214" s="36"/>
+      <c r="E214" s="36"/>
+      <c r="F214" s="36"/>
+      <c r="G214" s="36"/>
+      <c r="H214" s="36"/>
+      <c r="I214" s="33"/>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A215" s="54">
+      <c r="A215" s="48">
         <v>7</v>
       </c>
-      <c r="B215" s="48" t="s">
+      <c r="B215" s="42" t="s">
         <v>319</v>
       </c>
-      <c r="C215" s="55" t="s">
+      <c r="C215" s="49" t="s">
         <v>320</v>
       </c>
-      <c r="D215" s="42"/>
-      <c r="E215" s="42"/>
-      <c r="F215" s="42"/>
-      <c r="G215" s="42"/>
-      <c r="H215" s="42"/>
-      <c r="I215" s="39"/>
+      <c r="D215" s="36"/>
+      <c r="E215" s="36"/>
+      <c r="F215" s="36"/>
+      <c r="G215" s="36"/>
+      <c r="H215" s="36"/>
+      <c r="I215" s="33"/>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A216" s="56">
+      <c r="A216" s="50">
         <v>8</v>
       </c>
-      <c r="B216" s="50" t="s">
+      <c r="B216" s="44" t="s">
         <v>321</v>
       </c>
-      <c r="C216" s="57" t="s">
+      <c r="C216" s="51" t="s">
         <v>322</v>
       </c>
-      <c r="D216" s="42"/>
-      <c r="E216" s="42"/>
-      <c r="F216" s="42"/>
-      <c r="G216" s="42"/>
-      <c r="H216" s="42"/>
-      <c r="I216" s="39"/>
+      <c r="D216" s="36"/>
+      <c r="E216" s="36"/>
+      <c r="F216" s="36"/>
+      <c r="G216" s="36"/>
+      <c r="H216" s="36"/>
+      <c r="I216" s="33"/>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A217" s="54">
+      <c r="A217" s="48">
         <v>9</v>
       </c>
-      <c r="B217" s="48" t="s">
+      <c r="B217" s="42" t="s">
         <v>323</v>
       </c>
-      <c r="C217" s="55" t="s">
+      <c r="C217" s="49" t="s">
         <v>324</v>
       </c>
-      <c r="D217" s="42"/>
-      <c r="E217" s="42"/>
-      <c r="F217" s="42"/>
-      <c r="G217" s="42"/>
-      <c r="H217" s="42"/>
-      <c r="I217" s="39"/>
+      <c r="D217" s="36"/>
+      <c r="E217" s="36"/>
+      <c r="F217" s="36"/>
+      <c r="G217" s="36"/>
+      <c r="H217" s="36"/>
+      <c r="I217" s="33"/>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A218" s="56">
+      <c r="A218" s="50">
         <v>10</v>
       </c>
-      <c r="B218" s="50" t="s">
+      <c r="B218" s="44" t="s">
         <v>325</v>
       </c>
-      <c r="C218" s="57" t="s">
+      <c r="C218" s="51" t="s">
         <v>326</v>
       </c>
-      <c r="D218" s="42"/>
-      <c r="E218" s="42"/>
-      <c r="F218" s="42"/>
-      <c r="G218" s="42"/>
-      <c r="H218" s="42"/>
-      <c r="I218" s="39"/>
+      <c r="D218" s="36"/>
+      <c r="E218" s="36"/>
+      <c r="F218" s="36"/>
+      <c r="G218" s="36"/>
+      <c r="H218" s="36"/>
+      <c r="I218" s="33"/>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A219" s="54">
+      <c r="A219" s="48">
         <v>11</v>
       </c>
-      <c r="B219" s="48" t="s">
+      <c r="B219" s="42" t="s">
         <v>327</v>
       </c>
-      <c r="C219" s="55" t="s">
+      <c r="C219" s="49" t="s">
         <v>328</v>
       </c>
-      <c r="D219" s="42"/>
-      <c r="E219" s="42"/>
-      <c r="F219" s="42"/>
-      <c r="G219" s="42"/>
-      <c r="H219" s="42"/>
-      <c r="I219" s="39"/>
+      <c r="D219" s="36"/>
+      <c r="E219" s="36"/>
+      <c r="F219" s="36"/>
+      <c r="G219" s="36"/>
+      <c r="H219" s="36"/>
+      <c r="I219" s="33"/>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A220" s="56">
+      <c r="A220" s="50">
         <v>12</v>
       </c>
-      <c r="B220" s="50" t="s">
+      <c r="B220" s="44" t="s">
         <v>329</v>
       </c>
-      <c r="C220" s="57" t="s">
+      <c r="C220" s="51" t="s">
         <v>330</v>
       </c>
-      <c r="D220" s="42"/>
-      <c r="E220" s="42"/>
-      <c r="F220" s="42"/>
-      <c r="G220" s="42"/>
-      <c r="H220" s="42"/>
-      <c r="I220" s="39"/>
+      <c r="D220" s="36"/>
+      <c r="E220" s="36"/>
+      <c r="F220" s="36"/>
+      <c r="G220" s="36"/>
+      <c r="H220" s="36"/>
+      <c r="I220" s="33"/>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A221" s="54">
+      <c r="A221" s="48">
         <v>13</v>
       </c>
-      <c r="B221" s="47" t="s">
+      <c r="B221" s="41" t="s">
         <v>331</v>
       </c>
-      <c r="C221" s="55" t="s">
+      <c r="C221" s="49" t="s">
         <v>332</v>
       </c>
-      <c r="D221" s="42"/>
-      <c r="E221" s="43"/>
-      <c r="F221" s="42"/>
-      <c r="G221" s="44"/>
-      <c r="H221" s="44"/>
-      <c r="I221" s="40"/>
+      <c r="D221" s="36"/>
+      <c r="E221" s="37"/>
+      <c r="F221" s="36"/>
+      <c r="G221" s="38"/>
+      <c r="H221" s="38"/>
+      <c r="I221" s="34"/>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A222" s="56">
+      <c r="A222" s="50">
         <v>14</v>
       </c>
-      <c r="B222" s="49" t="s">
+      <c r="B222" s="43" t="s">
         <v>333</v>
       </c>
-      <c r="C222" s="57" t="s">
+      <c r="C222" s="51" t="s">
         <v>334</v>
       </c>
-      <c r="D222" s="42"/>
-      <c r="E222" s="42"/>
-      <c r="F222" s="42"/>
-      <c r="G222" s="44"/>
-      <c r="H222" s="44"/>
-      <c r="I222" s="39"/>
+      <c r="D222" s="36"/>
+      <c r="E222" s="36"/>
+      <c r="F222" s="36"/>
+      <c r="G222" s="38"/>
+      <c r="H222" s="38"/>
+      <c r="I222" s="33"/>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A223" s="54">
+      <c r="A223" s="48">
         <v>15</v>
       </c>
-      <c r="B223" s="47" t="s">
+      <c r="B223" s="41" t="s">
         <v>335</v>
       </c>
-      <c r="C223" s="55" t="s">
+      <c r="C223" s="49" t="s">
         <v>336</v>
       </c>
-      <c r="D223" s="42"/>
-      <c r="E223" s="42"/>
-      <c r="F223" s="42"/>
-      <c r="G223" s="44"/>
-      <c r="H223" s="44"/>
-      <c r="I223" s="39"/>
+      <c r="D223" s="36"/>
+      <c r="E223" s="36"/>
+      <c r="F223" s="36"/>
+      <c r="G223" s="38"/>
+      <c r="H223" s="38"/>
+      <c r="I223" s="33"/>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A224" s="56">
+      <c r="A224" s="50">
         <v>12</v>
       </c>
-      <c r="B224" s="50" t="s">
+      <c r="B224" s="44" t="s">
         <v>337</v>
       </c>
-      <c r="C224" s="57" t="s">
+      <c r="C224" s="51" t="s">
         <v>338</v>
       </c>
-      <c r="D224" s="42"/>
-      <c r="E224" s="42"/>
-      <c r="F224" s="42"/>
-      <c r="G224" s="42"/>
-      <c r="H224" s="42"/>
-      <c r="I224" s="39"/>
+      <c r="D224" s="36"/>
+      <c r="E224" s="36"/>
+      <c r="F224" s="36"/>
+      <c r="G224" s="36"/>
+      <c r="H224" s="36"/>
+      <c r="I224" s="33"/>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A225" s="54">
+      <c r="A225" s="48">
         <v>13</v>
       </c>
-      <c r="B225" s="47" t="s">
+      <c r="B225" s="41" t="s">
         <v>339</v>
       </c>
-      <c r="C225" s="55" t="s">
+      <c r="C225" s="49" t="s">
         <v>340</v>
       </c>
-      <c r="D225" s="42"/>
-      <c r="E225" s="43"/>
-      <c r="F225" s="42"/>
-      <c r="G225" s="44"/>
-      <c r="H225" s="44"/>
-      <c r="I225" s="40"/>
+      <c r="D225" s="36"/>
+      <c r="E225" s="37"/>
+      <c r="F225" s="36"/>
+      <c r="G225" s="38"/>
+      <c r="H225" s="38"/>
+      <c r="I225" s="34"/>
     </row>
     <row r="226" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A226" s="58">
+      <c r="A226" s="52">
         <v>14</v>
       </c>
-      <c r="B226" s="59" t="s">
+      <c r="B226" s="53" t="s">
         <v>341</v>
       </c>
-      <c r="C226" s="60" t="s">
+      <c r="C226" s="54" t="s">
         <v>342</v>
       </c>
-      <c r="D226" s="42"/>
-      <c r="E226" s="42"/>
-      <c r="F226" s="42"/>
-      <c r="G226" s="44"/>
-      <c r="H226" s="44"/>
-      <c r="I226" s="39"/>
+      <c r="D226" s="36"/>
+      <c r="E226" s="36"/>
+      <c r="F226" s="36"/>
+      <c r="G226" s="38"/>
+      <c r="H226" s="38"/>
+      <c r="I226" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="A1:I3"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="A56:F56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="A75:F75"/>
-    <mergeCell ref="G75:I75"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="G82:I82"/>
-    <mergeCell ref="A92:F92"/>
-    <mergeCell ref="G92:I92"/>
-    <mergeCell ref="A105:F105"/>
-    <mergeCell ref="G105:I105"/>
-    <mergeCell ref="A115:F115"/>
-    <mergeCell ref="G115:I115"/>
-    <mergeCell ref="A123:F123"/>
-    <mergeCell ref="G123:I123"/>
-    <mergeCell ref="A135:F135"/>
-    <mergeCell ref="G135:I135"/>
-    <mergeCell ref="A148:F148"/>
-    <mergeCell ref="G148:I148"/>
-    <mergeCell ref="A161:F161"/>
-    <mergeCell ref="G161:I161"/>
     <mergeCell ref="A198:F198"/>
     <mergeCell ref="G198:I198"/>
     <mergeCell ref="G207:H207"/>
@@ -7449,6 +7464,35 @@
     <mergeCell ref="G181:I181"/>
     <mergeCell ref="A191:F191"/>
     <mergeCell ref="G191:I191"/>
+    <mergeCell ref="A135:F135"/>
+    <mergeCell ref="G135:I135"/>
+    <mergeCell ref="A148:F148"/>
+    <mergeCell ref="G148:I148"/>
+    <mergeCell ref="A161:F161"/>
+    <mergeCell ref="G161:I161"/>
+    <mergeCell ref="A105:F105"/>
+    <mergeCell ref="G105:I105"/>
+    <mergeCell ref="A115:F115"/>
+    <mergeCell ref="G115:I115"/>
+    <mergeCell ref="A123:F123"/>
+    <mergeCell ref="G123:I123"/>
+    <mergeCell ref="A75:F75"/>
+    <mergeCell ref="G75:I75"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="G82:I82"/>
+    <mergeCell ref="A92:F92"/>
+    <mergeCell ref="G92:I92"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="A56:F56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="A1:I3"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="G24:I24"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DB/오후3조 Channel_KGV 테이블 명세서.xlsx
+++ b/DB/오후3조 Channel_KGV 테이블 명세서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cropr\Desktop\FINAL_PROJECT\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2686A132-DA87-4789-B35D-EF76F11DF308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FFDD187-4707-493F-A3F8-0373B3F920DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3540" yWindow="-15720" windowWidth="29040" windowHeight="15840" xr2:uid="{BB9CF8A4-12E5-4296-9F19-D4219680D6A5}"/>
+    <workbookView xWindow="4608" yWindow="5076" windowWidth="23040" windowHeight="12216" xr2:uid="{BB9CF8A4-12E5-4296-9F19-D4219680D6A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -84,10 +84,6 @@
     <t>PK</t>
   </si>
   <si>
-    <t>USER</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>물리 칼럼명</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1197,6 +1193,10 @@
   </si>
   <si>
     <t>스크린 설명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>USERS</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1204,7 +1204,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1294,6 +1294,15 @@
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
@@ -1867,7 +1876,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2192,6 +2201,48 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2204,6 +2255,27 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2213,68 +2285,11 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2594,7 +2609,7 @@
   <dimension ref="A1:I226"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2609,64 +2624,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="112" t="s">
-        <v>343</v>
-      </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
+      <c r="A1" s="133" t="s">
+        <v>342</v>
+      </c>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A2" s="113"/>
-      <c r="B2" s="113"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
+      <c r="A2" s="134"/>
+      <c r="B2" s="134"/>
+      <c r="C2" s="134"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="134"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="134"/>
+      <c r="H2" s="134"/>
+      <c r="I2" s="134"/>
     </row>
     <row r="3" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="114"/>
-      <c r="B3" s="114"/>
-      <c r="C3" s="114"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="114"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="114"/>
+      <c r="A3" s="135"/>
+      <c r="B3" s="135"/>
+      <c r="C3" s="135"/>
+      <c r="D3" s="135"/>
+      <c r="E3" s="135"/>
+      <c r="F3" s="135"/>
+      <c r="G3" s="135"/>
+      <c r="H3" s="135"/>
+      <c r="I3" s="135"/>
     </row>
     <row r="4" spans="1:9" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="108" t="s">
-        <v>270</v>
-      </c>
-      <c r="B4" s="109"/>
-      <c r="C4" s="109"/>
-      <c r="D4" s="109"/>
-      <c r="E4" s="109"/>
-      <c r="F4" s="109"/>
-      <c r="G4" s="110" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="110"/>
-      <c r="I4" s="111"/>
+      <c r="A4" s="122" t="s">
+        <v>269</v>
+      </c>
+      <c r="B4" s="123"/>
+      <c r="C4" s="123"/>
+      <c r="D4" s="123"/>
+      <c r="E4" s="123"/>
+      <c r="F4" s="123"/>
+      <c r="G4" s="136" t="s">
+        <v>361</v>
+      </c>
+      <c r="H4" s="136"/>
+      <c r="I4" s="137"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>16</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>1</v>
@@ -2681,7 +2696,7 @@
         <v>3</v>
       </c>
       <c r="H5" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I5" s="8" t="s">
         <v>4</v>
@@ -2692,13 +2707,13 @@
         <v>1</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E6" s="12">
         <v>10</v>
@@ -2710,10 +2725,10 @@
         <v>13</v>
       </c>
       <c r="H6" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.4">
@@ -2721,13 +2736,13 @@
         <v>2</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E7" s="2">
         <v>100</v>
@@ -2737,10 +2752,10 @@
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.4">
@@ -2748,13 +2763,13 @@
         <v>3</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E8" s="12">
         <v>500</v>
@@ -2764,10 +2779,10 @@
       </c>
       <c r="G8" s="12"/>
       <c r="H8" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
@@ -2775,13 +2790,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E9" s="2">
         <v>10</v>
@@ -2791,10 +2806,10 @@
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.4">
@@ -2802,13 +2817,13 @@
         <v>5</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E10" s="12">
         <v>50</v>
@@ -2818,37 +2833,37 @@
       </c>
       <c r="G10" s="12"/>
       <c r="H10" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A11" s="104">
+        <v>6</v>
+      </c>
+      <c r="B11" s="105" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="85" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="85" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="85">
+        <v>11</v>
+      </c>
+      <c r="F11" s="85" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="85"/>
+      <c r="H11" s="106" t="s">
+        <v>45</v>
+      </c>
+      <c r="I11" s="107" t="s">
         <v>46</v>
-      </c>
-      <c r="I10" s="13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A11" s="5">
-        <v>6</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E11" s="2">
-        <v>11</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.4">
@@ -2856,13 +2871,13 @@
         <v>7</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E12" s="12">
         <v>500</v>
@@ -2872,10 +2887,10 @@
       </c>
       <c r="G12" s="12"/>
       <c r="H12" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.4">
@@ -2883,13 +2898,13 @@
         <v>8</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
@@ -2897,10 +2912,10 @@
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.4">
@@ -2908,13 +2923,13 @@
         <v>9</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E14" s="12">
         <v>1</v>
@@ -2924,10 +2939,10 @@
       </c>
       <c r="G14" s="12"/>
       <c r="H14" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I14" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.4">
@@ -2935,24 +2950,24 @@
         <v>10</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="58" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I15" s="59" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.4">
@@ -2960,21 +2975,21 @@
         <v>11</v>
       </c>
       <c r="B16" s="74" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C16" s="74" t="s">
+        <v>344</v>
+      </c>
+      <c r="D16" s="74" t="s">
         <v>345</v>
-      </c>
-      <c r="D16" s="74" t="s">
-        <v>346</v>
       </c>
       <c r="E16" s="74"/>
       <c r="F16" s="74" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G16" s="74"/>
       <c r="H16" s="75" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I16" s="76"/>
     </row>
@@ -2983,13 +2998,13 @@
         <v>12</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E17" s="3">
         <v>1</v>
@@ -3002,7 +3017,7 @@
         <v>6</v>
       </c>
       <c r="I17" s="59" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.4">
@@ -3010,13 +3025,13 @@
         <v>13</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E18" s="11">
         <v>500</v>
@@ -3026,10 +3041,10 @@
       </c>
       <c r="G18" s="11"/>
       <c r="H18" s="78" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I18" s="79" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.4">
@@ -3037,13 +3052,13 @@
         <v>14</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E19" s="65">
         <v>11</v>
@@ -3053,10 +3068,10 @@
       </c>
       <c r="G19" s="66"/>
       <c r="H19" s="67" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I19" s="68" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.4">
@@ -3064,13 +3079,13 @@
         <v>15</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E20" s="11">
         <v>1</v>
@@ -3083,7 +3098,7 @@
         <v>5</v>
       </c>
       <c r="I20" s="79" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -3091,13 +3106,13 @@
         <v>16</v>
       </c>
       <c r="B21" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="27" t="s">
         <v>42</v>
-      </c>
-      <c r="C21" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" s="27" t="s">
-        <v>43</v>
       </c>
       <c r="E21" s="27"/>
       <c r="F21" s="27" t="s">
@@ -3105,37 +3120,37 @@
       </c>
       <c r="G21" s="70"/>
       <c r="H21" s="71" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I21" s="72" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="24" spans="1:9" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="108" t="s">
-        <v>271</v>
-      </c>
-      <c r="B24" s="109"/>
-      <c r="C24" s="109"/>
-      <c r="D24" s="109"/>
-      <c r="E24" s="109"/>
-      <c r="F24" s="109"/>
-      <c r="G24" s="110" t="s">
-        <v>54</v>
-      </c>
-      <c r="H24" s="110"/>
-      <c r="I24" s="111"/>
+      <c r="A24" s="122" t="s">
+        <v>270</v>
+      </c>
+      <c r="B24" s="123"/>
+      <c r="C24" s="123"/>
+      <c r="D24" s="123"/>
+      <c r="E24" s="123"/>
+      <c r="F24" s="123"/>
+      <c r="G24" s="124" t="s">
+        <v>53</v>
+      </c>
+      <c r="H24" s="124"/>
+      <c r="I24" s="125"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B25" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="18" t="s">
         <v>15</v>
-      </c>
-      <c r="C25" s="18" t="s">
-        <v>16</v>
       </c>
       <c r="D25" s="18" t="s">
         <v>1</v>
@@ -3150,7 +3165,7 @@
         <v>3</v>
       </c>
       <c r="H25" s="24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I25" s="19" t="s">
         <v>4</v>
@@ -3161,13 +3176,13 @@
         <v>1</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E26" s="12">
         <v>10</v>
@@ -3180,7 +3195,7 @@
       </c>
       <c r="H26" s="22"/>
       <c r="I26" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.4">
@@ -3188,13 +3203,13 @@
         <v>2</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E27" s="2">
         <v>10</v>
@@ -3203,11 +3218,11 @@
         <v>5</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H27" s="4"/>
       <c r="I27" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -3215,13 +3230,13 @@
         <v>3</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E28" s="15">
         <v>10</v>
@@ -3230,38 +3245,38 @@
         <v>5</v>
       </c>
       <c r="G28" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H28" s="25"/>
       <c r="I28" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="31" spans="1:9" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="108" t="s">
-        <v>272</v>
-      </c>
-      <c r="B31" s="109"/>
-      <c r="C31" s="109"/>
-      <c r="D31" s="109"/>
-      <c r="E31" s="109"/>
-      <c r="F31" s="109"/>
-      <c r="G31" s="110" t="s">
-        <v>66</v>
-      </c>
-      <c r="H31" s="110"/>
-      <c r="I31" s="111"/>
+      <c r="A31" s="122" t="s">
+        <v>271</v>
+      </c>
+      <c r="B31" s="123"/>
+      <c r="C31" s="123"/>
+      <c r="D31" s="123"/>
+      <c r="E31" s="123"/>
+      <c r="F31" s="123"/>
+      <c r="G31" s="124" t="s">
+        <v>65</v>
+      </c>
+      <c r="H31" s="124"/>
+      <c r="I31" s="125"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A32" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B32" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>16</v>
       </c>
       <c r="D32" s="7" t="s">
         <v>1</v>
@@ -3276,7 +3291,7 @@
         <v>3</v>
       </c>
       <c r="H32" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I32" s="8" t="s">
         <v>4</v>
@@ -3287,13 +3302,13 @@
         <v>1</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E33" s="12">
         <v>10</v>
@@ -3305,10 +3320,10 @@
         <v>13</v>
       </c>
       <c r="H33" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I33" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.4">
@@ -3316,13 +3331,13 @@
         <v>2</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E34" s="2">
         <v>10</v>
@@ -3331,13 +3346,13 @@
         <v>5</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I34" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.4">
@@ -3345,13 +3360,13 @@
         <v>3</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E35" s="12">
         <v>10</v>
@@ -3360,13 +3375,13 @@
         <v>5</v>
       </c>
       <c r="G35" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H35" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I35" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.4">
@@ -3374,13 +3389,13 @@
         <v>4</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E36" s="2">
         <v>1000</v>
@@ -3390,10 +3405,10 @@
       </c>
       <c r="G36" s="2"/>
       <c r="H36" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I36" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.4">
@@ -3401,13 +3416,13 @@
         <v>5</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E37" s="12">
         <v>1</v>
@@ -3420,7 +3435,7 @@
         <v>5</v>
       </c>
       <c r="I37" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.4">
@@ -3428,13 +3443,13 @@
         <v>6</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E38" s="2">
         <v>10</v>
@@ -3444,10 +3459,10 @@
       </c>
       <c r="G38" s="2"/>
       <c r="H38" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I38" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.4">
@@ -3455,13 +3470,13 @@
         <v>7</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E39" s="12"/>
       <c r="F39" s="12" t="s">
@@ -3469,62 +3484,62 @@
       </c>
       <c r="G39" s="12"/>
       <c r="H39" s="22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I39" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="131">
+      <c r="A40" s="117">
         <v>8</v>
       </c>
-      <c r="B40" s="132" t="s">
-        <v>77</v>
-      </c>
-      <c r="C40" s="133" t="s">
-        <v>72</v>
-      </c>
-      <c r="D40" s="133" t="s">
-        <v>43</v>
-      </c>
-      <c r="E40" s="133"/>
-      <c r="F40" s="133" t="s">
+      <c r="B40" s="118" t="s">
+        <v>76</v>
+      </c>
+      <c r="C40" s="119" t="s">
+        <v>71</v>
+      </c>
+      <c r="D40" s="119" t="s">
+        <v>42</v>
+      </c>
+      <c r="E40" s="119"/>
+      <c r="F40" s="119" t="s">
         <v>6</v>
       </c>
-      <c r="G40" s="133"/>
-      <c r="H40" s="134" t="s">
-        <v>79</v>
-      </c>
-      <c r="I40" s="135" t="s">
-        <v>53</v>
+      <c r="G40" s="119"/>
+      <c r="H40" s="120" t="s">
+        <v>78</v>
+      </c>
+      <c r="I40" s="121" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="43" spans="1:9" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="108" t="s">
-        <v>273</v>
-      </c>
-      <c r="B43" s="109"/>
-      <c r="C43" s="109"/>
-      <c r="D43" s="109"/>
-      <c r="E43" s="109"/>
-      <c r="F43" s="109"/>
-      <c r="G43" s="110" t="s">
-        <v>86</v>
-      </c>
-      <c r="H43" s="110"/>
-      <c r="I43" s="111"/>
+      <c r="A43" s="122" t="s">
+        <v>272</v>
+      </c>
+      <c r="B43" s="123"/>
+      <c r="C43" s="123"/>
+      <c r="D43" s="123"/>
+      <c r="E43" s="123"/>
+      <c r="F43" s="123"/>
+      <c r="G43" s="124" t="s">
+        <v>85</v>
+      </c>
+      <c r="H43" s="124"/>
+      <c r="I43" s="125"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A44" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B44" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>16</v>
       </c>
       <c r="D44" s="7" t="s">
         <v>1</v>
@@ -3539,7 +3554,7 @@
         <v>3</v>
       </c>
       <c r="H44" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I44" s="8" t="s">
         <v>4</v>
@@ -3550,13 +3565,13 @@
         <v>1</v>
       </c>
       <c r="B45" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C45" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="C45" s="12" t="s">
-        <v>88</v>
-      </c>
       <c r="D45" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E45" s="12">
         <v>10</v>
@@ -3568,10 +3583,10 @@
         <v>13</v>
       </c>
       <c r="H45" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I45" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.4">
@@ -3579,13 +3594,13 @@
         <v>2</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E46" s="2">
         <v>10</v>
@@ -3594,13 +3609,13 @@
         <v>5</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I46" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.4">
@@ -3608,13 +3623,13 @@
         <v>3</v>
       </c>
       <c r="B47" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C47" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="C47" s="12" t="s">
-        <v>90</v>
-      </c>
       <c r="D47" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E47" s="12">
         <v>10</v>
@@ -3623,13 +3638,13 @@
         <v>5</v>
       </c>
       <c r="G47" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H47" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I47" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.4">
@@ -3637,13 +3652,13 @@
         <v>4</v>
       </c>
       <c r="B48" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="D48" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E48" s="2">
         <v>10</v>
@@ -3652,13 +3667,13 @@
         <v>5</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I48" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.4">
@@ -3666,26 +3681,26 @@
         <v>5</v>
       </c>
       <c r="B49" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C49" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="C49" s="12" t="s">
-        <v>94</v>
-      </c>
       <c r="D49" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E49" s="12"/>
       <c r="F49" s="12" t="s">
         <v>5</v>
       </c>
       <c r="G49" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H49" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I49" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.4">
@@ -3693,13 +3708,13 @@
         <v>6</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E50" s="2">
         <v>10</v>
@@ -3708,13 +3723,13 @@
         <v>6</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I50" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.4">
@@ -3722,13 +3737,13 @@
         <v>7</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E51" s="12">
         <v>10</v>
@@ -3737,13 +3752,13 @@
         <v>6</v>
       </c>
       <c r="G51" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H51" s="22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I51" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.4">
@@ -3751,13 +3766,13 @@
         <v>8</v>
       </c>
       <c r="B52" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="D52" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E52" s="2">
         <v>10</v>
@@ -3766,13 +3781,13 @@
         <v>5</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I52" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -3780,13 +3795,13 @@
         <v>9</v>
       </c>
       <c r="B53" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="C53" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="C53" s="15" t="s">
-        <v>101</v>
-      </c>
       <c r="D53" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E53" s="15">
         <v>1</v>
@@ -3795,40 +3810,40 @@
         <v>5</v>
       </c>
       <c r="G53" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H53" s="25" t="s">
         <v>5</v>
       </c>
       <c r="I53" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="56" spans="1:9" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A56" s="108" t="s">
-        <v>274</v>
-      </c>
-      <c r="B56" s="109"/>
-      <c r="C56" s="109"/>
-      <c r="D56" s="109"/>
-      <c r="E56" s="109"/>
-      <c r="F56" s="109"/>
-      <c r="G56" s="110" t="s">
-        <v>105</v>
-      </c>
-      <c r="H56" s="110"/>
-      <c r="I56" s="111"/>
+      <c r="A56" s="122" t="s">
+        <v>273</v>
+      </c>
+      <c r="B56" s="123"/>
+      <c r="C56" s="123"/>
+      <c r="D56" s="123"/>
+      <c r="E56" s="123"/>
+      <c r="F56" s="123"/>
+      <c r="G56" s="124" t="s">
+        <v>104</v>
+      </c>
+      <c r="H56" s="124"/>
+      <c r="I56" s="125"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A57" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B57" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C57" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>16</v>
       </c>
       <c r="D57" s="7" t="s">
         <v>1</v>
@@ -3843,7 +3858,7 @@
         <v>3</v>
       </c>
       <c r="H57" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I57" s="8" t="s">
         <v>4</v>
@@ -3854,13 +3869,13 @@
         <v>1</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E58" s="12">
         <v>10</v>
@@ -3869,13 +3884,13 @@
         <v>5</v>
       </c>
       <c r="G58" s="12" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H58" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I58" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.4">
@@ -3883,13 +3898,13 @@
         <v>2</v>
       </c>
       <c r="B59" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C59" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="D59" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E59" s="2">
         <v>50</v>
@@ -3898,13 +3913,13 @@
         <v>5</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I59" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.4">
@@ -3912,13 +3927,13 @@
         <v>3</v>
       </c>
       <c r="B60" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C60" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="C60" s="12" t="s">
-        <v>109</v>
-      </c>
       <c r="D60" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E60" s="12">
         <v>100</v>
@@ -3927,13 +3942,13 @@
         <v>5</v>
       </c>
       <c r="G60" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H60" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I60" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.4">
@@ -3941,10 +3956,10 @@
         <v>4</v>
       </c>
       <c r="B61" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>8</v>
@@ -3956,13 +3971,13 @@
         <v>5</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I61" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.4">
@@ -3970,26 +3985,26 @@
         <v>5</v>
       </c>
       <c r="B62" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C62" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="C62" s="12" t="s">
-        <v>113</v>
-      </c>
       <c r="D62" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E62" s="12"/>
       <c r="F62" s="12" t="s">
         <v>5</v>
       </c>
       <c r="G62" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H62" s="22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I62" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.4">
@@ -3997,10 +4012,10 @@
         <v>6</v>
       </c>
       <c r="B63" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C63" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>8</v>
@@ -4012,13 +4027,13 @@
         <v>5</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I63" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.4">
@@ -4026,10 +4041,10 @@
         <v>7</v>
       </c>
       <c r="B64" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="C64" s="12" t="s">
         <v>117</v>
-      </c>
-      <c r="C64" s="12" t="s">
-        <v>118</v>
       </c>
       <c r="D64" s="12" t="s">
         <v>8</v>
@@ -4041,13 +4056,13 @@
         <v>5</v>
       </c>
       <c r="G64" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H64" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I64" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.4">
@@ -4055,10 +4070,10 @@
         <v>8</v>
       </c>
       <c r="B65" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C65" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>121</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>8</v>
@@ -4070,13 +4085,13 @@
         <v>5</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I65" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.4">
@@ -4084,28 +4099,28 @@
         <v>9</v>
       </c>
       <c r="B66" s="74" t="s">
+        <v>121</v>
+      </c>
+      <c r="C66" s="101" t="s">
         <v>122</v>
       </c>
-      <c r="C66" s="101" t="s">
-        <v>123</v>
-      </c>
       <c r="D66" s="101" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E66" s="101">
         <v>11</v>
       </c>
       <c r="F66" s="101" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G66" s="101" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H66" s="102" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I66" s="103" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.4">
@@ -4113,28 +4128,28 @@
         <v>10</v>
       </c>
       <c r="B67" s="105" t="s">
+        <v>123</v>
+      </c>
+      <c r="C67" s="85" t="s">
         <v>124</v>
       </c>
-      <c r="C67" s="85" t="s">
-        <v>125</v>
-      </c>
       <c r="D67" s="85" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E67" s="85">
         <v>11</v>
       </c>
       <c r="F67" s="85" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G67" s="85" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H67" s="106" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I67" s="107" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.4">
@@ -4142,26 +4157,26 @@
         <v>11</v>
       </c>
       <c r="B68" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C68" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="C68" s="12" t="s">
-        <v>127</v>
-      </c>
       <c r="D68" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E68" s="12"/>
       <c r="F68" s="12" t="s">
         <v>6</v>
       </c>
       <c r="G68" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H68" s="22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I68" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.4">
@@ -4169,10 +4184,10 @@
         <v>12</v>
       </c>
       <c r="B69" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C69" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>8</v>
@@ -4184,69 +4199,69 @@
         <v>6</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I69" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A70" s="122">
+      <c r="A70" s="108">
         <v>13</v>
       </c>
-      <c r="B70" s="123" t="s">
+      <c r="B70" s="109" t="s">
+        <v>129</v>
+      </c>
+      <c r="C70" s="109" t="s">
         <v>130</v>
       </c>
-      <c r="C70" s="123" t="s">
+      <c r="D70" s="109" t="s">
+        <v>42</v>
+      </c>
+      <c r="E70" s="110"/>
+      <c r="F70" s="109" t="s">
+        <v>6</v>
+      </c>
+      <c r="G70" s="111" t="s">
+        <v>45</v>
+      </c>
+      <c r="H70" s="112" t="s">
+        <v>78</v>
+      </c>
+      <c r="I70" s="113" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A71" s="108">
+        <v>14</v>
+      </c>
+      <c r="B71" s="109" t="s">
         <v>131</v>
       </c>
-      <c r="D70" s="123" t="s">
-        <v>43</v>
-      </c>
-      <c r="E70" s="124"/>
-      <c r="F70" s="123" t="s">
+      <c r="C71" s="109" t="s">
+        <v>132</v>
+      </c>
+      <c r="D71" s="109" t="s">
+        <v>60</v>
+      </c>
+      <c r="E71" s="109">
+        <v>50</v>
+      </c>
+      <c r="F71" s="109" t="s">
         <v>6</v>
       </c>
-      <c r="G70" s="125" t="s">
-        <v>46</v>
-      </c>
-      <c r="H70" s="126" t="s">
-        <v>79</v>
-      </c>
-      <c r="I70" s="127" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A71" s="122">
-        <v>14</v>
-      </c>
-      <c r="B71" s="123" t="s">
-        <v>132</v>
-      </c>
-      <c r="C71" s="123" t="s">
-        <v>133</v>
-      </c>
-      <c r="D71" s="123" t="s">
-        <v>61</v>
-      </c>
-      <c r="E71" s="123">
-        <v>50</v>
-      </c>
-      <c r="F71" s="123" t="s">
-        <v>6</v>
-      </c>
-      <c r="G71" s="125" t="s">
-        <v>46</v>
-      </c>
-      <c r="H71" s="126" t="s">
-        <v>46</v>
-      </c>
-      <c r="I71" s="128" t="s">
-        <v>46</v>
+      <c r="G71" s="111" t="s">
+        <v>45</v>
+      </c>
+      <c r="H71" s="112" t="s">
+        <v>45</v>
+      </c>
+      <c r="I71" s="114" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -4254,13 +4269,13 @@
         <v>15</v>
       </c>
       <c r="B72" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="C72" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="C72" s="15" t="s">
-        <v>135</v>
-      </c>
       <c r="D72" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E72" s="15">
         <v>10</v>
@@ -4269,40 +4284,40 @@
         <v>5</v>
       </c>
       <c r="G72" s="56" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H72" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I72" s="16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="75" spans="1:9" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A75" s="108" t="s">
-        <v>275</v>
-      </c>
-      <c r="B75" s="109"/>
-      <c r="C75" s="109"/>
-      <c r="D75" s="109"/>
-      <c r="E75" s="109"/>
-      <c r="F75" s="109"/>
-      <c r="G75" s="110" t="s">
-        <v>200</v>
-      </c>
-      <c r="H75" s="110"/>
-      <c r="I75" s="111"/>
+      <c r="A75" s="122" t="s">
+        <v>274</v>
+      </c>
+      <c r="B75" s="123"/>
+      <c r="C75" s="123"/>
+      <c r="D75" s="123"/>
+      <c r="E75" s="123"/>
+      <c r="F75" s="123"/>
+      <c r="G75" s="124" t="s">
+        <v>199</v>
+      </c>
+      <c r="H75" s="124"/>
+      <c r="I75" s="125"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A76" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B76" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C76" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="C76" s="7" t="s">
-        <v>16</v>
       </c>
       <c r="D76" s="7" t="s">
         <v>1</v>
@@ -4317,7 +4332,7 @@
         <v>3</v>
       </c>
       <c r="H76" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I76" s="8" t="s">
         <v>4</v>
@@ -4328,13 +4343,13 @@
         <v>1</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D77" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E77" s="12">
         <v>10</v>
@@ -4346,10 +4361,10 @@
         <v>13</v>
       </c>
       <c r="H77" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I77" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.4">
@@ -4357,13 +4372,13 @@
         <v>2</v>
       </c>
       <c r="B78" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C78" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C78" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="D78" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E78" s="2">
         <v>10</v>
@@ -4372,13 +4387,13 @@
         <v>5</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I78" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -4386,10 +4401,10 @@
         <v>3</v>
       </c>
       <c r="B79" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="C79" s="15" t="s">
         <v>138</v>
-      </c>
-      <c r="C79" s="15" t="s">
-        <v>139</v>
       </c>
       <c r="D79" s="15" t="s">
         <v>8</v>
@@ -4401,40 +4416,40 @@
         <v>5</v>
       </c>
       <c r="G79" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H79" s="25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I79" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="82" spans="1:9" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A82" s="108" t="s">
-        <v>276</v>
-      </c>
-      <c r="B82" s="109"/>
-      <c r="C82" s="109"/>
-      <c r="D82" s="109"/>
-      <c r="E82" s="109"/>
-      <c r="F82" s="109"/>
-      <c r="G82" s="110" t="s">
-        <v>140</v>
-      </c>
-      <c r="H82" s="110"/>
-      <c r="I82" s="111"/>
+      <c r="A82" s="122" t="s">
+        <v>275</v>
+      </c>
+      <c r="B82" s="123"/>
+      <c r="C82" s="123"/>
+      <c r="D82" s="123"/>
+      <c r="E82" s="123"/>
+      <c r="F82" s="123"/>
+      <c r="G82" s="124" t="s">
+        <v>139</v>
+      </c>
+      <c r="H82" s="124"/>
+      <c r="I82" s="125"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A83" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B83" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C83" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="C83" s="7" t="s">
-        <v>16</v>
       </c>
       <c r="D83" s="7" t="s">
         <v>1</v>
@@ -4449,7 +4464,7 @@
         <v>3</v>
       </c>
       <c r="H83" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I83" s="8" t="s">
         <v>4</v>
@@ -4460,13 +4475,13 @@
         <v>1</v>
       </c>
       <c r="B84" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="C84" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="C84" s="12" t="s">
-        <v>142</v>
-      </c>
       <c r="D84" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E84" s="12">
         <v>10</v>
@@ -4478,10 +4493,10 @@
         <v>13</v>
       </c>
       <c r="H84" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I84" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.4">
@@ -4489,13 +4504,13 @@
         <v>2</v>
       </c>
       <c r="B85" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C85" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C85" s="2" t="s">
-        <v>144</v>
-      </c>
       <c r="D85" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E85" s="2">
         <v>500</v>
@@ -4504,13 +4519,13 @@
         <v>5</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I85" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.4">
@@ -4518,10 +4533,10 @@
         <v>3</v>
       </c>
       <c r="B86" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="C86" s="12" t="s">
         <v>145</v>
-      </c>
-      <c r="C86" s="12" t="s">
-        <v>146</v>
       </c>
       <c r="D86" s="12" t="s">
         <v>8</v>
@@ -4533,13 +4548,13 @@
         <v>5</v>
       </c>
       <c r="G86" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H86" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I86" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -4547,13 +4562,13 @@
         <v>4</v>
       </c>
       <c r="B87" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="C87" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="C87" s="28" t="s">
-        <v>149</v>
-      </c>
       <c r="D87" s="28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E87" s="28">
         <v>3</v>
@@ -4562,13 +4577,13 @@
         <v>5</v>
       </c>
       <c r="G87" s="28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H87" s="29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I87" s="30" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.4">
@@ -4576,13 +4591,13 @@
         <v>5</v>
       </c>
       <c r="B88" s="96" t="s">
+        <v>359</v>
+      </c>
+      <c r="C88" s="97" t="s">
         <v>360</v>
       </c>
-      <c r="C88" s="97" t="s">
-        <v>361</v>
-      </c>
       <c r="D88" s="97" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E88" s="97">
         <v>3000</v>
@@ -4607,29 +4622,29 @@
     </row>
     <row r="91" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="92" spans="1:9" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A92" s="108" t="s">
-        <v>277</v>
-      </c>
-      <c r="B92" s="109"/>
-      <c r="C92" s="109"/>
-      <c r="D92" s="109"/>
-      <c r="E92" s="109"/>
-      <c r="F92" s="109"/>
-      <c r="G92" s="110" t="s">
-        <v>151</v>
-      </c>
-      <c r="H92" s="110"/>
-      <c r="I92" s="111"/>
+      <c r="A92" s="122" t="s">
+        <v>276</v>
+      </c>
+      <c r="B92" s="123"/>
+      <c r="C92" s="123"/>
+      <c r="D92" s="123"/>
+      <c r="E92" s="123"/>
+      <c r="F92" s="123"/>
+      <c r="G92" s="124" t="s">
+        <v>150</v>
+      </c>
+      <c r="H92" s="124"/>
+      <c r="I92" s="125"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A93" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B93" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C93" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="C93" s="7" t="s">
-        <v>16</v>
       </c>
       <c r="D93" s="7" t="s">
         <v>1</v>
@@ -4641,10 +4656,10 @@
         <v>12</v>
       </c>
       <c r="G93" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H93" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I93" s="8" t="s">
         <v>4</v>
@@ -4655,13 +4670,13 @@
         <v>1</v>
       </c>
       <c r="B94" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C94" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="C94" s="12" t="s">
-        <v>90</v>
-      </c>
       <c r="D94" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E94" s="12">
         <v>10</v>
@@ -4673,10 +4688,10 @@
         <v>13</v>
       </c>
       <c r="H94" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I94" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.4">
@@ -4684,13 +4699,13 @@
         <v>2</v>
       </c>
       <c r="B95" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D95" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="E95" s="2">
         <v>10</v>
@@ -4699,13 +4714,13 @@
         <v>5</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H95" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I95" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.4">
@@ -4713,13 +4728,13 @@
         <v>3</v>
       </c>
       <c r="B96" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="C96" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="C96" s="12" t="s">
-        <v>142</v>
-      </c>
       <c r="D96" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E96" s="12">
         <v>10</v>
@@ -4728,13 +4743,13 @@
         <v>5</v>
       </c>
       <c r="G96" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H96" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I96" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.4">
@@ -4742,26 +4757,26 @@
         <v>4</v>
       </c>
       <c r="B97" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C97" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C97" s="2" t="s">
-        <v>154</v>
-      </c>
       <c r="D97" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H97" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I97" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.4">
@@ -4769,26 +4784,26 @@
         <v>5</v>
       </c>
       <c r="B98" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="C98" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="C98" s="12" t="s">
-        <v>156</v>
-      </c>
       <c r="D98" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E98" s="12"/>
       <c r="F98" s="12" t="s">
         <v>5</v>
       </c>
       <c r="G98" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H98" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I98" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.4">
@@ -4796,26 +4811,26 @@
         <v>6</v>
       </c>
       <c r="B99" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C99" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C99" s="2" t="s">
-        <v>158</v>
-      </c>
       <c r="D99" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" s="2" t="s">
         <v>6</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H99" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I99" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.4">
@@ -4823,10 +4838,10 @@
         <v>7</v>
       </c>
       <c r="B100" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="C100" s="12" t="s">
         <v>159</v>
-      </c>
-      <c r="C100" s="12" t="s">
-        <v>160</v>
       </c>
       <c r="D100" s="12" t="s">
         <v>8</v>
@@ -4838,96 +4853,96 @@
         <v>6</v>
       </c>
       <c r="G100" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H100" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I100" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A101" s="122">
+      <c r="A101" s="108">
         <v>8</v>
       </c>
-      <c r="B101" s="129" t="s">
+      <c r="B101" s="115" t="s">
+        <v>160</v>
+      </c>
+      <c r="C101" s="109" t="s">
         <v>161</v>
       </c>
-      <c r="C101" s="123" t="s">
+      <c r="D101" s="109" t="s">
+        <v>42</v>
+      </c>
+      <c r="E101" s="109"/>
+      <c r="F101" s="109" t="s">
+        <v>6</v>
+      </c>
+      <c r="G101" s="109" t="s">
+        <v>45</v>
+      </c>
+      <c r="H101" s="116" t="s">
+        <v>78</v>
+      </c>
+      <c r="I101" s="114" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A102" s="117">
+        <v>9</v>
+      </c>
+      <c r="B102" s="118" t="s">
         <v>162</v>
       </c>
-      <c r="D101" s="123" t="s">
-        <v>43</v>
-      </c>
-      <c r="E101" s="123"/>
-      <c r="F101" s="123" t="s">
+      <c r="C102" s="119" t="s">
+        <v>163</v>
+      </c>
+      <c r="D102" s="119" t="s">
+        <v>8</v>
+      </c>
+      <c r="E102" s="119">
+        <v>50</v>
+      </c>
+      <c r="F102" s="119" t="s">
         <v>6</v>
       </c>
-      <c r="G101" s="123" t="s">
-        <v>46</v>
-      </c>
-      <c r="H101" s="130" t="s">
-        <v>79</v>
-      </c>
-      <c r="I101" s="128" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A102" s="131">
-        <v>9</v>
-      </c>
-      <c r="B102" s="132" t="s">
-        <v>163</v>
-      </c>
-      <c r="C102" s="133" t="s">
-        <v>164</v>
-      </c>
-      <c r="D102" s="133" t="s">
-        <v>8</v>
-      </c>
-      <c r="E102" s="133">
-        <v>50</v>
-      </c>
-      <c r="F102" s="133" t="s">
-        <v>6</v>
-      </c>
-      <c r="G102" s="133" t="s">
-        <v>46</v>
-      </c>
-      <c r="H102" s="134" t="s">
-        <v>46</v>
-      </c>
-      <c r="I102" s="135" t="s">
-        <v>46</v>
+      <c r="G102" s="119" t="s">
+        <v>45</v>
+      </c>
+      <c r="H102" s="120" t="s">
+        <v>45</v>
+      </c>
+      <c r="I102" s="121" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="105" spans="1:9" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A105" s="108" t="s">
-        <v>278</v>
-      </c>
-      <c r="B105" s="109"/>
-      <c r="C105" s="109"/>
-      <c r="D105" s="109"/>
-      <c r="E105" s="109"/>
-      <c r="F105" s="109"/>
-      <c r="G105" s="110" t="s">
-        <v>165</v>
-      </c>
-      <c r="H105" s="110"/>
-      <c r="I105" s="111"/>
+      <c r="A105" s="122" t="s">
+        <v>277</v>
+      </c>
+      <c r="B105" s="123"/>
+      <c r="C105" s="123"/>
+      <c r="D105" s="123"/>
+      <c r="E105" s="123"/>
+      <c r="F105" s="123"/>
+      <c r="G105" s="124" t="s">
+        <v>164</v>
+      </c>
+      <c r="H105" s="124"/>
+      <c r="I105" s="125"/>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A106" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B106" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C106" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="C106" s="7" t="s">
-        <v>16</v>
       </c>
       <c r="D106" s="7" t="s">
         <v>1</v>
@@ -4939,10 +4954,10 @@
         <v>12</v>
       </c>
       <c r="G106" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H106" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I106" s="8" t="s">
         <v>4</v>
@@ -4953,13 +4968,13 @@
         <v>1</v>
       </c>
       <c r="B107" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C107" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="C107" s="12" t="s">
-        <v>92</v>
-      </c>
       <c r="D107" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E107" s="12">
         <v>10</v>
@@ -4971,10 +4986,10 @@
         <v>13</v>
       </c>
       <c r="H107" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I107" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.4">
@@ -4982,10 +4997,10 @@
         <v>2</v>
       </c>
       <c r="B108" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C108" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>167</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>8</v>
@@ -4997,13 +5012,13 @@
         <v>5</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H108" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I108" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.4">
@@ -5011,10 +5026,10 @@
         <v>3</v>
       </c>
       <c r="B109" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="C109" s="12" t="s">
         <v>169</v>
-      </c>
-      <c r="C109" s="12" t="s">
-        <v>170</v>
       </c>
       <c r="D109" s="12" t="s">
         <v>8</v>
@@ -5026,13 +5041,13 @@
         <v>5</v>
       </c>
       <c r="G109" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H109" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I109" s="13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.4">
@@ -5040,13 +5055,13 @@
         <v>4</v>
       </c>
       <c r="B110" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C110" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C110" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="D110" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E110" s="2">
         <v>10</v>
@@ -5055,13 +5070,13 @@
         <v>5</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H110" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I110" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.4">
@@ -5069,13 +5084,13 @@
         <v>5</v>
       </c>
       <c r="B111" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="C111" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="C111" s="12" t="s">
-        <v>173</v>
-      </c>
       <c r="D111" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E111" s="12">
         <v>10</v>
@@ -5084,13 +5099,13 @@
         <v>5</v>
       </c>
       <c r="G111" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H111" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I111" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="112" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -5098,13 +5113,13 @@
         <v>6</v>
       </c>
       <c r="B112" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="C112" s="28" t="s">
         <v>174</v>
       </c>
-      <c r="C112" s="28" t="s">
-        <v>175</v>
-      </c>
       <c r="D112" s="28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E112" s="28">
         <v>10</v>
@@ -5113,40 +5128,40 @@
         <v>5</v>
       </c>
       <c r="G112" s="28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H112" s="29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I112" s="30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="115" spans="1:9" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A115" s="108" t="s">
-        <v>279</v>
-      </c>
-      <c r="B115" s="109"/>
-      <c r="C115" s="109"/>
-      <c r="D115" s="109"/>
-      <c r="E115" s="109"/>
-      <c r="F115" s="109"/>
-      <c r="G115" s="110" t="s">
-        <v>176</v>
-      </c>
-      <c r="H115" s="110"/>
-      <c r="I115" s="111"/>
+      <c r="A115" s="122" t="s">
+        <v>278</v>
+      </c>
+      <c r="B115" s="123"/>
+      <c r="C115" s="123"/>
+      <c r="D115" s="123"/>
+      <c r="E115" s="123"/>
+      <c r="F115" s="123"/>
+      <c r="G115" s="124" t="s">
+        <v>175</v>
+      </c>
+      <c r="H115" s="124"/>
+      <c r="I115" s="125"/>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A116" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B116" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C116" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="C116" s="7" t="s">
-        <v>16</v>
       </c>
       <c r="D116" s="7" t="s">
         <v>1</v>
@@ -5158,10 +5173,10 @@
         <v>12</v>
       </c>
       <c r="G116" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H116" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I116" s="8" t="s">
         <v>4</v>
@@ -5172,13 +5187,13 @@
         <v>1</v>
       </c>
       <c r="B117" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="C117" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="C117" s="12" t="s">
-        <v>178</v>
-      </c>
       <c r="D117" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E117" s="12">
         <v>4</v>
@@ -5190,10 +5205,10 @@
         <v>13</v>
       </c>
       <c r="H117" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I117" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.4">
@@ -5201,13 +5216,13 @@
         <v>2</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E118" s="2">
         <v>10</v>
@@ -5216,13 +5231,13 @@
         <v>5</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H118" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I118" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.4">
@@ -5230,10 +5245,10 @@
         <v>3</v>
       </c>
       <c r="B119" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="C119" s="12" t="s">
         <v>180</v>
-      </c>
-      <c r="C119" s="12" t="s">
-        <v>181</v>
       </c>
       <c r="D119" s="12" t="s">
         <v>8</v>
@@ -5245,13 +5260,13 @@
         <v>6</v>
       </c>
       <c r="G119" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H119" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I119" s="13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -5259,10 +5274,10 @@
         <v>4</v>
       </c>
       <c r="B120" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="C120" s="28" t="s">
         <v>183</v>
-      </c>
-      <c r="C120" s="28" t="s">
-        <v>184</v>
       </c>
       <c r="D120" s="28" t="s">
         <v>8</v>
@@ -5274,40 +5289,40 @@
         <v>6</v>
       </c>
       <c r="G120" s="28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H120" s="29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I120" s="30" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="122" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="123" spans="1:9" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A123" s="108" t="s">
-        <v>359</v>
-      </c>
-      <c r="B123" s="109"/>
-      <c r="C123" s="109"/>
-      <c r="D123" s="109"/>
-      <c r="E123" s="109"/>
-      <c r="F123" s="109"/>
-      <c r="G123" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="H123" s="110"/>
-      <c r="I123" s="111"/>
+      <c r="A123" s="122" t="s">
+        <v>358</v>
+      </c>
+      <c r="B123" s="123"/>
+      <c r="C123" s="123"/>
+      <c r="D123" s="123"/>
+      <c r="E123" s="123"/>
+      <c r="F123" s="123"/>
+      <c r="G123" s="124" t="s">
+        <v>197</v>
+      </c>
+      <c r="H123" s="124"/>
+      <c r="I123" s="125"/>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A124" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B124" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C124" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="C124" s="7" t="s">
-        <v>16</v>
       </c>
       <c r="D124" s="7" t="s">
         <v>1</v>
@@ -5322,7 +5337,7 @@
         <v>3</v>
       </c>
       <c r="H124" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I124" s="8" t="s">
         <v>4</v>
@@ -5333,13 +5348,13 @@
         <v>1</v>
       </c>
       <c r="B125" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C125" s="12" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D125" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E125" s="12">
         <v>4</v>
@@ -5351,10 +5366,10 @@
         <v>13</v>
       </c>
       <c r="H125" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I125" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.4">
@@ -5362,13 +5377,13 @@
         <v>2</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E126" s="2">
         <v>10</v>
@@ -5377,13 +5392,13 @@
         <v>5</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H126" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I126" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.4">
@@ -5391,13 +5406,13 @@
         <v>3</v>
       </c>
       <c r="B127" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C127" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="C127" s="12" t="s">
-        <v>88</v>
-      </c>
       <c r="D127" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E127" s="12">
         <v>4</v>
@@ -5406,13 +5421,13 @@
         <v>5</v>
       </c>
       <c r="G127" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H127" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I127" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.4">
@@ -5420,10 +5435,10 @@
         <v>4</v>
       </c>
       <c r="B128" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C128" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>188</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>8</v>
@@ -5435,13 +5450,13 @@
         <v>6</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H128" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I128" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.4">
@@ -5449,10 +5464,10 @@
         <v>5</v>
       </c>
       <c r="B129" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="C129" s="12" t="s">
         <v>189</v>
-      </c>
-      <c r="C129" s="12" t="s">
-        <v>190</v>
       </c>
       <c r="D129" s="12" t="s">
         <v>8</v>
@@ -5464,13 +5479,13 @@
         <v>6</v>
       </c>
       <c r="G129" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H129" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I129" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.4">
@@ -5478,26 +5493,26 @@
         <v>6</v>
       </c>
       <c r="B130" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C130" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C130" s="2" t="s">
-        <v>192</v>
-      </c>
       <c r="D130" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E130" s="2"/>
       <c r="F130" s="2" t="s">
         <v>6</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H130" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I130" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.4">
@@ -5505,26 +5520,26 @@
         <v>7</v>
       </c>
       <c r="B131" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="C131" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="C131" s="12" t="s">
-        <v>194</v>
-      </c>
       <c r="D131" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E131" s="12"/>
       <c r="F131" s="12" t="s">
         <v>6</v>
       </c>
       <c r="G131" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H131" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I131" s="13" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="132" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -5532,13 +5547,13 @@
         <v>8</v>
       </c>
       <c r="B132" s="27" t="s">
+        <v>194</v>
+      </c>
+      <c r="C132" s="28" t="s">
         <v>195</v>
       </c>
-      <c r="C132" s="28" t="s">
-        <v>196</v>
-      </c>
       <c r="D132" s="28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E132" s="28">
         <v>1</v>
@@ -5547,40 +5562,40 @@
         <v>5</v>
       </c>
       <c r="G132" s="28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H132" s="29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I132" s="30" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="134" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="135" spans="1:9" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A135" s="115" t="s">
-        <v>280</v>
-      </c>
-      <c r="B135" s="116"/>
-      <c r="C135" s="116"/>
-      <c r="D135" s="116"/>
-      <c r="E135" s="116"/>
-      <c r="F135" s="116"/>
-      <c r="G135" s="117" t="s">
-        <v>201</v>
-      </c>
-      <c r="H135" s="117"/>
-      <c r="I135" s="118"/>
+      <c r="A135" s="129" t="s">
+        <v>279</v>
+      </c>
+      <c r="B135" s="130"/>
+      <c r="C135" s="130"/>
+      <c r="D135" s="130"/>
+      <c r="E135" s="130"/>
+      <c r="F135" s="130"/>
+      <c r="G135" s="131" t="s">
+        <v>200</v>
+      </c>
+      <c r="H135" s="131"/>
+      <c r="I135" s="132"/>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A136" s="60" t="s">
         <v>0</v>
       </c>
       <c r="B136" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="C136" s="61" t="s">
         <v>15</v>
-      </c>
-      <c r="C136" s="61" t="s">
-        <v>16</v>
       </c>
       <c r="D136" s="61" t="s">
         <v>1</v>
@@ -5595,7 +5610,7 @@
         <v>3</v>
       </c>
       <c r="H136" s="61" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I136" s="62" t="s">
         <v>4</v>
@@ -5606,13 +5621,13 @@
         <v>1</v>
       </c>
       <c r="B137" s="42" t="s">
+        <v>201</v>
+      </c>
+      <c r="C137" s="41" t="s">
         <v>202</v>
       </c>
-      <c r="C137" s="41" t="s">
-        <v>203</v>
-      </c>
       <c r="D137" s="41" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E137" s="41">
         <v>4</v>
@@ -5624,10 +5639,10 @@
         <v>13</v>
       </c>
       <c r="H137" s="41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I137" s="63" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.4">
@@ -5635,13 +5650,13 @@
         <v>2</v>
       </c>
       <c r="B138" s="44" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C138" s="43" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D138" s="43" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E138" s="43">
         <v>4</v>
@@ -5650,13 +5665,13 @@
         <v>5</v>
       </c>
       <c r="G138" s="43" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H138" s="43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I138" s="64" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.4">
@@ -5664,10 +5679,10 @@
         <v>3</v>
       </c>
       <c r="B139" s="42" t="s">
+        <v>203</v>
+      </c>
+      <c r="C139" s="41" t="s">
         <v>204</v>
-      </c>
-      <c r="C139" s="41" t="s">
-        <v>205</v>
       </c>
       <c r="D139" s="41" t="s">
         <v>8</v>
@@ -5679,13 +5694,13 @@
         <v>5</v>
       </c>
       <c r="G139" s="41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H139" s="41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I139" s="63" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.4">
@@ -5693,10 +5708,10 @@
         <v>4</v>
       </c>
       <c r="B140" s="44" t="s">
+        <v>205</v>
+      </c>
+      <c r="C140" s="43" t="s">
         <v>206</v>
-      </c>
-      <c r="C140" s="43" t="s">
-        <v>207</v>
       </c>
       <c r="D140" s="43" t="s">
         <v>8</v>
@@ -5708,13 +5723,13 @@
         <v>5</v>
       </c>
       <c r="G140" s="43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H140" s="43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I140" s="64" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.4">
@@ -5722,13 +5737,13 @@
         <v>5</v>
       </c>
       <c r="B141" s="42" t="s">
+        <v>207</v>
+      </c>
+      <c r="C141" s="41" t="s">
         <v>208</v>
       </c>
-      <c r="C141" s="41" t="s">
-        <v>209</v>
-      </c>
       <c r="D141" s="41" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E141" s="41">
         <v>1000</v>
@@ -5737,13 +5752,13 @@
         <v>6</v>
       </c>
       <c r="G141" s="41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H141" s="41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I141" s="63" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.4">
@@ -5751,26 +5766,26 @@
         <v>6</v>
       </c>
       <c r="B142" s="83" t="s">
+        <v>348</v>
+      </c>
+      <c r="C142" s="84" t="s">
         <v>349</v>
       </c>
-      <c r="C142" s="84" t="s">
-        <v>350</v>
-      </c>
       <c r="D142" s="85" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E142" s="84"/>
       <c r="F142" s="84" t="s">
         <v>5</v>
       </c>
       <c r="G142" s="84" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H142" s="84" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I142" s="86" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.4">
@@ -5778,13 +5793,13 @@
         <v>7</v>
       </c>
       <c r="B143" s="88" t="s">
+        <v>353</v>
+      </c>
+      <c r="C143" s="89" t="s">
         <v>354</v>
       </c>
-      <c r="C143" s="89" t="s">
-        <v>355</v>
-      </c>
       <c r="D143" s="85" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E143" s="89"/>
       <c r="F143" s="89" t="s">
@@ -5799,24 +5814,24 @@
         <v>8</v>
       </c>
       <c r="B144" s="83" t="s">
+        <v>350</v>
+      </c>
+      <c r="C144" s="84" t="s">
         <v>351</v>
       </c>
-      <c r="C144" s="84" t="s">
-        <v>352</v>
-      </c>
       <c r="D144" s="84" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E144" s="84"/>
       <c r="F144" s="84" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G144" s="84"/>
       <c r="H144" s="84" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I144" s="86" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="145" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -5824,13 +5839,13 @@
         <v>9</v>
       </c>
       <c r="B145" s="92" t="s">
+        <v>294</v>
+      </c>
+      <c r="C145" s="93" t="s">
         <v>295</v>
       </c>
-      <c r="C145" s="93" t="s">
-        <v>296</v>
-      </c>
       <c r="D145" s="93" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E145" s="93">
         <v>4</v>
@@ -5839,36 +5854,36 @@
         <v>5</v>
       </c>
       <c r="G145" s="93" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H145" s="93"/>
       <c r="I145" s="94"/>
     </row>
     <row r="147" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="148" spans="1:9" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A148" s="108" t="s">
-        <v>281</v>
-      </c>
-      <c r="B148" s="109"/>
-      <c r="C148" s="109"/>
-      <c r="D148" s="109"/>
-      <c r="E148" s="109"/>
-      <c r="F148" s="109"/>
-      <c r="G148" s="110" t="s">
-        <v>210</v>
-      </c>
-      <c r="H148" s="110"/>
-      <c r="I148" s="111"/>
+      <c r="A148" s="122" t="s">
+        <v>280</v>
+      </c>
+      <c r="B148" s="123"/>
+      <c r="C148" s="123"/>
+      <c r="D148" s="123"/>
+      <c r="E148" s="123"/>
+      <c r="F148" s="123"/>
+      <c r="G148" s="124" t="s">
+        <v>209</v>
+      </c>
+      <c r="H148" s="124"/>
+      <c r="I148" s="125"/>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A149" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B149" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C149" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="C149" s="7" t="s">
-        <v>16</v>
       </c>
       <c r="D149" s="7" t="s">
         <v>1</v>
@@ -5880,10 +5895,10 @@
         <v>12</v>
       </c>
       <c r="G149" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H149" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I149" s="8" t="s">
         <v>4</v>
@@ -5894,13 +5909,13 @@
         <v>1</v>
       </c>
       <c r="B150" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="C150" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="C150" s="12" t="s">
-        <v>212</v>
-      </c>
       <c r="D150" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E150" s="12">
         <v>4</v>
@@ -5912,10 +5927,10 @@
         <v>13</v>
       </c>
       <c r="H150" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I150" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.4">
@@ -5923,10 +5938,10 @@
         <v>2</v>
       </c>
       <c r="B151" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C151" s="2" t="s">
         <v>213</v>
-      </c>
-      <c r="C151" s="2" t="s">
-        <v>214</v>
       </c>
       <c r="D151" s="2" t="s">
         <v>8</v>
@@ -5938,13 +5953,13 @@
         <v>5</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H151" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I151" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.4">
@@ -5952,10 +5967,10 @@
         <v>3</v>
       </c>
       <c r="B152" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="C152" s="12" t="s">
         <v>215</v>
-      </c>
-      <c r="C152" s="12" t="s">
-        <v>216</v>
       </c>
       <c r="D152" s="12" t="s">
         <v>8</v>
@@ -5967,13 +5982,13 @@
         <v>5</v>
       </c>
       <c r="G152" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H152" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I152" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.4">
@@ -5981,10 +5996,10 @@
         <v>4</v>
       </c>
       <c r="B153" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C153" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>218</v>
       </c>
       <c r="D153" s="2" t="s">
         <v>8</v>
@@ -5996,13 +6011,13 @@
         <v>6</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H153" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I153" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.4">
@@ -6010,26 +6025,26 @@
         <v>5</v>
       </c>
       <c r="B154" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="C154" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="C154" s="12" t="s">
-        <v>220</v>
-      </c>
       <c r="D154" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E154" s="12"/>
       <c r="F154" s="12" t="s">
         <v>6</v>
       </c>
       <c r="G154" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H154" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I154" s="13" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.4">
@@ -6037,10 +6052,10 @@
         <v>6</v>
       </c>
       <c r="B155" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C155" s="2" t="s">
         <v>221</v>
-      </c>
-      <c r="C155" s="2" t="s">
-        <v>222</v>
       </c>
       <c r="D155" s="2" t="s">
         <v>8</v>
@@ -6052,69 +6067,69 @@
         <v>6</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H155" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I155" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A156" s="122">
+      <c r="A156" s="108">
         <v>7</v>
       </c>
-      <c r="B156" s="129" t="s">
+      <c r="B156" s="115" t="s">
+        <v>222</v>
+      </c>
+      <c r="C156" s="109" t="s">
         <v>223</v>
       </c>
-      <c r="C156" s="123" t="s">
+      <c r="D156" s="109" t="s">
+        <v>42</v>
+      </c>
+      <c r="E156" s="109"/>
+      <c r="F156" s="109" t="s">
+        <v>6</v>
+      </c>
+      <c r="G156" s="109" t="s">
+        <v>45</v>
+      </c>
+      <c r="H156" s="116" t="s">
+        <v>45</v>
+      </c>
+      <c r="I156" s="114" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A157" s="108">
+        <v>8</v>
+      </c>
+      <c r="B157" s="115" t="s">
         <v>224</v>
       </c>
-      <c r="D156" s="123" t="s">
-        <v>43</v>
-      </c>
-      <c r="E156" s="123"/>
-      <c r="F156" s="123" t="s">
+      <c r="C157" s="109" t="s">
+        <v>225</v>
+      </c>
+      <c r="D157" s="109" t="s">
+        <v>8</v>
+      </c>
+      <c r="E157" s="109">
+        <v>100</v>
+      </c>
+      <c r="F157" s="109" t="s">
         <v>6</v>
       </c>
-      <c r="G156" s="123" t="s">
-        <v>46</v>
-      </c>
-      <c r="H156" s="130" t="s">
-        <v>46</v>
-      </c>
-      <c r="I156" s="128" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A157" s="122">
-        <v>8</v>
-      </c>
-      <c r="B157" s="129" t="s">
-        <v>225</v>
-      </c>
-      <c r="C157" s="123" t="s">
-        <v>226</v>
-      </c>
-      <c r="D157" s="123" t="s">
-        <v>8</v>
-      </c>
-      <c r="E157" s="123">
-        <v>100</v>
-      </c>
-      <c r="F157" s="123" t="s">
-        <v>6</v>
-      </c>
-      <c r="G157" s="123" t="s">
-        <v>46</v>
-      </c>
-      <c r="H157" s="130" t="s">
-        <v>46</v>
-      </c>
-      <c r="I157" s="128" t="s">
-        <v>46</v>
+      <c r="G157" s="109" t="s">
+        <v>45</v>
+      </c>
+      <c r="H157" s="116" t="s">
+        <v>45</v>
+      </c>
+      <c r="I157" s="114" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="158" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -6122,13 +6137,13 @@
         <v>9</v>
       </c>
       <c r="B158" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="C158" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="C158" s="15" t="s">
-        <v>228</v>
-      </c>
       <c r="D158" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E158" s="15">
         <v>1</v>
@@ -6137,40 +6152,40 @@
         <v>5</v>
       </c>
       <c r="G158" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H158" s="25" t="s">
         <v>6</v>
       </c>
       <c r="I158" s="16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="160" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="161" spans="1:9" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A161" s="108" t="s">
-        <v>282</v>
-      </c>
-      <c r="B161" s="109"/>
-      <c r="C161" s="109"/>
-      <c r="D161" s="109"/>
-      <c r="E161" s="109"/>
-      <c r="F161" s="109"/>
-      <c r="G161" s="110" t="s">
-        <v>229</v>
-      </c>
-      <c r="H161" s="110"/>
-      <c r="I161" s="111"/>
+      <c r="A161" s="122" t="s">
+        <v>281</v>
+      </c>
+      <c r="B161" s="123"/>
+      <c r="C161" s="123"/>
+      <c r="D161" s="123"/>
+      <c r="E161" s="123"/>
+      <c r="F161" s="123"/>
+      <c r="G161" s="124" t="s">
+        <v>228</v>
+      </c>
+      <c r="H161" s="124"/>
+      <c r="I161" s="125"/>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A162" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B162" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C162" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="C162" s="7" t="s">
-        <v>16</v>
       </c>
       <c r="D162" s="7" t="s">
         <v>1</v>
@@ -6185,7 +6200,7 @@
         <v>3</v>
       </c>
       <c r="H162" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I162" s="8" t="s">
         <v>4</v>
@@ -6196,13 +6211,13 @@
         <v>1</v>
       </c>
       <c r="B163" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="C163" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="C163" s="12" t="s">
-        <v>173</v>
-      </c>
       <c r="D163" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E163" s="12">
         <v>10</v>
@@ -6214,10 +6229,10 @@
         <v>13</v>
       </c>
       <c r="H163" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I163" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.4">
@@ -6225,10 +6240,10 @@
         <v>2</v>
       </c>
       <c r="B164" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C164" s="2" t="s">
         <v>230</v>
-      </c>
-      <c r="C164" s="2" t="s">
-        <v>231</v>
       </c>
       <c r="D164" s="2" t="s">
         <v>8</v>
@@ -6240,13 +6255,13 @@
         <v>5</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H164" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I164" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="165" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -6254,13 +6269,13 @@
         <v>3</v>
       </c>
       <c r="B165" s="20" t="s">
+        <v>231</v>
+      </c>
+      <c r="C165" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="C165" s="15" t="s">
-        <v>233</v>
-      </c>
       <c r="D165" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E165" s="15">
         <v>2</v>
@@ -6269,40 +6284,40 @@
         <v>5</v>
       </c>
       <c r="G165" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H165" s="25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I165" s="16" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="167" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="168" spans="1:9" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A168" s="108" t="s">
-        <v>283</v>
-      </c>
-      <c r="B168" s="109"/>
-      <c r="C168" s="109"/>
-      <c r="D168" s="109"/>
-      <c r="E168" s="109"/>
-      <c r="F168" s="109"/>
-      <c r="G168" s="110" t="s">
-        <v>235</v>
-      </c>
-      <c r="H168" s="110"/>
-      <c r="I168" s="111"/>
+      <c r="A168" s="122" t="s">
+        <v>282</v>
+      </c>
+      <c r="B168" s="123"/>
+      <c r="C168" s="123"/>
+      <c r="D168" s="123"/>
+      <c r="E168" s="123"/>
+      <c r="F168" s="123"/>
+      <c r="G168" s="124" t="s">
+        <v>234</v>
+      </c>
+      <c r="H168" s="124"/>
+      <c r="I168" s="125"/>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A169" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B169" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C169" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="C169" s="7" t="s">
-        <v>16</v>
       </c>
       <c r="D169" s="7" t="s">
         <v>1</v>
@@ -6314,10 +6329,10 @@
         <v>12</v>
       </c>
       <c r="G169" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H169" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I169" s="8" t="s">
         <v>4</v>
@@ -6328,13 +6343,13 @@
         <v>1</v>
       </c>
       <c r="B170" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="C170" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="C170" s="12" t="s">
-        <v>237</v>
-      </c>
       <c r="D170" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E170" s="2">
         <v>4</v>
@@ -6346,10 +6361,10 @@
         <v>13</v>
       </c>
       <c r="H170" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I170" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.4">
@@ -6357,10 +6372,10 @@
         <v>2</v>
       </c>
       <c r="B171" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C171" s="2" t="s">
         <v>238</v>
-      </c>
-      <c r="C171" s="2" t="s">
-        <v>239</v>
       </c>
       <c r="D171" s="2" t="s">
         <v>8</v>
@@ -6372,13 +6387,13 @@
         <v>5</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H171" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I171" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.4">
@@ -6386,10 +6401,10 @@
         <v>3</v>
       </c>
       <c r="B172" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="C172" s="12" t="s">
         <v>240</v>
-      </c>
-      <c r="C172" s="12" t="s">
-        <v>241</v>
       </c>
       <c r="D172" s="12" t="s">
         <v>8</v>
@@ -6401,13 +6416,13 @@
         <v>5</v>
       </c>
       <c r="G172" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H172" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I172" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.4">
@@ -6415,10 +6430,10 @@
         <v>4</v>
       </c>
       <c r="B173" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C173" s="2" t="s">
         <v>242</v>
-      </c>
-      <c r="C173" s="2" t="s">
-        <v>243</v>
       </c>
       <c r="D173" s="2" t="s">
         <v>8</v>
@@ -6430,13 +6445,13 @@
         <v>6</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H173" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I173" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.4">
@@ -6444,26 +6459,26 @@
         <v>5</v>
       </c>
       <c r="B174" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="C174" s="12" t="s">
         <v>244</v>
       </c>
-      <c r="C174" s="12" t="s">
-        <v>245</v>
-      </c>
       <c r="D174" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E174" s="12"/>
       <c r="F174" s="12" t="s">
         <v>6</v>
       </c>
       <c r="G174" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H174" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I174" s="13" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.4">
@@ -6471,10 +6486,10 @@
         <v>6</v>
       </c>
       <c r="B175" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C175" s="2" t="s">
         <v>246</v>
-      </c>
-      <c r="C175" s="2" t="s">
-        <v>247</v>
       </c>
       <c r="D175" s="2" t="s">
         <v>8</v>
@@ -6486,69 +6501,69 @@
         <v>6</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H175" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I175" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A176" s="122">
+      <c r="A176" s="108">
         <v>7</v>
       </c>
-      <c r="B176" s="129" t="s">
+      <c r="B176" s="115" t="s">
+        <v>247</v>
+      </c>
+      <c r="C176" s="109" t="s">
         <v>248</v>
       </c>
-      <c r="C176" s="123" t="s">
+      <c r="D176" s="109" t="s">
+        <v>42</v>
+      </c>
+      <c r="E176" s="109"/>
+      <c r="F176" s="109" t="s">
+        <v>6</v>
+      </c>
+      <c r="G176" s="109" t="s">
+        <v>45</v>
+      </c>
+      <c r="H176" s="116" t="s">
+        <v>45</v>
+      </c>
+      <c r="I176" s="114" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A177" s="108">
+        <v>8</v>
+      </c>
+      <c r="B177" s="115" t="s">
         <v>249</v>
       </c>
-      <c r="D176" s="123" t="s">
-        <v>43</v>
-      </c>
-      <c r="E176" s="123"/>
-      <c r="F176" s="123" t="s">
+      <c r="C177" s="109" t="s">
+        <v>250</v>
+      </c>
+      <c r="D177" s="109" t="s">
+        <v>8</v>
+      </c>
+      <c r="E177" s="109">
+        <v>100</v>
+      </c>
+      <c r="F177" s="109" t="s">
         <v>6</v>
       </c>
-      <c r="G176" s="123" t="s">
-        <v>46</v>
-      </c>
-      <c r="H176" s="130" t="s">
-        <v>46</v>
-      </c>
-      <c r="I176" s="128" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A177" s="122">
-        <v>8</v>
-      </c>
-      <c r="B177" s="129" t="s">
-        <v>250</v>
-      </c>
-      <c r="C177" s="123" t="s">
-        <v>251</v>
-      </c>
-      <c r="D177" s="123" t="s">
-        <v>8</v>
-      </c>
-      <c r="E177" s="123">
-        <v>100</v>
-      </c>
-      <c r="F177" s="123" t="s">
-        <v>6</v>
-      </c>
-      <c r="G177" s="123" t="s">
-        <v>46</v>
-      </c>
-      <c r="H177" s="130" t="s">
-        <v>46</v>
-      </c>
-      <c r="I177" s="128" t="s">
-        <v>46</v>
+      <c r="G177" s="109" t="s">
+        <v>45</v>
+      </c>
+      <c r="H177" s="116" t="s">
+        <v>45</v>
+      </c>
+      <c r="I177" s="114" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="178" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -6556,13 +6571,13 @@
         <v>9</v>
       </c>
       <c r="B178" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="C178" s="15" t="s">
         <v>252</v>
       </c>
-      <c r="C178" s="15" t="s">
-        <v>253</v>
-      </c>
       <c r="D178" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E178" s="15">
         <v>1</v>
@@ -6571,40 +6586,40 @@
         <v>5</v>
       </c>
       <c r="G178" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H178" s="25" t="s">
         <v>6</v>
       </c>
       <c r="I178" s="16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="180" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="181" spans="1:9" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A181" s="108" t="s">
-        <v>284</v>
-      </c>
-      <c r="B181" s="109"/>
-      <c r="C181" s="109"/>
-      <c r="D181" s="109"/>
-      <c r="E181" s="109"/>
-      <c r="F181" s="109"/>
-      <c r="G181" s="110" t="s">
-        <v>255</v>
-      </c>
-      <c r="H181" s="110"/>
-      <c r="I181" s="111"/>
+      <c r="A181" s="122" t="s">
+        <v>283</v>
+      </c>
+      <c r="B181" s="123"/>
+      <c r="C181" s="123"/>
+      <c r="D181" s="123"/>
+      <c r="E181" s="123"/>
+      <c r="F181" s="123"/>
+      <c r="G181" s="124" t="s">
+        <v>254</v>
+      </c>
+      <c r="H181" s="124"/>
+      <c r="I181" s="125"/>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A182" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B182" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C182" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="C182" s="7" t="s">
-        <v>16</v>
       </c>
       <c r="D182" s="7" t="s">
         <v>1</v>
@@ -6616,10 +6631,10 @@
         <v>12</v>
       </c>
       <c r="G182" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H182" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I182" s="8" t="s">
         <v>4</v>
@@ -6630,13 +6645,13 @@
         <v>1</v>
       </c>
       <c r="B183" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="C183" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="C183" s="12" t="s">
-        <v>257</v>
-      </c>
       <c r="D183" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E183" s="12">
         <v>4</v>
@@ -6648,10 +6663,10 @@
         <v>13</v>
       </c>
       <c r="H183" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I183" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.4">
@@ -6659,22 +6674,22 @@
         <v>2</v>
       </c>
       <c r="B184" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="C184" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="C184" s="2" t="s">
-        <v>268</v>
-      </c>
       <c r="D184" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E184" s="2">
         <v>10</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H184" s="4"/>
       <c r="I184" s="9"/>
@@ -6684,10 +6699,10 @@
         <v>3</v>
       </c>
       <c r="B185" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="C185" s="12" t="s">
         <v>258</v>
-      </c>
-      <c r="C185" s="12" t="s">
-        <v>259</v>
       </c>
       <c r="D185" s="12" t="s">
         <v>8</v>
@@ -6699,13 +6714,13 @@
         <v>6</v>
       </c>
       <c r="G185" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H185" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I185" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.4">
@@ -6713,26 +6728,26 @@
         <v>4</v>
       </c>
       <c r="B186" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="C186" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="C186" s="2" t="s">
-        <v>262</v>
-      </c>
       <c r="D186" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E186" s="2"/>
       <c r="F186" s="2" t="s">
         <v>6</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H186" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I186" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.4">
@@ -6740,26 +6755,26 @@
         <v>5</v>
       </c>
       <c r="B187" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="C187" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="C187" s="12" t="s">
-        <v>264</v>
-      </c>
       <c r="D187" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E187" s="12"/>
       <c r="F187" s="12" t="s">
         <v>6</v>
       </c>
       <c r="G187" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H187" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I187" s="13" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="188" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -6767,13 +6782,13 @@
         <v>6</v>
       </c>
       <c r="B188" s="27" t="s">
+        <v>264</v>
+      </c>
+      <c r="C188" s="28" t="s">
         <v>265</v>
       </c>
-      <c r="C188" s="28" t="s">
-        <v>266</v>
-      </c>
       <c r="D188" s="28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E188" s="28">
         <v>2</v>
@@ -6782,40 +6797,40 @@
         <v>5</v>
       </c>
       <c r="G188" s="28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H188" s="29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I188" s="30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="190" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="191" spans="1:9" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A191" s="108" t="s">
+      <c r="A191" s="122" t="s">
+        <v>285</v>
+      </c>
+      <c r="B191" s="123"/>
+      <c r="C191" s="123"/>
+      <c r="D191" s="123"/>
+      <c r="E191" s="123"/>
+      <c r="F191" s="123"/>
+      <c r="G191" s="124" t="s">
         <v>286</v>
       </c>
-      <c r="B191" s="109"/>
-      <c r="C191" s="109"/>
-      <c r="D191" s="109"/>
-      <c r="E191" s="109"/>
-      <c r="F191" s="109"/>
-      <c r="G191" s="110" t="s">
-        <v>287</v>
-      </c>
-      <c r="H191" s="110"/>
-      <c r="I191" s="111"/>
+      <c r="H191" s="124"/>
+      <c r="I191" s="125"/>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A192" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B192" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C192" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="C192" s="7" t="s">
-        <v>16</v>
       </c>
       <c r="D192" s="7" t="s">
         <v>1</v>
@@ -6827,10 +6842,10 @@
         <v>12</v>
       </c>
       <c r="G192" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H192" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I192" s="8" t="s">
         <v>4</v>
@@ -6841,13 +6856,13 @@
         <v>1</v>
       </c>
       <c r="B193" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="C193" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="C193" s="12" t="s">
-        <v>175</v>
-      </c>
       <c r="D193" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E193" s="12">
         <v>10</v>
@@ -6859,10 +6874,10 @@
         <v>13</v>
       </c>
       <c r="H193" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I193" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.4">
@@ -6870,10 +6885,10 @@
         <v>2</v>
       </c>
       <c r="B194" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C194" s="2" t="s">
         <v>288</v>
-      </c>
-      <c r="C194" s="2" t="s">
-        <v>289</v>
       </c>
       <c r="D194" s="2" t="s">
         <v>8</v>
@@ -6885,13 +6900,13 @@
         <v>5</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H194" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I194" s="9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="195" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -6899,13 +6914,13 @@
         <v>3</v>
       </c>
       <c r="B195" s="20" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C195" s="15" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D195" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E195" s="15">
         <v>2</v>
@@ -6914,40 +6929,40 @@
         <v>5</v>
       </c>
       <c r="G195" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H195" s="25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I195" s="16" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="197" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="198" spans="1:9" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A198" s="108" t="s">
+      <c r="A198" s="122" t="s">
+        <v>292</v>
+      </c>
+      <c r="B198" s="123"/>
+      <c r="C198" s="123"/>
+      <c r="D198" s="123"/>
+      <c r="E198" s="123"/>
+      <c r="F198" s="123"/>
+      <c r="G198" s="124" t="s">
         <v>293</v>
       </c>
-      <c r="B198" s="109"/>
-      <c r="C198" s="109"/>
-      <c r="D198" s="109"/>
-      <c r="E198" s="109"/>
-      <c r="F198" s="109"/>
-      <c r="G198" s="110" t="s">
-        <v>294</v>
-      </c>
-      <c r="H198" s="110"/>
-      <c r="I198" s="111"/>
+      <c r="H198" s="124"/>
+      <c r="I198" s="125"/>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A199" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B199" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C199" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="C199" s="7" t="s">
-        <v>16</v>
       </c>
       <c r="D199" s="7" t="s">
         <v>1</v>
@@ -6959,10 +6974,10 @@
         <v>12</v>
       </c>
       <c r="G199" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H199" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I199" s="8" t="s">
         <v>4</v>
@@ -6973,13 +6988,13 @@
         <v>1</v>
       </c>
       <c r="B200" s="11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C200" s="12" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D200" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E200" s="12">
         <v>4</v>
@@ -6991,10 +7006,10 @@
         <v>13</v>
       </c>
       <c r="H200" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I200" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.4">
@@ -7002,10 +7017,10 @@
         <v>2</v>
       </c>
       <c r="B201" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="C201" s="2" t="s">
         <v>297</v>
-      </c>
-      <c r="C201" s="2" t="s">
-        <v>298</v>
       </c>
       <c r="D201" s="2" t="s">
         <v>8</v>
@@ -7017,13 +7032,13 @@
         <v>5</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H201" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I201" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.4">
@@ -7031,10 +7046,10 @@
         <v>3</v>
       </c>
       <c r="B202" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="C202" s="12" t="s">
         <v>299</v>
-      </c>
-      <c r="C202" s="12" t="s">
-        <v>300</v>
       </c>
       <c r="D202" s="12" t="s">
         <v>8</v>
@@ -7046,13 +7061,13 @@
         <v>5</v>
       </c>
       <c r="G202" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H202" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I202" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.4">
@@ -7060,10 +7075,10 @@
         <v>4</v>
       </c>
       <c r="B203" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="C203" s="2" t="s">
         <v>301</v>
-      </c>
-      <c r="C203" s="2" t="s">
-        <v>302</v>
       </c>
       <c r="D203" s="2" t="s">
         <v>8</v>
@@ -7075,13 +7090,13 @@
         <v>5</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H203" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I203" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="204" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -7089,10 +7104,10 @@
         <v>5</v>
       </c>
       <c r="B204" s="20" t="s">
+        <v>302</v>
+      </c>
+      <c r="C204" s="15" t="s">
         <v>303</v>
-      </c>
-      <c r="C204" s="15" t="s">
-        <v>304</v>
       </c>
       <c r="D204" s="15" t="s">
         <v>8</v>
@@ -7104,29 +7119,29 @@
         <v>6</v>
       </c>
       <c r="G204" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H204" s="25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I204" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="206" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="207" spans="1:9" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A207" s="120" t="s">
+      <c r="A207" s="127" t="s">
+        <v>304</v>
+      </c>
+      <c r="B207" s="128"/>
+      <c r="C207" s="45" t="s">
         <v>305</v>
-      </c>
-      <c r="B207" s="121"/>
-      <c r="C207" s="45" t="s">
-        <v>306</v>
       </c>
       <c r="D207" s="39"/>
       <c r="E207" s="35"/>
       <c r="F207" s="35"/>
-      <c r="G207" s="119"/>
-      <c r="H207" s="119"/>
+      <c r="G207" s="126"/>
+      <c r="H207" s="126"/>
       <c r="I207" s="31"/>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.4">
@@ -7134,10 +7149,10 @@
         <v>0</v>
       </c>
       <c r="B208" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="C208" s="47" t="s">
         <v>15</v>
-      </c>
-      <c r="C208" s="47" t="s">
-        <v>16</v>
       </c>
       <c r="D208" s="32"/>
       <c r="E208" s="32"/>
@@ -7151,10 +7166,10 @@
         <v>1</v>
       </c>
       <c r="B209" s="42" t="s">
+        <v>306</v>
+      </c>
+      <c r="C209" s="49" t="s">
         <v>307</v>
-      </c>
-      <c r="C209" s="49" t="s">
-        <v>308</v>
       </c>
       <c r="D209" s="36"/>
       <c r="E209" s="36"/>
@@ -7168,10 +7183,10 @@
         <v>2</v>
       </c>
       <c r="B210" s="44" t="s">
+        <v>308</v>
+      </c>
+      <c r="C210" s="51" t="s">
         <v>309</v>
-      </c>
-      <c r="C210" s="51" t="s">
-        <v>310</v>
       </c>
       <c r="D210" s="36"/>
       <c r="E210" s="36"/>
@@ -7185,10 +7200,10 @@
         <v>3</v>
       </c>
       <c r="B211" s="42" t="s">
+        <v>310</v>
+      </c>
+      <c r="C211" s="49" t="s">
         <v>311</v>
-      </c>
-      <c r="C211" s="49" t="s">
-        <v>312</v>
       </c>
       <c r="D211" s="36"/>
       <c r="E211" s="36"/>
@@ -7202,10 +7217,10 @@
         <v>4</v>
       </c>
       <c r="B212" s="44" t="s">
+        <v>312</v>
+      </c>
+      <c r="C212" s="51" t="s">
         <v>313</v>
-      </c>
-      <c r="C212" s="51" t="s">
-        <v>314</v>
       </c>
       <c r="D212" s="36"/>
       <c r="E212" s="36"/>
@@ -7219,10 +7234,10 @@
         <v>5</v>
       </c>
       <c r="B213" s="42" t="s">
+        <v>314</v>
+      </c>
+      <c r="C213" s="49" t="s">
         <v>315</v>
-      </c>
-      <c r="C213" s="49" t="s">
-        <v>316</v>
       </c>
       <c r="D213" s="36"/>
       <c r="E213" s="36"/>
@@ -7236,10 +7251,10 @@
         <v>6</v>
       </c>
       <c r="B214" s="44" t="s">
+        <v>316</v>
+      </c>
+      <c r="C214" s="51" t="s">
         <v>317</v>
-      </c>
-      <c r="C214" s="51" t="s">
-        <v>318</v>
       </c>
       <c r="D214" s="36"/>
       <c r="E214" s="36"/>
@@ -7253,10 +7268,10 @@
         <v>7</v>
       </c>
       <c r="B215" s="42" t="s">
+        <v>318</v>
+      </c>
+      <c r="C215" s="49" t="s">
         <v>319</v>
-      </c>
-      <c r="C215" s="49" t="s">
-        <v>320</v>
       </c>
       <c r="D215" s="36"/>
       <c r="E215" s="36"/>
@@ -7270,10 +7285,10 @@
         <v>8</v>
       </c>
       <c r="B216" s="44" t="s">
+        <v>320</v>
+      </c>
+      <c r="C216" s="51" t="s">
         <v>321</v>
-      </c>
-      <c r="C216" s="51" t="s">
-        <v>322</v>
       </c>
       <c r="D216" s="36"/>
       <c r="E216" s="36"/>
@@ -7287,10 +7302,10 @@
         <v>9</v>
       </c>
       <c r="B217" s="42" t="s">
+        <v>322</v>
+      </c>
+      <c r="C217" s="49" t="s">
         <v>323</v>
-      </c>
-      <c r="C217" s="49" t="s">
-        <v>324</v>
       </c>
       <c r="D217" s="36"/>
       <c r="E217" s="36"/>
@@ -7304,10 +7319,10 @@
         <v>10</v>
       </c>
       <c r="B218" s="44" t="s">
+        <v>324</v>
+      </c>
+      <c r="C218" s="51" t="s">
         <v>325</v>
-      </c>
-      <c r="C218" s="51" t="s">
-        <v>326</v>
       </c>
       <c r="D218" s="36"/>
       <c r="E218" s="36"/>
@@ -7321,10 +7336,10 @@
         <v>11</v>
       </c>
       <c r="B219" s="42" t="s">
+        <v>326</v>
+      </c>
+      <c r="C219" s="49" t="s">
         <v>327</v>
-      </c>
-      <c r="C219" s="49" t="s">
-        <v>328</v>
       </c>
       <c r="D219" s="36"/>
       <c r="E219" s="36"/>
@@ -7338,10 +7353,10 @@
         <v>12</v>
       </c>
       <c r="B220" s="44" t="s">
+        <v>328</v>
+      </c>
+      <c r="C220" s="51" t="s">
         <v>329</v>
-      </c>
-      <c r="C220" s="51" t="s">
-        <v>330</v>
       </c>
       <c r="D220" s="36"/>
       <c r="E220" s="36"/>
@@ -7355,10 +7370,10 @@
         <v>13</v>
       </c>
       <c r="B221" s="41" t="s">
+        <v>330</v>
+      </c>
+      <c r="C221" s="49" t="s">
         <v>331</v>
-      </c>
-      <c r="C221" s="49" t="s">
-        <v>332</v>
       </c>
       <c r="D221" s="36"/>
       <c r="E221" s="37"/>
@@ -7372,10 +7387,10 @@
         <v>14</v>
       </c>
       <c r="B222" s="43" t="s">
+        <v>332</v>
+      </c>
+      <c r="C222" s="51" t="s">
         <v>333</v>
-      </c>
-      <c r="C222" s="51" t="s">
-        <v>334</v>
       </c>
       <c r="D222" s="36"/>
       <c r="E222" s="36"/>
@@ -7389,10 +7404,10 @@
         <v>15</v>
       </c>
       <c r="B223" s="41" t="s">
+        <v>334</v>
+      </c>
+      <c r="C223" s="49" t="s">
         <v>335</v>
-      </c>
-      <c r="C223" s="49" t="s">
-        <v>336</v>
       </c>
       <c r="D223" s="36"/>
       <c r="E223" s="36"/>
@@ -7406,10 +7421,10 @@
         <v>12</v>
       </c>
       <c r="B224" s="44" t="s">
+        <v>336</v>
+      </c>
+      <c r="C224" s="51" t="s">
         <v>337</v>
-      </c>
-      <c r="C224" s="51" t="s">
-        <v>338</v>
       </c>
       <c r="D224" s="36"/>
       <c r="E224" s="36"/>
@@ -7423,10 +7438,10 @@
         <v>13</v>
       </c>
       <c r="B225" s="41" t="s">
+        <v>338</v>
+      </c>
+      <c r="C225" s="49" t="s">
         <v>339</v>
-      </c>
-      <c r="C225" s="49" t="s">
-        <v>340</v>
       </c>
       <c r="D225" s="36"/>
       <c r="E225" s="37"/>
@@ -7440,10 +7455,10 @@
         <v>14</v>
       </c>
       <c r="B226" s="53" t="s">
+        <v>340</v>
+      </c>
+      <c r="C226" s="54" t="s">
         <v>341</v>
-      </c>
-      <c r="C226" s="54" t="s">
-        <v>342</v>
       </c>
       <c r="D226" s="36"/>
       <c r="E226" s="36"/>
@@ -7454,6 +7469,35 @@
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="A1:I3"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="A56:F56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="A75:F75"/>
+    <mergeCell ref="G75:I75"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="G82:I82"/>
+    <mergeCell ref="A92:F92"/>
+    <mergeCell ref="G92:I92"/>
+    <mergeCell ref="A105:F105"/>
+    <mergeCell ref="G105:I105"/>
+    <mergeCell ref="A115:F115"/>
+    <mergeCell ref="G115:I115"/>
+    <mergeCell ref="A123:F123"/>
+    <mergeCell ref="G123:I123"/>
+    <mergeCell ref="A135:F135"/>
+    <mergeCell ref="G135:I135"/>
+    <mergeCell ref="A148:F148"/>
+    <mergeCell ref="G148:I148"/>
+    <mergeCell ref="A161:F161"/>
+    <mergeCell ref="G161:I161"/>
     <mergeCell ref="A198:F198"/>
     <mergeCell ref="G198:I198"/>
     <mergeCell ref="G207:H207"/>
@@ -7464,35 +7508,6 @@
     <mergeCell ref="G181:I181"/>
     <mergeCell ref="A191:F191"/>
     <mergeCell ref="G191:I191"/>
-    <mergeCell ref="A135:F135"/>
-    <mergeCell ref="G135:I135"/>
-    <mergeCell ref="A148:F148"/>
-    <mergeCell ref="G148:I148"/>
-    <mergeCell ref="A161:F161"/>
-    <mergeCell ref="G161:I161"/>
-    <mergeCell ref="A105:F105"/>
-    <mergeCell ref="G105:I105"/>
-    <mergeCell ref="A115:F115"/>
-    <mergeCell ref="G115:I115"/>
-    <mergeCell ref="A123:F123"/>
-    <mergeCell ref="G123:I123"/>
-    <mergeCell ref="A75:F75"/>
-    <mergeCell ref="G75:I75"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="G82:I82"/>
-    <mergeCell ref="A92:F92"/>
-    <mergeCell ref="G92:I92"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="A56:F56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="A1:I3"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="G24:I24"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
